--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITL-PC07\SharedExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20460" windowHeight="7695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20460" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
-    <sheet name="EDI" sheetId="2" r:id="rId2"/>
-    <sheet name="Gate" sheetId="3" r:id="rId3"/>
-    <sheet name="Vessel" sheetId="4" r:id="rId4"/>
-    <sheet name="Rail" sheetId="5" r:id="rId5"/>
-    <sheet name="Orders" sheetId="6" r:id="rId6"/>
-    <sheet name="Inventory" sheetId="7" r:id="rId7"/>
-    <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId8"/>
+    <sheet name="XPS" sheetId="9" r:id="rId2"/>
+    <sheet name="EDI" sheetId="2" r:id="rId3"/>
+    <sheet name="Gate" sheetId="3" r:id="rId4"/>
+    <sheet name="Vessel" sheetId="4" r:id="rId5"/>
+    <sheet name="Rail" sheetId="5" r:id="rId6"/>
+    <sheet name="Orders" sheetId="6" r:id="rId7"/>
+    <sheet name="Inventory" sheetId="7" r:id="rId8"/>
+    <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <customWorkbookViews>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="2"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="306">
   <si>
     <t>Flow Name</t>
   </si>
@@ -202,18 +213,759 @@
     <t>SparcsN4CommonRoutines</t>
   </si>
   <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>TPEDI</t>
+    <t>TruckID</t>
+  </si>
+  <si>
+    <t>TRCOM</t>
+  </si>
+  <si>
+    <t>TruckLicense</t>
+  </si>
+  <si>
+    <t>LicenseState</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>LicenseExpirationDate</t>
+  </si>
+  <si>
+    <t>BatNumber</t>
+  </si>
+  <si>
+    <t>BACOM</t>
+  </si>
+  <si>
+    <t>IsInternal</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TagID</t>
+  </si>
+  <si>
+    <t>TGCOM</t>
+  </si>
+  <si>
+    <t>LastTruckingCompany</t>
+  </si>
+  <si>
+    <t>LastTruckDriver</t>
+  </si>
+  <si>
+    <t>TruckStatus</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>+100</t>
+  </si>
+  <si>
+    <t>DriverName</t>
+  </si>
+  <si>
+    <t>DRCOM</t>
+  </si>
+  <si>
+    <t>DriverStatus</t>
+  </si>
+  <si>
+    <t>DriverSuspendedDate</t>
+  </si>
+  <si>
+    <t>DriverCardID</t>
+  </si>
+  <si>
+    <t>IDCOM</t>
+  </si>
+  <si>
+    <t>DriverCardExpirationDate</t>
+  </si>
+  <si>
+    <t>DriverLicenseState</t>
+  </si>
+  <si>
+    <t>CallupID</t>
+  </si>
+  <si>
+    <t>DriverBirthDate</t>
+  </si>
+  <si>
+    <t>DriverEmail</t>
+  </si>
+  <si>
+    <t>Driver@gmail.com</t>
+  </si>
+  <si>
+    <t>CreatePhase</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>IsHazardLicensed</t>
+  </si>
+  <si>
+    <t>HazardLicenseNumber</t>
+  </si>
+  <si>
+    <t>HZCOM</t>
+  </si>
+  <si>
+    <t>HazardLicenseExpirationDate</t>
+  </si>
+  <si>
+    <t>IsInternalDriver</t>
+  </si>
+  <si>
+    <t>TruckingCoAgreement</t>
+  </si>
+  <si>
+    <t>TruckingCompanyId</t>
+  </si>
+  <si>
+    <t>TruckingCompanyAgreementExpiration</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>DriverLicense</t>
+  </si>
+  <si>
+    <t>LICOM</t>
+  </si>
+  <si>
+    <t>TCASW</t>
+  </si>
+  <si>
+    <t>TruckingCompanyName</t>
+  </si>
+  <si>
+    <t>TruckingCoSCACCode</t>
+  </si>
+  <si>
+    <t>TruckingCoBICCode</t>
+  </si>
+  <si>
+    <t>IsOperator</t>
+  </si>
+  <si>
+    <t>TruckingCoCreditStatus</t>
+  </si>
+  <si>
+    <t>TruckingCoInsuranceExpirationDate</t>
+  </si>
+  <si>
+    <t>TruckingCoDefaultEDO</t>
+  </si>
+  <si>
+    <t>SCAC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>TruckingCoContactName</t>
+  </si>
+  <si>
+    <t>TruckingCoContactAddresss</t>
+  </si>
+  <si>
+    <t>TruckingCoContactAddresssLine1</t>
+  </si>
+  <si>
+    <t>TruckingCoContactCity</t>
+  </si>
+  <si>
+    <t>TruckingCoContactCountry</t>
+  </si>
+  <si>
+    <t>TruckingCoContactState</t>
+  </si>
+  <si>
+    <t>TruckingCoContactTelePhone</t>
+  </si>
+  <si>
+    <t>TruckingCoContactMailCode</t>
+  </si>
+  <si>
+    <t>TruckingCoContactSms</t>
+  </si>
+  <si>
+    <t>TruckingCoContactFax</t>
+  </si>
+  <si>
+    <t>TruckingCoContactURL</t>
+  </si>
+  <si>
+    <t>IsExamSiteCarrier</t>
+  </si>
+  <si>
+    <t>IsSeizedCargoCarrier</t>
+  </si>
+  <si>
+    <t>TruckingCoNotes</t>
+  </si>
+  <si>
+    <t>ExamAuthorisationExpiration</t>
+  </si>
+  <si>
+    <t>TruckingCoRefID</t>
+  </si>
+  <si>
+    <t>TruckingCoStatus</t>
+  </si>
+  <si>
+    <t>LineID</t>
+  </si>
+  <si>
+    <t>AliasesID</t>
+  </si>
+  <si>
+    <t>CreditExpirationDate</t>
+  </si>
+  <si>
+    <t>LineStatus</t>
+  </si>
+  <si>
+    <t>LineInsuranceExpiration</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>ERONumber</t>
+  </si>
+  <si>
+    <t>EROASW</t>
+  </si>
+  <si>
+    <t>EROLine</t>
+  </si>
+  <si>
+    <t>EROAgent</t>
+  </si>
+  <si>
+    <t>EROEarliestDate</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>EROLatestDate</t>
+  </si>
+  <si>
+    <t>EROFacility</t>
+  </si>
+  <si>
+    <t>ERONotes</t>
+  </si>
+  <si>
+    <t>EDONumber</t>
+  </si>
+  <si>
+    <t>EDOASW</t>
+  </si>
+  <si>
+    <t>EDOLine</t>
+  </si>
+  <si>
+    <t>EDOAgent</t>
+  </si>
+  <si>
+    <t>EDOTruckingCompany</t>
+  </si>
+  <si>
+    <t>EDOShipper</t>
+  </si>
+  <si>
+    <t>EDOEstimatedDate</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>EDOEarliestDate</t>
+  </si>
+  <si>
+    <t>EDOLatestDate</t>
+  </si>
+  <si>
+    <t>EDODispatchReserved</t>
+  </si>
+  <si>
+    <t>Dispatch reserved equipment ONLY</t>
+  </si>
+  <si>
+    <t>EDOOrderPurpose</t>
+  </si>
+  <si>
+    <t>EDOFacility</t>
+  </si>
+  <si>
+    <t>EDONextFacility</t>
+  </si>
+  <si>
+    <t>EDOIsPreventTypeSubstitution</t>
+  </si>
+  <si>
+    <t>EDOIsIgnoreDamages</t>
+  </si>
+  <si>
+    <t>EDONotes</t>
+  </si>
+  <si>
+    <t>EDOIsIgnoreHolds</t>
+  </si>
+  <si>
+    <t>EDOOwnedLeased</t>
+  </si>
+  <si>
+    <t>EDOOrderQuantity</t>
+  </si>
+  <si>
+    <t>EDOTallyLimit</t>
+  </si>
+  <si>
+    <t>EDOSequenceNumber</t>
+  </si>
+  <si>
+    <t>EDOSEquipmentType</t>
+  </si>
+  <si>
+    <t>EROOrderQuantity</t>
+  </si>
+  <si>
+    <t>EROEquipmentType</t>
+  </si>
+  <si>
+    <t>IDONumber</t>
+  </si>
+  <si>
+    <t>IDOASW</t>
+  </si>
+  <si>
+    <t>IDOLine</t>
+  </si>
+  <si>
+    <t>IDOVesselVisit</t>
+  </si>
+  <si>
+    <t>VVANA</t>
+  </si>
+  <si>
+    <t>IDOEquipmentNumber</t>
+  </si>
+  <si>
+    <t>SBSU12345610</t>
+  </si>
+  <si>
+    <t>EnterKey</t>
+  </si>
+  <si>
+    <t>EscapeKey</t>
+  </si>
+  <si>
+    <t>[Enter]</t>
+  </si>
+  <si>
+    <t>[Esc]</t>
+  </si>
+  <si>
+    <t>TabKey</t>
+  </si>
+  <si>
+    <t>[Tab]</t>
+  </si>
+  <si>
+    <t>CarrierMode</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>ICY_Commodity.xml</t>
+  </si>
+  <si>
+    <t>MailBoxName</t>
+  </si>
+  <si>
+    <t>MBEDI1</t>
+  </si>
+  <si>
+    <t>TPEDI1</t>
+  </si>
+  <si>
+    <t>EDIDirection</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>SenderQualifier</t>
+  </si>
+  <si>
+    <t>SenderID</t>
+  </si>
+  <si>
+    <t>ReceiveQualifier</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>C:\Projects\N4</t>
+  </si>
+  <si>
+    <t>CommunicationType</t>
+  </si>
+  <si>
+    <t>FTPAddress</t>
+  </si>
+  <si>
+    <t>FTPUserID</t>
+  </si>
+  <si>
+    <t>FTPPassword</t>
+  </si>
+  <si>
+    <t>ReenterFTPPassword</t>
+  </si>
+  <si>
+    <t>FTPFOlder</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>XpsOpenVessel</t>
+  </si>
+  <si>
+    <t>PlayScriptFileName</t>
+  </si>
+  <si>
+    <t>KeyInPlayScript</t>
+  </si>
+  <si>
+    <t>ValueInPlayScript</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>scr_ActivateQueue.txt</t>
+  </si>
+  <si>
+    <t>VESSELVISIT~GCRANETWIN</t>
+  </si>
+  <si>
+    <t>ACHI71~CR1</t>
+  </si>
+  <si>
+    <t>XPSUserName</t>
+  </si>
+  <si>
+    <t>XPSPassword</t>
+  </si>
+  <si>
+    <t>SessionName</t>
+  </si>
+  <si>
+    <t>SSEDI</t>
+  </si>
+  <si>
+    <t>Rail_Id</t>
+  </si>
+  <si>
+    <t>Rail_Name</t>
+  </si>
+  <si>
+    <t>Train_Direction</t>
+  </si>
+  <si>
+    <t>EstimatedTime_Arrival</t>
+  </si>
+  <si>
+    <t>EstimatedTime</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Credit_status</t>
+  </si>
+  <si>
+    <t>Scac_Code</t>
+  </si>
+  <si>
+    <t>Bic_Code</t>
+  </si>
+  <si>
+    <t>Gurantee_Limit</t>
+  </si>
+  <si>
+    <t>Train_Id</t>
+  </si>
+  <si>
+    <t>Contact_EmailAddress</t>
+  </si>
+  <si>
+    <t>Contact_Name</t>
+  </si>
+  <si>
+    <t>LifeCycle_Status</t>
+  </si>
+  <si>
+    <t>Contact_AddressLine2</t>
+  </si>
+  <si>
+    <t>Contact_AddressLine1</t>
+  </si>
+  <si>
+    <t>Contact_Country</t>
+  </si>
+  <si>
+    <t>Contact_AddressLine3</t>
+  </si>
+  <si>
+    <t>ContactMail_Code</t>
+  </si>
+  <si>
+    <t>Contact_State</t>
+  </si>
+  <si>
+    <t>Contact_Fax</t>
+  </si>
+  <si>
+    <t>Contact_City</t>
+  </si>
+  <si>
+    <t>Contact_WebSiteURL</t>
+  </si>
+  <si>
+    <t>n4RailRoadOperator</t>
+  </si>
+  <si>
+    <t>QWE</t>
+  </si>
+  <si>
+    <t>FZVE12</t>
+  </si>
+  <si>
+    <t>Cash or check only</t>
+  </si>
+  <si>
+    <t>n4CreateTrainVisit</t>
+  </si>
+  <si>
+    <t>FZEB1</t>
+  </si>
+  <si>
+    <t>Through Train</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>SWAG12</t>
+  </si>
+  <si>
+    <t>n4LineOperator</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Vessel_Identity</t>
+  </si>
+  <si>
+    <t>Vessel_Name</t>
+  </si>
+  <si>
+    <t>Vessel_Class</t>
+  </si>
+  <si>
+    <t>Stowage_Scheme</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Llyords_Identity</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>InBoundVoyage</t>
+  </si>
+  <si>
+    <t>OutBoundVoyage</t>
+  </si>
+  <si>
+    <t>Vessel_Service</t>
+  </si>
+  <si>
+    <t>Classifications</t>
+  </si>
+  <si>
+    <t>Visit_Phase</t>
+  </si>
+  <si>
+    <t>Est_Dateof_arrival</t>
+  </si>
+  <si>
+    <t>Est_Timeof_arrivalTime</t>
+  </si>
+  <si>
+    <t>Est_Dateof_Depart</t>
+  </si>
+  <si>
+    <t>Est_Timeof_DepartTime</t>
+  </si>
+  <si>
+    <t>Act_Dateof_Arrival</t>
+  </si>
+  <si>
+    <t>Act_Timeof_ArrivalTime</t>
+  </si>
+  <si>
+    <t>Date_StartWork</t>
+  </si>
+  <si>
+    <t>Time_StartWorkTime</t>
+  </si>
+  <si>
+    <t>Date_EndWork</t>
+  </si>
+  <si>
+    <t>Time_EndWork</t>
+  </si>
+  <si>
+    <t>Act_DateofDepart</t>
+  </si>
+  <si>
+    <t>Act_TimeofDepart</t>
+  </si>
+  <si>
+    <t>Vessel_Visit</t>
+  </si>
+  <si>
+    <t>n4Vesselcreate</t>
+  </si>
+  <si>
+    <t>VV005</t>
+  </si>
+  <si>
+    <t>VV001CLA</t>
+  </si>
+  <si>
+    <t>Standard ISO Convention</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>n4VesselVisit</t>
+  </si>
+  <si>
+    <t>VESANNA</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Deepsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>VES006</t>
+  </si>
+  <si>
+    <t>n4AdvanceVesselVisit</t>
+  </si>
+  <si>
+    <t>+9</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>BDLU8507</t>
+  </si>
+  <si>
+    <t>SessionTradingPartner</t>
+  </si>
+  <si>
+    <t>LineOperator</t>
+  </si>
+  <si>
+    <t>LineOperator_Name</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>MessageClass</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>ReleaseNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="\t\r\ue"/>
+    <numFmt numFmtId="166" formatCode="\+\1"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -244,17 +996,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,6 +1062,7218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" diskRevisions="1" revisionId="421" version="122">
+  <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8D7070DE-BE8D-4864-A8E6-4A0089D94AD9}" dateTime="2018-04-13T11:33:17" maxSheetId="9" userName="ITLAdmin" r:id="rId2" minRId="1">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4E13D880-8C4E-49BA-82E3-CA6A50715FEF}" dateTime="2018-04-13T11:47:11" maxSheetId="9" userName="itluser" r:id="rId3" minRId="2">
+    <sheetIdMap count="8">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7208F52C-887A-48FC-B709-7AE2B2F9146F}" dateTime="2018-04-13T11:47:28" maxSheetId="10" userName="itluser" r:id="rId4" minRId="3" maxRId="4">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B74A3880-92EA-4A13-93CF-EFE65C45D681}" dateTime="2018-04-13T11:47:31" maxSheetId="10" userName="itluser" r:id="rId5" minRId="5">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1A6ABE8E-3A3E-4A26-A003-4E2A34104BA8}" dateTime="2018-04-13T11:48:25" maxSheetId="10" userName="itluser" r:id="rId6" minRId="6">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{31990AA1-8D26-46D1-87D7-9461EC9F5108}" dateTime="2018-04-13T12:01:07" maxSheetId="10" userName="ITLAdmin" r:id="rId8" minRId="8" maxRId="9">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FCFE9DE9-4558-4F74-BF33-474B9F9CA35C}" dateTime="2018-04-13T12:03:05" maxSheetId="10" userName="ITLAdmin" r:id="rId9" minRId="10" maxRId="11">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{841DF11E-4547-4F32-B403-9FE9CFA623E1}" dateTime="2018-04-13T12:03:10" maxSheetId="10" userName="ITLAdmin" r:id="rId10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{214C8ED0-8077-4D88-902D-C2BCBA453B96}" dateTime="2018-04-13T12:06:56" maxSheetId="10" userName="ITLAdmin" r:id="rId11" minRId="12" maxRId="13">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D3A82A21-6132-4325-9996-AFD5ED4EF9A4}" dateTime="2018-04-13T12:07:42" maxSheetId="10" userName="ITLAdmin" r:id="rId12">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E5A9AC89-DFAB-4F4D-9A7C-73FA105B73F5}" dateTime="2018-04-13T12:18:08" maxSheetId="10" userName="ITLAdmin" r:id="rId13" minRId="14">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{061AD719-2DA9-49FD-BD52-266A6E42016F}" dateTime="2018-04-13T12:42:12" maxSheetId="10" userName="ITLAdmin" r:id="rId14" minRId="15" maxRId="16">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{715C2660-0C28-453B-9001-FF78BC25A061}" dateTime="2018-04-13T12:53:15" maxSheetId="10" userName="ITLAdmin" r:id="rId15" minRId="17">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F2C6D1AE-B910-4E75-91FF-0D951B66E856}" dateTime="2018-04-13T12:53:28" maxSheetId="10" userName="ITLAdmin" r:id="rId16" minRId="18">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7C069B8D-C0B3-4D75-8FBA-9BFEA1794A24}" dateTime="2018-04-13T12:55:51" maxSheetId="10" userName="ITLAdmin" r:id="rId17" minRId="19" maxRId="20">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E7EBFA73-E2F2-43B1-8E0A-4DBF7B4332F4}" dateTime="2018-04-13T13:03:17" maxSheetId="10" userName="ITLAdmin" r:id="rId18">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{65595A2A-D791-4318-BB80-FC5D17C43051}" dateTime="2018-04-13T13:04:04" maxSheetId="10" userName="ITLAdmin" r:id="rId19" minRId="21" maxRId="23">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A59B8E60-780D-4114-BECF-7BE31A709FAE}" dateTime="2018-04-13T13:06:19" maxSheetId="10" userName="ITLAdmin" r:id="rId20" minRId="24">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{07FCB4EE-2AD3-49EC-BDAD-E5237C02D3D5}" dateTime="2018-04-13T13:42:29" maxSheetId="10" userName="ITLAdmin" r:id="rId21" minRId="25" maxRId="26">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" dateTime="2018-04-13T13:46:55" maxSheetId="10" userName="ITLAdmin" r:id="rId22" minRId="27">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4D2A9F6C-7640-4055-837A-7D476E787F74}" dateTime="2018-04-16T10:55:39" maxSheetId="10" userName="ITLAdmin" r:id="rId23" minRId="28" maxRId="46">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF0A976B-5F65-4C5A-9767-9AC015C26202}" dateTime="2018-04-16T10:57:36" maxSheetId="10" userName="ITLAdmin" r:id="rId24" minRId="47">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9818619C-2A7A-49DC-BF3E-22981D52356C}" dateTime="2018-04-16T11:11:11" maxSheetId="10" userName="ITLAdmin" r:id="rId25" minRId="48">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DB8D933B-0DB2-4203-9F37-3A1226AACD83}" dateTime="2018-04-16T11:13:56" maxSheetId="10" userName="ITLAdmin" r:id="rId26" minRId="49">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BE34A876-E1C8-40F2-88D7-E49B0353CE67}" dateTime="2018-04-16T11:18:55" maxSheetId="10" userName="ITLAdmin" r:id="rId27" minRId="50">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FE040E7E-BC26-457F-9597-5C4B1A35062E}" dateTime="2018-04-16T11:21:03" maxSheetId="10" userName="ITLAdmin" r:id="rId28" minRId="51">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6E22B9A5-A9CE-4202-B46F-4B2319E1E15D}" dateTime="2018-04-16T11:22:38" maxSheetId="10" userName="ITLAdmin" r:id="rId29" minRId="52">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A38001F-C661-4524-8C32-DAA31708B4D4}" dateTime="2018-04-16T11:24:10" maxSheetId="10" userName="ITLAdmin" r:id="rId30" minRId="53">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8E404A5E-88AF-4EA1-A712-431AB87D24D3}" dateTime="2018-04-16T11:30:51" maxSheetId="10" userName="ITLAdmin" r:id="rId31" minRId="54">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C3C534DE-9657-4866-85CA-FE00BAE21134}" dateTime="2018-04-16T11:35:38" maxSheetId="10" userName="ITLAdmin" r:id="rId32" minRId="55">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7717EF4C-880F-4448-8385-557907720913}" dateTime="2018-04-16T11:50:16" maxSheetId="10" userName="ITLAdmin" r:id="rId33">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{63C44891-A303-4B47-A3A0-08A41F8ED238}" dateTime="2018-04-16T11:52:21" maxSheetId="10" userName="ITLAdmin" r:id="rId34" minRId="56">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C79D09CF-9677-460C-90DF-5F6ABBC25FB1}" dateTime="2018-04-16T12:40:28" maxSheetId="10" userName="ITLAdmin" r:id="rId35" minRId="57">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B69E8580-B7A3-4D41-BC2B-CD298DAC2EC3}" dateTime="2018-04-16T12:41:29" maxSheetId="10" userName="ITLAdmin" r:id="rId36" minRId="58">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{680276E5-F114-4CBD-BF24-AE9AA4321620}" dateTime="2018-04-16T12:43:06" maxSheetId="10" userName="ITLAdmin" r:id="rId37" minRId="59">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1F5C5600-AF6E-4FD1-A78D-EF110283D20E}" dateTime="2018-04-16T12:48:15" maxSheetId="10" userName="ITLAdmin" r:id="rId38" minRId="60">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44A93A7A-C0C9-4EF2-A409-FB97B8C0F951}" dateTime="2018-04-16T12:48:24" maxSheetId="10" userName="ITLAdmin" r:id="rId39" minRId="61">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC354362-8EDF-4D00-81A1-55BA30D3401C}" dateTime="2018-04-16T12:52:10" maxSheetId="10" userName="ITLAdmin" r:id="rId40" minRId="62">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{16C275FC-2526-4812-86B0-E55CBC2FFF86}" dateTime="2018-04-16T13:27:22" maxSheetId="10" userName="ITLAdmin" r:id="rId41" minRId="63" maxRId="64">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AAD022D3-B8CE-4B8E-9923-714BB1CDB5F7}" dateTime="2018-04-16T13:51:19" maxSheetId="10" userName="ITLAdmin" r:id="rId42" minRId="65" maxRId="66">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E59C35BF-20F9-4546-9B16-EE495FC486DC}" dateTime="2018-04-16T13:53:28" maxSheetId="10" userName="ITLAdmin" r:id="rId43" minRId="67">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CA5E4AFA-9F66-4C28-A81C-D10B44938B5E}" dateTime="2018-04-16T14:20:25" maxSheetId="10" userName="ITLAdmin" r:id="rId44" minRId="68">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4402D4F0-2AD4-423D-A84E-A63FA83A2F2C}" dateTime="2018-04-16T14:21:37" maxSheetId="10" userName="ITLAdmin" r:id="rId45" minRId="69" maxRId="70">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D1592A33-1610-43A8-BD57-35E3B1CC64AA}" dateTime="2018-04-16T14:24:10" maxSheetId="10" userName="ITLAdmin" r:id="rId46" minRId="71">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0637EE39-34DC-4FE7-8A04-FEF6BC135D3F}" dateTime="2018-04-16T15:47:27" maxSheetId="10" userName="ITLAdmin" r:id="rId47" minRId="72">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9EA00645-52FE-4A57-B5DD-CC8E3B0090F9}" dateTime="2018-04-17T09:36:09" maxSheetId="10" userName="ITLAdmin" r:id="rId48" minRId="73">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6C503A28-F35C-48FC-A947-A7C99332157E}" dateTime="2018-04-17T09:38:46" maxSheetId="10" userName="ITLAdmin" r:id="rId49" minRId="74" maxRId="75">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{88B5B679-B874-4D0A-97A8-EE536F12130E}" dateTime="2018-04-17T09:45:00" maxSheetId="10" userName="ITLAdmin" r:id="rId50" minRId="76" maxRId="77">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B75EBA9E-4DBC-4322-9EF2-676746C16887}" dateTime="2018-04-17T09:47:15" maxSheetId="10" userName="ITLAdmin" r:id="rId51" minRId="78" maxRId="80">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1080B81F-4FAD-489E-9DC4-B72B252B4BE0}" dateTime="2018-04-17T09:48:15" maxSheetId="10" userName="ITLAdmin" r:id="rId52" minRId="81">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD909A59-337A-4132-A2DE-E59402696D84}" dateTime="2018-04-17T09:53:26" maxSheetId="10" userName="ITLAdmin" r:id="rId53" minRId="82" maxRId="84">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{60CC0CF4-C86F-4747-B434-08FD02A0CBA6}" dateTime="2018-04-17T10:05:13" maxSheetId="10" userName="ITLAdmin" r:id="rId54" minRId="85" maxRId="86">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2D27B6F2-6748-45BF-ADDF-022D67230225}" dateTime="2018-04-17T10:09:34" maxSheetId="10" userName="ITLAdmin" r:id="rId55" minRId="87">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FEC906CC-46D0-4950-B80A-79A6931AAA52}" dateTime="2018-04-17T11:00:59" maxSheetId="10" userName="ITLAdmin" r:id="rId56" minRId="88" maxRId="89">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9319B632-BDF4-4EC3-B729-21D1A81527A6}" dateTime="2018-04-17T11:02:08" maxSheetId="10" userName="ITLAdmin" r:id="rId57" minRId="90">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E1AC87DB-4083-4ACC-9D1C-36C8AE05F4CB}" dateTime="2018-04-17T11:12:13" maxSheetId="10" userName="ITLAdmin" r:id="rId58" minRId="91" maxRId="92">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A26C5FB9-DD80-454D-9D30-81BAF2237670}" dateTime="2018-04-17T11:17:59" maxSheetId="10" userName="ITLAdmin" r:id="rId59" minRId="93" maxRId="97">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{77FD7618-6F03-4BAC-A197-391FA25662DE}" dateTime="2018-04-17T11:21:25" maxSheetId="10" userName="ITLAdmin" r:id="rId60" minRId="98" maxRId="99">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2EE95A1D-8522-4A34-9402-0500E28FF7EC}" dateTime="2018-04-17T11:25:08" maxSheetId="10" userName="ITLAdmin" r:id="rId61" minRId="100" maxRId="101">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F22E51A0-4809-4E92-BBAB-8A640989224E}" dateTime="2018-04-17T11:28:11" maxSheetId="10" userName="ITLAdmin" r:id="rId62" minRId="102" maxRId="103">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{004BA615-802B-44C8-AFC5-43ADB8EFCD03}" dateTime="2018-04-17T11:29:52" maxSheetId="10" userName="ITLAdmin" r:id="rId63" minRId="104" maxRId="105">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C6F08D6-E554-410E-A50E-725533688A6B}" dateTime="2018-04-17T11:36:55" maxSheetId="10" userName="ITLAdmin" r:id="rId64" minRId="106" maxRId="107">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5BA0DD2D-4F2D-456E-B5BE-BF0DE844A183}" dateTime="2018-04-17T11:38:31" maxSheetId="10" userName="ITLAdmin" r:id="rId65" minRId="108">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3C3AF341-01E1-4F31-ABAC-C5AB87316EB0}" dateTime="2018-04-17T11:38:52" maxSheetId="10" userName="ITLAdmin" r:id="rId66" minRId="109">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E760BAF-DC09-40CC-A1D7-1734E37DBE0A}" dateTime="2018-04-17T11:50:26" maxSheetId="10" userName="ITLAdmin" r:id="rId67" minRId="110" maxRId="111">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CD81DF2C-11E7-45D4-A64E-0EC15A0DD23D}" dateTime="2018-04-17T11:50:58" maxSheetId="10" userName="ITLAdmin" r:id="rId68" minRId="112" maxRId="113">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7429E194-A04B-48FB-9C53-F9E095BB467E}" dateTime="2018-04-17T11:55:21" maxSheetId="10" userName="ITLAdmin" r:id="rId69" minRId="114" maxRId="115">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35466B3A-733B-4EC9-8600-AC8951202049}" dateTime="2018-04-17T11:59:20" maxSheetId="10" userName="ITLAdmin" r:id="rId70" minRId="116" maxRId="117">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{13F060F0-215C-490E-A45E-A94D9E938A7A}" dateTime="2018-04-17T12:00:51" maxSheetId="10" userName="ITLAdmin" r:id="rId71" minRId="118" maxRId="119">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FBC69443-0F20-43FC-85FA-CBA6D9C68640}" dateTime="2018-04-17T16:08:17" maxSheetId="10" userName="ITLAdmin" r:id="rId72" minRId="120" maxRId="121">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EFD4AA85-85C0-415E-B9DA-222088487C15}" dateTime="2018-04-17T16:52:28" maxSheetId="10" userName="ITLAdmin" r:id="rId73" minRId="122" maxRId="124">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC4183D2-A66D-4E86-8338-9D082261BCFD}" dateTime="2018-04-17T16:55:06" maxSheetId="10" userName="ITLAdmin" r:id="rId74" minRId="125" maxRId="126">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A7B3FB5-6E7E-4D25-B1D5-2229C8C63873}" dateTime="2018-04-17T17:19:17" maxSheetId="10" userName="ITLAdmin" r:id="rId75">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA500CA0-E818-40F4-BCD9-84C4579462E7}" dateTime="2018-04-18T10:52:16" maxSheetId="10" userName="ITLAdmin" r:id="rId76" minRId="127" maxRId="128">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C49302B-DB78-4920-A547-52F23481067A}" dateTime="2018-04-18T10:53:01" maxSheetId="10" userName="ITLAdmin" r:id="rId77" minRId="129" maxRId="130">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{337997E4-3FE3-469D-9EF9-D33C59643BB1}" dateTime="2018-04-18T11:34:10" maxSheetId="10" userName="ITLAdmin" r:id="rId78" minRId="131" maxRId="132">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0788A724-DF9B-4AE4-BD1F-13FC7EB04597}" dateTime="2018-04-18T11:35:34" maxSheetId="10" userName="ITLAdmin" r:id="rId79" minRId="133" maxRId="134">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C4B23CE-74F9-4349-9282-7A9016D0E50D}" dateTime="2018-04-18T11:53:59" maxSheetId="10" userName="ITLAdmin" r:id="rId80" minRId="135" maxRId="136">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C477FE5A-5866-4E49-99C5-0264CDF55497}" dateTime="2018-04-18T13:02:22" maxSheetId="10" userName="ITLAdmin" r:id="rId81" minRId="137" maxRId="138">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB0905A6-94B6-45F5-9590-9E076C8F62F8}" dateTime="2018-04-18T18:12:55" maxSheetId="10" userName="ITLAdmin" r:id="rId82" minRId="139">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{16D90212-9328-4708-905D-02095F68F6E3}" dateTime="2018-04-19T11:09:58" maxSheetId="11" userName="ITLAdmin" r:id="rId83" minRId="140" maxRId="148">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F906DB56-DDE5-45EC-9792-FECC470666F0}" dateTime="2018-04-19T11:21:04" maxSheetId="11" userName="ITLAdmin" r:id="rId84" minRId="149" maxRId="151">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7434AB1E-7298-4120-93F2-E863201C51DC}" dateTime="2018-04-19T12:02:09" maxSheetId="11" userName="ITLAdmin" r:id="rId85" minRId="152" maxRId="154">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9CFD24D5-9283-4AE1-8114-D541B608A07B}" dateTime="2018-04-25T16:24:02" maxSheetId="11" userName="ITLAdmin" r:id="rId86" minRId="155" maxRId="156">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EDF12ED2-572B-4D59-9079-04938462E951}" dateTime="2018-04-25T16:24:30" maxSheetId="11" userName="ITLAdmin" r:id="rId87" minRId="157">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{993DF797-8BBA-495A-B063-3AD2FF3AE33E}" dateTime="2018-04-25T16:24:33" maxSheetId="11" userName="ITLAdmin" r:id="rId88">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8F48806E-8269-498E-BF71-26BDBF067272}" dateTime="2018-04-25T16:53:01" maxSheetId="11" userName="ITLAdmin" r:id="rId89" minRId="158" maxRId="160">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4BCF2484-4DD0-468B-A133-24F1C8328CA7}" dateTime="2018-04-25T17:13:07" maxSheetId="11" userName="ITLAdmin" r:id="rId90" minRId="161" maxRId="162">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3339782D-CDE6-432B-98B3-E82FCBEA7E7D}" dateTime="2018-04-25T17:26:33" maxSheetId="11" userName="ITLAdmin" r:id="rId91" minRId="163">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9A9F3BB3-A8A3-42FB-9408-D68BFC40E70D}" dateTime="2018-04-25T17:28:57" maxSheetId="11" userName="ITLAdmin" r:id="rId92" minRId="164">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A319BA2-E58D-4BAD-B7DF-AC6115203D81}" dateTime="2018-04-25T17:35:06" maxSheetId="11" userName="ITLAdmin" r:id="rId93" minRId="165">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01233EE6-AA21-4660-B699-502ADEF21D28}" dateTime="2018-04-25T17:35:09" maxSheetId="11" userName="ITLAdmin" r:id="rId94">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F844975E-15D4-4B82-BBB0-87058C3BD099}" dateTime="2018-04-25T17:40:39" maxSheetId="11" userName="ITLAdmin" r:id="rId95" minRId="166" maxRId="167">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7C588030-097D-4FA4-9613-0B048935272B}" dateTime="2018-04-25T17:44:43" maxSheetId="11" userName="ITLAdmin" r:id="rId96" minRId="168">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{133E13D0-CC95-4CE1-B277-FBC0EF2CF5BA}" dateTime="2018-04-25T17:47:18" maxSheetId="11" userName="ITLAdmin" r:id="rId97" minRId="169">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{08DEB108-76E7-40B8-BCA1-17E7BFBFDA2C}" dateTime="2018-04-25T17:49:03" maxSheetId="11" userName="ITLAdmin" r:id="rId98" minRId="170">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2B98CD54-3EE7-47ED-881C-9DD9B899FE71}" dateTime="2018-04-25T17:53:21" maxSheetId="11" userName="ITLAdmin" r:id="rId99" minRId="171" maxRId="172">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB9AD5EE-2BF2-460C-AB8F-989561FF6DAA}" dateTime="2018-04-25T17:54:21" maxSheetId="11" userName="ITLAdmin" r:id="rId100" minRId="173" maxRId="174">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4116971-5F29-46E8-8BC1-8C3CE5AB6071}" dateTime="2018-04-25T17:54:49" maxSheetId="11" userName="ITLAdmin" r:id="rId101" minRId="175">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" dateTime="2018-04-25T17:55:31" maxSheetId="11" userName="ITLAdmin" r:id="rId102" minRId="176">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7551010F-8CED-4050-AC03-A21BF4DF12C1}" dateTime="2018-04-26T11:31:44" maxSheetId="11" userName="ITLAdmin" r:id="rId103" minRId="177" maxRId="178">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8C8CDF79-4894-432E-A1C7-3F4C8632875F}" dateTime="2018-04-26T11:31:57" maxSheetId="11" userName="ITLAdmin" r:id="rId104" minRId="179" maxRId="180">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{69B169BE-1EFF-49D7-A497-C5314D632CA3}" dateTime="2018-04-26T11:51:28" maxSheetId="11" userName="itluser" r:id="rId105" minRId="181" maxRId="182">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D9894E7-8945-4BA2-8995-2F888B2C0B30}" dateTime="2018-04-26T11:52:28" maxSheetId="11" userName="itluser" r:id="rId106" minRId="183">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{87E7042F-0D96-4DE6-9CD3-941391E64454}" dateTime="2018-04-26T12:09:41" maxSheetId="11" userName="itluser" r:id="rId107" minRId="184">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2CF50624-17F4-4ECB-83E5-2BE5ACD5BA6B}" dateTime="2018-04-26T12:10:39" maxSheetId="11" userName="itluser" r:id="rId108" minRId="185" maxRId="193">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8B79E960-07A0-498A-A6F6-0116EA689190}" dateTime="2018-04-26T12:16:08" maxSheetId="11" userName="ITLAdmin" r:id="rId109" minRId="194">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F710967-7C4F-4581-8A1F-371F90B095A4}" dateTime="2018-04-26T12:24:46" maxSheetId="11" userName="ITLAdmin" r:id="rId110" minRId="195" maxRId="196">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{981175DB-55A4-4266-8959-7B57AB8C8499}" dateTime="2018-04-26T12:28:45" maxSheetId="11" userName="itluser" r:id="rId111" minRId="197" maxRId="198">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3F6A0607-DFBB-483E-B50A-CDCCF86D2A34}" dateTime="2018-04-26T12:31:49" maxSheetId="11" userName="itluser" r:id="rId112" minRId="199" maxRId="239">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{60D90324-DE63-4B7B-A9C3-81B3E1C36175}" dateTime="2018-04-26T12:33:01" maxSheetId="11" userName="itluser" r:id="rId113" minRId="240" maxRId="335">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E4DAD6E5-3C4F-4ABE-80D0-15A14FDD7E26}" dateTime="2018-04-26T12:34:05" maxSheetId="11" userName="ITLAdmin" r:id="rId114" minRId="336" maxRId="337">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AD8EC07B-F4D1-40D5-8691-A8F6AEB7AFF8}" dateTime="2018-04-26T12:37:44" maxSheetId="11" userName="itluser" r:id="rId115" minRId="338" maxRId="344">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5FE76B79-C8DA-4EE8-B561-F8BA73B81643}" dateTime="2018-04-26T12:38:40" maxSheetId="11" userName="ITLAdmin" r:id="rId116" minRId="345">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{59BE8AE0-397A-48FE-AC14-5148577CAA76}" dateTime="2018-04-26T12:40:36" maxSheetId="11" userName="itluser" r:id="rId117" minRId="346" maxRId="354">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{46FB2F40-61D1-44A5-B882-D39B31039D75}" dateTime="2018-04-26T12:41:13" maxSheetId="11" userName="itluser" r:id="rId118" minRId="355">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{888E5969-D73E-4BFE-B05A-877EE9F816F4}" dateTime="2018-04-26T13:00:17" maxSheetId="11" userName="itluser" r:id="rId119" minRId="356" maxRId="382">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{643B5170-02EC-4179-A42E-444C0001D79C}" dateTime="2018-04-26T13:02:26" maxSheetId="11" userName="itluser" r:id="rId120" minRId="383" maxRId="417">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7439581C-EB33-45D1-A6D8-D1C9DF3C0CC5}" dateTime="2018-04-26T13:07:26" maxSheetId="11" userName="ITLAdmin" r:id="rId121" minRId="418" maxRId="420">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" dateTime="2018-04-26T13:09:39" maxSheetId="11" userName="ITLAdmin" r:id="rId122" minRId="421">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog100.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="173" sId="2" xfDxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>FTPFOlder</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="2" xfDxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Binary</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog101.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="175" sId="2">
+    <nc r="P2" t="b">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog102.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="P1:P1048576">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="176" sId="2">
+    <oc r="P2" t="b">
+      <v>1</v>
+    </oc>
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>true</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog103.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="177" sId="2" xfDxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>EmailAddress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="2">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>NONE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog104.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="179" sId="2">
+    <oc r="Q2" t="inlineStr">
+      <is>
+        <t>NONE</t>
+      </is>
+    </oc>
+    <nc r="Q2"/>
+  </rcc>
+  <rcc rId="180" sId="2">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>NONE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog105.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="181" sId="9" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>Test</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>User Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="9" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Password</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog106.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="183" sheetId="9" oldName="[TestData_Shared.xlsx]XPSLogin" newName="[TestData_Shared.xlsx]XPS"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog107.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="184" sId="1" xfDxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>XpsOpenVessel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog108.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="9" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rfmt sheetId="9" xfDxf="1" sqref="B1" start="0" length="0"/>
+  <rfmt sheetId="9" xfDxf="1" sqref="C1" start="0" length="0"/>
+  <rcc rId="185" sId="9" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>PlayScriptFileName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="9" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>KeyInPlayScript</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="9" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>ValueInPlayScript</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="9" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>XpsOpenVessel</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="189" sId="9" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="9" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>please</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="9" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>scr_ActivateQueue.txt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="192" sId="9" xfDxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>VESSELVISIT~GCRANETWIN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="9" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>ACHI71~CR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog109.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="194" sId="3" ref="AA1:AA1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="AA1:AA1048576" start="0" length="0"/>
+    <rcc rId="0" sId="3">
+      <nc r="AA1" t="inlineStr">
+        <is>
+          <t>TruckingCoAgreement</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="3">
+      <nc r="AA2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="12" sId="3" xfDxf="1" dxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>HazardLicenseExpirationDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="W2">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="\+\1"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="13" sId="3" numFmtId="4">
+    <nc r="W2">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="195" sId="2">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>SessionName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="196" sId="2">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>SSEDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="197" sId="9" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>User Name</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>XPSUserName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="198" sId="9" xfDxf="1" dxf="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Password</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>XPSPassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="5" xfDxf="1" sqref="A2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rcc rId="199" sId="5" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Rail_Id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="200" sId="5" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Rail_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="5" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Train_Direction</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="202" sId="5" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>EstimatedTime_Arrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="5" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>EstimatedTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="5" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Service</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="5" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Credit_status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="5" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Scac_Code</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="5" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Bic_Code</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="5" xfDxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Gurantee_Limit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="5" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Train_Id</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="5" xfDxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>Contact_EmailAddress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="5" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Contact_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="5" xfDxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>LifeCycle_Status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="5" xfDxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Contact_AddressLine2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="214" sId="5" xfDxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>Contact_AddressLine1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="5" xfDxf="1" dxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>Contact_Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="216" sId="5" xfDxf="1" dxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>Contact_AddressLine3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="5" xfDxf="1" dxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>ContactMail_Code</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="218" sId="5" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Contact_State</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="219" sId="5" xfDxf="1" dxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Contact_Fax</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="220" sId="5" xfDxf="1" dxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Contact_City</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="221" sId="5" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>Contact_WebSiteURL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="222" sId="5" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>n4RailRoadOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="223" sId="5" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>QWE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="5" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>FZVE12</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="D2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G2" start="0" length="0"/>
+  <rcc rId="225" sId="5" xfDxf="1" dxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Cash or check only</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="226" sId="5" xfDxf="1" dxf="1">
+    <nc r="I2">
+      <v>155</v>
+    </nc>
+  </rcc>
+  <rcc rId="227" sId="5" xfDxf="1" dxf="1">
+    <nc r="J2">
+      <v>155</v>
+    </nc>
+  </rcc>
+  <rcc rId="228" sId="5" xfDxf="1" dxf="1">
+    <nc r="K2">
+      <v>250000</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="L2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="Q2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="R2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="S2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="T2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="U2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="V2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="W2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="X2" start="0" length="0"/>
+  <rcc rId="229" sId="5" xfDxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>n4CreateTrainVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="230" sId="5" xfDxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>FZEB1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="5" xfDxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>QWE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="5" xfDxf="1" dxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Through Train</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="5" xfDxf="1" dxf="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>+6</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="234" sId="5" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>12:30</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="235" sId="5" xfDxf="1" dxf="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>DEFAULT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="H3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="I3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="J3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="K3" start="0" length="0"/>
+  <rcc rId="236" sId="5" xfDxf="1" dxf="1">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <t>SWAG12</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="M3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="Q3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="R3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="S3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="T3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="U3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="V3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="W3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="X3" start="0" length="0"/>
+  <rcc rId="237" sId="5" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>n4LineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="D4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="H4" start="0" length="0"/>
+  <rcc rId="238" sId="5" xfDxf="1" dxf="1">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>APD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="5" xfDxf="1" dxf="1">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>SAP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="K4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="L4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="Q4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="R4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="S4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="T4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="U4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="V4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="W4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="X4" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="240" sId="4" xfDxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="4" xfDxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>PointID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="4" xfDxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>UNLocationCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="4" xfDxf="1" dxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>ActualPortOfDischarge</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="4" xfDxf="1" dxf="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Dcode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="4" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>Kcode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="4" xfDxf="1" dxf="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>SPLCCodeValue</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="4" xfDxf="1" dxf="1">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>TerminalValue</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="4" xfDxf="1" dxf="1">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>PlaceHolderValue</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="4" xfDxf="1" dxf="1">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>Port1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="4" xfDxf="1" dxf="1">
+    <nc r="K3" t="inlineStr">
+      <is>
+        <t>Port2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="4" xfDxf="1" dxf="1">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <t>Port3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="4" xfDxf="1" dxf="1">
+    <nc r="M3" t="inlineStr">
+      <is>
+        <t>Port4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="4" xfDxf="1" dxf="1">
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>Port5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="4" xfDxf="1" dxf="1">
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>ServiceID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="4" xfDxf="1" dxf="1">
+    <nc r="P3" t="inlineStr">
+      <is>
+        <t>ServiceName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="4" xfDxf="1" dxf="1">
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>CreatePhase</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="4" xfDxf="1" dxf="1">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>Vessel_Identity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="4" xfDxf="1" dxf="1">
+    <nc r="S3" t="inlineStr">
+      <is>
+        <t>Vessel_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="4" xfDxf="1" dxf="1">
+    <nc r="T3" t="inlineStr">
+      <is>
+        <t>Vessel_Class</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="4" xfDxf="1" dxf="1">
+    <nc r="U3" t="inlineStr">
+      <is>
+        <t>Stowage_Scheme</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="4" xfDxf="1" dxf="1">
+    <nc r="V3" t="inlineStr">
+      <is>
+        <t>Measurements</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="4" xfDxf="1" dxf="1">
+    <nc r="W3" t="inlineStr">
+      <is>
+        <t>Llyords_Identity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="4" xfDxf="1" dxf="1">
+    <nc r="X3" t="inlineStr">
+      <is>
+        <t>Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="4" xfDxf="1" dxf="1">
+    <nc r="Y3" t="inlineStr">
+      <is>
+        <t>Temperature</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="4" xfDxf="1" dxf="1">
+    <nc r="Z3" t="inlineStr">
+      <is>
+        <t>InBoundVoyage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="4" xfDxf="1" dxf="1">
+    <nc r="AA3" t="inlineStr">
+      <is>
+        <t>OutBoundVoyage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="4" xfDxf="1" dxf="1">
+    <nc r="AB3" t="inlineStr">
+      <is>
+        <t>Vessel_Service</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="4" xfDxf="1" dxf="1">
+    <nc r="AC3" t="inlineStr">
+      <is>
+        <t>Classifications</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="4" xfDxf="1" dxf="1">
+    <nc r="AD3" t="inlineStr">
+      <is>
+        <t>Visit_Phase</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="4" xfDxf="1" dxf="1">
+    <nc r="AE3" t="inlineStr">
+      <is>
+        <t>Est_Dateof_arrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="271" sId="4" xfDxf="1" dxf="1">
+    <nc r="AF3" t="inlineStr">
+      <is>
+        <t>Est_Timeof_arrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="272" sId="4" xfDxf="1" dxf="1">
+    <nc r="AG3" t="inlineStr">
+      <is>
+        <t>Est_Dateof_Depart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="273" sId="4" xfDxf="1" dxf="1">
+    <nc r="AH3" t="inlineStr">
+      <is>
+        <t>Est_Timeof_DepartTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="274" sId="4" xfDxf="1" dxf="1">
+    <nc r="AI3" t="inlineStr">
+      <is>
+        <t>Act_Dateof_Arrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="4" xfDxf="1" dxf="1">
+    <nc r="AJ3" t="inlineStr">
+      <is>
+        <t>Act_Timeof_ArrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="4" xfDxf="1" dxf="1">
+    <nc r="AK3" t="inlineStr">
+      <is>
+        <t>Date_StartWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="4" xfDxf="1" dxf="1">
+    <nc r="AL3" t="inlineStr">
+      <is>
+        <t>Time_StartWorkTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="4" xfDxf="1" dxf="1">
+    <nc r="AM3" t="inlineStr">
+      <is>
+        <t>Date_EndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="4" xfDxf="1" dxf="1">
+    <nc r="AN3" t="inlineStr">
+      <is>
+        <t>Time_EndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="280" sId="4" xfDxf="1" dxf="1">
+    <nc r="AO3" t="inlineStr">
+      <is>
+        <t>Act_DateofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="281" sId="4" xfDxf="1" dxf="1">
+    <nc r="AP3" t="inlineStr">
+      <is>
+        <t>Act_TimeofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="282" sId="4" xfDxf="1" dxf="1">
+    <nc r="AQ3" t="inlineStr">
+      <is>
+        <t>Vessel_Visit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="283" sId="4" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>SparcsN4CommonRoutines</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="4" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>HHC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="4" xfDxf="1" dxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>NZLYT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="4" xfDxf="1" dxf="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>KHH</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="287" sId="4" xfDxf="1" dxf="1" numFmtId="4">
+    <nc r="E4">
+      <v>231</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="164" formatCode="000"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="288" sId="4" xfDxf="1" dxf="1">
+    <nc r="F4">
+      <v>232</v>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="4" xfDxf="1" dxf="1">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>LYT</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="290" sId="4" xfDxf="1" dxf="1">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>LYT</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="291" sId="4" xfDxf="1" dxf="1">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>true</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="292" sId="4" xfDxf="1" dxf="1">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>HKG</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="293" sId="4" xfDxf="1" dxf="1">
+    <nc r="K4" t="inlineStr">
+      <is>
+        <t>LYT</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="294" sId="4" xfDxf="1" dxf="1">
+    <nc r="L4" t="inlineStr">
+      <is>
+        <t>IND</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="295" sId="4" xfDxf="1" dxf="1">
+    <nc r="M4" t="inlineStr">
+      <is>
+        <t>SIN</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="296" sId="4" xfDxf="1" dxf="1">
+    <nc r="N4" t="inlineStr">
+      <is>
+        <t>TPE</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="297" sId="4" xfDxf="1" dxf="1">
+    <nc r="O4" t="inlineStr">
+      <is>
+        <t>IDASW</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="298" sId="4" xfDxf="1" dxf="1">
+    <nc r="P4" t="inlineStr">
+      <is>
+        <t>CSASW</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="299" sId="4" xfDxf="1" dxf="1">
+    <nc r="Q4" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="R4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ4" start="0" length="0"/>
+  <rcc rId="300" sId="4" xfDxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>n4Vesselcreate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q5" start="0" length="0"/>
+  <rcc rId="301" sId="4" xfDxf="1" dxf="1">
+    <nc r="R5" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="302" sId="4" xfDxf="1" dxf="1">
+    <nc r="S5" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="4" xfDxf="1" dxf="1">
+    <nc r="T5" t="inlineStr">
+      <is>
+        <t>VV001CLA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="4" xfDxf="1" dxf="1">
+    <nc r="U5" t="inlineStr">
+      <is>
+        <t>Standard ISO Convention</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="305" sId="4" xfDxf="1" dxf="1">
+    <nc r="V5" t="inlineStr">
+      <is>
+        <t>Metric</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="306" sId="4" xfDxf="1" dxf="1">
+    <nc r="W5">
+      <v>10012</v>
+    </nc>
+  </rcc>
+  <rcc rId="307" sId="4" xfDxf="1" dxf="1">
+    <nc r="X5" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="308" sId="4" xfDxf="1" dxf="1">
+    <nc r="Y5" t="inlineStr">
+      <is>
+        <t>Celsius</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ5" start="0" length="0"/>
+  <rcc rId="309" sId="4" xfDxf="1" dxf="1">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>n4VesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="B6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R6" start="0" length="0"/>
+  <rcc rId="310" sId="4" xfDxf="1" dxf="1">
+    <nc r="S6" t="inlineStr">
+      <is>
+        <t>VESANNA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="T6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y6" start="0" length="0"/>
+  <rcc rId="311" sId="4" xfDxf="1" dxf="1">
+    <nc r="Z6">
+      <v>55</v>
+    </nc>
+  </rcc>
+  <rcc rId="312" sId="4" xfDxf="1" dxf="1">
+    <nc r="AA6">
+      <v>55</v>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="4" xfDxf="1" dxf="1">
+    <nc r="AB6" t="inlineStr">
+      <is>
+        <t>AMP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="314" sId="4" xfDxf="1" dxf="1">
+    <nc r="AC6" t="inlineStr">
+      <is>
+        <t>Deepsea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="4" xfDxf="1" dxf="1">
+    <nc r="AD6" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP6" start="0" length="0"/>
+  <rcc rId="316" sId="4" xfDxf="1" dxf="1">
+    <nc r="AQ6" t="inlineStr">
+      <is>
+        <t>VES006</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="4" xfDxf="1" dxf="1">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>n4AdvanceVesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="B7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC7" start="0" length="0"/>
+  <rcc rId="318" sId="4" xfDxf="1" dxf="1">
+    <nc r="AD7" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="4" xfDxf="1" dxf="1">
+    <nc r="AE7" t="inlineStr">
+      <is>
+        <t>+6</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="320" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AF7">
+      <v>0.54166666666666663</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="321" sId="4" xfDxf="1" dxf="1">
+    <nc r="AG7" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="322" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AH7">
+      <v>0.58680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="323" sId="4" xfDxf="1" dxf="1">
+    <nc r="AI7" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="324" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AJ7">
+      <v>0.33680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="325" sId="4" xfDxf="1" dxf="1">
+    <nc r="AK7" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="326" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AL7">
+      <v>0.70486111111111116</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="327" sId="4" xfDxf="1" dxf="1">
+    <nc r="AM7" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="328" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AN7">
+      <v>0.2951388888888889</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="329" sId="4" xfDxf="1" dxf="1">
+    <nc r="AO7" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="330" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AP7">
+      <v>0.67083333333333339</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="331" sId="4" xfDxf="1" dxf="1">
+    <nc r="AQ7" t="inlineStr">
+      <is>
+        <t>BDLU8507</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="A8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ8" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ9" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ10" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ11" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ12" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ13" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ14" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ15" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ16" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ17" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ18" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ19" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ20" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ21" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ22" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ23" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN24" start="0" length="0"/>
+  <rcc rId="332" sId="4" xfDxf="1" dxf="1">
+    <nc r="AO24" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ24" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ25" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ26" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="A27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="B27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="C27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="D27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="E27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="F27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="G27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="H27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="I27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="J27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="K27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="L27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="M27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="N27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="O27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="P27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Q27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="R27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="S27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM27" start="0" length="0"/>
+  <rcc rId="333" sId="4" xfDxf="1" dxf="1">
+    <nc r="AN27" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP27" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ27" start="0" length="0"/>
+  <rrc rId="334" sId="4" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="4" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rcc rId="0" sId="4">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>Flow Name</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>PointID</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>UNLocationCode</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>ActualPortOfDischarge</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>Dcode</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>Kcode</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="G3" t="inlineStr">
+        <is>
+          <t>SPLCCodeValue</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="H3" t="inlineStr">
+        <is>
+          <t>TerminalValue</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="I3" t="inlineStr">
+        <is>
+          <t>PlaceHolderValue</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="J3" t="inlineStr">
+        <is>
+          <t>Port1</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="K3" t="inlineStr">
+        <is>
+          <t>Port2</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="L3" t="inlineStr">
+        <is>
+          <t>Port3</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="M3" t="inlineStr">
+        <is>
+          <t>Port4</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="N3" t="inlineStr">
+        <is>
+          <t>Port5</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>ServiceID</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="P3" t="inlineStr">
+        <is>
+          <t>ServiceName</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="Q3" t="inlineStr">
+        <is>
+          <t>CreatePhase</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="R3" t="inlineStr">
+        <is>
+          <t>Vessel_Identity</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="S3" t="inlineStr">
+        <is>
+          <t>Vessel_Name</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="T3" t="inlineStr">
+        <is>
+          <t>Vessel_Class</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="U3" t="inlineStr">
+        <is>
+          <t>Stowage_Scheme</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="V3" t="inlineStr">
+        <is>
+          <t>Measurements</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="W3" t="inlineStr">
+        <is>
+          <t>Llyords_Identity</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="X3" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="Y3" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="Z3" t="inlineStr">
+        <is>
+          <t>InBoundVoyage</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AA3" t="inlineStr">
+        <is>
+          <t>OutBoundVoyage</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AB3" t="inlineStr">
+        <is>
+          <t>Vessel_Service</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AC3" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AD3" t="inlineStr">
+        <is>
+          <t>Visit_Phase</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AE3" t="inlineStr">
+        <is>
+          <t>Est_Dateof_arrival</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AF3" t="inlineStr">
+        <is>
+          <t>Est_Timeof_arrivalTime</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AG3" t="inlineStr">
+        <is>
+          <t>Est_Dateof_Depart</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AH3" t="inlineStr">
+        <is>
+          <t>Est_Timeof_DepartTime</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AI3" t="inlineStr">
+        <is>
+          <t>Act_Dateof_Arrival</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AJ3" t="inlineStr">
+        <is>
+          <t>Act_Timeof_ArrivalTime</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AK3" t="inlineStr">
+        <is>
+          <t>Date_StartWork</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AL3" t="inlineStr">
+        <is>
+          <t>Time_StartWorkTime</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AM3" t="inlineStr">
+        <is>
+          <t>Date_EndWork</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AN3" t="inlineStr">
+        <is>
+          <t>Time_EndWork</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AO3" t="inlineStr">
+        <is>
+          <t>Act_DateofDepart</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AP3" t="inlineStr">
+        <is>
+          <t>Act_TimeofDepart</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="AQ3" t="inlineStr">
+        <is>
+          <t>Vessel_Visit</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="335" sId="4" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="4" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rcc rId="0" sId="4">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>SparcsN4CommonRoutines</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>HHC</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>NZLYT</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>KHH</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1" numFmtId="4">
+      <nc r="E3">
+        <v>231</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="164" formatCode="000"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="F3">
+        <v>232</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="G3" t="inlineStr">
+        <is>
+          <t>LYT</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="H3" t="inlineStr">
+        <is>
+          <t>LYT</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="I3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="J3" t="inlineStr">
+        <is>
+          <t>HKG</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="K3" t="inlineStr">
+        <is>
+          <t>LYT</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="L3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="M3" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="N3" t="inlineStr">
+        <is>
+          <t>TPE</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="O3" t="inlineStr">
+        <is>
+          <t>IDASW</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="P3" t="inlineStr">
+        <is>
+          <t>CSASW</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="Q3" t="inlineStr">
+        <is>
+          <t>Inbound</t>
+        </is>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="336" sId="2">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>SessionTradingPartner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="2">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>TPEDI1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="338" sId="10" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>LineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="339" sId="10" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>LineOperator_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="H1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="F2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="G2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="H2" start="0" length="0"/>
+  <rcc rId="340" sId="10" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="G3" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="H3" start="0" length="0"/>
+  <rcc rId="341" sId="10" xfDxf="1" dxf="1">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>CAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="342" sId="10" xfDxf="1" dxf="1">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>CAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="H4" start="0" length="0"/>
+  <rcc rId="343" sId="10" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>n4LineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="344" sId="10" xfDxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>n4Vesselcreate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog116.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="345" sId="2" xfDxf="1" dxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>MessageClass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog117.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="346" sId="1" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>n4VesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G4" start="0" length="0"/>
+  <rcc rId="347" sId="1" xfDxf="1" dxf="1">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="348" sId="1" xfDxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>n4Vesselcreate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G5" start="0" length="0"/>
+  <rcc rId="349" sId="1" xfDxf="1" dxf="1">
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>Configuration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="1" xfDxf="1" dxf="1">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>n4LineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G6" start="0" length="0"/>
+  <rcc rId="351" sId="1" xfDxf="1" dxf="1">
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>Configuration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="352" sId="1" xfDxf="1" dxf="1">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>n4RailRoadOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G7" start="0" length="0"/>
+  <rcc rId="353" sId="1" xfDxf="1" dxf="1">
+    <nc r="H7" t="inlineStr">
+      <is>
+        <t>Configuration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="354" sId="1" xfDxf="1" dxf="1">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>n4CreateTrainVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H8" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog118.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="355" sId="1">
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog119.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="356" sId="4" xfDxf="1" dxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>CreatePhase</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="357" sId="4" xfDxf="1" dxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>Vessel_Identity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="358" sId="4" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Vessel_Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="4" xfDxf="1" dxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Vessel_Class</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="360" sId="4" xfDxf="1" dxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Stowage_Scheme</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="361" sId="4" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>Measurements</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="4" xfDxf="1" dxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>Llyords_Identity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="363" sId="4" xfDxf="1" dxf="1">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>Country</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="4" xfDxf="1" dxf="1">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>Temperature</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="365" sId="4" xfDxf="1" dxf="1">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>InBoundVoyage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="4" xfDxf="1" dxf="1">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>OutBoundVoyage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="367" sId="4" xfDxf="1" dxf="1">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>Vessel_Service</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="368" sId="4" xfDxf="1" dxf="1">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>Classifications</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="369" sId="4" xfDxf="1" dxf="1">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>Visit_Phase</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="370" sId="4" xfDxf="1" dxf="1">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>Est_Dateof_arrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="371" sId="4" xfDxf="1" dxf="1">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>Est_Timeof_arrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="372" sId="4" xfDxf="1" dxf="1">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>Est_Dateof_Depart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="373" sId="4" xfDxf="1" dxf="1">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>Est_Timeof_DepartTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="4" xfDxf="1" dxf="1">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>Act_Dateof_Arrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="375" sId="4" xfDxf="1" dxf="1">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>Act_Timeof_ArrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="4" xfDxf="1" dxf="1">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>Date_StartWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="4" xfDxf="1" dxf="1">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>Time_StartWorkTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="4" xfDxf="1" dxf="1">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>Date_EndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="379" sId="4" xfDxf="1" dxf="1">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>Time_EndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="4" xfDxf="1" dxf="1">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>Act_DateofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="381" sId="4" xfDxf="1" dxf="1">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>Act_TimeofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="382" sId="4" xfDxf="1" dxf="1">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>Vessel_Visit</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="4" xfDxf="1" sqref="T1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS2" start="0" length="0"/>
+  <rcc rId="383" sId="4" xfDxf="1" dxf="1">
+    <oc r="T3" t="inlineStr">
+      <is>
+        <t>VV001CLA</t>
+      </is>
+    </oc>
+    <nc r="T3" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="384" sId="4" xfDxf="1" dxf="1">
+    <oc r="U3" t="inlineStr">
+      <is>
+        <t>Standard ISO Convention</t>
+      </is>
+    </oc>
+    <nc r="U3" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="385" sId="4" xfDxf="1" dxf="1">
+    <oc r="V3" t="inlineStr">
+      <is>
+        <t>Metric</t>
+      </is>
+    </oc>
+    <nc r="V3" t="inlineStr">
+      <is>
+        <t>VV001CLA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="386" sId="4" xfDxf="1" dxf="1">
+    <oc r="W3">
+      <v>10012</v>
+    </oc>
+    <nc r="W3" t="inlineStr">
+      <is>
+        <t>Standard ISO Convention</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="387" sId="4" xfDxf="1" dxf="1">
+    <oc r="X3" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </oc>
+    <nc r="X3" t="inlineStr">
+      <is>
+        <t>Metric</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="388" sId="4" xfDxf="1" dxf="1">
+    <oc r="Y3" t="inlineStr">
+      <is>
+        <t>Celsius</t>
+      </is>
+    </oc>
+    <nc r="Y3">
+      <v>10012</v>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="4" xfDxf="1" dxf="1">
+    <nc r="Z3" t="inlineStr">
+      <is>
+        <t>India</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="390" sId="4" xfDxf="1" dxf="1">
+    <nc r="AA3" t="inlineStr">
+      <is>
+        <t>Celsius</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T4" start="0" length="0"/>
+  <rcc rId="391" sId="4" xfDxf="1" dxf="1">
+    <nc r="U4" t="inlineStr">
+      <is>
+        <t>VESANNA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="V4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y4" start="0" length="0"/>
+  <rcc rId="392" sId="4" xfDxf="1" dxf="1">
+    <oc r="Z4">
+      <v>55</v>
+    </oc>
+    <nc r="Z4"/>
+  </rcc>
+  <rcc rId="393" sId="4" xfDxf="1" dxf="1">
+    <oc r="AA4">
+      <v>55</v>
+    </oc>
+    <nc r="AA4"/>
+  </rcc>
+  <rcc rId="394" sId="4" xfDxf="1" dxf="1">
+    <oc r="AB4" t="inlineStr">
+      <is>
+        <t>AMP</t>
+      </is>
+    </oc>
+    <nc r="AB4">
+      <v>55</v>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="4" xfDxf="1" dxf="1">
+    <oc r="AC4" t="inlineStr">
+      <is>
+        <t>Deepsea</t>
+      </is>
+    </oc>
+    <nc r="AC4">
+      <v>55</v>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="4" xfDxf="1" dxf="1">
+    <oc r="AD4" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </oc>
+    <nc r="AD4" t="inlineStr">
+      <is>
+        <t>AMP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="397" sId="4" xfDxf="1" dxf="1">
+    <nc r="AE4" t="inlineStr">
+      <is>
+        <t>Deepsea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="398" sId="4" xfDxf="1" dxf="1">
+    <nc r="AF4" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP4" start="0" length="0"/>
+  <rcc rId="399" sId="4" xfDxf="1" dxf="1">
+    <oc r="AQ4" t="inlineStr">
+      <is>
+        <t>VES006</t>
+      </is>
+    </oc>
+    <nc r="AQ4"/>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR4" start="0" length="0"/>
+  <rcc rId="400" sId="4" xfDxf="1" dxf="1">
+    <nc r="AS4" t="inlineStr">
+      <is>
+        <t>VES006</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="T5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC5" start="0" length="0"/>
+  <rcc rId="401" sId="4" xfDxf="1" dxf="1">
+    <oc r="AD5" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </oc>
+    <nc r="AD5"/>
+  </rcc>
+  <rcc rId="402" sId="4" xfDxf="1" dxf="1">
+    <oc r="AE5" t="inlineStr">
+      <is>
+        <t>+6</t>
+      </is>
+    </oc>
+    <nc r="AE5"/>
+  </rcc>
+  <rcc rId="403" sId="4" xfDxf="1" dxf="1">
+    <oc r="AF5">
+      <v>0.54166666666666663</v>
+    </oc>
+    <nc r="AF5" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="404" sId="4" xfDxf="1" dxf="1">
+    <oc r="AG5" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </oc>
+    <nc r="AG5" t="inlineStr">
+      <is>
+        <t>+6</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="405" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <oc r="AH5">
+      <v>0.58680555555555558</v>
+    </oc>
+    <nc r="AH5">
+      <v>0.54166666666666663</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="406" sId="4" xfDxf="1" dxf="1">
+    <oc r="AI5" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </oc>
+    <nc r="AI5" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="407" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <oc r="AJ5">
+      <v>0.33680555555555558</v>
+    </oc>
+    <nc r="AJ5">
+      <v>0.58680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="408" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <oc r="AL5">
+      <v>0.70486111111111116</v>
+    </oc>
+    <nc r="AL5">
+      <v>0.33680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="409" sId="4" xfDxf="1" dxf="1">
+    <oc r="AM5" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </oc>
+    <nc r="AM5" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="410" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <oc r="AN5">
+      <v>0.2951388888888889</v>
+    </oc>
+    <nc r="AN5">
+      <v>0.70486111111111116</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="411" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <oc r="AP5">
+      <v>0.67083333333333339</v>
+    </oc>
+    <nc r="AP5">
+      <v>0.2951388888888889</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="412" sId="4" xfDxf="1" dxf="1">
+    <oc r="AQ5" t="inlineStr">
+      <is>
+        <t>BDLU8507</t>
+      </is>
+    </oc>
+    <nc r="AQ5" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="413" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AR5">
+      <v>0.67083333333333339</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="414" sId="4" xfDxf="1" dxf="1">
+    <nc r="AS5" t="inlineStr">
+      <is>
+        <t>BDLU8507</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="415" sId="4">
+    <oc r="S3" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </oc>
+    <nc r="S3" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="416" sId="4">
+    <oc r="R3" t="inlineStr">
+      <is>
+        <t>VV005</t>
+      </is>
+    </oc>
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="417" sId="4">
+    <oc r="S4" t="inlineStr">
+      <is>
+        <t>VESANNA</t>
+      </is>
+    </oc>
+    <nc r="S4" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="418" sId="2" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>MessageID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" xfDxf="1" sqref="T1" start="0" length="0"/>
+  <rcc rId="419" sId="2" xfDxf="1" dxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Version</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="420" sId="2" xfDxf="1" dxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>Standard</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog122.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="421" sId="2" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>ReleaseNumber</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="14" sId="3" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>IsInternalDriver</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="15" sId="3" xfDxf="1" dxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>TruckingCoAgreement</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="3">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>yes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" xfDxf="1" sqref="Z1" start="0" length="0"/>
+  <rcc rId="17" sId="3">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="18" sId="3">
+    <nc r="Z2">
+      <v>16641</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="3" xfDxf="1" dxf="1">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyAgreementExpiration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="AA2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="20" sId="3">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="21" sId="3" ref="R1:R1048576" action="insertCol"/>
+  <rcc rId="22" sId="3">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>DriverLicense</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="3">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>LICOM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="R2">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="\+\1"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="3">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>Driver@gmail.com</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" sqref="X2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="24" sId="3">
+    <oc r="X2">
+      <v>1</v>
+    </oc>
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="25" sId="3">
+    <oc r="V2" t="inlineStr">
+      <is>
+        <t>yes</t>
+      </is>
+    </oc>
+    <nc r="V2"/>
+  </rcc>
+  <rcc rId="26" sId="3">
+    <oc r="AA2">
+      <v>16641</v>
+    </oc>
+    <nc r="AA2">
+      <v>16625</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="27" sId="3">
+    <oc r="AA2">
+      <v>16625</v>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>TCASW</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="3">
+    <oc r="AA1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyId</t>
+      </is>
+    </oc>
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>TruckingCoAgreement</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="3">
+    <oc r="AB1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyAgreementExpiration</t>
+      </is>
+    </oc>
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="3">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyAgreementExpiration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="3">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>TruckingCompanyName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="3">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>TruckingCoSCACCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="3">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>TruckingCoBICCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="3">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>IsOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="3">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>TruckingCoCreditStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="3">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>TruckingCoInsuranceExpirationDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="3">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>TruckingCoDefaultEDO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="3">
+    <oc r="AA2" t="inlineStr">
+      <is>
+        <t>TCASW</t>
+      </is>
+    </oc>
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="3" odxf="1" dxf="1">
+    <oc r="AB2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </oc>
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>TCASW</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="40" sId="3" odxf="1" dxf="1">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="41" sId="3">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>TCASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="3">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>SCAC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="3">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>BIC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="3" odxf="1" quotePrefix="1">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="45" sId="3" odxf="1" dxf="1">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="46" sId="3" odxf="1" quotePrefix="1">
+    <nc r="AJ2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="47" sId="3" xfDxf="1" dxf="1">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="3" xfDxf="1" dxf="1">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactAddresss</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="49" sId="3" xfDxf="1" dxf="1">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactAddresssLine1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="50" sId="3" xfDxf="1" dxf="1">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactCity</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="51" sId="3" xfDxf="1" dxf="1">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactCountry</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="52" sId="3" xfDxf="1" dxf="1">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactState</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="4">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>CreatePhase</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="53" sId="3" xfDxf="1" dxf="1">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactTelePhone</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="3" xfDxf="1" dxf="1">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactMailCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="55" sId="3" xfDxf="1" dxf="1">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactSms</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" xfDxf="1" sqref="AS1" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="3" xfDxf="1" dxf="1">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactFax</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="57" sId="3" xfDxf="1" dxf="1">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactURL</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="58" sId="3" xfDxf="1" dxf="1">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>IsExamSiteCarrier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="59" sId="3" xfDxf="1" dxf="1">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>IsSeizedCargoCarrier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="60" sId="3" xfDxf="1" dxf="1">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>TruckingCoNotes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="61" sId="3" xfDxf="1" dxf="1">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>ExamAuthorisationExpiration</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="3" sheetId="9" name="[TestData.xlsx]Sheet1" sheetPosition="1"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+  <rsnm rId="4" sheetId="9" oldName="[TestData.xlsx]Sheet1" newName="[TestData.xlsx]XPSLogin"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="62" sId="3" xfDxf="1" dxf="1">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>TruckingCoRefID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="63" sId="3" xfDxf="1" dxf="1">
+    <nc r="BA1" t="inlineStr">
+      <is>
+        <t>TruckingCoStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="3">
+    <nc r="BA2" t="inlineStr">
+      <is>
+        <t>OK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="65" sId="3" xfDxf="1" dxf="1">
+    <nc r="BB1" t="inlineStr">
+      <is>
+        <t>LineID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="3">
+    <nc r="BB2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="67" sId="3" xfDxf="1" dxf="1">
+    <nc r="BC1" t="inlineStr">
+      <is>
+        <t>AliasesID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="68" sId="3" xfDxf="1" dxf="1">
+    <nc r="BD1" t="inlineStr">
+      <is>
+        <t>CreditExpirationDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="69" sId="3" xfDxf="1" dxf="1">
+    <nc r="BE1" t="inlineStr">
+      <is>
+        <t>LineStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="3">
+    <nc r="BE2" t="inlineStr">
+      <is>
+        <t>OK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="71" sId="3" xfDxf="1" dxf="1">
+    <nc r="BF1" t="inlineStr">
+      <is>
+        <t>LineInsuranceExpiration</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="72" sId="1">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>Configuration</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="73" sId="6">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>SparcsN4CommonRoutines</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="74" sId="6" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>ERONumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="6">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>EROASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="4">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" sqref="Q2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="76" sId="6" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Line</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" sId="6">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="78" sId="6">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Line</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EROLine</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="6">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>EROAgent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="6" odxf="1" quotePrefix="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="81" sId="6" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>EROEarliestDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="6" sqref="E2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="82" sId="6">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>-1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="6" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>EROLatestDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="F2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="84" sId="6">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="85" sId="6" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>EROFacility</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="6">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="87" sId="6" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>ERONotes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="88" sId="6" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>QuickSearchColumn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="6" odxf="1" quotePrefix="1">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="90" sId="6" ref="I1:I1048576" action="deleteCol">
+    <rfmt sheetId="6" xfDxf="1" sqref="I1:I1048576" start="0" length="0"/>
+    <rcc rId="0" sId="6">
+      <nc r="I1" t="inlineStr">
+        <is>
+          <t>QuickSearchColumn</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="6" quotePrefix="1">
+      <nc r="I2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="91" sId="6" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>EDONumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="6">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>EDOASW</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="93" sId="6" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>EDOLine</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="6">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="6" xfDxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>EDOAgent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="6" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>EDOTruckingCompany</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="6" odxf="1" quotePrefix="1">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="6" sId="9">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="98" sId="6" xfDxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>EDOShipper</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="6" odxf="1" quotePrefix="1">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="100" sId="6" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>EDOEstimatedDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="6">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>t</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="102" sId="6" xfDxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>EDOEarliestDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="O2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="103" sId="6">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>-1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="104" sId="6" xfDxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>EDOLatestDate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="6" sqref="P2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="105" sId="6">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>+1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="106" sId="6" xfDxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>EDODispatchReserved</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="6">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>Dispatch reserved equipment ONLY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="108" sId="6" xfDxf="1" dxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>EDOOrderPurpose</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="109" sId="6" odxf="1" quotePrefix="1">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="110" sId="6" xfDxf="1" dxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>EDOFacility</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="6">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="112" sId="6">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>EDONextFacility</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="6" odxf="1" quotePrefix="1">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="114" sId="6" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>EDOIsPreventTypeSubstitution</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="115" sId="6" xfDxf="1" dxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>EDOIsIgnoreDamages</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="9">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Test</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="116" sId="6" xfDxf="1" dxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>EDONotes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="117" sId="6" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>EDOIsIgnoreHolds</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="118" sId="6" xfDxf="1" dxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>EDOOwnedLeased</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="119" sId="6" odxf="1" quotePrefix="1">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>--</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="120" sId="6" xfDxf="1" dxf="1">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>EDOOrderQuantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="121" sId="6">
+    <nc r="Z2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="122" sId="6">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>EDOTallyLimit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="6">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>EDOSequenceNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="6">
+    <nc r="AA2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="125" sId="6">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>EDOSEquipmentType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="6">
+    <nc r="AC2">
+      <v>2200</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="127" sId="6" xfDxf="1" dxf="1">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>EROOrderQuantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="6">
+    <nc r="AD2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="129" sId="6" xfDxf="1" dxf="1">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>EROEquipmentType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="6">
+    <nc r="AE2">
+      <v>2200</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="131" sId="6" xfDxf="1" dxf="1">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>IDONumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="6">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>IDOASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="133" sId="6" xfDxf="1" dxf="1">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>IDOLine</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="6">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="8" sId="3" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>IsHazardLicensed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="3">
+    <nc r="U2" t="inlineStr">
+      <is>
+        <t>yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="135" sId="6">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>IDOVesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="6">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>VVANA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="137" sId="6" xfDxf="1" dxf="1">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>IDOEquipmentNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="6" xfDxf="1" dxf="1">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="139" sId="6" xfDxf="1" dxf="1">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>SBSU12345610</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog83.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="140" sheetId="10" name="[TestData_Shared.xlsx]Sheet1" sheetPosition="9"/>
+  <rcc rId="141" sId="10">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="10">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>EnterKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="10">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EscapeKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="10">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>NoOfSnx</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="10">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>SparcsN4CommonRoutines</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="10">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>[Enter]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="10">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>[Esc]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="10">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog84.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="149" sId="10" ref="D1:D1048576" action="insertCol"/>
+  <rcc rId="150" sId="10">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>TabKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="10">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>[Tab]</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog85.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="152" sId="4" ref="R1:R1048576" action="insertCol"/>
+  <rcc rId="153" sId="4">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>CarrierMode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="4">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>Vessel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog86.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="155" sId="10">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>FileName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="10">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>ICY_Commodity.xml</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog87.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="157" sId="10" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="10" xfDxf="1" sqref="E1:E1048576" start="0" length="0"/>
+    <rcc rId="0" sId="10">
+      <nc r="E1" t="inlineStr">
+        <is>
+          <t>NoOfSnx</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="E2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog88.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog89.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="158" sId="2">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>EDIMailBoxName</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>MailBoxName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="2">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>MBASW</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>MBEDI1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="2">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>TPEDI</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>TPEDI1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="10" sId="3">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>HazardLicenseNumber</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="3">
+    <nc r="V2" t="inlineStr">
+      <is>
+        <t>HZCOM</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="161" sId="2">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>EDIDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="2">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Send</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog91.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="163" sId="2" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>SenderQualifier</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog92.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="164" sId="2" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>SenderID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog93.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="165" sId="2">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>ReceiveQualifier</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog94.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog95.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="166" sId="2">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Directory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="2">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>C:\Projects\N4</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog96.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="168" sId="2" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>CommunicationType</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog97.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="169" sId="2" xfDxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>FTPAddress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog98.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="170" sId="2" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>FTPUserID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog99.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="171" sId="2" xfDxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>FTPPassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="2" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>ReenterFTPPassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+  <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
+  <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
+  <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
+  <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="ITLAdmin" id="-2068729465" dateTime="2018-04-26T11:23:36"/>
+  <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="itluser" id="-446759165" dateTime="2018-04-26T11:51:19"/>
+  <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,7 +8531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,9 +8539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,21 +8603,271 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="H8" sqref="H8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="D11" sqref="D11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +8875,21 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,214 +8899,1292 @@
       <c r="C1" t="s">
         <v>42</v>
       </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="H1">
+      <selection activeCell="T1" sqref="T1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>18811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="7">
+        <v>30753</v>
+      </c>
+      <c r="U2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="U3" sqref="U3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="21.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="11"/>
+    <col min="18" max="18" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="43" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>231</v>
+      </c>
+      <c r="F2" s="2">
+        <v>232</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S2"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>10012</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="AS5" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AO22" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="40:41" x14ac:dyDescent="0.25">
+      <c r="AN25" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="11">
+        <v>155</v>
+      </c>
+      <c r="J2" s="11">
+        <v>155</v>
+      </c>
+      <c r="K2" s="11">
+        <v>250000</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="I4" sqref="I4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W1" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3">
-        <v>231</v>
-      </c>
-      <c r="F2" s="2">
-        <v>232</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>149</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2">
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>2200</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>2200</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,11 +10251,24 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G1" sqref="G1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -924,6 +10287,16 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20460" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20460" windowHeight="7515" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="2"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="297">
   <si>
     <t>Flow Name</t>
   </si>
@@ -675,27 +675,21 @@
     <t>ACHI71~CR1</t>
   </si>
   <si>
+    <t>SessionName</t>
+  </si>
+  <si>
+    <t>SSEDI</t>
+  </si>
+  <si>
+    <t>SessionTradingPartner</t>
+  </si>
+  <si>
     <t>XPSUserName</t>
   </si>
   <si>
     <t>XPSPassword</t>
   </si>
   <si>
-    <t>SessionName</t>
-  </si>
-  <si>
-    <t>SSEDI</t>
-  </si>
-  <si>
-    <t>Rail_Id</t>
-  </si>
-  <si>
-    <t>Rail_Name</t>
-  </si>
-  <si>
-    <t>Train_Direction</t>
-  </si>
-  <si>
     <t>EstimatedTime_Arrival</t>
   </si>
   <si>
@@ -705,63 +699,9 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Credit_status</t>
-  </si>
-  <si>
-    <t>Scac_Code</t>
-  </si>
-  <si>
-    <t>Bic_Code</t>
-  </si>
-  <si>
-    <t>Gurantee_Limit</t>
-  </si>
-  <si>
-    <t>Train_Id</t>
-  </si>
-  <si>
-    <t>Contact_EmailAddress</t>
-  </si>
-  <si>
-    <t>Contact_Name</t>
-  </si>
-  <si>
-    <t>LifeCycle_Status</t>
-  </si>
-  <si>
-    <t>Contact_AddressLine2</t>
-  </si>
-  <si>
-    <t>Contact_AddressLine1</t>
-  </si>
-  <si>
-    <t>Contact_Country</t>
-  </si>
-  <si>
-    <t>Contact_AddressLine3</t>
-  </si>
-  <si>
-    <t>ContactMail_Code</t>
-  </si>
-  <si>
-    <t>Contact_State</t>
-  </si>
-  <si>
-    <t>Contact_Fax</t>
-  </si>
-  <si>
-    <t>Contact_City</t>
-  </si>
-  <si>
-    <t>Contact_WebSiteURL</t>
-  </si>
-  <si>
     <t>n4RailRoadOperator</t>
   </si>
   <si>
-    <t>QWE</t>
-  </si>
-  <si>
     <t>FZVE12</t>
   </si>
   <si>
@@ -798,24 +738,9 @@
     <t>SAP</t>
   </si>
   <si>
-    <t>Vessel_Identity</t>
-  </si>
-  <si>
-    <t>Vessel_Name</t>
-  </si>
-  <si>
-    <t>Vessel_Class</t>
-  </si>
-  <si>
-    <t>Stowage_Scheme</t>
-  </si>
-  <si>
     <t>Measurements</t>
   </si>
   <si>
-    <t>Llyords_Identity</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -828,54 +753,9 @@
     <t>OutBoundVoyage</t>
   </si>
   <si>
-    <t>Vessel_Service</t>
-  </si>
-  <si>
     <t>Classifications</t>
   </si>
   <si>
-    <t>Visit_Phase</t>
-  </si>
-  <si>
-    <t>Est_Dateof_arrival</t>
-  </si>
-  <si>
-    <t>Est_Timeof_arrivalTime</t>
-  </si>
-  <si>
-    <t>Est_Dateof_Depart</t>
-  </si>
-  <si>
-    <t>Est_Timeof_DepartTime</t>
-  </si>
-  <si>
-    <t>Act_Dateof_Arrival</t>
-  </si>
-  <si>
-    <t>Act_Timeof_ArrivalTime</t>
-  </si>
-  <si>
-    <t>Date_StartWork</t>
-  </si>
-  <si>
-    <t>Time_StartWorkTime</t>
-  </si>
-  <si>
-    <t>Date_EndWork</t>
-  </si>
-  <si>
-    <t>Time_EndWork</t>
-  </si>
-  <si>
-    <t>Act_DateofDepart</t>
-  </si>
-  <si>
-    <t>Act_TimeofDepart</t>
-  </si>
-  <si>
-    <t>Vessel_Visit</t>
-  </si>
-  <si>
     <t>n4Vesselcreate</t>
   </si>
   <si>
@@ -912,9 +792,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>VES006</t>
-  </si>
-  <si>
     <t>n4AdvanceVesselVisit</t>
   </si>
   <si>
@@ -924,37 +801,133 @@
     <t>+3</t>
   </si>
   <si>
-    <t>BDLU8507</t>
-  </si>
-  <si>
-    <t>SessionTradingPartner</t>
+    <t>MessageClass</t>
   </si>
   <si>
     <t>LineOperator</t>
   </si>
   <si>
-    <t>LineOperator_Name</t>
-  </si>
-  <si>
     <t>CAS</t>
   </si>
   <si>
-    <t>MessageClass</t>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
   <si>
     <t>Configuration</t>
   </si>
   <si>
-    <t>MessageID</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>ReleaseNumber</t>
+  </si>
+  <si>
+    <t>ResponsibleAgency</t>
+  </si>
+  <si>
+    <t>RailId</t>
+  </si>
+  <si>
+    <t>RailName</t>
+  </si>
+  <si>
+    <t>TrainDirection</t>
+  </si>
+  <si>
+    <t>Creditstatus</t>
+  </si>
+  <si>
+    <t>ScacCode</t>
+  </si>
+  <si>
+    <t>BicCode</t>
+  </si>
+  <si>
+    <t>GuranteeLimit</t>
+  </si>
+  <si>
+    <t>TrainId</t>
+  </si>
+  <si>
+    <t>LAP</t>
+  </si>
+  <si>
+    <t>VesselIdentity</t>
+  </si>
+  <si>
+    <t>VesselName</t>
+  </si>
+  <si>
+    <t>VesselClass</t>
+  </si>
+  <si>
+    <t>StowageScheme</t>
+  </si>
+  <si>
+    <t>LlyordsIdentity</t>
+  </si>
+  <si>
+    <t>VesselService</t>
+  </si>
+  <si>
+    <t>VisitPhase</t>
+  </si>
+  <si>
+    <t>EstDateofarrival</t>
+  </si>
+  <si>
+    <t>EstTimeofarrivalTime</t>
+  </si>
+  <si>
+    <t>EstDateofDepart</t>
+  </si>
+  <si>
+    <t>EstTimeofDepartTime</t>
+  </si>
+  <si>
+    <t>ActDateofArrival</t>
+  </si>
+  <si>
+    <t>ActTimeofArrivalTime</t>
+  </si>
+  <si>
+    <t>DateStartWork</t>
+  </si>
+  <si>
+    <t>TimeStartWorkTime</t>
+  </si>
+  <si>
+    <t>DateEndWork</t>
+  </si>
+  <si>
+    <t>TimeEndWork</t>
+  </si>
+  <si>
+    <t>ActDateofDepart</t>
+  </si>
+  <si>
+    <t>ActTimeofDepart</t>
+  </si>
+  <si>
+    <t>VesselVisit</t>
+  </si>
+  <si>
+    <t>VES007</t>
+  </si>
+  <si>
+    <t>VV003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMVV </t>
+  </si>
+  <si>
+    <t>TrainVisit</t>
+  </si>
+  <si>
+    <t>LineOperatorName</t>
   </si>
 </sst>
 </file>
@@ -996,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1005,53 +978,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1065,7 +1003,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" diskRevisions="1" revisionId="421" version="122">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{02B4E074-E18F-4670-BFA1-6241F3EB49EB}" diskRevisions="1" revisionId="489" version="129">
   <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
     <sheetIdMap count="8">
       <sheetId val="1"/>
@@ -2676,6 +2614,104 @@
     </sheetIdMap>
   </header>
   <header guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" dateTime="2018-04-26T13:09:39" maxSheetId="11" userName="ITLAdmin" r:id="rId122" minRId="421">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A9BEFD4E-6550-42AA-BA3E-E49E2214E8A8}" dateTime="2018-04-26T13:44:14" maxSheetId="11" userName="ITLAdmin" r:id="rId123" minRId="422">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B66105A-4069-4EAF-B601-54F302A16821}" dateTime="2018-04-26T13:44:24" maxSheetId="11" userName="ITLAdmin" r:id="rId124">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{454B1DDB-ECEB-4102-8171-CD5536D80F36}" dateTime="2018-04-27T11:38:16" maxSheetId="11" userName="itluser" r:id="rId125" minRId="423" maxRId="446">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{09F6B436-1BF1-417D-AAF1-4DCD94D3856A}" dateTime="2018-04-27T11:40:11" maxSheetId="11" userName="itluser" r:id="rId126" minRId="447" maxRId="448">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C1C6F1AC-0D15-4B19-B582-00497238A49B}" dateTime="2018-04-27T12:21:13" maxSheetId="11" userName="itluser" r:id="rId127" minRId="449" maxRId="487">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{48A0ECC0-C04A-4D6E-A368-E5905D4E427D}" dateTime="2018-04-27T12:25:41" maxSheetId="11" userName="itluser" r:id="rId128" minRId="488">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{02B4E074-E18F-4670-BFA1-6241F3EB49EB}" dateTime="2018-04-27T12:26:56" maxSheetId="11" userName="itluser" r:id="rId129" minRId="489">
     <sheetIdMap count="10">
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -6416,6 +6452,1058 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog123.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="422" sId="2" xfDxf="1" dxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>ResponsibleAgency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog124.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog125.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="5" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rcc rId="423" sId="5" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>Rail_Id</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>RailId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="424" sId="5" xfDxf="1" dxf="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Rail_Name</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>RailName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="425" sId="5" xfDxf="1" dxf="1">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>Train_Direction</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>TrainDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="E1" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F1" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G1" start="0" length="0"/>
+  <rcc rId="426" sId="5" xfDxf="1" dxf="1">
+    <oc r="H1" t="inlineStr">
+      <is>
+        <t>Credit_status</t>
+      </is>
+    </oc>
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Creditstatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="427" sId="5" xfDxf="1" dxf="1">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>Scac_Code</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>ScacCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="428" sId="5" xfDxf="1" dxf="1">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Bic_Code</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>BicCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="429" sId="5" xfDxf="1" dxf="1">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Gurantee_Limit</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>GuranteeLimit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="430" sId="5" xfDxf="1" dxf="1">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>Train_Id</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>TrainId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="431" sId="5" xfDxf="1" dxf="1">
+    <oc r="M1" t="inlineStr">
+      <is>
+        <t>Contact_EmailAddress</t>
+      </is>
+    </oc>
+    <nc r="M1"/>
+  </rcc>
+  <rcc rId="432" sId="5" xfDxf="1" dxf="1">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>Contact_Name</t>
+      </is>
+    </oc>
+    <nc r="N1"/>
+  </rcc>
+  <rcc rId="433" sId="5" xfDxf="1" dxf="1">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>LifeCycle_Status</t>
+      </is>
+    </oc>
+    <nc r="O1"/>
+  </rcc>
+  <rcc rId="434" sId="5" xfDxf="1" dxf="1">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>Contact_AddressLine2</t>
+      </is>
+    </oc>
+    <nc r="P1"/>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="A2" start="0" length="0"/>
+  <rcc rId="435" sId="5" xfDxf="1" dxf="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>QWE</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>LAP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="C2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="D2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="H2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="I2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="J2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="K2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="L2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P2" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="A3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="B3" start="0" length="0"/>
+  <rcc rId="436" sId="5" xfDxf="1" dxf="1">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>QWE</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>LAP</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="D3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" xfDxf="1" sqref="F3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="5" xfDxf="1" sqref="G3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="H3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="I3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="J3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="K3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="L3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P3" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="A4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="B4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="D4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="H4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="I4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="J4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="K4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="L4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O4" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P4" start="0" length="0"/>
+  <rcc rId="437" sId="5" xfDxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="5" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="C5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="D5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="E5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="F5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="G5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="H5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="I5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="J5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="K5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="L5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="M5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="N5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="O5" start="0" length="0"/>
+  <rfmt sheetId="5" xfDxf="1" sqref="P5" start="0" length="0"/>
+  <rrc rId="438" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_AddressLine1</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="439" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_Country</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="440" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_AddressLine3</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="441" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>ContactMail_Code</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="442" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_State</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="443" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_Fax</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="444" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_City</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="445" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+    <rcc rId="0" sId="5">
+      <nc r="Q1" t="inlineStr">
+        <is>
+          <t>Contact_WebSiteURL</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="446" sId="5" ref="Q1:Q1048576" action="deleteCol">
+    <rfmt sheetId="5" xfDxf="1" sqref="Q1:Q1048576" start="0" length="0"/>
+  </rrc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog126.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" xfDxf="1" sqref="A4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H4" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="A5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H5" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="A6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H6" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="A7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H7" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="A8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G8" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="H8" start="0" length="0"/>
+  <rcc rId="447" sId="1" xfDxf="1" dxf="1">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>n4AdvanceVesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B9" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="C9" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="D9" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="E9" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="F9" start="0" length="0"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="G9" start="0" length="0"/>
+  <rcc rId="448" sId="1" xfDxf="1" dxf="1">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog127.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="449" sId="4" xfDxf="1" dxf="1">
+    <oc r="T1" t="inlineStr">
+      <is>
+        <t>Vessel_Identity</t>
+      </is>
+    </oc>
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>VesselIdentity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="450" sId="4" xfDxf="1" dxf="1">
+    <oc r="U1" t="inlineStr">
+      <is>
+        <t>Vessel_Name</t>
+      </is>
+    </oc>
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>VesselName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="451" sId="4" xfDxf="1" dxf="1">
+    <oc r="V1" t="inlineStr">
+      <is>
+        <t>Vessel_Class</t>
+      </is>
+    </oc>
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>VesselClass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="452" sId="4" xfDxf="1" dxf="1">
+    <oc r="W1" t="inlineStr">
+      <is>
+        <t>Stowage_Scheme</t>
+      </is>
+    </oc>
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>StowageScheme</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="X1" start="0" length="0"/>
+  <rcc rId="453" sId="4" xfDxf="1" dxf="1">
+    <oc r="Y1" t="inlineStr">
+      <is>
+        <t>Llyords_Identity</t>
+      </is>
+    </oc>
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>LlyordsIdentity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB1" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC1" start="0" length="0"/>
+  <rcc rId="454" sId="4" xfDxf="1" dxf="1">
+    <oc r="AD1" t="inlineStr">
+      <is>
+        <t>Vessel_Service</t>
+      </is>
+    </oc>
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>VesselService</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE1" start="0" length="0"/>
+  <rcc rId="455" sId="4" xfDxf="1" dxf="1">
+    <oc r="AF1" t="inlineStr">
+      <is>
+        <t>Visit_Phase</t>
+      </is>
+    </oc>
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>VisitPhase</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="456" sId="4" xfDxf="1" dxf="1">
+    <oc r="AG1" t="inlineStr">
+      <is>
+        <t>Est_Dateof_arrival</t>
+      </is>
+    </oc>
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>EstDateofarrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="457" sId="4" xfDxf="1" dxf="1">
+    <oc r="AH1" t="inlineStr">
+      <is>
+        <t>Est_Timeof_arrivalTime</t>
+      </is>
+    </oc>
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>EstTimeofarrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="458" sId="4" xfDxf="1" dxf="1">
+    <oc r="AI1" t="inlineStr">
+      <is>
+        <t>Est_Dateof_Depart</t>
+      </is>
+    </oc>
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>EstDateofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="459" sId="4" xfDxf="1" dxf="1">
+    <oc r="AJ1" t="inlineStr">
+      <is>
+        <t>Est_Timeof_DepartTime</t>
+      </is>
+    </oc>
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>EstTimeofDepartTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="460" sId="4" xfDxf="1" dxf="1">
+    <oc r="AK1" t="inlineStr">
+      <is>
+        <t>Act_Dateof_Arrival</t>
+      </is>
+    </oc>
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>ActDateofArrival</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="461" sId="4" xfDxf="1" dxf="1">
+    <oc r="AL1" t="inlineStr">
+      <is>
+        <t>Act_Timeof_ArrivalTime</t>
+      </is>
+    </oc>
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>ActTimeofArrivalTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="462" sId="4" xfDxf="1" dxf="1">
+    <oc r="AM1" t="inlineStr">
+      <is>
+        <t>Date_StartWork</t>
+      </is>
+    </oc>
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>DateStartWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="463" sId="4" xfDxf="1" dxf="1">
+    <oc r="AN1" t="inlineStr">
+      <is>
+        <t>Time_StartWorkTime</t>
+      </is>
+    </oc>
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>TimeStartWorkTime</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="464" sId="4" xfDxf="1" dxf="1">
+    <oc r="AO1" t="inlineStr">
+      <is>
+        <t>Date_EndWork</t>
+      </is>
+    </oc>
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>DateEndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="465" sId="4" xfDxf="1" dxf="1">
+    <oc r="AP1" t="inlineStr">
+      <is>
+        <t>Time_EndWork</t>
+      </is>
+    </oc>
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>TimeEndWork</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="466" sId="4" xfDxf="1" dxf="1">
+    <oc r="AQ1" t="inlineStr">
+      <is>
+        <t>Act_DateofDepart</t>
+      </is>
+    </oc>
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>ActDateofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="467" sId="4" xfDxf="1" dxf="1">
+    <oc r="AR1" t="inlineStr">
+      <is>
+        <t>Act_TimeofDepart</t>
+      </is>
+    </oc>
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>ActTimeofDepart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="468" sId="4" xfDxf="1" dxf="1">
+    <oc r="AS1" t="inlineStr">
+      <is>
+        <t>Vessel_Visit</t>
+      </is>
+    </oc>
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>VesselVisit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="469" sId="4" xfDxf="1" dxf="1">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>Train_Visit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="T2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X2" start="0" length="0"/>
+  <rcc rId="470" sId="4" xfDxf="1" dxf="1">
+    <nc r="Y2">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AT2" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AT3" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR4" start="0" length="0"/>
+  <rcc rId="471" sId="4" xfDxf="1" dxf="1">
+    <oc r="AS4" t="inlineStr">
+      <is>
+        <t>VES006</t>
+      </is>
+    </oc>
+    <nc r="AS4" t="inlineStr">
+      <is>
+        <t>VES007</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AT4" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T5" start="0" length="0"/>
+  <rcc rId="472" sId="4" xfDxf="1" dxf="1">
+    <nc r="U5" t="inlineStr">
+      <is>
+        <t>VV003</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="V5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR5" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="473" sId="4" xfDxf="1" dxf="1">
+    <oc r="AS5" t="inlineStr">
+      <is>
+        <t>BDLU8507</t>
+      </is>
+    </oc>
+    <nc r="AS5" t="inlineStr">
+      <is>
+        <t xml:space="preserve">JMVV </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AT5" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="T6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD6" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE6" start="0" length="0"/>
+  <rcc rId="474" sId="4" xfDxf="1" dxf="1">
+    <nc r="AF6" t="inlineStr">
+      <is>
+        <t>Inbound</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="475" sId="4" xfDxf="1" dxf="1">
+    <nc r="AG6" t="inlineStr">
+      <is>
+        <t>+6</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="476" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AH6">
+      <v>0.54166666666666663</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="477" sId="4" xfDxf="1" dxf="1">
+    <nc r="AI6" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="478" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AJ6">
+      <v>0.58680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="479" sId="4" xfDxf="1" dxf="1">
+    <nc r="AK6" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="480" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AL6">
+      <v>0.33680555555555558</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="481" sId="4" xfDxf="1" dxf="1">
+    <nc r="AM6" t="inlineStr">
+      <is>
+        <t>+3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="482" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AN6">
+      <v>0.70486111111111116</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="483" sId="4" xfDxf="1" dxf="1">
+    <nc r="AO6" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="484" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AP6">
+      <v>0.2951388888888889</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="485" sId="4" xfDxf="1" dxf="1">
+    <nc r="AQ6" t="inlineStr">
+      <is>
+        <t>+9</t>
+      </is>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="486" sId="4" xfDxf="1" dxf="1" numFmtId="25">
+    <nc r="AR6">
+      <v>0.52361111111111114</v>
+    </nc>
+    <ndxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS6" start="0" length="0"/>
+  <rcc rId="487" sId="4" xfDxf="1" dxf="1">
+    <nc r="AT6" t="inlineStr">
+      <is>
+        <t>FZEB1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" xfDxf="1" sqref="T7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="U7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="V7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="W7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="X7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Y7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="Z7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AA7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AB7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AC7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AD7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AE7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AF7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AG7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AH7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AI7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AJ7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AK7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AL7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AM7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AN7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AO7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AP7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AQ7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AR7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AS7" start="0" length="0"/>
+  <rfmt sheetId="4" xfDxf="1" sqref="AT7" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog128.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="488" sId="4">
+    <oc r="AT1" t="inlineStr">
+      <is>
+        <t>Train_Visit</t>
+      </is>
+    </oc>
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>TrainVisit</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog129.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="10" xfDxf="1" sqref="F1" start="0" length="0"/>
+  <rcc rId="489" sId="10" xfDxf="1" dxf="1">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>LineOperator_Name</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>LineOperatorName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="H1" start="0" length="0"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="14" sId="3" xfDxf="1" dxf="1">
@@ -8266,11 +9354,10 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
-  <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="ITLAdmin" id="-2068729465" dateTime="2018-04-26T11:23:36"/>
   <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="itluser" id="-446759165" dateTime="2018-04-26T11:51:19"/>
   <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
 </users>
@@ -8539,10 +9626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8607,89 +9694,103 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>301</v>
+      <c r="A5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>301</v>
+      <c r="A6" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
-        <v>301</v>
+      <c r="A7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -8701,10 +9802,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8713,7 +9814,7 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8729,14 +9830,15 @@
       <c r="E1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>298</v>
-      </c>
+      <c r="F1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -8752,37 +9854,34 @@
       <c r="E2" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>299</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="D11" sqref="D11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="H8" sqref="H8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8794,67 +9893,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8864,7 +9955,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -8887,9 +9978,15 @@
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8942,28 +10039,31 @@
         <v>202</v>
       </c>
       <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
         <v>214</v>
       </c>
-      <c r="S1" t="s">
-        <v>296</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>305</v>
+      <c r="T1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V1" t="s">
+        <v>258</v>
+      </c>
+      <c r="W1" t="s">
+        <v>259</v>
+      </c>
+      <c r="X1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -8989,7 +10089,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S2" t="s">
         <v>187</v>
@@ -8997,12 +10097,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="H1">
-      <selection activeCell="T1" sqref="T1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9015,7 +10115,7 @@
   <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9351,13 +10451,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="U3" sqref="U3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="U3" sqref="U3"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -9369,25 +10469,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="21.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="11"/>
-    <col min="18" max="18" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="43" width="9.140625" style="11"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9442,89 +10540,92 @@
       <c r="R1" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" t="s">
         <v>87</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -9579,57 +10680,107 @@
       <c r="R2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S2"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>290</v>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S3" t="s">
+        <v>250</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Y3" s="11">
         <v>10012</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>285</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>290</v>
-      </c>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="S4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>287</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
       <c r="AB4" s="11">
         <v>55</v>
       </c>
@@ -9637,84 +10788,168 @@
         <v>55</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>290</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
       <c r="AS4" s="11" t="s">
-        <v>291</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AT4" s="11"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>292</v>
-      </c>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH5" s="8">
+        <v>226</v>
+      </c>
+      <c r="AH5" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ5" s="8">
+        <v>252</v>
+      </c>
+      <c r="AJ5" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="AK5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL5" s="13">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN5" s="13">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR5" s="13">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="AS5" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AT5" s="11"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL6" s="13">
         <v>0.33680555555555558</v>
       </c>
-      <c r="AM5" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN5" s="8">
+      <c r="AM6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN6" s="13">
         <v>0.70486111111111116</v>
       </c>
-      <c r="AO5" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP5" s="8">
+      <c r="AO6" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP6" s="13">
         <v>0.2951388888888889</v>
       </c>
-      <c r="AQ5" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>0.67083333333333339</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>295</v>
+      <c r="AQ6" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR6" s="13">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AO22" s="11" t="s">
-        <v>290</v>
+      <c r="AO22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN25" s="11" t="s">
-        <v>290</v>
+      <c r="AN25" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9724,210 +10959,176 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I2" s="8">
+        <v>155</v>
+      </c>
+      <c r="J2" s="8">
+        <v>155</v>
+      </c>
+      <c r="K2" s="8">
+        <v>250000</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>238</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="11">
-        <v>155</v>
-      </c>
-      <c r="J2" s="11">
-        <v>155</v>
-      </c>
-      <c r="K2" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="I4" sqref="I4"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -10165,14 +11366,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10252,12 +11453,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10288,11 +11489,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITL-PC07\SharedExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.137\SharedExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20460" windowHeight="7515" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7155" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,20 @@
     <sheet name="Orders" sheetId="6" r:id="rId7"/>
     <sheet name="Inventory" sheetId="7" r:id="rId8"/>
     <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId10"/>
+    <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="2"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="341">
   <si>
     <t>Flow Name</t>
   </si>
@@ -804,12 +801,6 @@
     <t>MessageClass</t>
   </si>
   <si>
-    <t>LineOperator</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
     <t>MessageID</t>
   </si>
   <si>
@@ -927,7 +918,145 @@
     <t>TrainVisit</t>
   </si>
   <si>
-    <t>LineOperatorName</t>
+    <t>n4MobileUserName</t>
+  </si>
+  <si>
+    <t>n4MobilePassword</t>
+  </si>
+  <si>
+    <t>n4MobileOperator</t>
+  </si>
+  <si>
+    <t>n4MobileComplex</t>
+  </si>
+  <si>
+    <t>n4MobileFacility</t>
+  </si>
+  <si>
+    <t>n4MobileYard</t>
+  </si>
+  <si>
+    <t>n4MobileProgram</t>
+  </si>
+  <si>
+    <t>n4MobileYardInventoryOperation</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainer</t>
+  </si>
+  <si>
+    <t>N4MobileCommonRoutines</t>
+  </si>
+  <si>
+    <t>Yard Inventory</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerSeal1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>YINV_101</t>
+  </si>
+  <si>
+    <t>SBSU1234570</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerSeal2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerSeal3</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerSeal4</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageComponent1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageType1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageSeverity1</t>
+  </si>
+  <si>
+    <t>DOOR</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageLocation1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageQuantity1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageWidth1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageLength1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDamageDeep1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerSafeWeight</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTareWeight</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerCSCDate</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerMNF</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerMNRStatus</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerOverHeight</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerOverLeft</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerOverRight</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerOverFore</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerOverAft</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerUnits</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerGradeValue</t>
+  </si>
+  <si>
+    <t>FOOD</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -984,6 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1133,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{02B4E074-E18F-4670-BFA1-6241F3EB49EB}" diskRevisions="1" revisionId="489" version="129">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" diskRevisions="1" revisionId="574" version="156">
   <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
     <sheetIdMap count="8">
       <sheetId val="1"/>
@@ -2723,6 +2853,410 @@
       <sheetId val="7"/>
       <sheetId val="8"/>
       <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17EFF5E6-C655-4E09-B326-D1C3A4D7C6C6}" dateTime="2018-05-04T15:36:11" maxSheetId="11" userName="ITLAdmin" r:id="rId130" minRId="490" maxRId="510">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BDDB1815-0772-4660-AE86-E364D600DA8C}" dateTime="2018-05-04T15:37:31" maxSheetId="12" userName="ITLAdmin" r:id="rId131" minRId="511" maxRId="521">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{094652D6-D9A8-433E-9635-4E9234F3518D}" dateTime="2018-05-07T15:13:28" maxSheetId="12" userName="ITL-USER" r:id="rId132" minRId="522" maxRId="523">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C221CC44-A118-4B2E-9DD9-2FED6875AAA6}" dateTime="2018-05-07T15:13:41" maxSheetId="12" userName="ITL-USER" r:id="rId133" minRId="524" maxRId="533">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53696515-73F7-4CA7-9EB3-FBB2FD14654B}" dateTime="2018-05-07T15:15:47" maxSheetId="12" userName="ITL-USER" r:id="rId134" minRId="534" maxRId="535">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E340121-56E7-47B1-A847-EBBFAF4CEA4E}" dateTime="2018-05-07T15:17:44" maxSheetId="12" userName="ITL-USER" r:id="rId135" minRId="536" maxRId="537">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{54A50B94-A441-4A99-A7C3-A5B9F610F409}" dateTime="2018-05-07T15:19:02" maxSheetId="12" userName="ITL-USER" r:id="rId136" minRId="538" maxRId="539">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{895D6C27-60EB-4919-8832-40BCB1C0085E}" dateTime="2018-05-07T16:02:25" maxSheetId="12" userName="ITL-USER" r:id="rId137" minRId="540" maxRId="548">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A41CA12C-AFA7-41E8-A435-50F3F59A4F11}" dateTime="2018-05-07T16:04:17" maxSheetId="12" userName="ITL-USER" r:id="rId138" minRId="549">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DA1BCC47-657A-4E54-9EFF-27E62A42057A}" dateTime="2018-05-07T16:04:21" maxSheetId="12" userName="ITL-USER" r:id="rId139">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C190334-D5B4-4822-AB97-228E4EBE03DF}" dateTime="2018-05-07T16:06:21" maxSheetId="12" userName="ITL-USER" r:id="rId140" minRId="550">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4A114344-534E-4A3B-BB19-3D755B20681B}" dateTime="2018-05-07T16:10:06" maxSheetId="12" userName="ITL-USER" r:id="rId141" minRId="551">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B6745ED7-5B2F-4E5E-B3CF-65EDF2B203EB}" dateTime="2018-05-07T16:10:26" maxSheetId="12" userName="ITL-USER" r:id="rId142" minRId="552">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{16DDB71F-FEB9-493A-8470-F27AE85B7820}" dateTime="2018-05-07T16:10:54" maxSheetId="12" userName="ITL-USER" r:id="rId143" minRId="553">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8A53AE1C-4291-4A85-BF08-C7FC11960330}" dateTime="2018-05-07T16:34:26" maxSheetId="12" userName="ITL-USER" r:id="rId144" minRId="554" maxRId="555">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B465D8AC-B021-4E4F-B4EB-F0425D001898}" dateTime="2018-05-07T16:37:34" maxSheetId="12" userName="ITL-USER" r:id="rId145" minRId="556" maxRId="557">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0AF98FD8-DF12-40BD-838D-A5B78B417972}" dateTime="2018-05-07T16:39:25" maxSheetId="12" userName="ITL-USER" r:id="rId146" minRId="558">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D8C1E410-4C9A-4105-9FD6-620BFABEDD55}" dateTime="2018-05-07T16:40:20" maxSheetId="12" userName="ITL-USER" r:id="rId147" minRId="559">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{51D49957-AE90-4A20-96AE-8F46722BFD72}" dateTime="2018-05-07T16:41:50" maxSheetId="12" userName="ITL-USER" r:id="rId148" minRId="560">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53DFA0C9-5F52-4186-866D-DF81E5128DC2}" dateTime="2018-05-07T17:08:03" maxSheetId="12" userName="ITL-USER" r:id="rId149" minRId="561" maxRId="562">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{02C162DF-B47C-42CB-9562-0187183D0572}" dateTime="2018-05-07T17:10:39" maxSheetId="12" userName="ITL-USER" r:id="rId150" minRId="563" maxRId="564">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E1AEA4E3-BA4E-496B-9CAE-09691939490C}" dateTime="2018-05-07T17:12:39" maxSheetId="12" userName="ITL-USER" r:id="rId151" minRId="565" maxRId="566">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{77498283-26CE-439C-B3E2-6B57D34D9D4D}" dateTime="2018-05-07T17:14:14" maxSheetId="12" userName="ITL-USER" r:id="rId152" minRId="567" maxRId="568">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DFA03B02-BDFB-4004-BB84-B12588735CC5}" dateTime="2018-05-07T17:15:12" maxSheetId="12" userName="ITL-USER" r:id="rId153" minRId="569" maxRId="570">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{85CDF29B-7EE6-4FB7-ADBA-7D9DD69E36F4}" dateTime="2018-05-07T17:16:29" maxSheetId="12" userName="ITL-USER" r:id="rId154" minRId="571" maxRId="572">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{22F45F2C-C410-4DA2-968A-C25BB34BD207}" dateTime="2018-05-07T17:33:13" maxSheetId="12" userName="ITL-USER" r:id="rId155" minRId="573">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" dateTime="2018-05-07T17:33:18" maxSheetId="12" userName="ITL-USER" r:id="rId156" minRId="574">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -7518,6 +8052,599 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog130.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="10" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="B1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="C1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="D1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="E1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="F1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="G1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="H1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="I1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="J1" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="A2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="B2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="C2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="D2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="F2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="G2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="H2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="I2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="J2" start="0" length="0"/>
+  <rfmt sheetId="10" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rcc rId="490" sId="10" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>EnterKey</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4MobileUserName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="491" sId="10" xfDxf="1" dxf="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>EscapeKey</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4MobilePassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="492" sId="10" xfDxf="1" dxf="1">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>TabKey</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4MobileOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="493" sId="10" xfDxf="1" dxf="1">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>FileName</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4MobileComplex</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="494" sId="10" xfDxf="1" dxf="1">
+    <oc r="F1" t="inlineStr">
+      <is>
+        <t>LineOperator</t>
+      </is>
+    </oc>
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4MobileFacility</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="495" sId="10" xfDxf="1" dxf="1">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>LineOperatorName</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4MobileYard</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="496" sId="10" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4MobileProgram</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="497" sId="10" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4MobileYardInventoryOperation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="498" sId="10" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="499" sId="10" xfDxf="1" dxf="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>SparcsN4CommonRoutines</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="500" sId="10" xfDxf="1" dxf="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>[Enter]</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="501" sId="10" xfDxf="1" dxf="1">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>[Esc]</t>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="502" sId="10" xfDxf="1" dxf="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>[Tab]</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="503" sId="10" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>ICY_Commodity.xml</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="504" sId="10" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="505" sId="10" xfDxf="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="506" sId="10" xfDxf="1" dxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="507" sId="10" xfDxf="1" dxf="1">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="J2" start="0" length="0"/>
+  <rrc rId="508" sId="10" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="10" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rcc rId="0" sId="10">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>n4Vesselcreate</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="509" sId="10" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="10" xfDxf="1" sqref="A3:XFD3" start="0" length="0"/>
+    <rcc rId="0" sId="10">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>n4LineOperator</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="G3" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+  <rsnm rId="510" sheetId="10" oldName="[TestData_Shared.xlsx]Sheet1" newName="[TestData_Shared.xlsx]N4MobileCommonRoutines"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="511" sheetId="11" name="[TestData_Shared.xlsx]SparcsN4CommonRoutines" sheetPosition="10"/>
+  <rcc rId="512" sId="11" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="513" sId="11" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>EnterKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="514" sId="11" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EscapeKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="515" sId="11" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>TabKey</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="516" sId="11" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>FileName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="517" sId="11" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>SparcsN4CommonRoutines</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="518" sId="11" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>[Enter]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="519" sId="11" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>[Esc]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="520" sId="11" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>[Tab]</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="521" sId="11" xfDxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>ICY_Commodity.xml</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog132.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="522" sId="10" odxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="523" sId="10" odxf="1">
+    <nc r="K3" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog133.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="524" sId="10" odxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_101</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="525" sId="10" odxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="526" sId="10" odxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="527" sId="10" odxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="528" sId="10" odxf="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="529" sId="10" odxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="530" sId="10" odxf="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="531" sId="10" odxf="1">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="532" sId="10" odxf="1">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="533" sId="10" odxf="1">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog134.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="534" sId="10" odxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="535" sId="10">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog135.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="536" sId="10" odxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="537" sId="10">
+    <nc r="M3" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog136.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="538" sId="10" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="539" sId="10">
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog137.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="540" sId="10" odxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageComponent1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="541" sId="10" odxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageType1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="542" sId="10" odxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageSeverity1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="543" sId="10" odxf="1">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="544" sId="10" odxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="545" sId="10" odxf="1">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="546" sId="10">
+    <nc r="O3" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="547" sId="10">
+    <nc r="P3" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="548" sId="10">
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog138.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="549" sId="10" xfDxf="1" dxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLocation1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog139.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="15" sId="3" xfDxf="1" dxf="1">
@@ -7534,6 +8661,159 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog140.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="550" sId="10">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageQuantity1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="551" sId="10">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageWidth1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog142.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="552" sId="10">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLength1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog143.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="553" sId="10">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageDeep1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog144.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="554" sId="10" odxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSafeWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="555" sId="10" odxf="1">
+    <nc r="W2">
+      <v>26000</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog145.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="556" sId="10" odxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTareWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="557" sId="10" odxf="1">
+    <nc r="X2">
+      <v>2000</v>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog146.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="558" sId="10">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerCSCDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog147.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="559" sId="10">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNF</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog148.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="560" sId="10">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNRStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog149.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="561" sId="10">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverHeight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="562" sId="10">
+    <nc r="AB2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -7549,6 +8829,129 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog150.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="563" sId="10">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverLeft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="564" sId="10">
+    <nc r="AC2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="565" sId="10">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverRight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="566" sId="10">
+    <nc r="AD2">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog152.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="567" sId="10">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverFore</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="568" sId="10">
+    <nc r="AE2">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog153.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="569" sId="10">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverAft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="570" sId="10">
+    <nc r="AF2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog154.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="571" sId="10">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerUnits</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="572" sId="10">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog155.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="573" sId="10">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerGradeValue</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog156.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="574" sId="10">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -9354,12 +10757,13 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
   <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="itluser" id="-446759165" dateTime="2018-04-26T11:51:19"/>
   <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
+  <userInfo guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" name="ITL-USER" id="-1580107082" dateTime="2018-05-07T15:13:24"/>
 </users>
 </file>
 
@@ -9629,12 +11033,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.42578125" customWidth="1"/>
@@ -9723,7 +11127,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9737,7 +11141,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9751,7 +11155,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9784,104 +11188,371 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="32" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="O2" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" s="15">
+        <v>26000</v>
+      </c>
+      <c r="X2" s="15">
+        <v>2000</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>11</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
+      <selection activeCell="AH2" sqref="AH2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="D11" sqref="D11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="15" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9941,11 +11612,16 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9957,8 +11633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10048,19 +11724,19 @@
         <v>254</v>
       </c>
       <c r="U1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V1" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s">
         <v>257</v>
       </c>
-      <c r="V1" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>259</v>
       </c>
-      <c r="X1" t="s">
-        <v>261</v>
-      </c>
       <c r="Y1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -10097,6 +11773,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10114,8 +11794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10451,19 +12131,24 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
       <selection activeCell="U3" sqref="U3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10471,8 +12156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10544,22 +12229,22 @@
         <v>87</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>233</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>234</v>
@@ -10574,55 +12259,55 @@
         <v>237</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="11" t="s">
         <v>238</v>
       </c>
       <c r="AF1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AR1" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="AT1" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -10809,7 +12494,7 @@
       <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
       <c r="AS4" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AT4" s="11"/>
     </row>
@@ -10819,7 +12504,7 @@
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -10871,7 +12556,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="AS5" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AT5" s="11"/>
     </row>
@@ -10944,6 +12629,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10961,7 +12650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
     </sheetView>
   </sheetViews>
@@ -10975,13 +12664,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>217</v>
@@ -10993,19 +12682,19 @@
         <v>219</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -11017,7 +12706,7 @@
         <v>220</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>221</v>
@@ -11052,7 +12741,7 @@
         <v>224</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>225</v>
@@ -11124,11 +12813,16 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11140,7 +12834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
@@ -11366,6 +13060,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11373,10 +13072,11 @@
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11453,19 +13153,24 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -11489,6 +13194,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="347">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1057,6 +1057,24 @@
   </si>
   <si>
     <t>FOOD</t>
+  </si>
+  <si>
+    <t>YINV_103</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>YINV_104</t>
+  </si>
+  <si>
+    <t>YINV_105</t>
+  </si>
+  <si>
+    <t>YINV_106</t>
+  </si>
+  <si>
+    <t>YINV_107</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1151,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" diskRevisions="1" revisionId="574" version="156">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DA9B9AA6-9824-4498-8B11-67108356B4C6}" diskRevisions="1" revisionId="699" version="169">
   <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
     <sheetIdMap count="8">
       <sheetId val="1"/>
@@ -3245,6 +3263,201 @@
     </sheetIdMap>
   </header>
   <header guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" dateTime="2018-05-07T17:33:18" maxSheetId="12" userName="ITL-USER" r:id="rId156" minRId="574">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{367A61BB-AE66-4CA6-B1D0-4C333D870C97}" dateTime="2018-05-08T12:10:59" maxSheetId="12" userName="ITL-USER" r:id="rId157" minRId="575" maxRId="588">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FE2144F4-D788-49F4-90A7-B537CF7B53AA}" dateTime="2018-05-08T12:12:26" maxSheetId="12" userName="ITL-USER" r:id="rId158" minRId="589">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{225788DB-C5D6-433D-BE07-3B814C3CDD52}" dateTime="2018-05-08T14:23:29" maxSheetId="12" userName="ITL-USER" r:id="rId159" minRId="590" maxRId="592">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" dateTime="2018-05-08T15:57:06" maxSheetId="12" userName="itluser" r:id="rId160" minRId="593">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4AD15B65-EDF4-441E-A579-F0CB076CE2A8}" dateTime="2018-05-08T15:57:54" maxSheetId="12" userName="ITL-USER" r:id="rId161" minRId="594" maxRId="609">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E50C86A3-BFD1-4DC3-9E99-A30860AC5C11}" dateTime="2018-05-08T16:04:42" maxSheetId="12" userName="ITL-USER" r:id="rId162" minRId="610" maxRId="626">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{866BF670-6FDB-4811-95C1-C3B53501848D}" dateTime="2018-05-09T11:13:45" maxSheetId="12" userName="ITL-USER" r:id="rId163" minRId="627" maxRId="638">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{682B8145-0A24-41E9-A272-B2694C98A17F}" dateTime="2018-05-09T11:13:58" maxSheetId="12" userName="ITL-USER" r:id="rId164" minRId="639" maxRId="640">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BBA348C1-519C-4CA7-A502-674492F771E8}" dateTime="2018-05-09T11:18:52" maxSheetId="12" userName="ITL-USER" r:id="rId165" minRId="641" maxRId="656">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4CEB6B81-995E-4817-A148-6F400EA4F2EE}" dateTime="2018-05-09T11:44:27" maxSheetId="12" userName="ITL-USER" r:id="rId166" minRId="657" maxRId="672">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1DCFD4B7-3B3F-4269-A3C5-29575ADC77A6}" dateTime="2018-05-09T11:44:55" maxSheetId="12" userName="ITL-USER" r:id="rId167" minRId="673" maxRId="680">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{32CAEBC9-0199-4828-97A3-A0211B344A98}" dateTime="2018-05-09T11:48:05" maxSheetId="12" userName="ITL-USER" r:id="rId168" minRId="681" maxRId="688">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DA9B9AA6-9824-4498-8B11-67108356B4C6}" dateTime="2018-05-09T11:49:35" maxSheetId="12" userName="ITL-USER" r:id="rId169" minRId="689" maxRId="699">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -8955,12 +9168,1045 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog157.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="575" sId="10" odxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="576" sId="10" odxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="577" sId="10" odxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="578" sId="10" odxf="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="579" sId="10" odxf="1">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="580" sId="10" odxf="1">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="581" sId="10" odxf="1">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="582" sId="10" odxf="1">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="583" sId="10" odxf="1">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="584" sId="10" odxf="1">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>SBSU1234571</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="585" sId="10">
+    <nc r="K4" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="586" sId="10">
+    <nc r="L4" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="587" sId="10">
+    <nc r="M4" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="588" sId="10" odxf="1">
+    <nc r="N4" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog158.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="589" sId="10">
+    <oc r="J4" t="inlineStr">
+      <is>
+        <t>SBSU1234571</t>
+      </is>
+    </oc>
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog159.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="590" sId="8" odxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="591" sId="8" odxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="592" sId="8" odxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="18" sId="3">
     <nc r="Z2">
       <v>16641</v>
     </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog160.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="593" sId="1" odxf="1">
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>YINV_101</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="594" sId="1" odxf="1">
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="595" sId="1" odxf="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="596" sId="1" odxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="597" sId="1" odxf="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="598" sId="1" odxf="1">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="599" sId="1" odxf="1">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="600" sId="1" odxf="1">
+    <nc r="G10" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="601" sId="1" odxf="1">
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>Configuration</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="602" sId="1" odxf="1">
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="603" sId="1" odxf="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="604" sId="1" odxf="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="605" sId="1" odxf="1">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="606" sId="1" odxf="1">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="607" sId="1" odxf="1">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="608" sId="1" odxf="1">
+    <nc r="G12" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="609" sId="1" odxf="1">
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog162.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="610" sId="10" odxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="611" sId="10" odxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="612" sId="10" odxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="613" sId="10" odxf="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="614" sId="10" odxf="1">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="615" sId="10" odxf="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="616" sId="10" odxf="1">
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="617" sId="10" odxf="1">
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="618" sId="10" odxf="1">
+    <nc r="I5" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="619" sId="10" odxf="1">
+    <nc r="J5" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="620" sId="10">
+    <nc r="K5" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="621" sId="10">
+    <nc r="L5" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="622" sId="10">
+    <nc r="M5" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="623" sId="10" odxf="1">
+    <nc r="N5" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="624" sId="10">
+    <nc r="O5" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="625" sId="10">
+    <nc r="P5" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="626" sId="10">
+    <nc r="Q5" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog163.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="627" sId="10" odxf="1">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="628" sId="10" odxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="629" sId="10" odxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="630" sId="10" odxf="1">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="631" sId="10" odxf="1">
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="632" sId="10" odxf="1">
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="633" sId="10" odxf="1">
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="634" sId="10" odxf="1">
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="635" sId="10" odxf="1">
+    <nc r="I6" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="636" sId="10" odxf="1">
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="637" sId="10">
+    <nc r="W6">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="638" sId="10">
+    <nc r="X6">
+      <v>2000</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog164.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="639" sId="1" eol="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="640" sId="1">
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog165.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="641" sId="1">
+    <oc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </oc>
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="642" sId="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="643" sId="1">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="644" sId="1">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="645" sId="1">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="646" sId="1">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="647" sId="1">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="648" sId="1">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="649" sId="1" odxf="1">
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="650" sId="1" odxf="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="651" sId="1" odxf="1">
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="652" sId="1" odxf="1">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="653" sId="1" odxf="1">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="654" sId="1" odxf="1">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="655" sId="1" odxf="1">
+    <nc r="G14" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="656" sId="1" odxf="1">
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog166.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="657" sId="10" odxf="1">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="658" sId="10" odxf="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="659" sId="10" odxf="1">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="660" sId="10" odxf="1">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="661" sId="10" odxf="1">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="662" sId="10" odxf="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="663" sId="10" odxf="1">
+    <nc r="G7" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="664" sId="10" odxf="1">
+    <nc r="H7" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="665" sId="10" odxf="1">
+    <nc r="I7" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="666" sId="10" odxf="1">
+    <nc r="J7" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="667" sId="10" odxf="1">
+    <nc r="AB7">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="668" sId="10" odxf="1">
+    <nc r="AC7">
+      <v>11</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="669" sId="10" odxf="1">
+    <nc r="AD7">
+      <v>12</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="670" sId="10" odxf="1">
+    <nc r="AE7">
+      <v>13</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="671" sId="10" odxf="1">
+    <nc r="AF7">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="672" sId="10" odxf="1">
+    <nc r="AG7" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog167.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="673" sId="1" odxf="1">
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="674" sId="1" odxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="675" sId="1" odxf="1">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="676" sId="1" odxf="1">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="677" sId="1" odxf="1">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="678" sId="1" odxf="1">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="679" sId="1" odxf="1">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="680" sId="1" odxf="1">
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog168.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="681" sId="1" odxf="1">
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="682" sId="1" odxf="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="683" sId="1" odxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="684" sId="1" odxf="1">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="685" sId="1" odxf="1">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="686" sId="1" odxf="1">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="687" sId="1" odxf="1">
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="688" sId="1" odxf="1">
+    <nc r="H16" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog169.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="689" sId="10" odxf="1">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="690" sId="10" odxf="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="691" sId="10" odxf="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="692" sId="10" odxf="1">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="693" sId="10" odxf="1">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="694" sId="10" odxf="1">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="695" sId="10" odxf="1">
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="696" sId="10" odxf="1">
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="697" sId="10" odxf="1">
+    <nc r="I8" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="698" sId="10" odxf="1">
+    <nc r="J8" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="699" sId="10" odxf="1">
+    <nc r="AH8" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+    <odxf/>
   </rcc>
 </revisions>
 </file>
@@ -10756,14 +12002,14 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
   <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="itluser" id="-446759165" dateTime="2018-04-26T11:51:19"/>
   <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
-  <userInfo guid="{0D847394-68DB-4FEB-828F-2A6960EA0820}" name="ITL-USER" id="-1580107082" dateTime="2018-05-07T15:13:24"/>
+  <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
 </users>
 </file>
 
@@ -11030,10 +12276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11183,6 +12429,174 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11211,10 +12625,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11475,6 +12889,256 @@
         <v>321</v>
       </c>
     </row>
+    <row r="4" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15">
+        <v>26000</v>
+      </c>
+      <c r="X6" s="15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
@@ -11499,7 +13163,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13176,20 +14840,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7155" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="348">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1075,6 +1075,9 @@
   </si>
   <si>
     <t>YINV_107</t>
+  </si>
+  <si>
+    <t>YINV_102</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1154,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DA9B9AA6-9824-4498-8B11-67108356B4C6}" diskRevisions="1" revisionId="699" version="169">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" diskRevisions="1" revisionId="738" version="172">
   <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
     <sheetIdMap count="8">
       <sheetId val="1"/>
@@ -3458,6 +3461,51 @@
     </sheetIdMap>
   </header>
   <header guid="{DA9B9AA6-9824-4498-8B11-67108356B4C6}" dateTime="2018-05-09T11:49:35" maxSheetId="12" userName="ITL-USER" r:id="rId169" minRId="689" maxRId="699">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{39280401-B48C-4FAF-9943-A0A000BD6D3C}" dateTime="2018-05-11T12:28:18" maxSheetId="12" userName="ITL-USER" r:id="rId170" minRId="700" maxRId="710">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B87912C-1671-4BED-81EB-CBBF172E41FE}" dateTime="2018-05-11T12:28:40" maxSheetId="12" userName="ITL-USER" r:id="rId171" minRId="711" maxRId="718">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" dateTime="2018-05-11T12:29:57" maxSheetId="12" userName="ITL-USER" r:id="rId172" minRId="719" maxRId="738">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -10235,6 +10283,321 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog170.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="700" sId="10" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="701" sId="10">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="702" sId="10">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="703" sId="10">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="704" sId="10">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="705" sId="10">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="706" sId="10">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="707" sId="10">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="708" sId="10">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="709" sId="10">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>Query</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="710" sId="10">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="711" sId="8">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="712" sId="8">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="713" sId="8">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="714" sId="8">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="715" sId="8">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="716" sId="8">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="717" sId="8">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="718" sId="8">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog172.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="719" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="720" sId="1">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="721" sId="1">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="722" sId="1">
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="723" sId="1">
+    <nc r="F11" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="724" sId="1">
+    <nc r="G11" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="725" sId="1">
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="726" sId="1">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>YINV_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="727" sId="1">
+    <oc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </oc>
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="728" sId="1">
+    <oc r="A14" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </oc>
+    <nc r="A14" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="729" sId="1">
+    <oc r="A15" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </oc>
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="730" sId="1">
+    <oc r="A16" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </oc>
+    <nc r="A16" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="731" sId="1" odxf="1">
+    <nc r="A17" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="732" sId="1" odxf="1">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="733" sId="1" odxf="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="734" sId="1" odxf="1">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="735" sId="1" odxf="1">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="736" sId="1" odxf="1">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="737" sId="1" odxf="1">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="738" sId="1" odxf="1">
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>Operations</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -12002,14 +12365,15 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
   <userInfo guid="{95EE2E05-20D2-463A-8E2E-2247B0718DDE}" name="itluser" id="-446759165" dateTime="2018-04-26T11:51:19"/>
   <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
   <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
+  <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
 </users>
 </file>
 
@@ -12276,10 +12640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,17 +12826,31 @@
       <c r="A11" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>3</v>
@@ -12498,7 +12876,7 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>3</v>
@@ -12524,7 +12902,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -12550,7 +12928,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>3</v>
@@ -12576,7 +12954,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>3</v>
@@ -12597,13 +12975,39 @@
         <v>15</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -12612,8 +13016,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -12625,10 +13029,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12891,7 +13295,7 @@
     </row>
     <row r="4" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>3</v>
@@ -12920,22 +13324,10 @@
       <c r="J4" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>315</v>
-      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>3</v>
@@ -12975,20 +13367,11 @@
       </c>
       <c r="N5" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>3</v>
@@ -13017,22 +13400,31 @@
       <c r="J6" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15">
-        <v>26000</v>
-      </c>
-      <c r="X6" s="15">
-        <v>2000</v>
+      <c r="K6" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>3</v>
@@ -13067,31 +13459,16 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>11</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>12</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>13</v>
-      </c>
-      <c r="AF7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="15" t="s">
-        <v>338</v>
+      <c r="W7" s="15">
+        <v>26000</v>
+      </c>
+      <c r="X7" s="15">
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>3</v>
@@ -13129,28 +13506,87 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15" t="s">
+      <c r="AB8" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>13</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15" t="s">
         <v>340</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
+      <selection activeCell="AH2" sqref="AH2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -13163,7 +13599,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13211,11 +13647,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13276,7 +13712,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13284,7 +13720,7 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13437,7 +13873,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13445,7 +13881,7 @@
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13795,7 +14231,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13805,7 +14241,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14293,7 +14729,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14301,7 +14737,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14477,7 +14913,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14485,7 +14921,7 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14724,7 +15160,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14733,7 +15169,7 @@
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -14817,7 +15253,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14827,7 +15263,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14840,10 +15276,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14868,9 +15304,41 @@
         <v>309</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14878,7 +15346,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="349">
   <si>
     <t>Flow Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>YRD1111</t>
   </si>
   <si>
-    <t>WorkMode</t>
-  </si>
-  <si>
     <t>PointID</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>LineInsuranceExpiration</t>
   </si>
   <si>
-    <t>Operations</t>
-  </si>
-  <si>
     <t>ERONumber</t>
   </si>
   <si>
@@ -810,9 +804,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>Configuration</t>
-  </si>
-  <si>
     <t>ReleaseNumber</t>
   </si>
   <si>
@@ -963,9 +954,6 @@
     <t>YINV_101</t>
   </si>
   <si>
-    <t>SBSU1234570</t>
-  </si>
-  <si>
     <t>n4YinvQueryContainerSeal2</t>
   </si>
   <si>
@@ -1078,6 +1066,21 @@
   </si>
   <si>
     <t>YINV_102</t>
+  </si>
+  <si>
+    <t>EquipmentToBeAttached</t>
+  </si>
+  <si>
+    <t>EquipmentRole</t>
+  </si>
+  <si>
+    <t>ASWU2705190</t>
+  </si>
+  <si>
+    <t>CHSASW</t>
+  </si>
+  <si>
+    <t>CARRIAGE</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1134,7 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1156,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" diskRevisions="1" revisionId="738" version="172">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" diskRevisions="1" revisionId="769" version="174">
   <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
     <sheetIdMap count="8">
       <sheetId val="1"/>
@@ -3506,6 +3508,36 @@
     </sheetIdMap>
   </header>
   <header guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" dateTime="2018-05-11T12:29:57" maxSheetId="12" userName="ITL-USER" r:id="rId172" minRId="719" maxRId="738">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CE6373AA-7A1D-49D9-80D0-06E398DFAE9D}" dateTime="2018-05-22T11:32:10" maxSheetId="12" userName="ITL-USER" r:id="rId173" minRId="739" maxRId="757">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" dateTime="2018-05-22T11:32:37" maxSheetId="12" userName="ITL-USER" r:id="rId174" minRId="758" maxRId="769">
     <sheetIdMap count="11">
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -10598,6 +10630,432 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog173.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="739" sId="1" ref="H1:H1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="H1:H1048576" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="H1" t="inlineStr">
+        <is>
+          <t>WorkMode</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H2" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H4" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H5" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H6" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H7" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H8" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H9" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H10" t="inlineStr">
+        <is>
+          <t>Configuration</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H11" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H12" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H13" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H14" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H15" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H16" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H17" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="740" sId="8" odxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EquipmentToBeAttached</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="741" sId="8" odxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>EquipmentRole</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="742" sId="8">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>YINV_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="743" sId="8">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="744" sId="8">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="745" sId="8">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="746" sId="8" odxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>CHSASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="747" sId="8" odxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>CARRIAGE</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="748" sId="8">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="749" sId="8">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="750" sId="8">
+    <oc r="A5" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </oc>
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="751" sId="8">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="752" sId="8">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="753" sId="8">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="754" sId="8">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="755" sId="8">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="756" sId="8">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="757" sId="8">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog174.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="758" sId="10" odxf="1">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="759" sId="10">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="760" sId="10">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="761" sId="10">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="762" sId="10" odxf="1">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="763" sId="10">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="764" sId="10">
+    <oc r="J4" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="765" sId="10">
+    <oc r="J5" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="766" sId="10">
+    <oc r="J6" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="767" sId="10">
+    <oc r="J7" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="768" sId="10">
+    <oc r="J8" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="769" sId="10">
+    <oc r="J9" t="inlineStr">
+      <is>
+        <t>SBSU1234570</t>
+      </is>
+    </oc>
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -12366,7 +12824,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -12374,6 +12832,7 @@
   <userInfo guid="{643B5170-02EC-4179-A42E-444C0001D79C}" name="itluser" id="-446801440" dateTime="2018-04-26T12:21:33"/>
   <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
   <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
+  <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
 </users>
 </file>
 
@@ -12640,10 +13099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12652,10 +13111,9 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12677,13 +13135,10 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -12703,18 +13158,15 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -12722,13 +13174,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -12736,13 +13185,10 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -12750,13 +13196,10 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -12764,13 +13207,10 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -12778,13 +13218,10 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -12792,222 +13229,195 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>258</v>
-      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>132</v>
-      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="15" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -13016,8 +13426,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -13031,43 +13441,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="32" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -13075,108 +13485,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="AA1" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AB1" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="AD1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE1" t="s">
+      <c r="AH1" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
@@ -13197,396 +13607,380 @@
         <v>15</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="L2" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="W2" s="14">
+        <v>26000</v>
+      </c>
+      <c r="X2" s="14">
+        <v>2000</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="O2" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="W2" s="15">
-        <v>26000</v>
-      </c>
-      <c r="X2" s="15">
-        <v>2000</v>
-      </c>
-      <c r="AB2">
-        <v>10</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
-      <c r="AD2">
-        <v>12</v>
-      </c>
-      <c r="AE2">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF2">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>340</v>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="L5" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="L6" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="O6" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>321</v>
+      <c r="P6" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15">
+      <c r="H7" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="W7" s="14">
         <v>26000</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15">
+      <c r="H8" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB8" s="14">
         <v>10</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>11</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <v>12</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <v>13</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="14">
         <v>10</v>
       </c>
-      <c r="AG8" s="15" t="s">
-        <v>338</v>
+      <c r="AG8" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15" t="s">
-        <v>340</v>
+      <c r="AH9" s="14" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
+      <selection activeCell="AH2" sqref="AH2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -13612,46 +14006,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>183</v>
+      <c r="B1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>184</v>
+      <c r="E2" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13675,44 +14069,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
         <v>205</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>209</v>
-      </c>
-      <c r="E2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13720,7 +14114,7 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13767,113 +14161,113 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
       </c>
-      <c r="H1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>193</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
         <v>195</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>196</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>202</v>
-      </c>
       <c r="R1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" t="s">
         <v>212</v>
       </c>
-      <c r="S1" t="s">
-        <v>214</v>
-      </c>
       <c r="T1" t="s">
+        <v>252</v>
+      </c>
+      <c r="U1" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" t="s">
         <v>254</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>255</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>256</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>257</v>
-      </c>
-      <c r="X1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13881,7 +14275,7 @@
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13960,278 +14354,278 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
-        <v>72</v>
-      </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
       <c r="P1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>83</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" t="s">
-        <v>85</v>
-      </c>
       <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" t="s">
-        <v>90</v>
-      </c>
       <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" t="s">
-        <v>96</v>
-      </c>
       <c r="AC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" t="s">
-        <v>107</v>
-      </c>
       <c r="AJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>111</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>112</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>113</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>115</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>116</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>117</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>118</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>119</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>120</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>121</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>122</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>124</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>125</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>126</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>127</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>128</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>129</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>130</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>18811</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N2" s="6">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="6">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2" s="7">
         <v>30753</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" t="s">
-        <v>109</v>
-      </c>
       <c r="AG2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AZ2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA2" t="s">
         <v>5</v>
       </c>
       <c r="BD2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14241,7 +14635,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14275,153 +14669,153 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="X1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="AQ1" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="AT1" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>231</v>
@@ -14430,40 +14824,40 @@
         <v>232</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
@@ -14497,37 +14891,37 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="R3" t="s">
+        <v>248</v>
+      </c>
+      <c r="S3" t="s">
+        <v>248</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
-        <v>250</v>
-      </c>
-      <c r="S3" t="s">
-        <v>250</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="Y3" s="11">
         <v>10012</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -14551,14 +14945,14 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -14573,13 +14967,13 @@
         <v>55</v>
       </c>
       <c r="AD4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
@@ -14594,17 +14988,17 @@
       <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
       <c r="AS4" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AT4" s="11"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -14617,46 +15011,46 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AH5" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AJ5" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AL5" s="13">
         <v>0.33680555555555558</v>
       </c>
       <c r="AM5" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN5" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP5" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="AQ5" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR5" s="13">
         <v>0.67083333333333339</v>
       </c>
       <c r="AS5" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AT5" s="11"/>
     </row>
@@ -14674,62 +15068,62 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AH6" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AJ6" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AL6" s="13">
         <v>0.33680555555555558</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN6" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP6" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AR6" s="13">
         <v>0.52361111111111114</v>
       </c>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:41" x14ac:dyDescent="0.25">
       <c r="AO22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="40:41" x14ac:dyDescent="0.25">
       <c r="AN25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14737,7 +15131,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14764,37 +15158,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -14803,20 +15197,20 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I2" s="8">
         <v>155</v>
@@ -14835,32 +15229,32 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -14869,7 +15263,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -14879,10 +15273,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -14893,7 +15287,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -14913,7 +15307,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14921,7 +15315,7 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14970,165 +15364,165 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>142</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" t="s">
         <v>144</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="M1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" t="s">
         <v>154</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>155</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>156</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>157</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>158</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>159</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>160</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>161</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>162</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>163</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>165</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>166</v>
       </c>
-      <c r="AE1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>168</v>
       </c>
-      <c r="AG1" t="s">
-        <v>170</v>
-      </c>
       <c r="AH1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI1" t="s">
         <v>171</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z2">
         <v>10</v>
@@ -15146,21 +15540,21 @@
         <v>2200</v>
       </c>
       <c r="AF2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG2" t="s">
         <v>5</v>
       </c>
       <c r="AH2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI2" t="s">
         <v>172</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15169,7 +15563,7 @@
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15198,48 +15592,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>1900</v>
@@ -15248,12 +15642,12 @@
         <v>25000</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15263,7 +15657,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15276,69 +15670,100 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>346</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15346,7 +15771,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.137\SharedExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestComplete\TestN4\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="9"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="5"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="350">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1081,6 +1081,9 @@
   </si>
   <si>
     <t>CARRIAGE</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1156,82 +1159,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" diskRevisions="1" revisionId="769" version="174">
-  <header guid="{0C6C8E69-ABD3-4A89-B740-FE71B52466B3}" dateTime="2018-04-13T11:32:52" maxSheetId="9" userName="itluser" r:id="rId1">
-    <sheetIdMap count="8">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8D7070DE-BE8D-4864-A8E6-4A0089D94AD9}" dateTime="2018-04-13T11:33:17" maxSheetId="9" userName="ITLAdmin" r:id="rId2" minRId="1">
-    <sheetIdMap count="8">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4E13D880-8C4E-49BA-82E3-CA6A50715FEF}" dateTime="2018-04-13T11:47:11" maxSheetId="9" userName="itluser" r:id="rId3" minRId="2">
-    <sheetIdMap count="8">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7208F52C-887A-48FC-B709-7AE2B2F9146F}" dateTime="2018-04-13T11:47:28" maxSheetId="10" userName="itluser" r:id="rId4" minRId="3" maxRId="4">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="9"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B74A3880-92EA-4A13-93CF-EFE65C45D681}" dateTime="2018-04-13T11:47:31" maxSheetId="10" userName="itluser" r:id="rId5" minRId="5">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="9"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1A6ABE8E-3A3E-4A26-A003-4E2A34104BA8}" dateTime="2018-04-13T11:48:25" maxSheetId="10" userName="itluser" r:id="rId6" minRId="6">
-    <sheetIdMap count="9">
-      <sheetId val="1"/>
-      <sheetId val="9"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3CB01C14-B4BF-415E-BFBE-7D62CFDE3729}" diskRevisions="1" revisionId="770" version="175">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -3552,11 +3480,22 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{3CB01C14-B4BF-415E-BFBE-7D62CFDE3729}" dateTime="2018-05-28T11:45:25" maxSheetId="12" userName="itluser" r:id="rId175" minRId="770">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11056,6 +10995,20 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog175.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="770" sId="9">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -11085,19 +11038,6 @@
       <numFmt numFmtId="166" formatCode="\+\1"/>
     </dxf>
   </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="3">
-    <nc r="T2" t="inlineStr">
-      <is>
-        <t>Driver@gmail.com</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
 </revisions>
 </file>
 
@@ -11409,18 +11349,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" sId="4">
-    <nc r="Q1" t="inlineStr">
-      <is>
-        <t>CreatePhase</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="53" sId="3" xfDxf="1" dxf="1">
@@ -11549,15 +11477,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="3" sheetId="9" name="[TestData.xlsx]Sheet1" sheetPosition="1"/>
-  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
-  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
-  <rsnm rId="4" sheetId="9" oldName="[TestData.xlsx]Sheet1" newName="[TestData.xlsx]XPSLogin"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="62" sId="3" xfDxf="1" dxf="1">
@@ -11718,23 +11637,6 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="4">
-    <nc r="Q2" t="inlineStr">
-      <is>
-        <t>Inbound</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="4" sqref="Q2">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </rfmt>
 </revisions>
 </file>
 
@@ -11974,18 +11876,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="6" sId="9">
-    <nc r="A1" t="inlineStr">
-      <is>
-        <t>Flow Name</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="98" sId="6" xfDxf="1" dxf="1">
@@ -12823,7 +12713,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
@@ -13102,7 +12992,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13416,18 +13306,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -13441,8 +13331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13971,16 +13861,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
-      <selection activeCell="AH2" sqref="AH2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="AC1" sqref="AC1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
+      <selection activeCell="AH2" sqref="AH2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -14041,7 +13931,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14049,6 +13939,10 @@
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14056,15 +13950,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14083,8 +13985,11 @@
       <c r="F1" t="s">
         <v>205</v>
       </c>
+      <c r="G1" t="s">
+        <v>349</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -14106,18 +14011,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H1" sqref="H1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14127,8 +14032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14267,10 +14172,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14279,6 +14180,10 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14288,8 +14193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14625,17 +14530,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="U3" sqref="U3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="U3" sqref="U3"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14651,7 +14556,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15123,15 +15028,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15307,10 +15212,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15319,6 +15220,10 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15328,7 +15233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
@@ -15554,11 +15459,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15566,11 +15466,15 @@
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15647,17 +15551,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15673,7 +15577,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15763,10 +15667,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15775,6 +15675,10 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestComplete\TestN4\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,20 @@
     <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId9"/>
     <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId10"/>
     <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId11"/>
+    <sheet name="YardInventoryQuery" sheetId="12" r:id="rId12"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="13"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="9"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="10"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="383">
   <si>
     <t>Flow Name</t>
   </si>
@@ -579,12 +581,6 @@
     <t>Vessel</t>
   </si>
   <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>ICY_Commodity.xml</t>
-  </si>
-  <si>
     <t>MailBoxName</t>
   </si>
   <si>
@@ -1084,6 +1080,111 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>WebRequest</t>
+  </si>
+  <si>
+    <t>\PurgeUnit.txt</t>
+  </si>
+  <si>
+    <t>n4YinvQueryBundleContainer1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerHasPlacard</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerPlacard1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDoorDirection</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerEvent</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerLineOperator</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerEqType</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTankRails</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerChassis</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerNotes</t>
+  </si>
+  <si>
+    <t>SBSU1234590</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CLASS 1.4</t>
+  </si>
+  <si>
+    <t>Aft</t>
+  </si>
+  <si>
+    <t>TEST-CTR-LOAD-EDI</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>CHS1</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>n4YInspEnterContainer</t>
+  </si>
+  <si>
+    <t>n4YInspEnterSeal</t>
+  </si>
+  <si>
+    <t>n4YInspDamageComponent</t>
+  </si>
+  <si>
+    <t>n4YInspDamageType</t>
+  </si>
+  <si>
+    <t>n4YInspDamageSeverity</t>
+  </si>
+  <si>
+    <t>n4YInspDamageLocation</t>
+  </si>
+  <si>
+    <t>n4YInspDamageWidth</t>
+  </si>
+  <si>
+    <t>n4YInspDamageLength</t>
+  </si>
+  <si>
+    <t>n4YInspDamageDepth</t>
+  </si>
+  <si>
+    <t>n4YInspOOGH</t>
+  </si>
+  <si>
+    <t>n4YInspOOGL</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>n4YInspOOGR</t>
+  </si>
+  <si>
+    <t>n4YInspOOGF</t>
+  </si>
+  <si>
+    <t>n4YInspOOGA</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1260,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3CB01C14-B4BF-415E-BFBE-7D62CFDE3729}" diskRevisions="1" revisionId="770" version="175">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" diskRevisions="1" revisionId="942" version="183">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -3495,7 +3596,178 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{1D851247-D27D-4079-842F-E8BEE56F43FC}" dateTime="2018-06-04T15:26:40" maxSheetId="12" userName="ITL-USER" r:id="rId176" minRId="771" maxRId="773">
+    <sheetIdMap count="11">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6B3D7986-4CED-4793-B218-11ABE0F4EAE7}" dateTime="2018-06-04T15:41:30" maxSheetId="13" userName="ITL-USER" r:id="rId177" minRId="774" maxRId="838">
+    <sheetIdMap count="12">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFA85622-56D2-4E0E-8BF5-66A87AAB6A23}" dateTime="2018-06-04T15:41:44" maxSheetId="14" userName="ITL-USER" r:id="rId178" minRId="839" maxRId="859">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{438B3F62-5B92-4823-A34F-6E8218219287}" dateTime="2018-06-04T16:02:08" maxSheetId="14" userName="ITL-USER" r:id="rId179" minRId="860" maxRId="861">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D74FD33A-6044-4171-A03D-67805D516CFB}" dateTime="2018-06-04T16:09:52" maxSheetId="14" userName="ITL-USER" r:id="rId180" minRId="862" maxRId="863">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{060CB6DC-B053-4558-A308-6B6B10B75484}" dateTime="2018-06-04T16:17:46" maxSheetId="14" userName="ITL-USER" r:id="rId181" minRId="864" maxRId="939">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{60E0AFCF-AC01-48CF-AA9F-9600287AE28C}" dateTime="2018-06-04T16:23:05" maxSheetId="14" userName="ITL-USER" r:id="rId182" minRId="940" maxRId="941">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" dateTime="2018-06-04T16:24:09" maxSheetId="14" userName="ITL-USER" r:id="rId183" minRId="942">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="771" sId="11" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="E1:E1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="E1" t="inlineStr">
+        <is>
+          <t>FileName</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="11">
+      <nc r="E2" t="inlineStr">
+        <is>
+          <t>ICY_Commodity.xml</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="772" sId="11">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>WebRequest</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="773" sId="11">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>\PurgeUnit.txt</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11009,6 +11281,40 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog176.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="940" sId="13">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="941" sId="13">
+    <nc r="O2">
+      <v>10</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog177.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="942" sId="13">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGR</t>
+      </is>
+    </oc>
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGA</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -11038,6 +11344,510 @@
       <numFmt numFmtId="166" formatCode="\+\1"/>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="774" sheetId="12" name="[TestData.xlsx]YardInventoryQuery" sheetPosition="11"/>
+  <rcc rId="775" sId="12" odxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="776" sId="12" odxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainer</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="777" sId="12" odxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="778" sId="12" odxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="779" sId="12" odxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="780" sId="12" odxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="781" sId="12" odxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageComponent1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="782" sId="12" odxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageType1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="783" sId="12" odxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageSeverity1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="784" sId="12" odxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLocation1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="785" sId="12" odxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageQuantity1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="786" sId="12" odxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageWidth1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="787" sId="12" odxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLength1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="788" sId="12" odxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageDeep1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="789" sId="12" odxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSafeWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="790" sId="12" odxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTareWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="791" sId="12" odxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerCSCDate</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="792" sId="12" odxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNF</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="793" sId="12" odxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNRStatus</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="794" sId="12" odxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverHeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="795" sId="12" odxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverLeft</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="796" sId="12" odxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverRight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="797" sId="12" odxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverFore</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="798" sId="12" odxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverAft</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="799" sId="12" odxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerUnits</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="800" sId="12" odxf="1">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerGradeValue</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="801" sId="12" odxf="1">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryBundleContainer1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="802" sId="12" odxf="1">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerHasPlacard</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="803" sId="12" odxf="1">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerPlacard1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="804" sId="12" odxf="1">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDoorDirection</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="805" sId="12" odxf="1">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerEvent</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="806" sId="12" odxf="1">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerLineOperator</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="807" sId="12" odxf="1">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerEqType</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="808" sId="12" odxf="1">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTankRails</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="809" sId="12" odxf="1">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerChassis</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="810" sId="12" odxf="1">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerNotes</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="811" sId="12" odxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="812" sId="12" odxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="813" sId="12" odxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="814" sId="12" odxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="815" sId="12" odxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="816" sId="12" odxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="817" sId="12" odxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="818" sId="12" odxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="819" sId="12" odxf="1">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="820" sId="12" odxf="1">
+    <nc r="O2">
+      <v>26000</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="821" sId="12" odxf="1">
+    <nc r="P2">
+      <v>2000</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="822" sId="12" odxf="1">
+    <nc r="T2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="823" sId="12" odxf="1">
+    <nc r="U2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="824" sId="12" odxf="1">
+    <nc r="V2">
+      <v>12</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="825" sId="12" odxf="1">
+    <nc r="W2">
+      <v>11</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="826" sId="12" odxf="1">
+    <nc r="X2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="827" sId="12" odxf="1">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="828" sId="12" odxf="1">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="829" sId="12" odxf="1">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="830" sId="12" odxf="1">
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="831" sId="12" odxf="1">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="832" sId="12" odxf="1">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="833" sId="12" odxf="1">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="834" sId="12" odxf="1">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="835" sId="12" odxf="1">
+    <nc r="AG2">
+      <v>2200</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="836" sId="12" odxf="1">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="837" sId="12" odxf="1">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="838" sId="12" odxf="1">
+    <nc r="AJ2" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -11349,6 +12159,170 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="839" sheetId="13" name="[TestData.xlsx]Sheet2" sheetPosition="12"/>
+  <rcc rId="840" sId="13" odxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="841" sId="13" odxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4YInspEnterContainer</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="842" sId="13" odxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4YInspEnterSeal</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="843" sId="13" odxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageComponent</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="844" sId="13" odxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageType</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="845" sId="13" odxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageSeverity</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="846" sId="13" odxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageLocation</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="847" sId="13" odxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageWidth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="848" sId="13" odxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageLength</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="849" sId="13" odxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4YInspDamageDepth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="850" sId="13" odxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGH</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="851" sId="13" odxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGL</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="852" sId="13" odxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="853" sId="13" odxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="854" sId="13" odxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="855" sId="13" odxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="856" sId="13" odxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="857" sId="13" odxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Minor</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="858" sId="13" odxf="1">
+    <nc r="K2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="859" sId="13" odxf="1">
+    <nc r="L2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="53" sId="3" xfDxf="1" dxf="1">
@@ -11477,6 +12451,25 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="860" sId="13">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="861" sId="13">
+    <nc r="M2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="62" sId="3" xfDxf="1" dxf="1">
@@ -11637,6 +12630,25 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="862" sId="13">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4YInspOOGF</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="863" sId="13">
+    <nc r="N2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -11876,6 +12888,591 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="864" sId="10">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainer</t>
+      </is>
+    </oc>
+    <nc r="J1"/>
+  </rcc>
+  <rcc rId="865" sId="10">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal1</t>
+      </is>
+    </oc>
+    <nc r="K1"/>
+  </rcc>
+  <rcc rId="866" sId="10">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal2</t>
+      </is>
+    </oc>
+    <nc r="L1"/>
+  </rcc>
+  <rcc rId="867" sId="10">
+    <oc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal3</t>
+      </is>
+    </oc>
+    <nc r="M1"/>
+  </rcc>
+  <rcc rId="868" sId="10">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSeal4</t>
+      </is>
+    </oc>
+    <nc r="N1"/>
+  </rcc>
+  <rcc rId="869" sId="10">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageComponent1</t>
+      </is>
+    </oc>
+    <nc r="O1"/>
+  </rcc>
+  <rcc rId="870" sId="10">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageType1</t>
+      </is>
+    </oc>
+    <nc r="P1"/>
+  </rcc>
+  <rcc rId="871" sId="10">
+    <oc r="Q1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageSeverity1</t>
+      </is>
+    </oc>
+    <nc r="Q1"/>
+  </rcc>
+  <rcc rId="872" sId="10">
+    <oc r="R1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLocation1</t>
+      </is>
+    </oc>
+    <nc r="R1"/>
+  </rcc>
+  <rcc rId="873" sId="10">
+    <oc r="S1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageQuantity1</t>
+      </is>
+    </oc>
+    <nc r="S1"/>
+  </rcc>
+  <rcc rId="874" sId="10">
+    <oc r="T1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageWidth1</t>
+      </is>
+    </oc>
+    <nc r="T1"/>
+  </rcc>
+  <rcc rId="875" sId="10">
+    <oc r="U1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageLength1</t>
+      </is>
+    </oc>
+    <nc r="U1"/>
+  </rcc>
+  <rcc rId="876" sId="10">
+    <oc r="V1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerDamageDeep1</t>
+      </is>
+    </oc>
+    <nc r="V1"/>
+  </rcc>
+  <rcc rId="877" sId="10">
+    <oc r="W1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerSafeWeight</t>
+      </is>
+    </oc>
+    <nc r="W1"/>
+  </rcc>
+  <rcc rId="878" sId="10">
+    <oc r="X1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTareWeight</t>
+      </is>
+    </oc>
+    <nc r="X1"/>
+  </rcc>
+  <rcc rId="879" sId="10">
+    <oc r="Y1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerCSCDate</t>
+      </is>
+    </oc>
+    <nc r="Y1"/>
+  </rcc>
+  <rcc rId="880" sId="10">
+    <oc r="Z1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNF</t>
+      </is>
+    </oc>
+    <nc r="Z1"/>
+  </rcc>
+  <rcc rId="881" sId="10">
+    <oc r="AA1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerMNRStatus</t>
+      </is>
+    </oc>
+    <nc r="AA1"/>
+  </rcc>
+  <rcc rId="882" sId="10">
+    <oc r="AB1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverHeight</t>
+      </is>
+    </oc>
+    <nc r="AB1"/>
+  </rcc>
+  <rcc rId="883" sId="10">
+    <oc r="AC1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverLeft</t>
+      </is>
+    </oc>
+    <nc r="AC1"/>
+  </rcc>
+  <rcc rId="884" sId="10">
+    <oc r="AD1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverRight</t>
+      </is>
+    </oc>
+    <nc r="AD1"/>
+  </rcc>
+  <rcc rId="885" sId="10">
+    <oc r="AE1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverFore</t>
+      </is>
+    </oc>
+    <nc r="AE1"/>
+  </rcc>
+  <rcc rId="886" sId="10">
+    <oc r="AF1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerOverAft</t>
+      </is>
+    </oc>
+    <nc r="AF1"/>
+  </rcc>
+  <rcc rId="887" sId="10">
+    <oc r="AG1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerUnits</t>
+      </is>
+    </oc>
+    <nc r="AG1"/>
+  </rcc>
+  <rcc rId="888" sId="10">
+    <oc r="AH1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerGradeValue</t>
+      </is>
+    </oc>
+    <nc r="AH1"/>
+  </rcc>
+  <rcc rId="889" sId="10">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J2"/>
+  </rcc>
+  <rcc rId="890" sId="10">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </oc>
+    <nc r="K2"/>
+  </rcc>
+  <rcc rId="891" sId="10">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </oc>
+    <nc r="L2"/>
+  </rcc>
+  <rcc rId="892" sId="10">
+    <oc r="M2" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </oc>
+    <nc r="M2"/>
+  </rcc>
+  <rcc rId="893" sId="10">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </oc>
+    <nc r="N2"/>
+  </rcc>
+  <rcc rId="894" sId="10">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </oc>
+    <nc r="O2"/>
+  </rcc>
+  <rcc rId="895" sId="10">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </oc>
+    <nc r="P2"/>
+  </rcc>
+  <rcc rId="896" sId="10">
+    <oc r="Q2" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </oc>
+    <nc r="Q2"/>
+  </rcc>
+  <rcc rId="897" sId="10">
+    <oc r="W2">
+      <v>26000</v>
+    </oc>
+    <nc r="W2"/>
+  </rcc>
+  <rcc rId="898" sId="10">
+    <oc r="X2">
+      <v>2000</v>
+    </oc>
+    <nc r="X2"/>
+  </rcc>
+  <rcc rId="899" sId="10">
+    <oc r="AB2">
+      <v>10</v>
+    </oc>
+    <nc r="AB2"/>
+  </rcc>
+  <rcc rId="900" sId="10">
+    <oc r="AC2">
+      <v>10</v>
+    </oc>
+    <nc r="AC2"/>
+  </rcc>
+  <rcc rId="901" sId="10">
+    <oc r="AD2">
+      <v>12</v>
+    </oc>
+    <nc r="AD2"/>
+  </rcc>
+  <rcc rId="902" sId="10">
+    <oc r="AE2">
+      <v>11</v>
+    </oc>
+    <nc r="AE2"/>
+  </rcc>
+  <rcc rId="903" sId="10">
+    <oc r="AF2">
+      <v>10</v>
+    </oc>
+    <nc r="AF2"/>
+  </rcc>
+  <rcc rId="904" sId="10">
+    <oc r="AG2" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </oc>
+    <nc r="AG2"/>
+  </rcc>
+  <rcc rId="905" sId="10">
+    <oc r="AH2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </oc>
+    <nc r="AH2"/>
+  </rcc>
+  <rcc rId="906" sId="10">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J3"/>
+  </rcc>
+  <rcc rId="907" sId="10">
+    <oc r="K3" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </oc>
+    <nc r="K3"/>
+  </rcc>
+  <rcc rId="908" sId="10">
+    <oc r="L3" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </oc>
+    <nc r="L3"/>
+  </rcc>
+  <rcc rId="909" sId="10">
+    <oc r="M3" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </oc>
+    <nc r="M3"/>
+  </rcc>
+  <rcc rId="910" sId="10">
+    <oc r="N3" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </oc>
+    <nc r="N3"/>
+  </rcc>
+  <rcc rId="911" sId="10">
+    <oc r="O3" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </oc>
+    <nc r="O3"/>
+  </rcc>
+  <rcc rId="912" sId="10">
+    <oc r="P3" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </oc>
+    <nc r="P3"/>
+  </rcc>
+  <rcc rId="913" sId="10">
+    <oc r="Q3" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </oc>
+    <nc r="Q3"/>
+  </rcc>
+  <rcc rId="914" sId="10">
+    <oc r="J4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J4"/>
+  </rcc>
+  <rcc rId="915" sId="10">
+    <oc r="J5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J5"/>
+  </rcc>
+  <rcc rId="916" sId="10">
+    <oc r="K5" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </oc>
+    <nc r="K5"/>
+  </rcc>
+  <rcc rId="917" sId="10">
+    <oc r="L5" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </oc>
+    <nc r="L5"/>
+  </rcc>
+  <rcc rId="918" sId="10">
+    <oc r="M5" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </oc>
+    <nc r="M5"/>
+  </rcc>
+  <rcc rId="919" sId="10">
+    <oc r="N5" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </oc>
+    <nc r="N5"/>
+  </rcc>
+  <rcc rId="920" sId="10">
+    <oc r="J6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J6"/>
+  </rcc>
+  <rcc rId="921" sId="10">
+    <oc r="K6" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </oc>
+    <nc r="K6"/>
+  </rcc>
+  <rcc rId="922" sId="10">
+    <oc r="L6" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </oc>
+    <nc r="L6"/>
+  </rcc>
+  <rcc rId="923" sId="10">
+    <oc r="M6" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </oc>
+    <nc r="M6"/>
+  </rcc>
+  <rcc rId="924" sId="10">
+    <oc r="N6" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </oc>
+    <nc r="N6"/>
+  </rcc>
+  <rcc rId="925" sId="10">
+    <oc r="O6" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </oc>
+    <nc r="O6"/>
+  </rcc>
+  <rcc rId="926" sId="10">
+    <oc r="P6" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </oc>
+    <nc r="P6"/>
+  </rcc>
+  <rcc rId="927" sId="10">
+    <oc r="Q6" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </oc>
+    <nc r="Q6"/>
+  </rcc>
+  <rcc rId="928" sId="10">
+    <oc r="J7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J7"/>
+  </rcc>
+  <rcc rId="929" sId="10">
+    <oc r="W7">
+      <v>26000</v>
+    </oc>
+    <nc r="W7"/>
+  </rcc>
+  <rcc rId="930" sId="10">
+    <oc r="X7">
+      <v>2000</v>
+    </oc>
+    <nc r="X7"/>
+  </rcc>
+  <rcc rId="931" sId="10">
+    <oc r="J8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J8"/>
+  </rcc>
+  <rcc rId="932" sId="10">
+    <oc r="AB8">
+      <v>10</v>
+    </oc>
+    <nc r="AB8"/>
+  </rcc>
+  <rcc rId="933" sId="10">
+    <oc r="AC8">
+      <v>11</v>
+    </oc>
+    <nc r="AC8"/>
+  </rcc>
+  <rcc rId="934" sId="10">
+    <oc r="AD8">
+      <v>12</v>
+    </oc>
+    <nc r="AD8"/>
+  </rcc>
+  <rcc rId="935" sId="10">
+    <oc r="AE8">
+      <v>13</v>
+    </oc>
+    <nc r="AE8"/>
+  </rcc>
+  <rcc rId="936" sId="10">
+    <oc r="AF8">
+      <v>10</v>
+    </oc>
+    <nc r="AF8"/>
+  </rcc>
+  <rcc rId="937" sId="10">
+    <oc r="AG8" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </oc>
+    <nc r="AG8"/>
+  </rcc>
+  <rcc rId="938" sId="10">
+    <oc r="J9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="J9"/>
+  </rcc>
+  <rcc rId="939" sId="10">
+    <oc r="AH9" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </oc>
+    <nc r="AH9"/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="98" sId="6" xfDxf="1" dxf="1">
@@ -12713,8 +14310,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="8">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -12723,6 +14320,7 @@
   <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
   <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
+  <userInfo guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
 </users>
 </file>
 
@@ -12992,7 +14590,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13051,12 +14649,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -13067,7 +14665,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -13078,7 +14676,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13089,7 +14687,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13100,7 +14698,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13111,7 +14709,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13122,7 +14720,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>3</v>
@@ -13145,7 +14743,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>3</v>
@@ -13168,7 +14766,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>3</v>
@@ -13191,7 +14789,7 @@
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -13214,7 +14812,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -13237,7 +14835,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -13260,7 +14858,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -13283,7 +14881,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -13306,18 +14904,18 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -13329,10 +14927,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:AP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13370,113 +14968,38 @@
     <col min="35" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE1" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF1" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
@@ -13497,66 +15020,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="W2" s="14">
-        <v>26000</v>
-      </c>
-      <c r="X2" s="14">
-        <v>2000</v>
-      </c>
-      <c r="AB2" s="14">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="14">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>11</v>
-      </c>
-      <c r="AF2" s="14">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>3</v>
@@ -13577,39 +15049,15 @@
         <v>15</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>3</v>
@@ -13630,18 +15078,15 @@
         <v>15</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -13662,30 +15107,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -13706,39 +15136,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>3</v>
@@ -13759,24 +15165,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="W7" s="14">
-        <v>26000</v>
-      </c>
-      <c r="X7" s="14">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
@@ -13797,36 +15194,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>11</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>12</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>13</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>10</v>
-      </c>
-      <c r="AG8" s="14" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>3</v>
@@ -13847,20 +15223,18 @@
         <v>15</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH9" s="14" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="AH2" sqref="AH2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="AC1" sqref="AC1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13869,10 +15243,6 @@
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AC1">
-      <selection activeCell="AH2" sqref="AH2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13883,7 +15253,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13892,7 +15262,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -13908,8 +15278,8 @@
       <c r="D1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>181</v>
+      <c r="E1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -13925,12 +15295,16 @@
       <c r="D2" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>182</v>
+      <c r="E2" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E3" sqref="E3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13939,8 +15313,256 @@
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="26.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P2" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T2" s="14">
+        <v>10</v>
+      </c>
+      <c r="U2" s="14">
+        <v>10</v>
+      </c>
+      <c r="V2" s="14">
+        <v>12</v>
+      </c>
+      <c r="W2" s="14">
+        <v>11</v>
+      </c>
+      <c r="X2" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -13948,12 +15570,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="K2" s="14">
+        <v>10</v>
+      </c>
+      <c r="L2" s="14">
+        <v>10</v>
+      </c>
+      <c r="M2" s="14">
+        <v>10</v>
+      </c>
+      <c r="N2" s="14">
+        <v>10</v>
+      </c>
+      <c r="O2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="E1">
+      <selection activeCell="N2" sqref="N2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13971,46 +15713,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="E1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
         <v>206</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="H1" sqref="H1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14019,10 +15765,6 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14032,8 +15774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14072,70 +15814,70 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>189</v>
       </c>
-      <c r="H1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
         <v>193</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>194</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>198</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>200</v>
-      </c>
       <c r="R1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" t="s">
         <v>210</v>
       </c>
-      <c r="S1" t="s">
-        <v>212</v>
-      </c>
       <c r="T1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V1" t="s">
         <v>252</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>253</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>254</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>255</v>
-      </c>
-      <c r="X1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -14143,35 +15885,39 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14180,10 +15926,6 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14193,8 +15935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14530,17 +16272,17 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
       <selection activeCell="U3" sqref="U3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14556,7 +16298,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14628,85 +16370,85 @@
         <v>86</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AE1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AR1" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="AT1" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -14796,37 +16538,37 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="R3" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" t="s">
+        <v>246</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="R3" t="s">
-        <v>248</v>
-      </c>
-      <c r="S3" t="s">
-        <v>248</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="Y3" s="11">
         <v>10012</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
@@ -14850,14 +16592,14 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -14872,13 +16614,13 @@
         <v>55</v>
       </c>
       <c r="AD4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF4" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>248</v>
       </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="11"/>
@@ -14893,17 +16635,17 @@
       <c r="AQ4" s="11"/>
       <c r="AR4" s="11"/>
       <c r="AS4" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AT4" s="11"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T5" s="11"/>
       <c r="U5" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -14919,43 +16661,43 @@
         <v>87</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH5" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ5" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="AK5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL5" s="13">
         <v>0.33680555555555558</v>
       </c>
       <c r="AM5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AN5" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AP5" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="AQ5" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AR5" s="13">
         <v>0.67083333333333339</v>
       </c>
       <c r="AS5" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AT5" s="11"/>
     </row>
@@ -14976,67 +16718,67 @@
         <v>87</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AH6" s="13">
         <v>0.54166666666666663</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AJ6" s="13">
         <v>0.58680555555555558</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL6" s="13">
         <v>0.33680555555555558</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AN6" s="13">
         <v>0.70486111111111116</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AP6" s="13">
         <v>0.2951388888888889</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AR6" s="13">
         <v>0.52361111111111114</v>
       </c>
       <c r="AS6" s="11"/>
       <c r="AT6" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="40:41" x14ac:dyDescent="0.25">
       <c r="AO22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="40:41" x14ac:dyDescent="0.25">
       <c r="AN25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15063,37 +16805,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -15102,20 +16844,20 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I2" s="8">
         <v>155</v>
@@ -15134,32 +16876,32 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -15168,7 +16910,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -15178,10 +16920,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -15192,7 +16934,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -15212,6 +16954,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15220,10 +16966,6 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15233,7 +16975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
@@ -15459,6 +17201,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15466,15 +17213,11 @@
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15551,17 +17294,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15594,79 +17337,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15675,10 +17422,6 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>WebRequest</t>
   </si>
   <si>
-    <t>\PurgeUnit.txt</t>
-  </si>
-  <si>
     <t>n4YinvQueryBundleContainer1</t>
   </si>
   <si>
@@ -1185,6 +1182,9 @@
   </si>
   <si>
     <t>n4YInspOOGA</t>
+  </si>
+  <si>
+    <t>\InitUnitInYard.txt</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" diskRevisions="1" revisionId="942" version="183">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E2B058DB-BC04-4CCD-B4AF-D80633BEA519}" diskRevisions="1" revisionId="943" version="184">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -3713,6 +3713,23 @@
     </sheetIdMap>
   </header>
   <header guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" dateTime="2018-06-04T16:24:09" maxSheetId="14" userName="ITL-USER" r:id="rId183" minRId="942">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2B058DB-BC04-4CCD-B4AF-D80633BEA519}" dateTime="2018-06-04T16:50:17" maxSheetId="14" userName="ITL-USER" r:id="rId184" minRId="943">
     <sheetIdMap count="13">
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -11315,6 +11332,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog178.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="943" sId="11">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>\PurgeUnit.txt</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>\InitUnitInYard.txt</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -14320,7 +14354,7 @@
   <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
   <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
-  <userInfo guid="{2E1BFB99-DAAF-481E-A4ED-F5C2B2B48C90}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
+  <userInfo guid="{E2B058DB-BC04-4CCD-B4AF-D80633BEA519}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
 </users>
 </file>
 
@@ -15252,8 +15286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15296,7 +15330,7 @@
         <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -15443,34 +15477,34 @@
         <v>333</v>
       </c>
       <c r="AA1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -15529,19 +15563,19 @@
         <v>334</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
@@ -15550,13 +15584,13 @@
         <v>2200</v>
       </c>
       <c r="AH2" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -15574,8 +15608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15602,46 +15636,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>378</v>
-      </c>
       <c r="M1" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -15661,7 +15695,7 @@
         <v>314</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K2" s="14">
         <v>10</v>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="399">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1185,6 +1185,54 @@
   </si>
   <si>
     <t>\InitUnitInYard.txt</t>
+  </si>
+  <si>
+    <t>n4YInspIsHazard</t>
+  </si>
+  <si>
+    <t>n4YInspPlacard1</t>
+  </si>
+  <si>
+    <t>n4YInspPlacard2</t>
+  </si>
+  <si>
+    <t>CLASS 1.5</t>
+  </si>
+  <si>
+    <t>n4YInspSeal1</t>
+  </si>
+  <si>
+    <t>n4YInspSeal2</t>
+  </si>
+  <si>
+    <t>n4YInspSeal3</t>
+  </si>
+  <si>
+    <t>n4YInspSeal4</t>
+  </si>
+  <si>
+    <t>n4YInspSlave1</t>
+  </si>
+  <si>
+    <t>n4YInspSafeWeight</t>
+  </si>
+  <si>
+    <t>n4YInspTareWeight</t>
+  </si>
+  <si>
+    <t>n4YInspGrade</t>
+  </si>
+  <si>
+    <t>n4YInspMaterial</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Yard Inspection</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1308,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E2B058DB-BC04-4CCD-B4AF-D80633BEA519}" diskRevisions="1" revisionId="943" version="184">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" diskRevisions="1" revisionId="1178" version="208">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -3746,6 +3794,414 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{49868190-D608-470D-921B-25C9F1BA2DBC}" dateTime="2018-06-05T10:16:09" maxSheetId="14" userName="ITL-USER" r:id="rId185">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC42ED36-40B1-49E2-94D9-19F149EC5969}" dateTime="2018-06-05T10:16:17" maxSheetId="14" userName="ITL-USER" r:id="rId186" minRId="944">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35916A7B-AABE-4788-9FE9-0DE0B2BD1648}" dateTime="2018-06-05T10:16:35" maxSheetId="14" userName="ITL-USER" r:id="rId187" minRId="945">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A7081FB3-044D-42B7-9D5F-AC822A6FA0E0}" dateTime="2018-06-05T10:19:24" maxSheetId="14" userName="ITL-USER" r:id="rId188" minRId="946" maxRId="947">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7E8B5F1A-C0A1-4182-A868-4681725FBC4A}" dateTime="2018-06-05T10:51:01" maxSheetId="14" userName="ITL-USER" r:id="rId189" minRId="948" maxRId="950">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D3B3568A-C108-401E-BB20-B008A494A9FC}" dateTime="2018-06-05T11:05:53" maxSheetId="14" userName="ITL-USER" r:id="rId190" minRId="951">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F69E8F6-00EF-477F-9708-9714941DB60E}" dateTime="2018-06-05T11:06:00" maxSheetId="14" userName="ITL-USER" r:id="rId191" minRId="952">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4D2BACBB-BA33-464F-9509-20921DF17085}" dateTime="2018-06-05T11:09:00" maxSheetId="14" userName="ITL-USER" r:id="rId192" minRId="953" maxRId="954">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD259E7E-6841-4572-97B4-0C77BF5640E2}" dateTime="2018-06-05T11:10:18" maxSheetId="14" userName="ITL-USER" r:id="rId193" minRId="955" maxRId="956">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4FE84E7C-E17E-44A1-BA0C-4DC8336B42C9}" dateTime="2018-06-05T11:11:23" maxSheetId="14" userName="ITL-USER" r:id="rId194" minRId="957" maxRId="958">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C8BE9295-48CE-448F-A20E-EA066366E6D1}" dateTime="2018-06-05T11:25:05" maxSheetId="14" userName="ITL-USER" r:id="rId195" minRId="959">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0E559AC1-923D-4B0F-87C1-8F1B1F4538DD}" dateTime="2018-06-05T12:34:09" maxSheetId="14" userName="ITL-USER" r:id="rId196" minRId="960" maxRId="967">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{597F07FC-8302-4B28-B727-643ABA870B3B}" dateTime="2018-06-05T12:39:01" maxSheetId="14" userName="ITL-USER" r:id="rId197" minRId="968" maxRId="1137">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DB6B69BB-F2FD-41B2-B86B-B91E0219749B}" dateTime="2018-06-05T13:00:53" maxSheetId="14" userName="ITL-USER" r:id="rId198" minRId="1138" maxRId="1139">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{41173B71-7686-48A1-9DB8-420A02B2D15E}" dateTime="2018-06-05T13:04:10" maxSheetId="14" userName="ITL-USER" r:id="rId199" minRId="1140" maxRId="1141">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{765F9A6E-4FA3-406B-9D58-965A6D12CA60}" dateTime="2018-06-05T14:31:37" maxSheetId="14" userName="ITL-USER" r:id="rId200" minRId="1142">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06800161-068C-4D89-A4DD-C735A210EA09}" dateTime="2018-06-05T14:31:45" maxSheetId="14" userName="ITL-USER" r:id="rId201" minRId="1143">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BD776BE1-31FC-40D4-BD2A-3825A97B768D}" dateTime="2018-06-05T14:32:44" maxSheetId="14" userName="ITL-USER" r:id="rId202" minRId="1144" maxRId="1145">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F1D5A13E-92A8-4666-915F-F59A3126EAB4}" dateTime="2018-06-05T14:55:46" maxSheetId="14" userName="ITL-USER" r:id="rId203" minRId="1146" maxRId="1147">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3B73DE71-76C3-42E1-9DD4-1A04F0A7E675}" dateTime="2018-06-05T14:57:15" maxSheetId="14" userName="ITL-USER" r:id="rId204" minRId="1148" maxRId="1156">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{242A8B5E-0796-4C8E-98AA-303047CA4B1D}" dateTime="2018-06-05T14:57:24" maxSheetId="14" userName="ITL-USER" r:id="rId205" minRId="1157" maxRId="1158">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0121847B-B43B-4FA3-8796-1397F5C656F5}" dateTime="2018-06-05T14:58:22" maxSheetId="14" userName="ITL-USER" r:id="rId206" minRId="1159">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D24E517F-AEFD-463A-982C-78C56A0ECDAA}" dateTime="2018-06-05T14:58:53" maxSheetId="14" userName="ITL-USER" r:id="rId207" minRId="1160" maxRId="1162">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" dateTime="2018-06-05T15:21:24" maxSheetId="14" userName="ITL-USER" r:id="rId208" minRId="1163" maxRId="1178">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -11349,6 +11805,13 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog179.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
@@ -11356,6 +11819,177 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog180.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="944" sId="13">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4YInspIsHazard</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="945" sId="13">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog182.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="946" sId="13">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4YInspPlacard1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="947" sId="13">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>Class 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog183.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="948" sId="13">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4YInspPlacard2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="949" sId="13">
+    <oc r="Q2" t="inlineStr">
+      <is>
+        <t>Class 1.4</t>
+      </is>
+    </oc>
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="950" sId="13">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>CLASS 1.5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog184.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="951" sId="13">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4YInspSeal1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog185.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="952" sId="13">
+    <nc r="S2">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog186.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="953" sId="13">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4YInspSeal2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="954" sId="13">
+    <nc r="T2">
+      <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog187.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="955" sId="13">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4YInspSeal3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="956" sId="13">
+    <nc r="U2">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog188.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="957" sId="13">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>n4YInspSeal4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="958" sId="13">
+    <nc r="V2">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog189.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="959" sId="13">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>n4YInspSlave1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="21" sId="3" ref="R1:R1048576" action="insertCol"/>
@@ -11378,6 +12012,1331 @@
       <numFmt numFmtId="166" formatCode="\+\1"/>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog190.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="960" sId="12" eol="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="961" sId="12">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="962" sId="12">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>YINV_102</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="963" sId="12">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>YINV_103</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="964" sId="12">
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>YINV_104</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="965" sId="12">
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>YINV_105</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="966" sId="12">
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>YINV_106</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="967" sId="12">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>YINV_107</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog191.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="968" sId="12">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="969" sId="12">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="970" sId="12">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="971" sId="12">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="972" sId="12">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="973" sId="12">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="974" sId="12">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="975" sId="12">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="976" sId="12">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="977" sId="12">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="978" sId="12">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="979" sId="12">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="980" sId="12">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="981" sId="12">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="982" sId="12">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="983" sId="12">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="984" sId="12">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="985" sId="12">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="986" sId="12">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="987" sId="12">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="988" sId="12">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="989" sId="12">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="990" sId="12">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="991" sId="12">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="992" sId="12">
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="993" sId="12">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="994" sId="12">
+    <nc r="E8" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="995" sId="12">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="996" sId="12">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="997" sId="12">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="998" sId="12">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="999" sId="12">
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1000" sId="12">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1001" sId="12">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1002" sId="12">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1003" sId="12">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1004" sId="12">
+    <nc r="G4" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1005" sId="12">
+    <nc r="G5" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1006" sId="12">
+    <nc r="G6" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1007" sId="12">
+    <nc r="G7" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1008" sId="12">
+    <nc r="G8" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1009" sId="12">
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1010" sId="12">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1011" sId="12">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1012" sId="12">
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1013" sId="12">
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1014" sId="12">
+    <nc r="H7" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1015" sId="12">
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1016" sId="12">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1017" sId="12">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1018" sId="12">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1019" sId="12">
+    <nc r="I5" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1020" sId="12">
+    <nc r="I6" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1021" sId="12">
+    <nc r="I7" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1022" sId="12">
+    <nc r="I8" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1023" sId="12">
+    <nc r="I9" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1024" sId="12">
+    <nc r="O3">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1025" sId="12">
+    <nc r="O4">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1026" sId="12">
+    <nc r="O5">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1027" sId="12">
+    <nc r="O6">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1028" sId="12">
+    <nc r="O7">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1029" sId="12">
+    <nc r="O8">
+      <v>26000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1030" sId="12">
+    <nc r="P3">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1031" sId="12">
+    <nc r="P4">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1032" sId="12">
+    <nc r="P5">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1033" sId="12">
+    <nc r="P6">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1034" sId="12">
+    <nc r="P7">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1035" sId="12">
+    <nc r="P8">
+      <v>2000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1036" sId="12">
+    <nc r="T3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1037" sId="12">
+    <nc r="T4">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1038" sId="12">
+    <nc r="T5">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1039" sId="12">
+    <nc r="T6">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1040" sId="12">
+    <nc r="T7">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1041" sId="12">
+    <nc r="T8">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1042" sId="12">
+    <nc r="U3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1043" sId="12">
+    <nc r="U4">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1044" sId="12">
+    <nc r="U5">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1045" sId="12">
+    <nc r="U6">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1046" sId="12">
+    <nc r="U7">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1047" sId="12">
+    <nc r="U8">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1048" sId="12">
+    <nc r="V3">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1049" sId="12">
+    <nc r="V4">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1050" sId="12">
+    <nc r="V5">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1051" sId="12">
+    <nc r="V6">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1052" sId="12">
+    <nc r="V7">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1053" sId="12">
+    <nc r="V8">
+      <v>12</v>
+    </nc>
+  </rcc>
+  <rcc rId="1054" sId="12">
+    <nc r="W3">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1055" sId="12">
+    <nc r="W4">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1056" sId="12">
+    <nc r="W5">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1057" sId="12">
+    <nc r="W6">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1058" sId="12">
+    <nc r="W7">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1059" sId="12">
+    <nc r="W8">
+      <v>11</v>
+    </nc>
+  </rcc>
+  <rcc rId="1060" sId="12">
+    <nc r="X3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1061" sId="12">
+    <nc r="X4">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1062" sId="12">
+    <nc r="X5">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1063" sId="12">
+    <nc r="X6">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1064" sId="12">
+    <nc r="X7">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1065" sId="12">
+    <nc r="X8">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1066" sId="12">
+    <nc r="Y3" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1067" sId="12">
+    <nc r="Y4" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1068" sId="12">
+    <nc r="Y5" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1069" sId="12">
+    <nc r="Y6" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1070" sId="12">
+    <nc r="Y7" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1071" sId="12">
+    <nc r="Y8" t="inlineStr">
+      <is>
+        <t>cm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1072" sId="12">
+    <nc r="Z3" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1073" sId="12">
+    <nc r="Z4" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1074" sId="12">
+    <nc r="Z5" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1075" sId="12">
+    <nc r="Z6" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1076" sId="12">
+    <nc r="Z7" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1077" sId="12">
+    <nc r="Z8" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1078" sId="12">
+    <nc r="AA3" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1079" sId="12">
+    <nc r="AA4" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1080" sId="12">
+    <nc r="AA5" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1081" sId="12">
+    <nc r="AA6" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1082" sId="12">
+    <nc r="AA7" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1083" sId="12">
+    <nc r="AA8" t="inlineStr">
+      <is>
+        <t>SBSU1234590</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1084" sId="12">
+    <nc r="AB3" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1085" sId="12">
+    <nc r="AB4" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1086" sId="12">
+    <nc r="AB5" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1087" sId="12">
+    <nc r="AB6" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1088" sId="12">
+    <nc r="AB7" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1089" sId="12">
+    <nc r="AB8" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1090" sId="12">
+    <nc r="AC3" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1091" sId="12">
+    <nc r="AC4" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1092" sId="12">
+    <nc r="AC5" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1093" sId="12">
+    <nc r="AC6" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1094" sId="12">
+    <nc r="AC7" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1095" sId="12">
+    <nc r="AC8" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1096" sId="12">
+    <nc r="AD3" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1097" sId="12">
+    <nc r="AD4" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1098" sId="12">
+    <nc r="AD5" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1099" sId="12">
+    <nc r="AD6" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1100" sId="12">
+    <nc r="AD7" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1101" sId="12">
+    <nc r="AD8" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1102" sId="12">
+    <nc r="AE3" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1103" sId="12">
+    <nc r="AE4" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1104" sId="12">
+    <nc r="AE5" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1105" sId="12">
+    <nc r="AE6" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1106" sId="12">
+    <nc r="AE7" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1107" sId="12">
+    <nc r="AE8" t="inlineStr">
+      <is>
+        <t>TEST-CTR-LOAD-EDI</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1108" sId="12">
+    <nc r="AF3" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1109" sId="12">
+    <nc r="AF4" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1110" sId="12">
+    <nc r="AF5" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1111" sId="12">
+    <nc r="AF6" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1112" sId="12">
+    <nc r="AF7" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1113" sId="12">
+    <nc r="AF8" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1114" sId="12">
+    <nc r="AG3">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1115" sId="12">
+    <nc r="AG4">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1116" sId="12">
+    <nc r="AG5">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1117" sId="12">
+    <nc r="AG6">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1118" sId="12">
+    <nc r="AG7">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1119" sId="12">
+    <nc r="AG8">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1120" sId="12">
+    <nc r="AH3" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1121" sId="12">
+    <nc r="AH4" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1122" sId="12">
+    <nc r="AH5" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1123" sId="12">
+    <nc r="AH6" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1124" sId="12">
+    <nc r="AH7" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1125" sId="12">
+    <nc r="AH8" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1126" sId="12">
+    <nc r="AI3" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1127" sId="12">
+    <nc r="AI4" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1128" sId="12">
+    <nc r="AI5" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1129" sId="12">
+    <nc r="AI6" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1130" sId="12">
+    <nc r="AI7" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1131" sId="12">
+    <nc r="AI8" t="inlineStr">
+      <is>
+        <t>CHS1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1132" sId="12">
+    <nc r="AJ3" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1133" sId="12">
+    <nc r="AJ4" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1134" sId="12">
+    <nc r="AJ5" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1135" sId="12">
+    <nc r="AJ6" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1136" sId="12">
+    <nc r="AJ7" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1137" sId="12">
+    <nc r="AJ8" t="inlineStr">
+      <is>
+        <t>DAS</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog192.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1138" sId="13">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>n4YInspSafeWeight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1139" sId="13">
+    <nc r="X2">
+      <v>27000</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog193.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1140" sId="13">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>n4YInspTareWeight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1141" sId="13">
+    <nc r="Y2">
+      <v>2100</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog194.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1142" sId="13">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>n4YInspGrade</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog195.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1143" sId="13">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog196.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1144" sId="13">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>n4YInspMaterial</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1145" sId="13">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Steel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog197.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1146" sId="1" eol="1" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="1147" sId="1">
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>Play</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog198.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1148" sId="10" eol="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="1149" sId="10">
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>Play</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1150" sId="10">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1151" sId="10">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1152" sId="10">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1153" sId="10">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1154" sId="10">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1155" sId="10">
+    <nc r="G10" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1156" sId="10">
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>Yard Inspection</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog199.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1157" sId="13" eol="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="1158" sId="13">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>Play</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -11899,6 +13858,139 @@
     <nc r="X2" t="inlineStr">
       <is>
         <t>+1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog200.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1159" sId="13">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog201.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1160" sId="13">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1161" sId="13">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1162" sId="13">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>Minor</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog202.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1163" sId="13">
+    <nc r="K3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1164" sId="13">
+    <nc r="L3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1165" sId="13">
+    <nc r="M3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1166" sId="13">
+    <nc r="N3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1167" sId="13">
+    <nc r="O3">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="1168" sId="13">
+    <nc r="P3" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1169" sId="13">
+    <nc r="Q3" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1170" sId="13">
+    <nc r="R3" t="inlineStr">
+      <is>
+        <t>CLASS 1.5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1171" sId="13">
+    <nc r="S3">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="1172" sId="13">
+    <nc r="T3">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="1173" sId="13">
+    <nc r="U3">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="1174" sId="13">
+    <nc r="V3">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="1175" sId="13">
+    <nc r="X3">
+      <v>27000</v>
+    </nc>
+  </rcc>
+  <rcc rId="1176" sId="13">
+    <nc r="Y3">
+      <v>2100</v>
+    </nc>
+  </rcc>
+  <rcc rId="1177" sId="13">
+    <nc r="Z3" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1178" sId="13">
+    <nc r="AA3" t="inlineStr">
+      <is>
+        <t>Steel</t>
       </is>
     </nc>
   </rcc>
@@ -14354,7 +16446,7 @@
   <userInfo guid="{D364C1FA-D153-48D2-90E8-4A2B95349BD8}" name="itluser" id="-446801266" dateTime="2018-05-08T15:56:31"/>
   <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
-  <userInfo guid="{E2B058DB-BC04-4CCD-B4AF-D80633BEA519}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
+  <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
 </users>
 </file>
 
@@ -14621,10 +16713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14934,6 +17026,11 @@
       </c>
       <c r="G17" s="14" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -14961,10 +17058,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:AP1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15263,10 +17360,36 @@
         <v>300</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
@@ -15286,7 +17409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -15296,7 +17419,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -15336,7 +17459,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
@@ -15354,10 +17477,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15593,10 +17716,555 @@
         <v>366</v>
       </c>
     </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T3" s="14">
+        <v>10</v>
+      </c>
+      <c r="U3" s="14">
+        <v>10</v>
+      </c>
+      <c r="V3" s="14">
+        <v>12</v>
+      </c>
+      <c r="W3" s="14">
+        <v>11</v>
+      </c>
+      <c r="X3" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O4" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P4" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T4" s="14">
+        <v>10</v>
+      </c>
+      <c r="U4" s="14">
+        <v>10</v>
+      </c>
+      <c r="V4" s="14">
+        <v>12</v>
+      </c>
+      <c r="W4" s="14">
+        <v>11</v>
+      </c>
+      <c r="X4" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O5" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P5" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T5" s="14">
+        <v>10</v>
+      </c>
+      <c r="U5" s="14">
+        <v>10</v>
+      </c>
+      <c r="V5" s="14">
+        <v>12</v>
+      </c>
+      <c r="W5" s="14">
+        <v>11</v>
+      </c>
+      <c r="X5" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O6" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P6" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T6" s="14">
+        <v>10</v>
+      </c>
+      <c r="U6" s="14">
+        <v>10</v>
+      </c>
+      <c r="V6" s="14">
+        <v>12</v>
+      </c>
+      <c r="W6" s="14">
+        <v>11</v>
+      </c>
+      <c r="X6" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O7" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P7" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="14">
+        <v>10</v>
+      </c>
+      <c r="U7" s="14">
+        <v>10</v>
+      </c>
+      <c r="V7" s="14">
+        <v>12</v>
+      </c>
+      <c r="W7" s="14">
+        <v>11</v>
+      </c>
+      <c r="X7" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="O8" s="14">
+        <v>26000</v>
+      </c>
+      <c r="P8" s="14">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="14">
+        <v>10</v>
+      </c>
+      <c r="U8" s="14">
+        <v>10</v>
+      </c>
+      <c r="V8" s="14">
+        <v>12</v>
+      </c>
+      <c r="W8" s="14">
+        <v>11</v>
+      </c>
+      <c r="X8" s="14">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="D15" sqref="D15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AG1">
+      <selection activeCell="AL6" sqref="AL6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -15606,10 +18274,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15628,10 +18296,16 @@
     <col min="12" max="12" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="15" max="15" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -15677,8 +18351,44 @@
       <c r="O1" s="14" t="s">
         <v>381</v>
       </c>
+      <c r="P1" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>298</v>
       </c>
@@ -15711,12 +18421,110 @@
       </c>
       <c r="O2" s="14">
         <v>10</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
+        <v>2</v>
+      </c>
+      <c r="U2" s="14">
+        <v>3</v>
+      </c>
+      <c r="V2" s="14">
+        <v>4</v>
+      </c>
+      <c r="X2" s="14">
+        <v>27000</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>2100</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="14">
+        <v>10</v>
+      </c>
+      <c r="L3" s="14">
+        <v>10</v>
+      </c>
+      <c r="M3" s="14">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14">
+        <v>10</v>
+      </c>
+      <c r="O3" s="14">
+        <v>10</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>2</v>
+      </c>
+      <c r="U3" s="14">
+        <v>3</v>
+      </c>
+      <c r="V3" s="14">
+        <v>4</v>
+      </c>
+      <c r="X3" s="14">
+        <v>27000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>2100</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="E1">
-      <selection activeCell="N2" sqref="N2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Z2" sqref="Z2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,38 +5,40 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SparcsN4Login" sheetId="1" r:id="rId1"/>
-    <sheet name="XPS" sheetId="9" r:id="rId2"/>
-    <sheet name="EDI" sheetId="2" r:id="rId3"/>
-    <sheet name="Gate" sheetId="3" r:id="rId4"/>
-    <sheet name="Vessel" sheetId="4" r:id="rId5"/>
-    <sheet name="Rail" sheetId="5" r:id="rId6"/>
-    <sheet name="Orders" sheetId="6" r:id="rId7"/>
-    <sheet name="Inventory" sheetId="7" r:id="rId8"/>
-    <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId9"/>
-    <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId10"/>
-    <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId11"/>
-    <sheet name="YardInventoryQuery" sheetId="12" r:id="rId12"/>
-    <sheet name="YardInspection" sheetId="13" r:id="rId13"/>
+    <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
+    <sheet name="SparcsN4Login" sheetId="1" r:id="rId2"/>
+    <sheet name="XPS" sheetId="9" r:id="rId3"/>
+    <sheet name="EDI" sheetId="2" r:id="rId4"/>
+    <sheet name="Gate" sheetId="3" r:id="rId5"/>
+    <sheet name="Vessel" sheetId="4" r:id="rId6"/>
+    <sheet name="Rail" sheetId="5" r:id="rId7"/>
+    <sheet name="Orders" sheetId="6" r:id="rId8"/>
+    <sheet name="Inventory" sheetId="7" r:id="rId9"/>
+    <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId10"/>
+    <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId11"/>
+    <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId12"/>
+    <sheet name="YardInventoryQuery" sheetId="12" r:id="rId13"/>
+    <sheet name="ReeferMonitor" sheetId="15" r:id="rId14"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="13"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="9"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="418">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1233,6 +1235,63 @@
   </si>
   <si>
     <t>Yard Inspection</t>
+  </si>
+  <si>
+    <t>dfbdx fd fd</t>
+  </si>
+  <si>
+    <t>n4Wheeled Unit</t>
+  </si>
+  <si>
+    <t>n4ReturnTemp</t>
+  </si>
+  <si>
+    <t>n4SupplyTemp</t>
+  </si>
+  <si>
+    <t>n4notes</t>
+  </si>
+  <si>
+    <t>n4FaultCode</t>
+  </si>
+  <si>
+    <t>n4Vent</t>
+  </si>
+  <si>
+    <t>n4VentUnit</t>
+  </si>
+  <si>
+    <t>n4Humidity</t>
+  </si>
+  <si>
+    <t>n4Co2</t>
+  </si>
+  <si>
+    <t>n4Oxygen</t>
+  </si>
+  <si>
+    <t>n4TemperatureSetPoint</t>
+  </si>
+  <si>
+    <t>n4GenSetid</t>
+  </si>
+  <si>
+    <t>n4Fuelevel</t>
+  </si>
+  <si>
+    <t>N4MobileReeferMonitor</t>
+  </si>
+  <si>
+    <t>Reefer Monitor</t>
+  </si>
+  <si>
+    <t>SBSU12345690</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1289,6 +1348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,7 +1369,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" diskRevisions="1" revisionId="1178" version="208">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" diskRevisions="1" revisionId="1224" version="211">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4202,6 +4263,63 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{62C13622-6051-4D43-AB3A-4313F48755D8}" dateTime="2018-06-05T18:09:26" maxSheetId="16" userName="itluser" r:id="rId209" minRId="1179" maxRId="1182">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="14"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5E9307BE-C8FF-489A-A353-020DEE10E1B7}" dateTime="2018-06-05T18:11:05" maxSheetId="16" userName="itluser" r:id="rId210" minRId="1183" maxRId="1222">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" dateTime="2018-06-05T18:11:37" maxSheetId="16" userName="itluser" r:id="rId211" minRId="1223" maxRId="1224">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -13997,6 +14115,331 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog203.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1179" sheetId="14" name="[TestData.xlsx]Sheet1" sheetPosition="2"/>
+  <ris rId="1180" sheetId="15" name="[TestData.xlsx]Sheet2" sheetPosition="13"/>
+  <rrc rId="1181" sId="14" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="1182" sId="14">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>dfbdx fd fd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog204.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1183" sId="15" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1184" sId="15" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4MobileUserName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1185" sId="15" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4MobilePassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1186" sId="15" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4MobileOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1187" sId="15" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4MobileComplex</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1188" sId="15" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4MobileFacility</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1189" sId="15" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4MobileYard</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1190" sId="15" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4MobileProgram</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1191" sId="15" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4Wheeled Unit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1192" sId="15" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4ReturnTemp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1193" sId="15" xfDxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4SupplyTemp</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1194" sId="15" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4notes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1195" sId="15" xfDxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4FaultCode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1196" sId="15" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4Vent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1197" sId="15" xfDxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4VentUnit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1198" sId="15" xfDxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4Humidity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1199" sId="15" xfDxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4Co2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1200" sId="15" xfDxf="1" dxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4Oxygen</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1201" sId="15" xfDxf="1" dxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4TemperatureSetPoint</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1202" sId="15" xfDxf="1" dxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4GenSetid</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1203" sId="15" xfDxf="1" dxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4Fuelevel</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1204" sId="15" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileReeferMonitor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1205" sId="15" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1206" sId="15" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1207" sId="15" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1208" sId="15" xfDxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1209" sId="15" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1210" sId="15" xfDxf="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1211" sId="15" xfDxf="1" dxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Reefer Monitor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1212" sId="15" xfDxf="1" dxf="1">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>SBSU12345690</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1213" sId="15" xfDxf="1" dxf="1">
+    <nc r="J2">
+      <v>22</v>
+    </nc>
+  </rcc>
+  <rcc rId="1214" sId="15" xfDxf="1" dxf="1">
+    <nc r="K2">
+      <v>15</v>
+    </nc>
+  </rcc>
+  <rcc rId="1215" sId="15" xfDxf="1" dxf="1">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>s1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="M2" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="N2" start="0" length="0"/>
+  <rcc rId="1216" sId="15" xfDxf="1" dxf="1">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>Percentage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1217" sId="15" xfDxf="1" dxf="1">
+    <nc r="P2">
+      <v>0.255</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="Q2" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="R2" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="S2" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="T2" start="0" length="0"/>
+  <rcc rId="1218" sId="15" xfDxf="1" dxf="1">
+    <nc r="U2">
+      <v>75</v>
+    </nc>
+  </rcc>
+  <rcc rId="1219" sId="1" odxf="1">
+    <oc r="A18" t="inlineStr">
+      <is>
+        <t>Play</t>
+      </is>
+    </oc>
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>N4MobileReeferMonitor</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1220" sId="1">
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+  <rsnm rId="1221" sheetId="14" oldName="[TestData.xlsx]Sheet1" newName="[TestData.xlsx]cdsds"/>
+  <rsnm rId="1222" sheetId="15" oldName="[TestData.xlsx]Sheet2" newName="[TestData.xlsx]ReeferMonitor"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog205.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1223" sId="1">
+    <oc r="A18" t="inlineStr">
+      <is>
+        <t>N4MobileReeferMonitor</t>
+      </is>
+    </oc>
+    <nc r="A18" t="inlineStr">
+      <is>
+        <t>Play</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1224" sId="1" xfDxf="1" dxf="1">
+    <oc r="A19" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </oc>
+    <nc r="A19" t="inlineStr">
+      <is>
+        <t>N4MobileReeferMonitor</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="25" sId="3">
@@ -16437,7 +16880,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="9">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -16447,6 +16890,7 @@
   <userInfo guid="{34246483-AB61-4467-BA99-A34781EAEA0F}" name="ITL-USER" id="-1580131676" dateTime="2018-05-11T12:28:00"/>
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
+  <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
 </users>
 </file>
 
@@ -16713,355 +17157,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+      <selection activeCell="H18" sqref="H18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
+      <c r="B1" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>397</v>
+      <c r="B8" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A3" sqref="A3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17388,29 +17625,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:A9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="AC1" sqref="AC1"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:A9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17458,29 +17695,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18263,6 +18500,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AG1">
       <selection activeCell="AL6" sqref="AL6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18272,12 +18513,151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="J2" s="15">
+        <v>22</v>
+      </c>
+      <c r="K2" s="15">
+        <v>15</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0.255</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:AA3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18523,6 +18903,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Z2" sqref="Z2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18534,10 +18918,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18595,29 +19329,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18756,29 +19490,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19114,17 +19848,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="U3" sqref="U3"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -19135,12 +19869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19612,29 +20346,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19796,29 +20530,29 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20043,32 +20777,31 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20136,17 +20869,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -20155,116 +20888,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -30,15 +30,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="12"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="13"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="432">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1292,6 +1292,48 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>n4YInspTemperature</t>
+  </si>
+  <si>
+    <t>n4YInspTemperatureUnit</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>n4YInspGensetID</t>
+  </si>
+  <si>
+    <t>n4YInspGenSetType</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>n4YInspLineOperator</t>
+  </si>
+  <si>
+    <t>n4YInspDoorDirection</t>
+  </si>
+  <si>
+    <t>n4YInspEqType</t>
+  </si>
+  <si>
+    <t>n4YInspTankRails</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTemperature</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTemperatureUnit</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerGensetID</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerGenSetType</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1411,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" diskRevisions="1" revisionId="1224" version="211">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DC152A5E-D85C-499F-9540-7F8AAEC66DD0}" diskRevisions="1" revisionId="1271" version="222">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4320,6 +4362,215 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{01285F5D-294F-43B2-B9D3-3E66F064F5E4}" dateTime="2018-06-07T14:46:58" maxSheetId="16" userName="ITL-USER" r:id="rId212" minRId="1225" maxRId="1227">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C86B90E5-4620-4F23-8AF3-99EBD93661A6}" dateTime="2018-06-07T14:47:29" maxSheetId="16" userName="ITL-USER" r:id="rId213" minRId="1228" maxRId="1230">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5174A373-E7FF-4BFE-B517-E1912DEFB53A}" dateTime="2018-06-07T14:47:43" maxSheetId="16" userName="ITL-USER" r:id="rId214" minRId="1231">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{539B6E29-3B61-4623-9BFF-1B0A46AB149D}" dateTime="2018-06-07T14:48:10" maxSheetId="16" userName="ITL-USER" r:id="rId215" minRId="1232" maxRId="1234">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{584DE5B8-0F46-47D9-B4B6-56EFA5DC29D2}" dateTime="2018-06-07T14:48:37" maxSheetId="16" userName="ITL-USER" r:id="rId216" minRId="1235" maxRId="1237">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D59E2F4-FDB4-4F81-AF88-044E78A88AF5}" dateTime="2018-06-07T14:49:01" maxSheetId="16" userName="ITL-USER" r:id="rId217" minRId="1238" maxRId="1240">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5FC4C689-96A1-4B0C-98A6-D62DAC7A882D}" dateTime="2018-06-07T14:49:21" maxSheetId="16" userName="ITL-USER" r:id="rId218" minRId="1241" maxRId="1242">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4E0F4114-CFC1-4682-B4A0-16BFA0CC2BC4}" dateTime="2018-06-07T14:50:03" maxSheetId="16" userName="ITL-USER" r:id="rId219" minRId="1243" maxRId="1246">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C7C487F1-0061-4E8A-8E4A-B153B105C2A9}" dateTime="2018-06-07T14:51:19" maxSheetId="16" userName="ITL-USER" r:id="rId220" minRId="1247" maxRId="1254">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5ED99CC8-795E-4A6C-8923-1DB6DFBB49CD}" dateTime="2018-06-07T14:51:49" maxSheetId="16" userName="ITL-USER" r:id="rId221" minRId="1255" maxRId="1262">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC152A5E-D85C-499F-9540-7F8AAEC66DD0}" dateTime="2018-06-07T14:52:25" maxSheetId="16" userName="ITL-USER" r:id="rId222" minRId="1263" maxRId="1271">
+    <sheetIdMap count="15">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -14440,6 +14691,102 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog206.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1225" sId="13">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>n4YInspTemperature</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1226" sId="13">
+    <nc r="AB2">
+      <v>45</v>
+    </nc>
+  </rcc>
+  <rcc rId="1227" sId="13">
+    <nc r="AB3">
+      <v>45</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog207.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1228" sId="13">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>n4YInspTemperatureUnit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1229" sId="13">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1230" sId="13">
+    <nc r="AC3" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog208.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1231" sId="13">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>n4YInspGensetID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog209.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1232" sId="13">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>n4YInspGenSetType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1233" sId="13" odxf="1" quotePrefix="1">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1234" sId="13" odxf="1" quotePrefix="1">
+    <nc r="AE3" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="25" sId="3">
@@ -14458,6 +14805,319 @@
       <v>16625</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog210.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1235" sId="13">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>n4YInspLineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1236" sId="13">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1237" sId="13" odxf="1">
+    <nc r="AF3" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog211.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1238" sId="13">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>n4YInspDoorDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1239" sId="13">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1240" sId="13" odxf="1">
+    <nc r="AG3" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog212.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1241" sId="13">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>n4YInspEqType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1242" sId="13">
+    <nc r="AH2">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog213.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1243" sId="13" odxf="1">
+    <nc r="AH3">
+      <v>2200</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1244" sId="13">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>n4YInspTankRails</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1245" sId="13">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1246" sId="13" odxf="1">
+    <nc r="AI3" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog214.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1247" sId="12">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTemperature</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1248" sId="12">
+    <nc r="AK2">
+      <v>45</v>
+    </nc>
+  </rcc>
+  <rcc rId="1249" sId="12" odxf="1">
+    <nc r="AK3">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1250" sId="12" odxf="1">
+    <nc r="AK4">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1251" sId="12" odxf="1">
+    <nc r="AK5">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1252" sId="12" odxf="1">
+    <nc r="AK6">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1253" sId="12" odxf="1">
+    <nc r="AK7">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1254" sId="12" odxf="1">
+    <nc r="AK8">
+      <v>45</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog215.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1255" sId="12">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerTemperatureUnit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1256" sId="12">
+    <nc r="AL2" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1257" sId="12" odxf="1">
+    <nc r="AL3" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1258" sId="12" odxf="1">
+    <nc r="AL4" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1259" sId="12" odxf="1">
+    <nc r="AL5" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1260" sId="12" odxf="1">
+    <nc r="AL6" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1261" sId="12" odxf="1">
+    <nc r="AL7" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1262" sId="12" odxf="1">
+    <nc r="AL8" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog216.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1263" sId="12">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerGensetID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1264" sId="12">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>n4YinvQueryContainerGenSetType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1265" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1266" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN3" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1267" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN4" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1268" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN5" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1269" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN6" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1270" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN7" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1271" sId="12" odxf="1" quotePrefix="1">
+    <nc r="AN8" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -16879,8 +17539,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -16891,6 +17551,7 @@
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
+  <userInfo guid="{DC152A5E-D85C-499F-9540-7F8AAEC66DD0}" name="ITL-USER" id="-1580122781" dateTime="2018-06-07T14:45:48"/>
 </users>
 </file>
 
@@ -17172,6 +17833,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+      <selection activeCell="H18" sqref="H18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17186,7 +17851,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17276,16 +17941,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -17298,7 +17963,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17625,16 +18290,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:A9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -17647,7 +18312,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17695,16 +18360,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -17714,10 +18379,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17754,10 +18419,14 @@
     <col min="34" max="34" width="30" style="14" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="28" style="14" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="14"/>
+    <col min="37" max="37" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="32.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -17866,8 +18535,20 @@
       <c r="AJ1" s="14" t="s">
         <v>358</v>
       </c>
+      <c r="AK1" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>298</v>
       </c>
@@ -17952,8 +18633,17 @@
       <c r="AJ2" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK2" s="14">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>303</v>
       </c>
@@ -18038,8 +18728,17 @@
       <c r="AJ3" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK3" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>341</v>
       </c>
@@ -18124,8 +18823,17 @@
       <c r="AJ4" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK4" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>335</v>
       </c>
@@ -18210,8 +18918,17 @@
       <c r="AJ5" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK5" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>337</v>
       </c>
@@ -18296,8 +19013,17 @@
       <c r="AJ6" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK6" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>338</v>
       </c>
@@ -18382,8 +19108,17 @@
       <c r="AJ7" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK7" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>339</v>
       </c>
@@ -18468,8 +19203,17 @@
       <c r="AJ8" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AK8" s="16">
+        <v>45</v>
+      </c>
+      <c r="AL8" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>340</v>
       </c>
@@ -18500,12 +19244,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AI1">
+      <selection activeCell="AN6" sqref="AN6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AG1">
-      <selection activeCell="AL6" sqref="AL6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18643,6 +19387,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18654,10 +19402,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18682,10 +19430,19 @@
     <col min="23" max="23" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="14"/>
+    <col min="27" max="27" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -18767,8 +19524,32 @@
       <c r="AA1" s="14" t="s">
         <v>395</v>
       </c>
+      <c r="AB1" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>298</v>
       </c>
@@ -18835,8 +19616,29 @@
       <c r="AA2" s="14" t="s">
         <v>396</v>
       </c>
+      <c r="AB2" s="14">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>397</v>
       </c>
@@ -18899,16 +19701,37 @@
       </c>
       <c r="AA3" s="14" t="s">
         <v>396</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>2200</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Z2" sqref="Z2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18920,8 +19743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19245,8 +20068,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -19255,8 +20078,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -19271,7 +20094,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19329,16 +20152,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19350,8 +20173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19490,16 +20313,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19511,8 +20334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19848,8 +20671,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -19858,8 +20681,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -19874,7 +20697,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20346,16 +21169,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20368,7 +21191,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20530,16 +21353,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20551,8 +21374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20777,22 +21600,23 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -20801,7 +21625,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20869,8 +21693,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -20879,8 +21703,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -25,12 +25,13 @@
     <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId11"/>
     <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId12"/>
     <sheet name="YardInventoryQuery" sheetId="12" r:id="rId13"/>
-    <sheet name="ReeferMonitor" sheetId="15" r:id="rId14"/>
-    <sheet name="YardInspection" sheetId="13" r:id="rId15"/>
+    <sheet name="YardInventoryGround" sheetId="16" r:id="rId14"/>
+    <sheet name="ReeferMonitor" sheetId="15" r:id="rId15"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="12"/>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="15"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="435">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1282,9 +1283,6 @@
     <t>N4MobileReeferMonitor</t>
   </si>
   <si>
-    <t>Reefer Monitor</t>
-  </si>
-  <si>
     <t>SBSU12345690</t>
   </si>
   <si>
@@ -1334,6 +1332,18 @@
   </si>
   <si>
     <t>n4YinvQueryContainerGenSetType</t>
+  </si>
+  <si>
+    <t>n4YinvGroundPosition</t>
+  </si>
+  <si>
+    <t>F10L</t>
+  </si>
+  <si>
+    <t>n4YinvGroundReverseDirection</t>
+  </si>
+  <si>
+    <t>n4YinvGroundMenWorking</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1421,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DC152A5E-D85C-499F-9540-7F8AAEC66DD0}" diskRevisions="1" revisionId="1271" version="222">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6A8AB26F-C345-48FF-A882-A8F1119953E5}" diskRevisions="1" revisionId="1286" version="227">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4571,6 +4581,106 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{25A0352C-E9FF-414D-80E4-91D93E138C13}" dateTime="2018-06-08T10:42:48" maxSheetId="17" userName="ITL-USER" r:id="rId223" minRId="1272" maxRId="1274">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{312530F9-6CAF-4E6F-8F6D-42EDA3A5401F}" dateTime="2018-06-08T10:44:40" maxSheetId="17" userName="ITL-USER" r:id="rId224" minRId="1275" maxRId="1276">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5EE4158B-501B-45D7-955E-93655DCA1EC2}" dateTime="2018-06-08T10:52:11" maxSheetId="17" userName="ITL-USER" r:id="rId225" minRId="1277">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{83E8FE5B-8607-4991-A1E6-219775106E9A}" dateTime="2018-06-08T10:53:28" maxSheetId="17" userName="ITL-USER" r:id="rId226" minRId="1278" maxRId="1279">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A8AB26F-C345-48FF-A882-A8F1119953E5}" dateTime="2018-06-08T11:07:36" maxSheetId="17" userName="ITL-USER" r:id="rId227" minRId="1280" maxRId="1286">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -15121,6 +15231,65 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog217.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1272" sheetId="16" name="[TestData.xlsx]YardInventoryGround" sheetPosition="13"/>
+  <rcc rId="1273" sId="16" odxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1274" sId="16" odxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog218.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1275" sId="16">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundPosition</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1276" sId="16">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>F10L</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog219.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1277" sId="16">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundReverseDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="27" sId="3">
@@ -15133,6 +15302,153 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog220.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1278" sId="16">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundMenWorking</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1279" sId="16">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog221.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1280" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileUserName</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1281" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobilePassword</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1282" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileOperator</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>OPR1</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1283" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileComplex</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>CPX11</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1284" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileFacility</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>FCY111</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1285" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileYard</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>YRD1111</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1286" sId="15" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="15" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rcc rId="0" sId="15">
+      <nc r="B1" t="inlineStr">
+        <is>
+          <t>n4MobileProgram</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="15">
+      <nc r="B2" t="inlineStr">
+        <is>
+          <t>Reefer Monitor</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -17539,8 +17855,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -17551,7 +17867,6 @@
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
-  <userInfo guid="{DC152A5E-D85C-499F-9540-7F8AAEC66DD0}" name="ITL-USER" id="-1580122781" dateTime="2018-06-07T14:45:48"/>
 </users>
 </file>
 
@@ -17963,7 +18278,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18291,7 +18606,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -18381,8 +18696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18536,16 +18851,16 @@
         <v>358</v>
       </c>
       <c r="AK1" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -18637,10 +18952,10 @@
         <v>45</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -18732,10 +19047,10 @@
         <v>45</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -18827,10 +19142,10 @@
         <v>45</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -18922,10 +19237,10 @@
         <v>45</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -19017,10 +19332,10 @@
         <v>45</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -19112,10 +19427,10 @@
         <v>45</v>
       </c>
       <c r="AL7" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -19207,10 +19522,10 @@
         <v>45</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -19244,8 +19559,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AI1">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection sqref="A1:A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
@@ -19259,136 +19574,149 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>412</v>
+      <c r="B1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="J2" s="15">
-        <v>22</v>
-      </c>
-      <c r="K2" s="15">
-        <v>15</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="P2" s="15">
-        <v>0.255</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15">
-        <v>75</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="15">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0.255</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="N9" sqref="N9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
@@ -19400,7 +19728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
@@ -19525,28 +19853,28 @@
         <v>395</v>
       </c>
       <c r="AB1" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC1" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>419</v>
-      </c>
       <c r="AD1" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>422</v>
-      </c>
       <c r="AF1" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -19620,10 +19948,10 @@
         <v>45</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
@@ -19706,10 +20034,10 @@
         <v>45</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>5</v>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -31,15 +31,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="15"/>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="436">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1337,13 +1337,16 @@
     <t>n4YinvGroundPosition</t>
   </si>
   <si>
-    <t>F10L</t>
-  </si>
-  <si>
     <t>n4YinvGroundReverseDirection</t>
   </si>
   <si>
     <t>n4YinvGroundMenWorking</t>
+  </si>
+  <si>
+    <t>n4YinvGroundContainer</t>
+  </si>
+  <si>
+    <t>F10L.1</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6A8AB26F-C345-48FF-A882-A8F1119953E5}" diskRevisions="1" revisionId="1286" version="227">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F80F47A5-C79A-4DB6-B766-04ED19AE3242}" diskRevisions="1" revisionId="1290" version="230">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4662,6 +4665,66 @@
     </sheetIdMap>
   </header>
   <header guid="{6A8AB26F-C345-48FF-A882-A8F1119953E5}" dateTime="2018-06-08T11:07:36" maxSheetId="17" userName="ITL-USER" r:id="rId227" minRId="1280" maxRId="1286">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8915B857-5F57-4334-B22D-E7E5FC4B0818}" dateTime="2018-06-08T11:12:30" maxSheetId="17" userName="ITL-USER" r:id="rId228" minRId="1287">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A628353-96D4-428E-8C21-81979CD011DB}" dateTime="2018-06-08T11:48:57" maxSheetId="17" userName="ITL-USER" r:id="rId229" minRId="1288" maxRId="1289">
+    <sheetIdMap count="16">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F80F47A5-C79A-4DB6-B766-04ED19AE3242}" dateTime="2018-06-08T12:18:49" maxSheetId="17" userName="ITL-USER" r:id="rId230" minRId="1290">
     <sheetIdMap count="16">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -15452,6 +15515,57 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog222.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1287" sId="16">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="D2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog223.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1288" sId="16">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1289" sId="16">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog224.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1290" sId="16">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>F10L</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="28" sId="3">
@@ -17856,7 +17970,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -17867,6 +17981,7 @@
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
+  <userInfo guid="{F80F47A5-C79A-4DB6-B766-04ED19AE3242}" name="ITL-USER" id="-1580111551" dateTime="2018-06-08T11:12:08"/>
 </users>
 </file>
 
@@ -18260,12 +18375,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18609,12 +18724,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18679,12 +18794,12 @@
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19574,10 +19689,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19586,9 +19701,10 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -19596,27 +19712,30 @@
         <v>431</v>
       </c>
       <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
         <v>433</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" t="s">
-        <v>360</v>
+        <v>435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19628,7 +19747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -20401,13 +20520,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -20484,12 +20603,12 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20645,12 +20764,12 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21004,13 +21123,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -21501,12 +21620,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21685,12 +21804,12 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21933,14 +22052,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22026,13 +22145,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -17970,7 +17970,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -17981,7 +17981,6 @@
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
-  <userInfo guid="{F80F47A5-C79A-4DB6-B766-04ED19AE3242}" name="ITL-USER" id="-1580111551" dateTime="2018-06-08T11:12:08"/>
 </users>
 </file>
 

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Test Complete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -25,21 +25,22 @@
     <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId11"/>
     <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId12"/>
     <sheet name="YardInventoryQuery" sheetId="12" r:id="rId13"/>
-    <sheet name="YardInventoryGround" sheetId="16" r:id="rId14"/>
-    <sheet name="ReeferMonitor" sheetId="15" r:id="rId15"/>
-    <sheet name="YardInspection" sheetId="13" r:id="rId16"/>
+    <sheet name="RailInventory" sheetId="17" r:id="rId14"/>
+    <sheet name="YardInventoryGround" sheetId="16" r:id="rId15"/>
+    <sheet name="ReeferMonitor" sheetId="15" r:id="rId16"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="444">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1347,6 +1348,30 @@
   </si>
   <si>
     <t>F10L.1</t>
+  </si>
+  <si>
+    <t>n4RailInventoryRailCarId</t>
+  </si>
+  <si>
+    <t>n4MobileCartype</t>
+  </si>
+  <si>
+    <t>n4SelectrailDamage</t>
+  </si>
+  <si>
+    <t>n4SelectrailInspect</t>
+  </si>
+  <si>
+    <t>n4SelectrailFlipped</t>
+  </si>
+  <si>
+    <t>N4MobileRailInventory</t>
+  </si>
+  <si>
+    <t>KEP1INRC</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1449,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F80F47A5-C79A-4DB6-B766-04ED19AE3242}" diskRevisions="1" revisionId="1290" version="230">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" diskRevisions="1" revisionId="1303" version="232">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4739,6 +4764,48 @@
       <sheetId val="10"/>
       <sheetId val="11"/>
       <sheetId val="12"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0FDE8D72-8605-49F6-86F5-389E4ADA71D6}" dateTime="2018-06-08T17:39:45" maxSheetId="18" userName="itluser" r:id="rId231" minRId="1291" maxRId="1302">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" dateTime="2018-06-08T17:40:12" maxSheetId="18" userName="itluser" r:id="rId232" minRId="1303">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
@@ -15566,6 +15633,105 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog225.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1291" sheetId="17" name="[TestData.xlsx]RailInventory" sheetPosition="13"/>
+  <rcc rId="1292" sId="17" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1293" sId="17" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryRailCarId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1294" sId="17" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4MobileCartype</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1295" sId="17" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4SelectrailDamage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1296" sId="17" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4SelectrailInspect</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1297" sId="17" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4SelectrailFlipped</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1298" sId="17" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileRailInventory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1299" sId="17" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>KEP1INRC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1300" sId="17" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>STD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1301" sId="17" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rcc rId="1302" sId="17" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog226.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1303" sId="1" odxf="1">
+    <nc r="A20" t="inlineStr">
+      <is>
+        <t>N4MobileRailInventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="28" sId="3">
@@ -17969,8 +18135,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="10">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -17981,6 +18147,7 @@
   <userInfo guid="{82F04F4E-022D-4926-A8A5-D79C201A90FA}" name="ITL-USER" id="-1580134292" dateTime="2018-05-22T11:31:15"/>
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
+  <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
 </users>
 </file>
 
@@ -18280,7 +18447,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18374,12 +18541,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18392,7 +18559,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18723,12 +18890,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18741,7 +18908,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18793,12 +18960,12 @@
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18810,8 +18977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19688,9 +19855,67 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="I14" sqref="I14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19737,17 +19962,21 @@
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19846,12 +20075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20187,10 +20416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20512,6 +20741,11 @@
         <v>413</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
@@ -20519,13 +20753,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -20540,7 +20774,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20602,12 +20836,12 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20619,8 +20853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20763,12 +20997,12 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20780,8 +21014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21122,13 +21356,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -21143,7 +21377,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21619,12 +21853,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21637,7 +21871,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21803,12 +22037,12 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21820,8 +22054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22051,18 +22285,17 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22071,7 +22304,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22144,13 +22377,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Test Complete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -32,15 +32,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="452">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1372,6 +1372,30 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>n4Track</t>
+  </si>
+  <si>
+    <t>n4Position</t>
+  </si>
+  <si>
+    <t>n4TransferPoint</t>
+  </si>
+  <si>
+    <t>n4Metermark</t>
+  </si>
+  <si>
+    <t>Rail Inventory</t>
+  </si>
+  <si>
+    <t>Reefer Monitor</t>
+  </si>
+  <si>
+    <t>n4ClickEditSegBreak</t>
+  </si>
+  <si>
+    <t>n4AddContainer1</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1473,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" diskRevisions="1" revisionId="1303" version="232">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" diskRevisions="1" revisionId="1315" version="241">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -4791,6 +4815,195 @@
     </sheetIdMap>
   </header>
   <header guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" dateTime="2018-06-08T17:40:12" maxSheetId="18" userName="itluser" r:id="rId232" minRId="1303">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD3A6473-9C21-414D-A18E-459A6285470C}" dateTime="2018-06-11T12:46:08" maxSheetId="18" userName="itluser" r:id="rId233" minRId="1304" maxRId="1305">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0D209139-831C-4689-928A-2628EDA819F0}" dateTime="2018-06-11T12:54:21" maxSheetId="18" userName="itluser" r:id="rId234" minRId="1306">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{15739E69-FFE7-4C46-A217-ADEEF8E59BF1}" dateTime="2018-06-11T12:56:46" maxSheetId="18" userName="itluser" r:id="rId235" minRId="1307">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C471B8BC-D5C2-4D57-9853-9FFB1714C58B}" dateTime="2018-06-11T13:09:41" maxSheetId="18" userName="itluser" r:id="rId236" minRId="1308">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A1AD0CC5-0532-47CD-A12D-5BA541E2F212}" dateTime="2018-06-11T13:26:28" maxSheetId="18" userName="itluser" r:id="rId237" minRId="1309">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3488DC1C-EAC7-4464-9DD0-BB50F5AD6F48}" dateTime="2018-06-11T14:33:47" maxSheetId="18" userName="itluser" r:id="rId238" minRId="1310" maxRId="1313">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{38F60545-2FB9-456E-B8C0-7E0EC486F7A2}" dateTime="2018-06-11T14:45:10" maxSheetId="18" userName="itluser" r:id="rId239">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{84F50593-E0B7-4A66-BC8A-81F7B4483911}" dateTime="2018-06-11T14:52:14" maxSheetId="18" userName="itluser" r:id="rId240" minRId="1314">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" dateTime="2018-06-11T18:04:42" maxSheetId="18" userName="itluser" r:id="rId241" minRId="1315">
     <sheetIdMap count="17">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -15732,6 +15945,51 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog227.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1304" sId="17">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4Track</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1305" sId="17" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4Position</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog228.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1306" sId="17" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4TransferPoint</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog229.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1307" sId="17" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4Metermark</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="28" sId="3">
@@ -15909,6 +16167,103 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog230.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="17" xfDxf="1" sqref="K1" start="0" length="0"/>
+  <rcc rId="1308" sId="17">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4AddEditSegBreak</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog231.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1309" sId="17">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog232.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1310" sId="10" odxf="1">
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>N4MobileRailInventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1311" sId="10" xfDxf="1" dxf="1">
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>Rail Inventory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1312" sId="10" odxf="1">
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>N4MobileReeferMonitor</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1313" sId="10" xfDxf="1" dxf="1">
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Reefer Monitor</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog233.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="17" xfDxf="1" sqref="K2" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog234.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1314" sId="17" xfDxf="1" dxf="1">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>n4AddEditSegBreak</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4ClickEditSegBreak</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog235.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1315" sId="17" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4AddContainer1</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -18135,8 +18490,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="11">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="12">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -18148,6 +18503,7 @@
   <userInfo guid="{C5987485-93A6-4D54-8156-0B4DA73E93EF}" name="ITL-USER" id="-1580073728" dateTime="2018-06-04T15:40:39"/>
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
+  <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
 </users>
 </file>
 
@@ -18537,11 +18893,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -18556,7 +18912,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -18884,14 +19240,30 @@
         <v>398</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
@@ -18956,12 +19328,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
@@ -19855,15 +20227,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19882,8 +20264,26 @@
       <c r="F1" t="s">
         <v>440</v>
       </c>
+      <c r="G1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L1" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -19897,13 +20297,16 @@
         <v>360</v>
       </c>
       <c r="F2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" t="s">
         <v>360</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="I14" sqref="I14"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
+      <selection activeCell="K1" sqref="K1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20418,8 +20821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20748,13 +21151,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -20832,11 +21235,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20993,11 +21396,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -21351,12 +21754,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -21849,11 +22252,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -22033,11 +22436,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -22280,12 +22683,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -22372,12 +22775,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestCompleteLatest\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -32,9 +32,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1347,9 +1347,6 @@
     <t>n4YinvGroundContainer</t>
   </si>
   <si>
-    <t>F10L.1</t>
-  </si>
-  <si>
     <t>n4RailInventoryRailCarId</t>
   </si>
   <si>
@@ -1396,6 +1393,9 @@
   </si>
   <si>
     <t>n4AddContainer1</t>
+  </si>
+  <si>
+    <t>F10L</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" diskRevisions="1" revisionId="1315" version="241">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5060BA1B-D417-41BD-9312-026987BA3923}" diskRevisions="1" revisionId="1316" version="242">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -5004,6 +5004,27 @@
     </sheetIdMap>
   </header>
   <header guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" dateTime="2018-06-11T18:04:42" maxSheetId="18" userName="itluser" r:id="rId241" minRId="1315">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5060BA1B-D417-41BD-9312-026987BA3923}" dateTime="2018-06-12T11:32:28" maxSheetId="18" userName="ITL-USER" r:id="rId242" minRId="1316">
     <sheetIdMap count="17">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -16267,6 +16288,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog236.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1316" sId="16">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>F10L.1</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>F10L</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="47" sId="3" xfDxf="1" dxf="1">
@@ -18785,11 +18823,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -18803,7 +18841,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18893,16 +18931,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18915,7 +18953,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19242,10 +19280,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19253,21 +19291,21 @@
         <v>413</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19280,7 +19318,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19328,16 +19366,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -19349,8 +19387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20212,12 +20250,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection sqref="A1:A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20229,7 +20267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -20250,48 +20288,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" t="s">
         <v>436</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>438</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>439</v>
       </c>
-      <c r="F1" t="s">
-        <v>440</v>
-      </c>
       <c r="G1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" t="s">
         <v>444</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>445</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>446</v>
       </c>
-      <c r="J1" t="s">
-        <v>447</v>
-      </c>
       <c r="K1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1" t="s">
         <v>450</v>
-      </c>
-      <c r="L1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>442</v>
-      </c>
-      <c r="C2" t="s">
-        <v>443</v>
       </c>
       <c r="D2" t="s">
         <v>360</v>
@@ -20318,7 +20356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -20353,7 +20391,7 @@
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E2" t="s">
         <v>344</v>
@@ -20361,12 +20399,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20379,7 +20417,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20465,12 +20503,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="N9" sqref="N9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20482,8 +20520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20804,12 +20842,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
       <selection activeCell="AI2" sqref="AI2:AI3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20822,7 +20860,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21146,13 +21184,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -21161,8 +21199,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -21177,7 +21215,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21235,16 +21273,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21256,8 +21294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21396,16 +21434,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21417,8 +21455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21754,8 +21792,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -21764,8 +21802,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -21780,7 +21818,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22252,16 +22290,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22274,7 +22312,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22436,16 +22474,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22457,8 +22495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22683,22 +22721,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22707,7 +22746,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22775,8 +22814,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -22785,8 +22824,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -32,15 +32,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="16"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="456">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1396,6 +1396,18 @@
   </si>
   <si>
     <t>F10L</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3Container</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1485,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5060BA1B-D417-41BD-9312-026987BA3923}" diskRevisions="1" revisionId="1316" version="242">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" diskRevisions="1" revisionId="1325" version="247">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -5025,6 +5037,111 @@
     </sheetIdMap>
   </header>
   <header guid="{5060BA1B-D417-41BD-9312-026987BA3923}" dateTime="2018-06-12T11:32:28" maxSheetId="18" userName="ITL-USER" r:id="rId242" minRId="1316">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9EDE9526-DF0B-4B04-AC95-910C2B5E8D87}" dateTime="2018-06-12T14:57:07" maxSheetId="18" userName="ITL-USER" r:id="rId243" minRId="1317" maxRId="1318">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{923C66F5-4193-4275-88CD-DFEA73A7D09B}" dateTime="2018-06-12T15:40:40" maxSheetId="18" userName="ITL-USER" r:id="rId244" minRId="1319" maxRId="1320">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA5C1D49-BB18-4157-8BB7-AAE38F33B5C5}" dateTime="2018-06-12T15:42:46" maxSheetId="18" userName="ITL-USER" r:id="rId245" minRId="1321" maxRId="1322">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{05793692-3914-42F8-BC91-9690814F7E49}" dateTime="2018-06-12T15:44:55" maxSheetId="18" userName="ITL-USER" r:id="rId246" minRId="1323" maxRId="1324">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" dateTime="2018-06-12T15:51:41" maxSheetId="18" userName="ITL-USER" r:id="rId247" minRId="1325">
     <sheetIdMap count="17">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -16305,6 +16422,68 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog237.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1317" sId="16">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1318" sId="16">
+    <nc r="F2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog238.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1319" sId="16">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1Container</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1320" sId="16">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog239.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1321" sId="16">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier2Container</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1322" sId="16" odxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="47" sId="3" xfDxf="1" dxf="1">
@@ -16312,6 +16491,40 @@
       <is>
         <t>TruckingCoContactName</t>
       </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog240.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1323" sId="16">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier3Container</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1324" sId="16">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog241.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1325" sId="16">
+    <oc r="F2">
+      <v>1</v>
+    </oc>
+    <nc r="F2">
+      <v>2</v>
     </nc>
   </rcc>
 </revisions>
@@ -18529,7 +18742,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="12">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="13">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -18542,6 +18755,7 @@
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
+  <userInfo guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" name="ITL-USER" id="-1580105203" dateTime="2018-06-12T15:40:21"/>
 </users>
 </file>
 
@@ -18823,11 +19037,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -18931,12 +19145,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -19296,12 +19510,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -19366,12 +19580,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -20250,12 +20464,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection sqref="A1:A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection sqref="A1:A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20343,6 +20557,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
       <selection activeCell="K1" sqref="K1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20354,10 +20572,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20367,9 +20585,11 @@
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -20385,8 +20605,20 @@
       <c r="E1" t="s">
         <v>434</v>
       </c>
+      <c r="F1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -20394,17 +20626,29 @@
         <v>451</v>
       </c>
       <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="D1">
+      <selection activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20503,12 +20747,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="N9" sqref="N9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="N9" sqref="N9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20842,12 +21086,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21189,13 +21433,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -21273,12 +21517,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -21434,12 +21678,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
@@ -21792,13 +22036,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -22290,12 +22534,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -22474,12 +22718,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -22721,14 +22965,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
@@ -22814,13 +23058,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="464">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1395,9 +1395,6 @@
     <t>n4AddContainer1</t>
   </si>
   <si>
-    <t>F10L</t>
-  </si>
-  <si>
     <t>n4YinvGroundTier</t>
   </si>
   <si>
@@ -1408,6 +1405,33 @@
   </si>
   <si>
     <t>n4YinvGroundTier3Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1RemoveContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2RemoveContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3RemoveContainer</t>
+  </si>
+  <si>
+    <t>F10M</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1BundleMasterContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1BundleSlaveContainer</t>
+  </si>
+  <si>
+    <t>ASWU2705180</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2BundleMasterContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3BundleMasterContainer</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1509,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" diskRevisions="1" revisionId="1325" version="247">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8F755ED-221C-45B0-9557-1C03AB2567AF}" diskRevisions="1" revisionId="1341" version="257">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -5142,6 +5166,216 @@
     </sheetIdMap>
   </header>
   <header guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" dateTime="2018-06-12T15:51:41" maxSheetId="18" userName="ITL-USER" r:id="rId247" minRId="1325">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8826F43F-A4AF-483A-BAF3-02E202088E24}" dateTime="2018-06-12T16:03:12" maxSheetId="18" userName="ITL-USER" r:id="rId248" minRId="1326" maxRId="1327">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EBFAFA1A-D84C-41A8-8CED-6507A5C2AF8C}" dateTime="2018-06-12T16:03:24" maxSheetId="18" userName="ITL-USER" r:id="rId249" minRId="1328">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B6B37134-BC17-4EEC-A914-9A7AE28A75C1}" dateTime="2018-06-12T16:24:19" maxSheetId="18" userName="ITL-USER" r:id="rId250" minRId="1329">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5FAE2148-AAF2-4BE9-90AD-43455A149156}" dateTime="2018-06-13T10:14:31" maxSheetId="18" userName="ITL-USER" r:id="rId251" minRId="1330">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD22640A-A27E-42A0-B3B1-8CA006806E99}" dateTime="2018-06-13T11:08:41" maxSheetId="18" userName="ITL-USER" r:id="rId252" minRId="1331">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B56BF2B8-C73F-4994-8110-6DBFE0D3586E}" dateTime="2018-06-13T11:12:35" maxSheetId="18" userName="ITL-USER" r:id="rId253" minRId="1332">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{00CBAC07-BABA-47B5-AA6B-0581855E09A8}" dateTime="2018-06-13T12:11:05" maxSheetId="18" userName="ITL-USER" r:id="rId254" minRId="1333" maxRId="1334">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E59CABBA-2B8A-4258-B4F5-8A33915669E5}" dateTime="2018-06-13T12:13:01" maxSheetId="18" userName="ITL-USER" r:id="rId255" minRId="1335">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{41290385-A8BD-4F25-9C90-178B23920B14}" dateTime="2018-06-13T12:18:42" maxSheetId="18" userName="ITL-USER" r:id="rId256" minRId="1336" maxRId="1337">
+    <sheetIdMap count="17">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C8F755ED-221C-45B0-9557-1C03AB2567AF}" dateTime="2018-06-13T12:34:00" maxSheetId="18" userName="ITL-USER" r:id="rId257" minRId="1338" maxRId="1341">
     <sheetIdMap count="17">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -16530,6 +16764,137 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog242.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1326" sId="16">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1RemoveContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1327" sId="16">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier2RemoveContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog243.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1328" sId="16">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier3RemoveContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog244.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1329" sId="16">
+    <oc r="F2">
+      <v>2</v>
+    </oc>
+    <nc r="F2">
+      <v>3</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog245.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1330" sId="16">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>F10L</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>F10M</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog246.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1331" sId="16">
+    <oc r="F2">
+      <v>3</v>
+    </oc>
+    <nc r="F2">
+      <v>2</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog247.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1332" sId="16">
+    <oc r="F2">
+      <v>2</v>
+    </oc>
+    <nc r="F2">
+      <v>3</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog248.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1333" sId="16">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1BundleContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1334" sId="16">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog249.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1335" sId="16">
+    <oc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1BundleContainer</t>
+      </is>
+    </oc>
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1BundleMasterContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="48" sId="3" xfDxf="1" dxf="1">
@@ -16539,6 +16904,64 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog250.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1336" sId="16">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier1BundleSlaveContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1337" sId="16">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog251.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1338" sId="16">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier2BundleMasterContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1339" sId="16" odxf="1">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1340" sId="16">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4YinvGroundTier3BundleMasterContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1341" sId="16" odxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -18755,7 +19178,7 @@
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
-  <userInfo guid="{ED6CE125-9591-4FAE-ADD5-B2299A65314E}" name="ITL-USER" id="-1580105203" dateTime="2018-06-12T15:40:21"/>
+  <userInfo guid="{C8F755ED-221C-45B0-9557-1C03AB2567AF}" name="ITL-USER" id="-1580079401" dateTime="2018-06-13T12:10:34"/>
 </users>
 </file>
 
@@ -20572,10 +20995,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20587,9 +21010,13 @@
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -20606,30 +21033,51 @@
         <v>434</v>
       </c>
       <c r="F1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" t="s">
         <v>452</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>453</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>454</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>455</v>
       </c>
+      <c r="K1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L1" t="s">
+        <v>457</v>
+      </c>
+      <c r="M1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P1" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
         <v>344</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>344</v>
@@ -20638,13 +21086,25 @@
         <v>344</v>
       </c>
       <c r="I2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="D1">
-      <selection activeCell="I2" sqref="I2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
+      <selection activeCell="P2" sqref="P2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -34,14 +34,14 @@
   <calcPr calcId="145621"/>
   <customWorkbookViews>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="18"/>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="493">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1475,6 +1475,51 @@
   </si>
   <si>
     <t>n4GInspDamageDepth</t>
+  </si>
+  <si>
+    <t>n4GInspTemperature</t>
+  </si>
+  <si>
+    <t>n4GInspTempUnit</t>
+  </si>
+  <si>
+    <t>n4GInspIsGenset</t>
+  </si>
+  <si>
+    <t>n4GInspGensetType</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageComponent</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageLocation</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageType</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageSeverity</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageQuantity</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageWidth</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageLength</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageDepth</t>
+  </si>
+  <si>
+    <t>n4GInspOOGTop</t>
+  </si>
+  <si>
+    <t>n4GInspOOGLeft</t>
+  </si>
+  <si>
+    <t>n4GInspOOGRight</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1597,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{21020E91-DEEE-4F51-9240-3827FDED4377}" diskRevisions="1" revisionId="1370" version="272">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D1C04910-AD23-4127-92A6-F91493935D47}" diskRevisions="1" revisionId="1392" version="282">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -5748,6 +5793,226 @@
     </sheetIdMap>
   </header>
   <header guid="{21020E91-DEEE-4F51-9240-3827FDED4377}" dateTime="2018-06-14T12:36:45" maxSheetId="19" userName="ITL-USER" r:id="rId272" minRId="1369" maxRId="1370">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD18459B-F42A-4E52-86F2-BA9B794E8CFA}" dateTime="2018-06-14T15:06:14" maxSheetId="19" userName="ITL-USER" r:id="rId273" minRId="1371" maxRId="1372">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{59A7DF98-1DA3-4A03-ADE2-3474AA7D97C3}" dateTime="2018-06-14T15:08:28" maxSheetId="19" userName="ITL-USER" r:id="rId274" minRId="1373" maxRId="1374">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0DBF59CD-6673-4CAF-A9C8-9ECC5B6E849C}" dateTime="2018-06-14T15:10:12" maxSheetId="19" userName="ITL-USER" r:id="rId275" minRId="1375" maxRId="1376">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{19A378A4-4E9A-4A88-836C-EC9939D673E0}" dateTime="2018-06-14T15:10:34" maxSheetId="19" userName="ITL-USER" r:id="rId276" minRId="1377">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{339EB71B-1055-4094-AE89-7FBCD95D41C1}" dateTime="2018-06-14T15:14:36" maxSheetId="19" userName="ITL-USER" r:id="rId277" minRId="1378">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9BF74820-0848-4F92-9688-074DE4D30DC9}" dateTime="2018-06-14T15:30:20" maxSheetId="19" userName="ITL-USER" r:id="rId278" minRId="1379" maxRId="1382">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6955F332-D62F-45DC-874E-3532B0332922}" dateTime="2018-06-14T15:31:28" maxSheetId="19" userName="ITL-USER" r:id="rId279" minRId="1383" maxRId="1386">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3CEF21D2-8F8D-456B-989D-31E573D884B8}" dateTime="2018-06-14T17:23:30" maxSheetId="19" userName="ITL-USER" r:id="rId280" minRId="1387" maxRId="1388">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E5F99182-E821-4435-9AD0-81F79F8DB119}" dateTime="2018-06-14T17:28:44" maxSheetId="19" userName="ITL-USER" r:id="rId281" minRId="1389" maxRId="1390">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D1C04910-AD23-4127-92A6-F91493935D47}" dateTime="2018-06-14T17:40:28" maxSheetId="19" userName="ITL-USER" r:id="rId282" minRId="1391" maxRId="1392">
     <sheetIdMap count="18">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -17648,6 +17913,65 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog267.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1371" sId="18">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4GInspTemperature</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1372" sId="18">
+    <nc r="M2">
+      <v>15</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog268.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1373" sId="18">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4GInspTempUnit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1374" sId="18">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog269.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1375" sId="18">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4GInspIsGenset</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1376" sId="18">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="50" sId="3" xfDxf="1" dxf="1">
@@ -17657,6 +17981,160 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog270.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1377" sId="18">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </oc>
+    <nc r="O2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog271.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1378" sId="18">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog272.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1379" sId="18">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageComponent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1380" sId="18">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageLocation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1381" sId="18">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1382" sId="18">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageSeverity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog273.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1383" sId="18">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageQuantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1384" sId="18">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageWidth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1385" sId="18">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageLength</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1386" sId="18" xfDxf="1" dxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>n4GInspGensetDamageDepth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog274.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1387" sId="18">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>n4GInspOOGTop</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1388" sId="18">
+    <nc r="Y2">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog275.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1389" sId="18">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>n4GInspOOGLeft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1390" sId="18">
+    <nc r="Z2">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog276.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1391" sId="18">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>n4GInspOOGRight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1392" sId="18">
+    <nc r="AA2">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -19849,7 +20327,7 @@
   <userInfo guid="{B811EF09-604A-4F66-AA58-B7F52E2BFBC7}" name="itluser" id="-446809699" dateTime="2018-06-05T18:12:58"/>
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
-  <userInfo guid="{21020E91-DEEE-4F51-9240-3827FDED4377}" name="ITL-USER" id="-1580105824" dateTime="2018-06-14T12:01:46"/>
+  <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
 </users>
 </file>
 
@@ -20243,12 +20721,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20608,12 +21086,12 @@
       <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -20678,12 +21156,12 @@
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21663,10 +22141,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21683,9 +22161,24 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -21722,8 +22215,53 @@
       <c r="L1" t="s">
         <v>477</v>
       </c>
+      <c r="M1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S1" t="s">
+        <v>484</v>
+      </c>
+      <c r="T1" t="s">
+        <v>485</v>
+      </c>
+      <c r="U1" t="s">
+        <v>486</v>
+      </c>
+      <c r="V1" t="s">
+        <v>487</v>
+      </c>
+      <c r="W1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -21758,13 +22296,28 @@
         <v>4</v>
       </c>
       <c r="L2" s="16">
+        <v>3</v>
+      </c>
+      <c r="M2" s="16">
+        <v>15</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="16">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="G1">
-      <selection activeCell="L2" sqref="L2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="U1">
+      <selection activeCell="AA2" sqref="AA2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22677,13 +23230,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -22760,12 +23313,12 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22921,12 +23474,12 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23280,13 +23833,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -23777,12 +24330,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23961,12 +24514,12 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24209,14 +24762,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24302,13 +24855,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -34,14 +34,14 @@
   <calcPr calcId="145621"/>
   <customWorkbookViews>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="18"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="503">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1520,6 +1520,36 @@
   </si>
   <si>
     <t>n4GInspOOGRight</t>
+  </si>
+  <si>
+    <t>n4GInspHasPlacard</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard1</t>
+  </si>
+  <si>
+    <t>PLAC1</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard2</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard3</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard4</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard5</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard6</t>
+  </si>
+  <si>
+    <t>n4GInspMasterContainer</t>
+  </si>
+  <si>
+    <t>n4GInspSlaveUnit</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1627,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D1C04910-AD23-4127-92A6-F91493935D47}" diskRevisions="1" revisionId="1392" version="282">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" diskRevisions="1" revisionId="1412" version="294">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6013,6 +6043,270 @@
     </sheetIdMap>
   </header>
   <header guid="{D1C04910-AD23-4127-92A6-F91493935D47}" dateTime="2018-06-14T17:40:28" maxSheetId="19" userName="ITL-USER" r:id="rId282" minRId="1391" maxRId="1392">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{56733499-DB58-4B78-B393-C2B2A5DB7D71}" dateTime="2018-06-15T11:00:46" maxSheetId="19" userName="ITL-USER" r:id="rId283" minRId="1393" maxRId="1394">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4DD135C4-A119-4E47-81E5-1A05B93FF760}" dateTime="2018-06-15T11:06:51" maxSheetId="19" userName="ITL-USER" r:id="rId284" minRId="1395">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2837FA53-64F1-4189-9FF3-23ACF2A3C275}" dateTime="2018-06-15T11:07:05" maxSheetId="19" userName="ITL-USER" r:id="rId285" minRId="1396">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CAA57AF4-E762-4469-A3EC-989DD2D48D82}" dateTime="2018-06-15T11:10:28" maxSheetId="19" userName="ITL-USER" r:id="rId286" minRId="1397" maxRId="1398">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7FC4238E-71B8-4ED6-A2BB-4AB135CB6644}" dateTime="2018-06-15T11:11:13" maxSheetId="19" userName="ITL-USER" r:id="rId287" minRId="1399" maxRId="1400">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EEABE084-3023-4043-8D40-2D2A699AB13E}" dateTime="2018-06-15T11:17:44" maxSheetId="19" userName="ITL-USER" r:id="rId288" minRId="1401" maxRId="1402">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED3D9BCD-F424-4BB1-BE92-75A395BDDCB4}" dateTime="2018-06-15T11:20:11" maxSheetId="19" userName="ITL-USER" r:id="rId289" minRId="1403" maxRId="1404">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{10C14343-4236-4F38-A97B-AF7674FF1EA6}" dateTime="2018-06-15T11:20:31" maxSheetId="19" userName="ITL-USER" r:id="rId290" minRId="1405" maxRId="1406">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{682BD6E0-AD11-430F-B9E1-54D65BDE2213}" dateTime="2018-06-15T11:51:21" maxSheetId="19" userName="ITL-USER" r:id="rId291" minRId="1407" maxRId="1408">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A2F6F80-6433-4A88-8630-2449A6654D18}" dateTime="2018-06-15T11:54:24" maxSheetId="19" userName="ITL-USER" r:id="rId292" minRId="1409" maxRId="1410">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A2F0876A-D9C2-47B6-A5D4-64532955439E}" dateTime="2018-06-15T12:06:35" maxSheetId="19" userName="ITL-USER" r:id="rId293" minRId="1411">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" dateTime="2018-06-15T12:07:53" maxSheetId="19" userName="ITL-USER" r:id="rId294" minRId="1412">
     <sheetIdMap count="18">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -18138,12 +18432,243 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog277.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1393" sId="18">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>n4GInspHasPlacard</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1394" sId="18">
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog278.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1395" sId="18">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog279.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1396" sId="18">
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>PLAC1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="51" sId="3" xfDxf="1" dxf="1">
     <nc r="AO1" t="inlineStr">
       <is>
         <t>TruckingCoContactCountry</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog280.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1397" sId="18">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1398" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AD2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog281.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1399" sId="18">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1400" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AE2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog282.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1401" sId="18">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1402" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog283.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1403" sId="18">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1404" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog284.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1405" sId="18">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>n4GInspPlacard6</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1406" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog285.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1407" sId="18">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>n4GInspMasterContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1408" sId="18">
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog286.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1409" sId="18">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>n4GInspSlaveUnit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1410" sId="18">
+    <nc r="AJ2" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog287.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1411" sId="18">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog288.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1412" sId="18">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
       </is>
     </nc>
   </rcc>
@@ -20314,7 +20839,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="13">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -20328,6 +20853,7 @@
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
+  <userInfo guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
 </users>
 </file>
 
@@ -20721,12 +21247,12 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21086,12 +21612,12 @@
       <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21156,12 +21682,12 @@
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22141,10 +22667,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22176,9 +22702,13 @@
     <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -22260,8 +22790,35 @@
       <c r="AA1" t="s">
         <v>492</v>
       </c>
+      <c r="AB1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -22312,12 +22869,39 @@
       </c>
       <c r="AA2" s="16">
         <v>3</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="U1">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
+      <selection activeCell="AJ2" sqref="AJ2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23230,13 +23814,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -23313,12 +23897,12 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23474,12 +24058,12 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23833,13 +24417,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -24330,12 +24914,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24514,12 +25098,12 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24762,14 +25346,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24855,13 +25439,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="515">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1550,6 +1550,42 @@
   </si>
   <si>
     <t>n4GInspSlaveUnit</t>
+  </si>
+  <si>
+    <t>n4GInspPositionOnTruck</t>
+  </si>
+  <si>
+    <t>n4GInspDoorDirection</t>
+  </si>
+  <si>
+    <t>n4GInspCSC</t>
+  </si>
+  <si>
+    <t>n4GInspMnf</t>
+  </si>
+  <si>
+    <t>n4GInspSafeWeight</t>
+  </si>
+  <si>
+    <t>n4GInspTareWeight</t>
+  </si>
+  <si>
+    <t>n4GInspSeal1</t>
+  </si>
+  <si>
+    <t>n4GInspSeal2</t>
+  </si>
+  <si>
+    <t>n4GInspSeal3</t>
+  </si>
+  <si>
+    <t>n4GInspSeal4</t>
+  </si>
+  <si>
+    <t>n4GInspSeal5</t>
+  </si>
+  <si>
+    <t>S5</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1663,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" diskRevisions="1" revisionId="1412" version="294">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" diskRevisions="1" revisionId="1432" version="304">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6307,6 +6343,226 @@
     </sheetIdMap>
   </header>
   <header guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" dateTime="2018-06-15T12:07:53" maxSheetId="19" userName="ITL-USER" r:id="rId294" minRId="1412">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6714CB33-4610-4BE7-B48E-9576FA571B58}" dateTime="2018-06-15T12:19:53" maxSheetId="19" userName="ITL-USER" r:id="rId295" minRId="1413" maxRId="1414">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{374FCE6B-9C4A-41F5-93A5-75A6999F7089}" dateTime="2018-06-15T12:31:37" maxSheetId="19" userName="ITL-USER" r:id="rId296" minRId="1415" maxRId="1416">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{997C981F-98FA-4980-A113-82AF9F19CDB9}" dateTime="2018-06-15T12:34:52" maxSheetId="19" userName="ITL-USER" r:id="rId297" minRId="1417" maxRId="1418">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D45A8E0C-6E4C-4FB5-BF85-92F48B7035BC}" dateTime="2018-06-15T12:35:46" maxSheetId="19" userName="ITL-USER" r:id="rId298" minRId="1419" maxRId="1420">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D5865CE7-D104-4786-AECB-DBEEF36347D3}" dateTime="2018-06-15T12:37:43" maxSheetId="19" userName="ITL-USER" r:id="rId299" minRId="1421" maxRId="1422">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A72401AC-AFC8-4E7D-A9FE-E6FA2927312C}" dateTime="2018-06-15T12:52:23" maxSheetId="19" userName="ITL-USER" r:id="rId300" minRId="1423" maxRId="1424">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{288E56C7-423D-4941-BD04-CD4680AE14BB}" dateTime="2018-06-15T12:54:39" maxSheetId="19" userName="ITL-USER" r:id="rId301" minRId="1425" maxRId="1426">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4A3F7E4-F925-4008-994A-AB2B2A891DCF}" dateTime="2018-06-15T12:56:50" maxSheetId="19" userName="ITL-USER" r:id="rId302" minRId="1427" maxRId="1428">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7EB5D2BC-3FB2-4823-9AF8-9F4C0C6EA710}" dateTime="2018-06-15T12:57:05" maxSheetId="19" userName="ITL-USER" r:id="rId303" minRId="1429" maxRId="1430">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" dateTime="2018-06-15T12:58:38" maxSheetId="19" userName="ITL-USER" r:id="rId304" minRId="1431" maxRId="1432">
     <sheetIdMap count="18">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -18675,12 +18931,210 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog289.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1413" sId="18">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>n4GInspPositionOnTruck</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1414" sId="18">
+    <nc r="AK2">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="52" sId="3" xfDxf="1" dxf="1">
     <nc r="AP1" t="inlineStr">
       <is>
         <t>TruckingCoContactState</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog290.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1415" sId="18">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>n4GInspDoorDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1416" sId="18">
+    <nc r="AL2" t="inlineStr">
+      <is>
+        <t>Aft</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog291.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1417" sId="18">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>n4GInspCSC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1418" sId="18">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>n4GInspMnf</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog292.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1419" sId="18">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>n4GInspSafeWeight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1420" sId="18">
+    <nc r="AO2">
+      <v>1000</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog293.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1421" sId="18">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>n4GInspTareWeight</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1422" sId="18">
+    <nc r="AP2">
+      <v>20000</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog294.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1423" sId="18">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>n4GInspSeal1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1424" sId="18">
+    <nc r="AQ2" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog295.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1425" sId="18">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>n4GInspSeal2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1426" sId="18">
+    <nc r="AR2" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog296.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1427" sId="18">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>n4GInspSeal3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1428" sId="18">
+    <nc r="AS2" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog297.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1429" sId="18">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>n4GInspSeal4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1430" sId="18">
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog298.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1431" sId="18">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>n4GInspSeal5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1432" sId="18">
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>S5</t>
       </is>
     </nc>
   </rcc>
@@ -20853,7 +21307,7 @@
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
-  <userInfo guid="{65AF415F-CF80-4375-9BD5-D7BFDD3D9813}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
+  <userInfo guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
 </users>
 </file>
 
@@ -22667,10 +23121,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22706,9 +23160,14 @@
     <col min="29" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -22817,8 +23276,41 @@
       <c r="AJ1" t="s">
         <v>502</v>
       </c>
+      <c r="AK1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -22896,12 +23388,39 @@
       </c>
       <c r="AJ2" s="16" t="s">
         <v>461</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>20000</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AJ1">
+      <selection activeCell="AT2" sqref="AT2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="521">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1586,6 +1586,24 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageComponent</t>
+  </si>
+  <si>
+    <t>CORNER</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageLocation</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageType</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageSeverity</t>
+  </si>
+  <si>
+    <t>CHS</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1681,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" diskRevisions="1" revisionId="1432" version="304">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BFF01A5A-C4DC-4952-8FF1-D041D354242B}" diskRevisions="1" revisionId="1444" version="311">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6563,6 +6581,160 @@
     </sheetIdMap>
   </header>
   <header guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" dateTime="2018-06-15T12:58:38" maxSheetId="19" userName="ITL-USER" r:id="rId304" minRId="1431" maxRId="1432">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A51B2B8D-8844-464F-9C99-FE735C4DC4C8}" dateTime="2018-06-15T14:36:42" maxSheetId="19" userName="ITL-USER" r:id="rId305" minRId="1433" maxRId="1434">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{594A782C-1E19-47AD-8768-80B30EE86EEA}" dateTime="2018-06-15T14:45:47" maxSheetId="19" userName="ITL-USER" r:id="rId306" minRId="1435" maxRId="1436">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DF766F13-0399-490D-BB26-38A72CB93AA9}" dateTime="2018-06-15T14:46:03" maxSheetId="19" userName="ITL-USER" r:id="rId307" minRId="1437">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{56B0262C-FF25-4B17-930A-34E0B8166B15}" dateTime="2018-06-15T14:48:19" maxSheetId="19" userName="ITL-USER" r:id="rId308" minRId="1438" maxRId="1439">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{93573324-F57E-4FC4-AB8F-57755B2D1614}" dateTime="2018-06-15T14:59:38" maxSheetId="19" userName="ITL-USER" r:id="rId309" minRId="1440" maxRId="1441">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ABD0CB41-2248-45BD-BBFC-80C62FFE5A2D}" dateTime="2018-06-15T15:00:11" maxSheetId="19" userName="ITL-USER" r:id="rId310" minRId="1442" maxRId="1443">
+    <sheetIdMap count="18">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BFF01A5A-C4DC-4952-8FF1-D041D354242B}" dateTime="2018-06-15T15:11:15" maxSheetId="19" userName="ITL-USER" r:id="rId311" minRId="1444">
     <sheetIdMap count="18">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -19141,6 +19313,27 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog299.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1433" sId="18">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>n4GInspChsDamageComponent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1434" sId="18">
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>CORNER</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <ris rId="839" sheetId="13" name="[TestData.xlsx]Sheet2" sheetPosition="12"/>
@@ -19311,6 +19504,120 @@
     <nc r="AQ1" t="inlineStr">
       <is>
         <t>TruckingCoContactTelePhone</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog300.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1435" sId="18">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>n4GInspChsDamageLocation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1436" sId="18">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>n4GInspChsDamageType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog301.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1437" sId="18" odxf="1" quotePrefix="1">
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog302.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1438" sId="18">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>n4GInspChsDamageSeverity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1439" sId="18">
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog303.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1440" sId="18">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>n4GInspDamageQuantity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1441" sId="18">
+    <nc r="BA1" t="inlineStr">
+      <is>
+        <t>n4GInspDamageWidth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog304.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1442" sId="18">
+    <nc r="BB1" t="inlineStr">
+      <is>
+        <t>n4GInspDamageLength</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1443" sId="18">
+    <nc r="BC1" t="inlineStr">
+      <is>
+        <t>n4GInspDamageDepth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog305.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1444" sId="18" quotePrefix="1">
+    <oc r="AX2" t="inlineStr">
+      <is>
+        <t>----</t>
+      </is>
+    </oc>
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>CHS</t>
       </is>
     </nc>
   </rcc>
@@ -21307,7 +21614,7 @@
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
-  <userInfo guid="{FA76DEB1-9A8B-4A73-A1DF-F512395FA091}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
+  <userInfo guid="{BFF01A5A-C4DC-4952-8FF1-D041D354242B}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
 </users>
 </file>
 
@@ -23121,10 +23428,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23164,10 +23471,17 @@
     <col min="38" max="38" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -23309,8 +23623,32 @@
       <c r="AU1" t="s">
         <v>513</v>
       </c>
+      <c r="AV1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>474</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>475</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>477</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -23415,12 +23753,21 @@
       </c>
       <c r="AU2" s="16" t="s">
         <v>514</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AJ1">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AV1">
+      <selection activeCell="BC1" sqref="BC1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="YardInventoryQuery" sheetId="12" r:id="rId13"/>
     <sheet name="RailInventory" sheetId="17" r:id="rId14"/>
     <sheet name="GateInspection" sheetId="18" r:id="rId15"/>
-    <sheet name="YardInventoryGround" sheetId="16" r:id="rId16"/>
-    <sheet name="ReeferMonitor" sheetId="15" r:id="rId17"/>
-    <sheet name="YardInspection" sheetId="13" r:id="rId18"/>
+    <sheet name="DepotHatchClerk" sheetId="19" r:id="rId16"/>
+    <sheet name="YardInventoryGround" sheetId="16" r:id="rId17"/>
+    <sheet name="ReeferMonitor" sheetId="15" r:id="rId18"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="18"/>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="524">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1604,6 +1605,15 @@
   </si>
   <si>
     <t>CHS</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkVessel</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkCrane</t>
+  </si>
+  <si>
+    <t>CR1</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1691,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BFF01A5A-C4DC-4952-8FF1-D041D354242B}" diskRevisions="1" revisionId="1444" version="311">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" diskRevisions="1" revisionId="1451" version="314">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6751,6 +6761,75 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC92B55C-21BA-4019-AA29-3D5C67652EEC}" dateTime="2018-06-15T15:42:44" maxSheetId="20" userName="ITL-USER" r:id="rId312" minRId="1445" maxRId="1447">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EC526391-8A99-4036-B861-EC155DD35015}" dateTime="2018-06-15T15:43:50" maxSheetId="20" userName="ITL-USER" r:id="rId313" minRId="1448" maxRId="1449">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" dateTime="2018-06-15T15:45:53" maxSheetId="20" userName="ITL-USER" r:id="rId314" minRId="1450" maxRId="1451">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
@@ -19624,6 +19703,72 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog306.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1445" sheetId="19" name="[TestData.xlsx]DepotHatchClerk" sheetPosition="15"/>
+  <rcc rId="1446" sId="19" odxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1447" sId="19" odxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>N4MobileCommonRoutines</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog307.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1448" sId="19">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkVessel</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1449" sId="19">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>VVANA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog308.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1450" sId="19">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkCrane</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1451" sId="19">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>CR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="54" sId="3" xfDxf="1" dxf="1">
@@ -21614,7 +21759,7 @@
   <userInfo guid="{EC6B99F2-BAFB-4F81-BF30-4ACACEB126F7}" name="itluser" id="-446781240" dateTime="2018-06-08T17:40:00"/>
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
-  <userInfo guid="{BFF01A5A-C4DC-4952-8FF1-D041D354242B}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
+  <userInfo guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
 </users>
 </file>
 
@@ -23430,8 +23575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23766,8 +23911,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="AV1">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23776,6 +23921,54 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="C2" sqref="C2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -23898,7 +24091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -24002,7 +24195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\LatestTestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -34,15 +34,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="586">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1614,6 +1614,192 @@
   </si>
   <si>
     <t>CR1</t>
+  </si>
+  <si>
+    <t>n4OrphanContainer</t>
+  </si>
+  <si>
+    <t>n4OrphanIsocode</t>
+  </si>
+  <si>
+    <t>n4OrphanSlot</t>
+  </si>
+  <si>
+    <t>n4OrphanUnit1</t>
+  </si>
+  <si>
+    <t>n4OrphanUnit2</t>
+  </si>
+  <si>
+    <t>n4Seal</t>
+  </si>
+  <si>
+    <t>n4YardLoc</t>
+  </si>
+  <si>
+    <t>n4Lineoperator</t>
+  </si>
+  <si>
+    <t>n4railFreightKind</t>
+  </si>
+  <si>
+    <t>n4TankRails</t>
+  </si>
+  <si>
+    <t>n4RailDirection</t>
+  </si>
+  <si>
+    <t>n4RailNotes</t>
+  </si>
+  <si>
+    <t>n4DamageComp</t>
+  </si>
+  <si>
+    <t>n4DamageType</t>
+  </si>
+  <si>
+    <t>n4DamageSeverity</t>
+  </si>
+  <si>
+    <t>n4DamageLength</t>
+  </si>
+  <si>
+    <t>n4DamageWidth</t>
+  </si>
+  <si>
+    <t>n4DamageQuatity</t>
+  </si>
+  <si>
+    <t>n4DamageDeep</t>
+  </si>
+  <si>
+    <t>n4DamageLocation</t>
+  </si>
+  <si>
+    <t>n4RailInventoryPowerON</t>
+  </si>
+  <si>
+    <t>n4RailInventoryTemp</t>
+  </si>
+  <si>
+    <t>n4Gensetid</t>
+  </si>
+  <si>
+    <t>n4railtype</t>
+  </si>
+  <si>
+    <t>n4OOGHeigth</t>
+  </si>
+  <si>
+    <t>n4OOGLeft</t>
+  </si>
+  <si>
+    <t>n4OOGRigth</t>
+  </si>
+  <si>
+    <t>n4OOGFlore</t>
+  </si>
+  <si>
+    <t>n4OOGUnits</t>
+  </si>
+  <si>
+    <t>n4RailInventoryPlacard</t>
+  </si>
+  <si>
+    <t>n4Placard1</t>
+  </si>
+  <si>
+    <t>n4Placard2</t>
+  </si>
+  <si>
+    <t>n4Placard3</t>
+  </si>
+  <si>
+    <t>n4Placard4</t>
+  </si>
+  <si>
+    <t>n4Placard5</t>
+  </si>
+  <si>
+    <t>n4Placard6</t>
+  </si>
+  <si>
+    <t>n4RailInventoryGrd</t>
+  </si>
+  <si>
+    <t>n4RailInventorymaterial</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS1</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS2</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS3</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS4</t>
+  </si>
+  <si>
+    <t>n4RailInventoryBundle</t>
+  </si>
+  <si>
+    <t>n4RailInventoryWeight</t>
+  </si>
+  <si>
+    <t>n4RailInventoryunit</t>
+  </si>
+  <si>
+    <t>n4RailInventoryTareWeight</t>
+  </si>
+  <si>
+    <t>n4RailInventorycscDate</t>
+  </si>
+  <si>
+    <t>n4RailInventoryMnf</t>
+  </si>
+  <si>
+    <t>n4RailInventorymrstatus</t>
+  </si>
+  <si>
+    <t>n4RailInventoryGrdFood</t>
+  </si>
+  <si>
+    <t>n4RailInventorymaterialMade</t>
+  </si>
+  <si>
+    <t>DINU17296000</t>
+  </si>
+  <si>
+    <t>DINU1234567</t>
+  </si>
+  <si>
+    <t>DINU1231258</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>FCL</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>MnRStatus</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1877,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" diskRevisions="1" revisionId="1451" version="314">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DC5973E4-7BB7-4FF1-B826-D3886C9F80C9}" diskRevisions="1" revisionId="1547" version="315">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6813,6 +6999,29 @@
     </sheetIdMap>
   </header>
   <header guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" dateTime="2018-06-15T15:45:53" maxSheetId="20" userName="ITL-USER" r:id="rId314" minRId="1450" maxRId="1451">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC5973E4-7BB7-4FF1-B826-D3886C9F80C9}" dateTime="2018-06-19T12:13:56" maxSheetId="20" userName="itluser" r:id="rId315" minRId="1452" maxRId="1547">
     <sheetIdMap count="19">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -19769,6 +19978,753 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog309.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1452" sId="17" odxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4OrphanContainer</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1453" sId="17" odxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4OrphanIsocode</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1454" sId="17" odxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4OrphanSlot</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1455" sId="17" odxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4OrphanUnit1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1456" sId="17" odxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4OrphanUnit2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1457" sId="17" odxf="1">
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>n4Seal</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1458" sId="17" odxf="1">
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>n4YardLoc</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1459" sId="17" odxf="1">
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>n4Lineoperator</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1460" sId="17" odxf="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>n4railFreightKind</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1461" sId="17" odxf="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>n4TankRails</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1462" sId="17" odxf="1">
+    <nc r="W1" t="inlineStr">
+      <is>
+        <t>n4RailDirection</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1463" sId="17" odxf="1">
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>n4RailNotes</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1464" sId="17" odxf="1">
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>n4DamageComp</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1465" sId="17" odxf="1">
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>n4DamageType</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1466" sId="17" odxf="1">
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>n4DamageSeverity</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1467" sId="17" odxf="1">
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>n4DamageLength</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1468" sId="17" odxf="1">
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>n4DamageWidth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1469" sId="17" odxf="1">
+    <nc r="AD1" t="inlineStr">
+      <is>
+        <t>n4DamageQuatity</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1470" sId="17" odxf="1">
+    <nc r="AE1" t="inlineStr">
+      <is>
+        <t>n4DamageDeep</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1471" sId="17" odxf="1">
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>n4DamageLocation</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1472" sId="17" odxf="1">
+    <nc r="AG1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryPowerON</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1473" sId="17" odxf="1">
+    <nc r="AH1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryTemp</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1474" sId="17" odxf="1">
+    <nc r="AI1" t="inlineStr">
+      <is>
+        <t>n4Gensetid</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1475" sId="17" odxf="1">
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>n4railtype</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1476" sId="17" odxf="1">
+    <nc r="AK1" t="inlineStr">
+      <is>
+        <t>n4OOGHeigth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1477" sId="17" odxf="1">
+    <nc r="AL1" t="inlineStr">
+      <is>
+        <t>n4OOGLeft</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1478" sId="17" odxf="1">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>n4OOGRigth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1479" sId="17" odxf="1">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>n4OOGFlore</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1480" sId="17" odxf="1">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>n4OOGUnits</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1481" sId="17" odxf="1">
+    <nc r="AP1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryPlacard</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1482" sId="17" odxf="1">
+    <nc r="AQ1" t="inlineStr">
+      <is>
+        <t>n4Placard1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1483" sId="17" odxf="1">
+    <nc r="AR1" t="inlineStr">
+      <is>
+        <t>n4Placard2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1484" sId="17" odxf="1">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>n4Placard3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1485" sId="17" odxf="1">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>n4Placard4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1486" sId="17" odxf="1">
+    <nc r="AU1" t="inlineStr">
+      <is>
+        <t>n4Placard5</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1487" sId="17" odxf="1">
+    <nc r="AV1" t="inlineStr">
+      <is>
+        <t>n4Placard6</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1488" sId="17" odxf="1">
+    <nc r="AW1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryGrd</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1489" sId="17" odxf="1">
+    <nc r="AX1" t="inlineStr">
+      <is>
+        <t>n4RailInventorymaterial</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1490" sId="17" odxf="1">
+    <nc r="AY1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryS1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1491" sId="17" odxf="1">
+    <nc r="AZ1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryS2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1492" sId="17" odxf="1">
+    <nc r="BA1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryS3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1493" sId="17" odxf="1">
+    <nc r="BB1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryS4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1494" sId="17" odxf="1">
+    <nc r="BC1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryBundle</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1495" sId="17" odxf="1">
+    <nc r="BD1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1496" sId="17" odxf="1">
+    <nc r="BE1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryunit</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1497" sId="17" odxf="1">
+    <nc r="BF1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryTareWeight</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1498" sId="17" odxf="1">
+    <nc r="BG1" t="inlineStr">
+      <is>
+        <t>n4RailInventorycscDate</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1499" sId="17" odxf="1">
+    <nc r="BH1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryMnf</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1500" sId="17" odxf="1">
+    <nc r="BI1" t="inlineStr">
+      <is>
+        <t>n4RailInventorymrstatus</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1501" sId="17" odxf="1">
+    <nc r="BJ1" t="inlineStr">
+      <is>
+        <t>n4RailInventoryGrdFood</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1502" sId="17" odxf="1">
+    <nc r="BK1" t="inlineStr">
+      <is>
+        <t>n4RailInventorymaterialMade</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1503" sId="17" odxf="1">
+    <nc r="BL1" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1504" sId="17" odxf="1">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>DINU17296000</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1505" sId="17" odxf="1">
+    <nc r="N2">
+      <v>2200</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1506" sId="17" odxf="1">
+    <nc r="O2">
+      <v>2</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1507" sId="17" odxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>DINU1234567</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1508" sId="17" odxf="1">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>DINU1231258</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1509" sId="17" odxf="1">
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>s1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1510" sId="17" odxf="1">
+    <nc r="S2" t="inlineStr">
+      <is>
+        <t>1A</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1511" sId="17" odxf="1">
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1512" sId="17" odxf="1">
+    <nc r="U2" t="inlineStr">
+      <is>
+        <t>FCL</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1513" sId="17" odxf="1">
+    <nc r="V2" t="inlineStr">
+      <is>
+        <t>Top</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1514" sId="17" odxf="1">
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>Forward</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1515" sId="17" odxf="1">
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>DOOR</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1516" sId="17" odxf="1">
+    <nc r="Z2" t="inlineStr">
+      <is>
+        <t>DAT</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1517" sId="17" odxf="1">
+    <nc r="AA2" t="inlineStr">
+      <is>
+        <t>Major</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1518" sId="17" odxf="1">
+    <nc r="AB2">
+      <v>44</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1519" sId="17" odxf="1">
+    <nc r="AC2">
+      <v>11</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1520" sId="17" odxf="1">
+    <nc r="AD2">
+      <v>2</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1521" sId="17" odxf="1">
+    <nc r="AE2">
+      <v>15</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1522" sId="17" odxf="1">
+    <nc r="AG2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1523" sId="17" odxf="1">
+    <nc r="AH2" t="inlineStr">
+      <is>
+        <t>F</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1524" sId="17" odxf="1">
+    <nc r="AJ2">
+      <v>9000</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1525" sId="17" odxf="1">
+    <nc r="AK2">
+      <v>11</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1526" sId="17" odxf="1">
+    <nc r="AL2">
+      <v>5</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1527" sId="17" odxf="1">
+    <nc r="AM2">
+      <v>10</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1528" sId="17" odxf="1">
+    <nc r="AP2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1529" sId="17" odxf="1">
+    <nc r="AQ2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1530" sId="17" odxf="1">
+    <nc r="AR2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1531" sId="17" odxf="1">
+    <nc r="AS2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1532" sId="17" odxf="1">
+    <nc r="AT2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1533" sId="17" odxf="1">
+    <nc r="AU2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1534" sId="17" odxf="1">
+    <nc r="AV2" t="inlineStr">
+      <is>
+        <t>CLASS 1.4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1535" sId="17" odxf="1">
+    <nc r="AW2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1536" sId="17" odxf="1">
+    <nc r="AX2" t="inlineStr">
+      <is>
+        <t>Steel</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1537" sId="17" odxf="1">
+    <nc r="AY2" t="inlineStr">
+      <is>
+        <t>S12</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1538" sId="17" odxf="1">
+    <nc r="AZ2" t="inlineStr">
+      <is>
+        <t>S2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1539" sId="17" odxf="1">
+    <nc r="BA2" t="inlineStr">
+      <is>
+        <t>S3</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1540" sId="17" odxf="1">
+    <nc r="BB2" t="inlineStr">
+      <is>
+        <t>S4</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1541" sId="17" odxf="1">
+    <nc r="BC2" t="inlineStr">
+      <is>
+        <t>ID1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1542" sId="17" odxf="1">
+    <nc r="BD2">
+      <v>100</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1543" sId="17" odxf="1">
+    <nc r="BF2">
+      <v>2200</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1544" sId="17" odxf="1">
+    <nc r="BG2">
+      <v>12566</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1545" sId="17" odxf="1">
+    <nc r="BI2" t="inlineStr">
+      <is>
+        <t>MnRStatus</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1546" sId="17" odxf="1">
+    <nc r="BJ2" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1547" sId="17" odxf="1">
+    <nc r="BK2" t="inlineStr">
+      <is>
+        <t>Steel</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="54" sId="3" xfDxf="1" dxf="1">
@@ -21744,7 +22700,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
@@ -22041,11 +22997,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -22059,7 +23015,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22149,16 +23105,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22171,7 +23127,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22514,16 +23470,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="H2" sqref="H2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22536,7 +23492,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22584,16 +23540,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -22605,7 +23561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23466,11 +24424,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23480,90 +24438,382 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="16"/>
+    <col min="11" max="11" width="17" style="16" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="16" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="16"/>
+    <col min="16" max="17" width="9.5703125" style="16" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="16" t="s">
         <v>450</v>
       </c>
+      <c r="M1" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="BL1" s="16" t="s">
+        <v>246</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="16" t="s">
         <v>360</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2200</v>
+      </c>
+      <c r="O2" s="16">
+        <v>2</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>9000</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="AX2" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="AZ2" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="BC2" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>100</v>
+      </c>
+      <c r="BF2" s="16">
+        <v>2200</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>12566</v>
+      </c>
+      <c r="BI2" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="BJ2" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="BK2" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
+      <selection activeCell="K1" sqref="K1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
       <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
-      <selection activeCell="K1" sqref="K1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23924,7 +25174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -23972,8 +25222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24078,12 +25328,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
       <selection activeCell="Q1" sqref="Q1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24096,98 +25346,93 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="16">
         <v>22</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="16">
         <v>0.255</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15">
+      <c r="N2" s="16">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="N9" sqref="N9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24199,8 +25444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24521,12 +25766,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
       <selection activeCell="AI2" sqref="AI2:AI3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24538,8 +25783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24868,8 +26113,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -24878,8 +26123,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -24894,7 +26139,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24952,16 +26197,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24973,8 +26218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25113,16 +26358,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25134,8 +26379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25471,8 +26716,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -25481,8 +26726,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -25497,7 +26742,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25969,16 +27214,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25991,7 +27236,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26153,16 +27398,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26174,8 +27419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26400,23 +27645,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -26425,7 +27669,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26493,8 +27737,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -26503,8 +27747,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\LatestTestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -34,15 +34,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="589">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1238,9 +1238,6 @@
     <t>Play</t>
   </si>
   <si>
-    <t>Yard Inspection</t>
-  </si>
-  <si>
     <t>dfbdx fd fd</t>
   </si>
   <si>
@@ -1436,9 +1433,6 @@
     <t>n4YinvGroundTier3BundleMasterContainer</t>
   </si>
   <si>
-    <t>Gate Inspection</t>
-  </si>
-  <si>
     <t>n4GInspContainerOrChassis</t>
   </si>
   <si>
@@ -1800,6 +1794,21 @@
   </si>
   <si>
     <t>MnRStatus</t>
+  </si>
+  <si>
+    <t>n4DepotOrphanContainerID</t>
+  </si>
+  <si>
+    <t>ASWU2705130</t>
+  </si>
+  <si>
+    <t>n4DepotOrphanContainerLocation</t>
+  </si>
+  <si>
+    <t>F10L</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkOrphanIsoType</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1886,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DC5973E4-7BB7-4FF1-B826-D3886C9F80C9}" diskRevisions="1" revisionId="1547" version="315">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" diskRevisions="1" revisionId="1555" version="320">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -7022,6 +7031,121 @@
     </sheetIdMap>
   </header>
   <header guid="{DC5973E4-7BB7-4FF1-B826-D3886C9F80C9}" dateTime="2018-06-19T12:13:56" maxSheetId="20" userName="itluser" r:id="rId315" minRId="1452" maxRId="1547">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B222483E-C733-4986-AD46-8CDA305953A3}" dateTime="2018-06-22T10:04:19" maxSheetId="20" userName="ITL-USER" r:id="rId316" minRId="1548">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{299B208E-8F0C-44A5-BAFF-942FBE513B55}" dateTime="2018-06-22T10:13:35" maxSheetId="20" userName="ITL-USER" r:id="rId317" minRId="1549">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CC7CC6B3-0649-42EA-82E2-D26CF0377478}" dateTime="2018-06-22T14:58:10" maxSheetId="20" userName="ITL-USER" r:id="rId318" minRId="1550" maxRId="1551">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BE0DD011-5624-49F2-BD87-C92731E7B555}" dateTime="2018-06-22T14:58:32" maxSheetId="20" userName="ITL-USER" r:id="rId319" minRId="1552" maxRId="1553">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" dateTime="2018-06-22T14:58:59" maxSheetId="20" userName="ITL-USER" r:id="rId320" minRId="1554" maxRId="1555">
     <sheetIdMap count="19">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -20739,6 +20863,149 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog310.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1548" sId="10" ref="A10:XFD10" action="deleteRow">
+    <rfmt sheetId="10" xfDxf="1" sqref="A10:XFD10" start="0" length="0"/>
+    <rcc rId="0" sId="10">
+      <nc r="A10" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="B10" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="C10" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="D10" t="inlineStr">
+        <is>
+          <t>OPR1</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="E10" t="inlineStr">
+        <is>
+          <t>CPX11</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="F10" t="inlineStr">
+        <is>
+          <t>FCY111</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="G10" t="inlineStr">
+        <is>
+          <t>YRD1111</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="10">
+      <nc r="H10" t="inlineStr">
+        <is>
+          <t>Yard Inspection</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog311.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1549" sId="10" odxf="1">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>Gate Inspection</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>Yard Inventory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog312.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1550" sId="19">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4DepotOrphanContainerID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1551" sId="19">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>ASWU2705130</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog313.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1552" sId="19">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4DepotOrphanContainerLocation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1553" sId="19">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>F10L</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog314.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1554" sId="19">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkOrphanIsoType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1555" sId="19">
+    <nc r="F2">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="55" sId="3" xfDxf="1" dxf="1">
@@ -22700,8 +22967,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="14">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -22716,6 +22983,7 @@
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
   <userInfo guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
+  <userInfo guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" name="ITL-USER" id="-1580112220" dateTime="2018-06-22T14:52:22"/>
 </users>
 </file>
 
@@ -22992,16 +23260,16 @@
   <sheetData>
     <row r="7" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -23015,7 +23283,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23105,16 +23373,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23124,10 +23392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23216,8 +23484,8 @@
       <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>464</v>
+      <c r="H2" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>300</v>
@@ -23427,59 +23695,33 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
+      <c r="A10" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>448</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="H2" sqref="H2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23492,7 +23734,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23540,16 +23782,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23561,8 +23803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23716,16 +23958,16 @@
         <v>358</v>
       </c>
       <c r="AK1" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL1" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -23817,10 +24059,10 @@
         <v>45</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -23912,10 +24154,10 @@
         <v>45</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -24007,10 +24249,10 @@
         <v>45</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -24102,10 +24344,10 @@
         <v>45</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -24197,10 +24439,10 @@
         <v>45</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -24292,10 +24534,10 @@
         <v>45</v>
       </c>
       <c r="AL7" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -24387,10 +24629,10 @@
         <v>45</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -24424,11 +24666,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Z1" sqref="Z1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24440,8 +24683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24465,190 +24708,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>439</v>
-      </c>
       <c r="G1" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>446</v>
-      </c>
       <c r="K1" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>450</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AW1" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AX1" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AY1" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="BB1" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BC1" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>572</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="BK1" s="16" t="s">
-        <v>574</v>
       </c>
       <c r="BL1" s="16" t="s">
         <v>246</v>
@@ -24656,13 +24899,13 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>441</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>442</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>360</v>
@@ -24674,7 +24917,7 @@
         <v>360</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N2" s="16">
         <v>2200</v>
@@ -24683,28 +24926,28 @@
         <v>2</v>
       </c>
       <c r="P2" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>576</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>578</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>364</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>313</v>
@@ -24728,10 +24971,10 @@
         <v>15</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ2" s="16">
         <v>9000</v>
@@ -24773,7 +25016,7 @@
         <v>396</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AZ2" s="16" t="s">
         <v>305</v>
@@ -24785,7 +25028,7 @@
         <v>309</v>
       </c>
       <c r="BC2" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="BD2" s="16">
         <v>100</v>
@@ -24797,7 +25040,7 @@
         <v>12566</v>
       </c>
       <c r="BI2" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="BJ2" s="16" t="s">
         <v>334</v>
@@ -24808,12 +25051,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
       <selection activeCell="K1" sqref="K1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
-      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24881,166 +25124,166 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>472</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>473</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>474</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>475</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>476</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>477</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>478</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>479</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>480</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>482</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>483</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>484</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>485</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>486</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>487</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>488</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>489</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>490</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>491</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>492</v>
       </c>
-      <c r="AB1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>494</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF1" t="s">
         <v>496</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>497</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>498</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>499</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>500</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>501</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>502</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>503</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>504</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>505</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>506</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>507</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>508</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>509</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>510</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>511</v>
       </c>
-      <c r="AT1" t="s">
-        <v>512</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>513</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>515</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AY1" t="s">
         <v>517</v>
       </c>
-      <c r="AX1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>519</v>
-      </c>
       <c r="AZ1" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BB1" t="s">
         <v>474</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>475</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>476</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25048,7 +25291,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>344</v>
@@ -25057,7 +25300,7 @@
         <v>365</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>364</v>
@@ -25084,7 +25327,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y2" s="16">
         <v>5</v>
@@ -25099,28 +25342,28 @@
         <v>360</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI2" s="16" t="s">
         <v>344</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK2" s="16">
         <v>1</v>
@@ -25147,13 +25390,13 @@
         <v>309</v>
       </c>
       <c r="AU2" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="AV2" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="AV2" s="16" t="s">
-        <v>516</v>
-      </c>
       <c r="AX2" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AY2" s="16" t="s">
         <v>315</v>
@@ -25172,10 +25415,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25183,20 +25426,32 @@
     <col min="1" max="1" width="26.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C1" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+      <c r="D1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" t="s">
+        <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -25204,13 +25459,22 @@
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+      <c r="D2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2">
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25222,8 +25486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25246,49 +25510,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" t="s">
-        <v>434</v>
-      </c>
       <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" t="s">
         <v>451</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>452</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>454</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>455</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>456</v>
       </c>
-      <c r="L1" t="s">
-        <v>457</v>
-      </c>
       <c r="M1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N1" t="s">
         <v>459</v>
       </c>
-      <c r="N1" t="s">
-        <v>460</v>
-      </c>
       <c r="O1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" t="s">
         <v>462</v>
-      </c>
-      <c r="P1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -25296,7 +25560,7 @@
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
         <v>344</v>
@@ -25317,7 +25581,7 @@
         <v>344</v>
       </c>
       <c r="N2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>344</v>
@@ -25328,12 +25592,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
+      <selection activeCell="Q1" sqref="Q1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
-      <selection activeCell="Q1" sqref="Q1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25346,7 +25610,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25360,51 +25624,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>413</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>414</v>
       </c>
       <c r="C2" s="16">
         <v>22</v>
@@ -25413,10 +25677,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>415</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>416</v>
       </c>
       <c r="I2" s="16">
         <v>0.255</v>
@@ -25427,12 +25691,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="N9" sqref="N9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="N9" sqref="N9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25444,8 +25708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25565,28 +25829,28 @@
         <v>395</v>
       </c>
       <c r="AB1" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC1" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="AD1" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>421</v>
-      </c>
       <c r="AF1" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -25660,10 +25924,10 @@
         <v>45</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
@@ -25746,10 +26010,10 @@
         <v>45</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>5</v>
@@ -25766,12 +26030,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25783,8 +26047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26103,18 +26367,18 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -26123,8 +26387,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A19" sqref="A19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -26139,7 +26403,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26197,16 +26461,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26218,8 +26482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26358,16 +26622,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26379,8 +26643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26716,8 +26980,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -26726,8 +26990,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -26742,7 +27006,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27214,16 +27478,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27236,7 +27500,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27398,16 +27662,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27419,8 +27683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27645,22 +27909,23 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -27669,7 +27934,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27737,8 +28002,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -27747,8 +28012,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="592">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1799,9 +1799,6 @@
     <t>n4DepotOrphanContainerID</t>
   </si>
   <si>
-    <t>ASWU2705130</t>
-  </si>
-  <si>
     <t>n4DepotOrphanContainerLocation</t>
   </si>
   <si>
@@ -1809,6 +1806,18 @@
   </si>
   <si>
     <t>n4DepotHatchClerkOrphanIsoType</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkOrphanChassisID</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkOrphanChassisSlot</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkOrphanContainerDoorDirection</t>
+  </si>
+  <si>
+    <t>ASWU2705120</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1895,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" diskRevisions="1" revisionId="1555" version="320">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" diskRevisions="1" revisionId="1559" version="322">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -7146,6 +7155,52 @@
     </sheetIdMap>
   </header>
   <header guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" dateTime="2018-06-22T14:58:59" maxSheetId="20" userName="ITL-USER" r:id="rId320" minRId="1554" maxRId="1555">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5889B6B4-5C44-49B2-8152-C6F2D660D38D}" dateTime="2018-06-22T15:01:44" maxSheetId="20" userName="ITL-USER" r:id="rId321" minRId="1556">
+    <sheetIdMap count="19">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" dateTime="2018-06-22T15:48:21" maxSheetId="20" userName="ITL-USER" r:id="rId322" minRId="1557" maxRId="1559">
     <sheetIdMap count="19">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -21006,6 +21061,51 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog315.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1556" sId="19">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkOrphanChassisID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog316.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1557" sId="19">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkOrphanChassisSlot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1558" sId="19">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4DepotHatchClerkOrphanContainerDoorDirection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1559" sId="19">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>ASWU2705130</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>ASWU2705120</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="55" sId="3" xfDxf="1" dxf="1">
@@ -22983,7 +23083,7 @@
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
   <userInfo guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
-  <userInfo guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" name="ITL-USER" id="-1580112220" dateTime="2018-06-22T14:52:22"/>
+  <userInfo guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" name="ITL-USER" id="-1580112220" dateTime="2018-06-22T14:52:22"/>
 </users>
 </file>
 
@@ -25415,10 +25515,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25429,9 +25529,12 @@
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -25445,13 +25548,22 @@
         <v>584</v>
       </c>
       <c r="E1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G1" t="s">
         <v>588</v>
       </c>
+      <c r="H1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" t="s">
+        <v>590</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -25462,10 +25574,10 @@
         <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F2">
         <v>2200</v>
@@ -25474,7 +25586,7 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestComplete22618\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -22,27 +22,30 @@
     <sheet name="Orders" sheetId="6" r:id="rId8"/>
     <sheet name="Inventory" sheetId="7" r:id="rId9"/>
     <sheet name="UnitFacilityVisit" sheetId="8" r:id="rId10"/>
-    <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId11"/>
-    <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId12"/>
-    <sheet name="YardInventoryQuery" sheetId="12" r:id="rId13"/>
-    <sheet name="RailInventory" sheetId="17" r:id="rId14"/>
-    <sheet name="GateInspection" sheetId="18" r:id="rId15"/>
-    <sheet name="DepotHatchClerk" sheetId="19" r:id="rId16"/>
-    <sheet name="YardInventoryGround" sheetId="16" r:id="rId17"/>
-    <sheet name="ReeferMonitor" sheetId="15" r:id="rId18"/>
-    <sheet name="YardInspection" sheetId="13" r:id="rId19"/>
+    <sheet name="YardinspectionQuery" sheetId="21" r:id="rId11"/>
+    <sheet name="N4MobileCommonRoutines" sheetId="10" r:id="rId12"/>
+    <sheet name="SparcsN4CommonRoutines" sheetId="11" r:id="rId13"/>
+    <sheet name="YardInventoryQuery" sheetId="12" r:id="rId14"/>
+    <sheet name="RailInventory" sheetId="17" r:id="rId15"/>
+    <sheet name="GateInspection" sheetId="18" r:id="rId16"/>
+    <sheet name="HatchClerk" sheetId="20" r:id="rId17"/>
+    <sheet name="DepotHatchClerk" sheetId="19" r:id="rId18"/>
+    <sheet name="YardInventoryGround" sheetId="16" r:id="rId19"/>
+    <sheet name="ReeferMonitor" sheetId="15" r:id="rId20"/>
+    <sheet name="YardInspection" sheetId="13" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="21"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="17"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="618">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1238,6 +1241,9 @@
     <t>Play</t>
   </si>
   <si>
+    <t>Yard Inspection</t>
+  </si>
+  <si>
     <t>dfbdx fd fd</t>
   </si>
   <si>
@@ -1433,6 +1439,9 @@
     <t>n4YinvGroundTier3BundleMasterContainer</t>
   </si>
   <si>
+    <t>Gate Inspection</t>
+  </si>
+  <si>
     <t>n4GInspContainerOrChassis</t>
   </si>
   <si>
@@ -1796,28 +1805,100 @@
     <t>MnRStatus</t>
   </si>
   <si>
-    <t>n4DepotOrphanContainerID</t>
-  </si>
-  <si>
-    <t>n4DepotOrphanContainerLocation</t>
-  </si>
-  <si>
-    <t>F10L</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkOrphanIsoType</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkOrphanChassisID</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkOrphanChassisSlot</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkOrphanContainerDoorDirection</t>
-  </si>
-  <si>
-    <t>ASWU2705120</t>
+    <t>n4HatchClerkVessel</t>
+  </si>
+  <si>
+    <t>n4HatchClerkCrane</t>
+  </si>
+  <si>
+    <t>n4hatchclerkjob</t>
+  </si>
+  <si>
+    <t>n4MobileHatchClerk</t>
+  </si>
+  <si>
+    <t>JobList</t>
+  </si>
+  <si>
+    <t>n4MobileSelectMode</t>
+  </si>
+  <si>
+    <t>n4ArgoServiceTester</t>
+  </si>
+  <si>
+    <t>QuadMode</t>
+  </si>
+  <si>
+    <t>n4ArgoServicevalue</t>
+  </si>
+  <si>
+    <t>Successfully</t>
+  </si>
+  <si>
+    <t>J20591_1</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>EquipmentOperator</t>
+  </si>
+  <si>
+    <t>EquipmentWeigth</t>
+  </si>
+  <si>
+    <t>NMGS</t>
+  </si>
+  <si>
+    <t>n4Accesory</t>
+  </si>
+  <si>
+    <t>EquipmentOwner</t>
+  </si>
+  <si>
+    <t>n4Vesselid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVANA </t>
+  </si>
+  <si>
+    <t>n4UnitID</t>
+  </si>
+  <si>
+    <t>n4EquipmntType</t>
+  </si>
+  <si>
+    <t>n4EquipmntLineOperator</t>
+  </si>
+  <si>
+    <t>n4VesselFreigthKind</t>
+  </si>
+  <si>
+    <t>n4VesselGrossWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselVGMWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselPortofLoad</t>
+  </si>
+  <si>
+    <t>n4VesselPortOfDischarge</t>
+  </si>
+  <si>
+    <t>n4VesselCategory</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>UnitIdEquip</t>
+  </si>
+  <si>
+    <t>DINU857531</t>
+  </si>
+  <si>
+    <t>DINU7540155</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1976,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" diskRevisions="1" revisionId="1559" version="322">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C12268D6-D807-4CC2-B4A7-ADCD12DC4640}" diskRevisions="1" revisionId="1660" version="362">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -7062,8 +7143,8 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{B222483E-C733-4986-AD46-8CDA305953A3}" dateTime="2018-06-22T10:04:19" maxSheetId="20" userName="ITL-USER" r:id="rId316" minRId="1548">
-    <sheetIdMap count="19">
+  <header guid="{0F227E30-C860-4EC5-A77B-B6EBE3A97425}" dateTime="2018-06-22T15:48:45" maxSheetId="21" userName="itluser" r:id="rId316" minRId="1548" maxRId="1556">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7079,14 +7160,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{299B208E-8F0C-44A5-BAFF-942FBE513B55}" dateTime="2018-06-22T10:13:35" maxSheetId="20" userName="ITL-USER" r:id="rId317" minRId="1549">
-    <sheetIdMap count="19">
+  <header guid="{523B84C8-CC46-4444-9FEE-BB72397DCB1A}" dateTime="2018-06-22T15:52:35" maxSheetId="21" userName="itluser" r:id="rId317" minRId="1557">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7102,14 +7184,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{CC7CC6B3-0649-42EA-82E2-D26CF0377478}" dateTime="2018-06-22T14:58:10" maxSheetId="20" userName="ITL-USER" r:id="rId318" minRId="1550" maxRId="1551">
-    <sheetIdMap count="19">
+  <header guid="{EF96FA84-6527-408E-A70C-15552347FDB4}" dateTime="2018-06-22T17:04:24" maxSheetId="21" userName="itluser" r:id="rId318" minRId="1558">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7125,14 +7208,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{BE0DD011-5624-49F2-BD87-C92731E7B555}" dateTime="2018-06-22T14:58:32" maxSheetId="20" userName="ITL-USER" r:id="rId319" minRId="1552" maxRId="1553">
-    <sheetIdMap count="19">
+  <header guid="{E9D5BB65-9F82-40F9-A08B-48EA8176B588}" dateTime="2018-06-22T17:19:05" maxSheetId="21" userName="itluser" r:id="rId319" minRId="1559">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7148,14 +7232,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{23352E82-398F-48E2-AE1D-EBED7D9EDEB5}" dateTime="2018-06-22T14:58:59" maxSheetId="20" userName="ITL-USER" r:id="rId320" minRId="1554" maxRId="1555">
-    <sheetIdMap count="19">
+  <header guid="{D5001D5B-8B9D-464E-899A-CE2BB68EF886}" dateTime="2018-06-22T17:20:57" maxSheetId="21" userName="itluser" r:id="rId320" minRId="1560">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7171,14 +7256,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{5889B6B4-5C44-49B2-8152-C6F2D660D38D}" dateTime="2018-06-22T15:01:44" maxSheetId="20" userName="ITL-USER" r:id="rId321" minRId="1556">
-    <sheetIdMap count="19">
+  <header guid="{3AFCCB68-720A-4B5F-AEB4-D5F279D483B4}" dateTime="2018-06-22T17:34:55" maxSheetId="21" userName="itluser" r:id="rId321" minRId="1561" maxRId="1562">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7194,14 +7280,15 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
-  <header guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" dateTime="2018-06-22T15:48:21" maxSheetId="20" userName="ITL-USER" r:id="rId322" minRId="1557" maxRId="1559">
-    <sheetIdMap count="19">
+  <header guid="{C9D926E1-0BE3-4185-91A6-107A501712F8}" dateTime="2018-06-22T17:35:51" maxSheetId="21" userName="itluser" r:id="rId322" minRId="1563">
+    <sheetIdMap count="20">
       <sheetId val="14"/>
       <sheetId val="1"/>
       <sheetId val="9"/>
@@ -7217,10 +7304,1015 @@
       <sheetId val="12"/>
       <sheetId val="17"/>
       <sheetId val="18"/>
+      <sheetId val="20"/>
       <sheetId val="19"/>
       <sheetId val="16"/>
       <sheetId val="15"/>
       <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AADD2068-CD9A-4D38-8A60-CE8A642965BB}" dateTime="2018-06-25T14:28:45" maxSheetId="21" userName="itluser" r:id="rId323" minRId="1564" maxRId="1567">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{060DC916-7368-4482-91BE-18BFEAB1934E}" dateTime="2018-06-25T15:11:14" maxSheetId="21" userName="itluser" r:id="rId324">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74AB9BFF-FC4D-4810-B13B-CB5890918444}" dateTime="2018-06-25T15:30:43" maxSheetId="21" userName="itluser" r:id="rId325" minRId="1568">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D196EB30-26AA-43E4-922B-69E47DD23AC5}" dateTime="2018-06-25T15:40:39" maxSheetId="21" userName="itluser" r:id="rId326" minRId="1569">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0540BE2C-4A87-4F8E-A47F-DC7650058475}" dateTime="2018-06-25T15:41:29" maxSheetId="21" userName="itluser" r:id="rId327" minRId="1570">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A4BBA12-8910-46A3-A2A5-D226B0121577}" dateTime="2018-06-25T15:42:36" maxSheetId="21" userName="itluser" r:id="rId328" minRId="1571">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{955245A9-4E66-41C8-8D88-CD5920A21B51}" dateTime="2018-06-25T15:50:53" maxSheetId="21" userName="itluser" r:id="rId329" minRId="1572">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5F3C701D-4514-4375-A45C-F79370C167DD}" dateTime="2018-06-25T18:00:49" maxSheetId="21" userName="itluser" r:id="rId330" minRId="1573" maxRId="1575">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01F52F53-4FEF-4F75-B765-A9B881BBB629}" dateTime="2018-06-25T18:02:18" maxSheetId="21" userName="itluser" r:id="rId331" minRId="1576">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1B798433-1A94-48A7-AAE8-8E50EBC29F29}" dateTime="2018-06-25T18:03:42" maxSheetId="21" userName="itluser" r:id="rId332" minRId="1577">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D84DF720-FAFA-48DB-A922-74F273D2230E}" dateTime="2018-06-26T14:46:34" maxSheetId="21" userName="itluser" r:id="rId333">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E6237C05-D6D4-4586-BB66-9CFE81D5B451}" dateTime="2018-06-26T15:44:11" maxSheetId="21" userName="itluser" r:id="rId334" minRId="1578" maxRId="1579">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B1F62D71-619D-4A0F-ACAA-2634FB945F23}" dateTime="2018-06-26T15:44:15" maxSheetId="21" userName="itluser" r:id="rId335" minRId="1580">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EECFEDF6-FA1C-4E7A-9D8D-5B6676F572FF}" dateTime="2018-06-26T15:46:32" maxSheetId="21" userName="itluser" r:id="rId336">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A88CE67D-6065-448C-8934-4B983B39B153}" dateTime="2018-06-26T15:54:52" maxSheetId="21" userName="itluser" r:id="rId337" minRId="1581">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{33FDBFC4-8580-4053-9D3F-F35B9CCE90A3}" dateTime="2018-06-26T17:00:12" maxSheetId="21" userName="itluser" r:id="rId338" minRId="1582" maxRId="1583">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{13B5A864-A020-47B0-B258-79722974E5D2}" dateTime="2018-06-26T17:22:53" maxSheetId="21" userName="itluser" r:id="rId339" minRId="1584">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{783B4B62-C4EF-4A0D-A980-84443E133058}" dateTime="2018-06-26T17:33:32" maxSheetId="21" userName="itluser" r:id="rId340" minRId="1585" maxRId="1586">
+    <sheetIdMap count="20">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A362D75E-4E39-49D0-8B9D-E19BB878EFC7}" dateTime="2018-06-27T13:12:26" maxSheetId="23" userName="itluser" r:id="rId341" minRId="1587" maxRId="1594">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AFD68473-F698-44FE-81C3-319ED2CD056E}" dateTime="2018-06-27T13:18:48" maxSheetId="23" userName="itluser" r:id="rId342" minRId="1595">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3A3B14F1-1B6F-4AEA-82D5-3170E99795A2}" dateTime="2018-06-27T13:19:01" maxSheetId="23" userName="itluser" r:id="rId343" minRId="1596" maxRId="1601">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{18E6DF77-BD2F-48EB-BC2B-3EDC05B12973}" dateTime="2018-06-28T13:16:46" maxSheetId="23" userName="itluser" r:id="rId344" minRId="1602" maxRId="1610">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{311A9F32-E2F7-43CB-8396-4FF03271D29E}" dateTime="2018-06-28T13:22:48" maxSheetId="23" userName="itluser" r:id="rId345" minRId="1611" maxRId="1620">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5F7EE04D-E52C-4A71-86BF-BF2B8774825D}" dateTime="2018-06-28T13:24:55" maxSheetId="23" userName="itluser" r:id="rId346" minRId="1621" maxRId="1626">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53199353-B752-4BF8-B4BB-C78BEE2FF679}" dateTime="2018-06-28T13:25:18" maxSheetId="23" userName="itluser" r:id="rId347" minRId="1627">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{02250AD4-73F1-4B5B-AE2E-E75B8CBDE445}" dateTime="2018-06-28T13:25:36" maxSheetId="23" userName="itluser" r:id="rId348" minRId="1628">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0EC0E453-6863-405D-BB02-73CABBFA0AEE}" dateTime="2018-06-28T16:24:59" maxSheetId="23" userName="itluser" r:id="rId349" minRId="1629">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C4F233E9-3F24-4E9A-A98D-18DAF008DA3C}" dateTime="2018-06-29T12:44:31" maxSheetId="23" userName="itluser" r:id="rId350" minRId="1630" maxRId="1642">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{256E08EC-D92A-4475-8DD8-3E1383C65740}" dateTime="2018-06-29T13:25:18" maxSheetId="23" userName="itluser" r:id="rId351" minRId="1643" maxRId="1648">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D81E8B0E-B153-481F-A6F9-B5918C1B216C}" dateTime="2018-06-29T13:25:42" maxSheetId="23" userName="itluser" r:id="rId352" minRId="1649">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1B4459E9-2205-4C81-AEC9-FE11625E5C51}" dateTime="2018-06-29T13:29:11" maxSheetId="23" userName="itluser" r:id="rId353" minRId="1650">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" dateTime="2018-06-29T14:12:52" maxSheetId="23" userName="itluser" r:id="rId354" minRId="1651">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{30D2C549-3855-44D8-B3A6-88EB3A3911AA}" dateTime="2018-06-29T14:20:04" maxSheetId="23" userName="itluser" r:id="rId355" minRId="1652">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F09D410D-44F0-4778-9D05-62D7A1591485}" dateTime="2018-06-29T14:25:22" maxSheetId="23" userName="itluser" r:id="rId356" minRId="1653">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F56FE9C6-C5C5-4372-B377-A682BC0BDC4D}" dateTime="2018-06-29T14:41:19" maxSheetId="23" userName="itluser" r:id="rId357" minRId="1654">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3DE725E1-92C9-45CE-903B-F76C4FC46D48}" dateTime="2018-06-29T14:51:17" maxSheetId="23" userName="itluser" r:id="rId358" minRId="1655">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F796059-7190-4D95-92E5-2BBD31F32BDF}" dateTime="2018-06-29T15:09:00" maxSheetId="23" userName="itluser" r:id="rId359" minRId="1656">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A326FBBA-4316-44A7-A624-E917AA19FDD1}" dateTime="2018-06-29T15:11:33" maxSheetId="23" userName="itluser" r:id="rId360" minRId="1657" maxRId="1658">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{30877A03-B9EE-4113-8756-3FA3E6FC0A6A}" dateTime="2018-06-29T15:12:29" maxSheetId="23" userName="itluser" r:id="rId361" minRId="1659">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C12268D6-D807-4CC2-B4A7-ADCD12DC4640}" dateTime="2018-06-29T15:21:34" maxSheetId="23" userName="itluser" r:id="rId362" minRId="1660">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -20920,223 +22012,1137 @@
 
 <file path=xl/revisions/revisionLog310.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1548" sId="10" ref="A10:XFD10" action="deleteRow">
-    <rfmt sheetId="10" xfDxf="1" sqref="A10:XFD10" start="0" length="0"/>
-    <rcc rId="0" sId="10">
-      <nc r="A10" t="inlineStr">
+  <ris rId="1548" sheetId="20" name="[TestData.xlsx]HatchClerk" sheetPosition="15"/>
+  <rcc rId="1549" sId="20" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1550" sId="20" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>n4HatchClerkVessel</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1551" sId="20" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>n4HatchClerkCrane</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1552" sId="20" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>n4hatchclerkjob</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1553" sId="20" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>n4MobileHatchClerk</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1554" sId="20" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>VVANA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1555" sId="20" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>CR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1556" sId="20" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Manual</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog311.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1557" sId="1" odxf="1">
+    <nc r="A21" t="inlineStr">
+      <is>
+        <t>n4MobileHatchClerk</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog312.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1558" sId="20" xfDxf="1" dxf="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Manual</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Joblist</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog313.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1559" sId="20">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Joblist</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Manual</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog314.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1560" sId="20">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Manual</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>JobList</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog315.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1561" sId="20">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>n4MobileSelectMode</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1562" sId="20" xfDxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>QuadMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog316.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1563" sId="20" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>QuadMode</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>SingleMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog317.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1564" sId="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>ArgoServiceTester</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1565" sId="1" xfDxf="1" dxf="1">
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>Successful</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="1566" sheetId="1" source="H21" destination="H22" sourceSheetId="1"/>
+  <rcc rId="1567" sId="1">
+    <nc r="A22" t="inlineStr">
+      <is>
+        <t>n4ArgoServiceTester</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog318.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="20" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E2" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog319.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1568" sId="20" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>SingleMode</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>TwinMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="55" sId="3" xfDxf="1" dxf="1">
+    <nc r="AS1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactSms</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog320.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1569" sId="20" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>TwinMode</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>SingleMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog321.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1570" sId="20" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>SingleMode</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>TandemMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog322.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1571" sId="20" xfDxf="1" dxf="1">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>TandemMode</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>QuadMode</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog323.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1572" sId="1" xfDxf="1" dxf="1">
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>n4ArgoServicevalue</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog324.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="1573" sheetId="11" source="H1" destination="F1" sourceSheetId="1"/>
+  <rm rId="1574" sheetId="11" source="H10" destination="F1" sourceSheetId="1">
+    <rcc rId="0" sId="11">
+      <nc r="F1" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>ArgoServiceTester</t>
         </is>
       </nc>
     </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="B10" t="inlineStr">
+  </rm>
+  <rm rId="1575" sheetId="11" source="H22" destination="F2" sourceSheetId="1"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog325.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1576" sId="11">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Successful</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Fail</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog326.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1577" sId="11" xfDxf="1" dxf="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Fail</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Successfully</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog327.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog328.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1578" sId="17">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1579" sId="17">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog329.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1580" sId="17">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="3" xfDxf="1" sqref="AS1" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog330.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="17" xfDxf="1" sqref="E2" start="0" length="0"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog331.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1581" sId="17">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog332.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1582" sId="17">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1583" sId="17">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog333.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1584" sId="17">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog334.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1585" sId="17">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1586" sId="17">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog335.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1587" sheetId="21" name="[TestData.xlsx]YardinspectionQuery" sheetPosition="10"/>
+  <rcc rId="1588" sId="21" odxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Flow Name</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1589" sId="21" odxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1590" sId="21" odxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EquipmentToBeAttached</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1591" sId="21" odxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>EquipmentRole</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <ris rId="1592" sheetId="22" name="[TestData.xlsx]Sheet2" sheetPosition="21"/>
+  <rcc rId="1593" sId="21" xfDxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1594" sId="21" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog336.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1595" sId="1" odxf="1">
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog337.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1596" sId="1" odxf="1">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1597" sId="1" odxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1598" sId="1" odxf="1">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1599" sId="1" odxf="1">
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1600" sId="1" odxf="1">
+    <nc r="F23" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1601" sId="1" odxf="1">
+    <nc r="G23" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog338.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1602" sId="21">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>EquipmentRole</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>EquipmentType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1603" sId="21" xfDxf="1" dxf="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>EquipmentToBeAttached</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>EquipmentOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1604" sId="21" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>equipmentOwner</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1605" sId="21" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>EquipmentWeigth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1606" sId="21" xfDxf="1" dxf="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>NMGS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1607" sId="21">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1608" sId="21" odxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1609" sId="21">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1610" sId="21">
+    <nc r="F2">
+      <v>3050</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog339.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1611" sId="11" odxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1612" sId="11" odxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>EquipmentOperator</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1613" sId="11" odxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>EquipmentType</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1614" sId="11" odxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>equipmentOwner</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1615" sId="11" odxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>EquipmentWeigth</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1616" sId="11" odxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1617" sId="11" odxf="1">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1618" sId="11" odxf="1">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>NMGS</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1619" sId="11" odxf="1">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1620" sId="11" odxf="1">
+    <nc r="K2">
+      <v>3050</v>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="3" xfDxf="1" dxf="1">
+    <nc r="AT1" t="inlineStr">
+      <is>
+        <t>TruckingCoContactFax</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
+  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog340.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1621" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="G1" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>UnitId</t>
         </is>
       </nc>
     </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="C10" t="inlineStr">
+    <rcc rId="0" sId="11">
+      <nc r="G2" t="inlineStr">
         <is>
-          <t>Admin</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="D10" t="inlineStr">
-        <is>
-          <t>OPR1</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="E10" t="inlineStr">
-        <is>
-          <t>CPX11</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="F10" t="inlineStr">
-        <is>
-          <t>FCY111</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="G10" t="inlineStr">
-        <is>
-          <t>YRD1111</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="10">
-      <nc r="H10" t="inlineStr">
-        <is>
-          <t>Yard Inspection</t>
+          <t>DINU8889512</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog311.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1549" sId="10" odxf="1">
+  <rrc rId="1622" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>EquipmentOperator</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="11">
+      <nc r="G2" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1623" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>EquipmentType</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="11">
+      <nc r="G2" t="inlineStr">
+        <is>
+          <t>NMGS</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1624" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>equipmentOwner</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="11">
+      <nc r="G2" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1625" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+    <rcc rId="0" sId="11">
+      <nc r="G1" t="inlineStr">
+        <is>
+          <t>EquipmentWeigth</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="11">
+      <nc r="G2">
+        <v>3050</v>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="1626" sId="11" ref="G1:G1048576" action="deleteCol">
+    <rfmt sheetId="11" xfDxf="1" sqref="G1:G1048576" start="0" length="0"/>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog341.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1627" sId="21">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>n4Accesory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog342.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1628" sId="1" odxf="1">
+    <nc r="A24" t="inlineStr">
+      <is>
+        <t>n4Accesory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog343.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1629" sId="21" xfDxf="1" dxf="1">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>equipmentOwner</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>EquipmentOwner</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog344.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="11" xfDxf="1" sqref="G1" start="0" length="0"/>
+  <rcc rId="1630" sId="11">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>n4Vesselid</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1631" sId="11" xfDxf="1" dxf="1">
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t xml:space="preserve">VVANA </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="11" xfDxf="1" sqref="H1" start="0" length="0"/>
+  <rcc rId="1632" sId="11" xfDxf="1" dxf="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4UnitID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1633" sId="11" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4EquipmntType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1634" sId="11">
+    <nc r="I2">
+      <v>2200</v>
+    </nc>
+  </rcc>
+  <rcc rId="1635" sId="11" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>n4EquipmntLineOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1636" sId="11">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>ASW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1637" sId="11" xfDxf="1" dxf="1">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>n4VesselFreigthKind</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1638" sId="11">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>FCL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1639" sId="11" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>n4VesselGrossWeigth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1640" sId="11">
+    <nc r="L2">
+      <v>3500</v>
+    </nc>
+  </rcc>
+  <rcc rId="1641" sId="11" xfDxf="1" dxf="1">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>n4VesselVGMWeigth</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1642" sId="11">
+    <nc r="M2">
+      <v>2500</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog345.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1643" sId="11" xfDxf="1" dxf="1">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>n4VesselPortofLoad</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1644" sId="11">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>HON</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1645" sId="11" xfDxf="1" dxf="1">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>n4VesselPortOfDischarge</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1646" sId="11" xfDxf="1" dxf="1">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>sin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1647" sId="11" xfDxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>n4VesselCategory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1648" sId="11">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>Import</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog346.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1649" sId="11">
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU11555555</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog347.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1650" sId="21" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>UnitIdEquip</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog348.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1651" sId="11" xfDxf="1" dxf="1">
     <oc r="H2" t="inlineStr">
       <is>
-        <t>Gate Inspection</t>
+        <t>DINU11555555</t>
       </is>
     </oc>
     <nc r="H2" t="inlineStr">
       <is>
-        <t>Yard Inventory</t>
-      </is>
-    </nc>
-    <odxf/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog312.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1550" sId="19">
-    <nc r="D1" t="inlineStr">
-      <is>
-        <t>n4DepotOrphanContainerID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1551" sId="19">
-    <nc r="D2" t="inlineStr">
-      <is>
-        <t>ASWU2705130</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog313.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1552" sId="19">
-    <nc r="E1" t="inlineStr">
-      <is>
-        <t>n4DepotOrphanContainerLocation</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1553" sId="19">
-    <nc r="E2" t="inlineStr">
-      <is>
-        <t>F10L</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog314.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1554" sId="19">
-    <nc r="F1" t="inlineStr">
-      <is>
-        <t>n4DepotHatchClerkOrphanIsoType</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1555" sId="19">
-    <nc r="F2">
-      <v>2200</v>
-    </nc>
-  </rcc>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog315.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1556" sId="19">
-    <nc r="G1" t="inlineStr">
-      <is>
-        <t>n4DepotHatchClerkOrphanChassisID</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
-  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog316.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1557" sId="19">
-    <nc r="H1" t="inlineStr">
-      <is>
-        <t>n4DepotHatchClerkOrphanChassisSlot</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1558" sId="19">
-    <nc r="I1" t="inlineStr">
-      <is>
-        <t>n4DepotHatchClerkOrphanContainerDoorDirection</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1559" sId="19">
-    <oc r="D2" t="inlineStr">
-      <is>
-        <t>ASWU2705130</t>
+        <t>DINU12389333</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog349.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1652" sId="11">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU12389333</t>
       </is>
     </oc>
-    <nc r="D2" t="inlineStr">
-      <is>
-        <t>ASWU2705120</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="55" sId="3" xfDxf="1" dxf="1">
-    <nc r="AS1" t="inlineStr">
-      <is>
-        <t>TruckingCoContactSms</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
-  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="3" xfDxf="1" sqref="AS1" start="0" length="0"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="56" sId="3" xfDxf="1" dxf="1">
-    <nc r="AT1" t="inlineStr">
-      <is>
-        <t>TruckingCoContactFax</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
-  <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7854321</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -21146,6 +23152,137 @@
     <nc r="AU1" t="inlineStr">
       <is>
         <t>TruckingCoContactURL</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog350.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1653" sId="21">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8012956</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog351.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1654" sId="11">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7854321</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7549631</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog352.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1655" sId="21">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8012956</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8523216</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog353.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1656" sId="21">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>DINU8523216</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>DINU857531</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog354.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1657" sId="11">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>HON</t>
+      </is>
+    </oc>
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>HKG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1658" sId="11">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>sin</t>
+      </is>
+    </oc>
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>SIN</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog355.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1659" sId="11">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7549631</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7540123</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog356.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1660" sId="11">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7540123</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7540155</t>
       </is>
     </nc>
   </rcc>
@@ -23067,8 +25204,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="15">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="18">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -23083,7 +25220,10 @@
   <userInfo guid="{0C6D09E4-075A-4EDD-B3D4-023B29F5DABC}" name="itluser" id="-446797799" dateTime="2018-06-11T15:43:40"/>
   <userInfo guid="{D1C04910-AD23-4127-92A6-F91493935D47}" name="ITL-USER" id="-1580119968" dateTime="2018-06-14T15:05:55"/>
   <userInfo guid="{FB08D31F-BDE4-4C92-82F7-5EF44FACB22F}" name="ITL-USER" id="-1580094246" dateTime="2018-06-15T10:58:52"/>
-  <userInfo guid="{BDFEF748-9026-4534-A65E-11F22F124BF4}" name="ITL-USER" id="-1580112220" dateTime="2018-06-22T14:52:22"/>
+  <userInfo guid="{C9D926E1-0BE3-4185-91A6-107A501712F8}" name="itluser" id="-446762373" dateTime="2018-06-22T18:21:50"/>
+  <userInfo guid="{1B798433-1A94-48A7-AAE8-8E50EBC29F29}" name="itluser" id="-446813434" dateTime="2018-06-25T18:05:22"/>
+  <userInfo guid="{A362D75E-4E39-49D0-8B9D-E19BB878EFC7}" name="itluser" id="-446792401" dateTime="2018-06-27T13:17:27"/>
+  <userInfo guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" name="itluser" id="-446794865" dateTime="2018-06-29T14:13:37"/>
 </users>
 </file>
 
@@ -23360,16 +25500,16 @@
   <sheetData>
     <row r="7" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -23383,7 +25523,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23473,6 +25613,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23481,8 +25625,70 @@
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -23490,12 +25696,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23584,8 +25790,8 @@
       <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>299</v>
+      <c r="H2" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>300</v>
@@ -23795,23 +26001,53 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>439</v>
+      <c r="A10" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23820,21 +26056,17 @@
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23846,7 +26078,7 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -23862,8 +26094,41 @@
       <c r="E1" t="s">
         <v>348</v>
       </c>
+      <c r="F1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K1" t="s">
+        <v>608</v>
+      </c>
+      <c r="L1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" t="s">
+        <v>610</v>
+      </c>
+      <c r="N1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O1" t="s">
+        <v>612</v>
+      </c>
+      <c r="P1" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
@@ -23878,10 +26143,47 @@
       </c>
       <c r="E2" t="s">
         <v>382</v>
+      </c>
+      <c r="F2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I2">
+        <v>2200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L2">
+        <v>3500</v>
+      </c>
+      <c r="M2">
+        <v>2500</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="F2" sqref="F2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23890,21 +26192,17 @@
       <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24058,16 +26356,16 @@
         <v>358</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -24159,10 +26457,10 @@
         <v>45</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -24254,10 +26552,10 @@
         <v>45</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -24349,10 +26647,10 @@
         <v>45</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -24444,10 +26742,10 @@
         <v>45</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -24539,10 +26837,10 @@
         <v>45</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -24634,10 +26932,10 @@
         <v>45</v>
       </c>
       <c r="AL7" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -24729,10 +27027,10 @@
         <v>45</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -24766,12 +27064,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="AH13" sqref="AH13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="AG1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -24779,12 +27076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24808,190 +27105,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM1" s="16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AN1" s="16" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AO1" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AP1" s="16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AQ1" s="16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AR1" s="16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AS1" s="16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AT1" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AU1" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AW1" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AX1" s="16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AY1" s="16" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AZ1" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="BA1" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="BB1" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="BC1" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="BD1" s="16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BE1" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="BF1" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="BG1" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="BH1" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="BI1" s="16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="BJ1" s="16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="BK1" s="16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="BL1" s="16" t="s">
         <v>246</v>
@@ -24999,25 +27296,28 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>360</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>360</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N2" s="16">
         <v>2200</v>
@@ -25026,28 +27326,28 @@
         <v>2</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="V2" s="16" t="s">
         <v>364</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>313</v>
@@ -25071,10 +27371,10 @@
         <v>15</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AJ2" s="16">
         <v>9000</v>
@@ -25116,7 +27416,7 @@
         <v>396</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AZ2" s="16" t="s">
         <v>305</v>
@@ -25128,7 +27428,7 @@
         <v>309</v>
       </c>
       <c r="BC2" s="16" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="BD2" s="16">
         <v>100</v>
@@ -25140,7 +27440,7 @@
         <v>12566</v>
       </c>
       <c r="BI2" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="BJ2" s="16" t="s">
         <v>334</v>
@@ -25151,12 +27451,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
+      <selection activeCell="K1" sqref="K1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
       <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
-      <selection activeCell="K1" sqref="K1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25164,7 +27464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -25224,166 +27524,166 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S1" t="s">
+        <v>484</v>
+      </c>
+      <c r="T1" t="s">
+        <v>485</v>
+      </c>
+      <c r="U1" t="s">
+        <v>486</v>
+      </c>
+      <c r="V1" t="s">
+        <v>487</v>
+      </c>
+      <c r="W1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>474</v>
       </c>
-      <c r="L1" t="s">
+      <c r="BA1" t="s">
         <v>475</v>
       </c>
-      <c r="M1" t="s">
+      <c r="BB1" t="s">
         <v>476</v>
       </c>
-      <c r="N1" t="s">
+      <c r="BC1" t="s">
         <v>477</v>
-      </c>
-      <c r="O1" t="s">
-        <v>478</v>
-      </c>
-      <c r="P1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>480</v>
-      </c>
-      <c r="R1" t="s">
-        <v>481</v>
-      </c>
-      <c r="S1" t="s">
-        <v>482</v>
-      </c>
-      <c r="T1" t="s">
-        <v>483</v>
-      </c>
-      <c r="U1" t="s">
-        <v>484</v>
-      </c>
-      <c r="V1" t="s">
-        <v>485</v>
-      </c>
-      <c r="W1" t="s">
-        <v>486</v>
-      </c>
-      <c r="X1" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>488</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>505</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>507</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>509</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>510</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>516</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>517</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>472</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>473</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>474</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -25391,7 +27691,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>344</v>
@@ -25400,7 +27700,7 @@
         <v>365</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>364</v>
@@ -25427,7 +27727,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y2" s="16">
         <v>5</v>
@@ -25442,28 +27742,28 @@
         <v>360</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI2" s="16" t="s">
         <v>344</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK2" s="16">
         <v>1</v>
@@ -25490,13 +27790,13 @@
         <v>309</v>
       </c>
       <c r="AU2" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AV2" s="16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AY2" s="16" t="s">
         <v>315</v>
@@ -25504,6 +27804,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection sqref="A1:A1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25513,12 +27817,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G11" sqref="G11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25526,44 +27888,20 @@
     <col min="1" max="1" width="26.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E1" t="s">
-        <v>585</v>
-      </c>
-      <c r="F1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I1" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>298</v>
       </c>
@@ -25571,22 +27909,17 @@
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F2">
-        <v>2200</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="C2" sqref="C2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25594,12 +27927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25622,49 +27955,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -25672,7 +28005,7 @@
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
         <v>344</v>
@@ -25693,7 +28026,7 @@
         <v>344</v>
       </c>
       <c r="N2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O2" s="16" t="s">
         <v>344</v>
@@ -25704,12 +28037,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
       <selection activeCell="Q1" sqref="Q1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25717,12 +28050,405 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="A7">
+      <selection activeCell="H22" sqref="H22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25736,51 +28462,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" s="16">
         <v>22</v>
@@ -25789,10 +28515,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I2" s="16">
         <v>0.255</v>
@@ -25803,12 +28529,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="N9" sqref="N9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25816,12 +28542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25941,28 +28667,28 @@
         <v>395</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG1" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -26036,10 +28762,10 @@
         <v>45</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
@@ -26122,10 +28848,10 @@
         <v>45</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>5</v>
@@ -26142,12 +28868,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
       <selection activeCell="AI2" sqref="AI2:AI3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="D1">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -26155,358 +28881,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A19" sqref="A19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -26515,7 +28903,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26573,6 +28961,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26581,10 +28973,6 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26594,8 +28982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26734,6 +29122,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26742,10 +29134,6 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26755,8 +29143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27092,18 +29480,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -27118,7 +29506,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27590,6 +29978,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27598,10 +29990,6 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27612,7 +30000,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27774,6 +30162,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27782,10 +30174,6 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27795,8 +30183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28021,6 +30409,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28031,13 +30423,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -28046,7 +30433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28114,18 +30501,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\TestComplete22618\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -37,15 +37,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="8"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="21"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="19"/>
     <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="634">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1899,6 +1899,54 @@
   </si>
   <si>
     <t>DINU7540155</t>
+  </si>
+  <si>
+    <t>YINV_YINS_101</t>
+  </si>
+  <si>
+    <t>Unit1inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705190~ASW~F10L.1</t>
+  </si>
+  <si>
+    <t>SnxName</t>
+  </si>
+  <si>
+    <t>ReceiveEmptyUnit2200.xml</t>
+  </si>
+  <si>
+    <t>Unit2inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705180~ASW~F10K.1</t>
+  </si>
+  <si>
+    <t>Unit3inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705170~ASW~F10K.2</t>
+  </si>
+  <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>n4YInspBUndleContainer2</t>
+  </si>
+  <si>
+    <t>ASWU2705170</t>
+  </si>
+  <si>
+    <t>UnitAttached</t>
+  </si>
+  <si>
+    <t>DeleteUnit1</t>
+  </si>
+  <si>
+    <t>DeleteUnit2</t>
+  </si>
+  <si>
+    <t>DeleteUnit3</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2024,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C12268D6-D807-4CC2-B4A7-ADCD12DC4640}" diskRevisions="1" revisionId="1660" version="362">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" diskRevisions="1" revisionId="1707" version="376">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -8290,6 +8338,370 @@
     </sheetIdMap>
   </header>
   <header guid="{C12268D6-D807-4CC2-B4A7-ADCD12DC4640}" dateTime="2018-06-29T15:21:34" maxSheetId="23" userName="itluser" r:id="rId362" minRId="1660">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8C773B0B-2FA1-4FF3-B766-871A088BE6A1}" dateTime="2018-07-03T13:16:49" maxSheetId="23" userName="ITL-USER" r:id="rId363" minRId="1661" maxRId="1668">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{03C81741-09E9-4104-8D87-4B63BF18F63F}" dateTime="2018-07-03T15:33:16" maxSheetId="23" userName="ITL-USER" r:id="rId364" minRId="1669" maxRId="1670">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E476DA43-89B5-497A-87C3-CDE73A14E497}" dateTime="2018-07-03T15:37:19" maxSheetId="23" userName="ITL-USER" r:id="rId365" minRId="1671" maxRId="1673">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17114929-C696-43E2-8D1C-0B2E5B92D89D}" dateTime="2018-07-03T15:41:31" maxSheetId="23" userName="ITL-USER" r:id="rId366" minRId="1674" maxRId="1676">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{96BAD32F-AAA0-47CC-817B-80ABDFCB0BF8}" dateTime="2018-07-03T15:42:47" maxSheetId="23" userName="ITL-USER" r:id="rId367" minRId="1677" maxRId="1679">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CAFFA1CA-FD55-4D72-8882-154FAF1BB1FD}" dateTime="2018-07-03T17:35:35" maxSheetId="23" userName="ITL-USER" r:id="rId368" minRId="1680" maxRId="1684">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{24B93DDD-E49D-4A28-B9AD-67CF1ADC528A}" dateTime="2018-07-03T17:37:27" maxSheetId="23" userName="ITL-USER" r:id="rId369" minRId="1685" maxRId="1693">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B829F8E7-75C1-45DA-852A-72039F31E3E0}" dateTime="2018-07-03T17:40:40" maxSheetId="23" userName="ITL-USER" r:id="rId370" minRId="1694" maxRId="1695">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{31C8ECCA-5E2E-48AC-85B2-C27C925378A2}" dateTime="2018-07-03T17:40:52" maxSheetId="23" userName="ITL-USER" r:id="rId371" minRId="1696">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AEAD8A2C-9188-465C-A168-BD372590D8B3}" dateTime="2018-07-04T10:59:48" maxSheetId="23" userName="ITL-USER" r:id="rId372" minRId="1697">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ADC7E201-593B-423F-A49F-C1FEC8F55E72}" dateTime="2018-07-04T11:38:29" maxSheetId="23" userName="ITL-USER" r:id="rId373" minRId="1698" maxRId="1699">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34714CFD-7AAB-4A67-87E4-3D0FBCDC21E4}" dateTime="2018-07-04T11:41:54" maxSheetId="23" userName="ITL-USER" r:id="rId374" minRId="1700" maxRId="1701">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AC957541-00B1-47D1-9200-4DED38A46BA4}" dateTime="2018-07-04T11:46:25" maxSheetId="23" userName="ITL-USER" r:id="rId375" minRId="1702" maxRId="1705">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" dateTime="2018-07-04T11:47:42" maxSheetId="23" userName="ITL-USER" r:id="rId376" minRId="1706" maxRId="1707">
     <sheetIdMap count="22">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -23289,6 +23701,104 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog357.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1661" sId="1" eol="1" ref="A25:XFD25" action="insertRow"/>
+  <rcc rId="1662" sId="1">
+    <nc r="A25" t="inlineStr">
+      <is>
+        <t>YINV_YINS_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1663" sId="1">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1664" sId="1">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1665" sId="1">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1666" sId="1">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1667" sId="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1668" sId="1">
+    <nc r="G25" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog358.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1669" sId="1">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Unit1inSNX</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1670" sId="1">
+    <nc r="H25" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog359.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1671" sId="1">
+    <nc r="I10" t="inlineStr">
+      <is>
+        <t>SnxName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="1672" sheetId="1" source="I10" destination="I1" sourceSheetId="1"/>
+  <rcc rId="1673" sId="1">
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="58" sId="3" xfDxf="1" dxf="1">
@@ -23303,6 +23813,271 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog360.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1674" sId="1" ref="I1:I1048576" action="insertCol"/>
+  <rcc rId="1675" sId="1" xfDxf="1" dxf="1">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Unit2inSNX</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1676" sId="1">
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>ASWU2705180~ASW~F10K.1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog361.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1677" sId="1" ref="J1:J1048576" action="insertCol"/>
+  <rcc rId="1678" sId="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Unit3inSNX</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1679" sId="1">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <t>ASWU2705170~ASW~F10K.2</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog362.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1680" sId="8" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="1681" sId="8">
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>YINV_YINS_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1682" sId="8">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1683" sId="8">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1684" sId="8">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>PAYLOAD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog363.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1685" sId="10" eol="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="1686" sId="10">
+    <nc r="A13" t="inlineStr">
+      <is>
+        <t>YINV_YINS_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1687" sId="10">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1688" sId="10">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Admin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1689" sId="10">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>OPR1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1690" sId="10">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>CPX11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1691" sId="10">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>FCY111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1692" sId="10">
+    <nc r="G13" t="inlineStr">
+      <is>
+        <t>YRD1111</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1693" sId="10">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>YardInspection</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog364.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1694" sId="21">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>n4YInspEnterContainer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1695" sId="21">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>YINV_YINS_101</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog365.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1696" sId="21">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog366.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1697" sId="10">
+    <oc r="H13" t="inlineStr">
+      <is>
+        <t>YardInspection</t>
+      </is>
+    </oc>
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>Yard Inspection</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog367.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1698" sId="21">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>n4YInspBUndleContainer2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1699" sId="21">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>ASWU2705170</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog368.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1700" sId="8">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>UnitAttached</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1701" sId="8">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>ASWU2705170</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog369.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1702" sId="8">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>DeleteUnit1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1703" sId="8">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1704" sId="8">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>DeleteUnit2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1705" sId="8">
+    <nc r="G9" t="inlineStr">
+      <is>
+        <t>ASWU2705180</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="59" sId="3" xfDxf="1" dxf="1">
@@ -23314,6 +24089,25 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog370.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1706" sId="8">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>DeleteUnit3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1707" sId="8">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>ASWU2705170</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -25204,8 +25998,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="18">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="19">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -25224,6 +26018,7 @@
   <userInfo guid="{1B798433-1A94-48A7-AAE8-8E50EBC29F29}" name="itluser" id="-446813434" dateTime="2018-06-25T18:05:22"/>
   <userInfo guid="{A362D75E-4E39-49D0-8B9D-E19BB878EFC7}" name="itluser" id="-446792401" dateTime="2018-06-27T13:17:27"/>
   <userInfo guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" name="itluser" id="-446794865" dateTime="2018-06-29T14:13:37"/>
+  <userInfo guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" name="ITL-USER" id="-1580083848" dateTime="2018-07-03T15:32:40"/>
 </users>
 </file>
 
@@ -25505,11 +26300,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -25520,22 +26315,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="5" max="5" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -25548,8 +26346,20 @@
       <c r="D1" s="14" t="s">
         <v>343</v>
       </c>
+      <c r="E1" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>633</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>303</v>
       </c>
@@ -25557,7 +26367,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>341</v>
       </c>
@@ -25571,7 +26381,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>335</v>
       </c>
@@ -25579,7 +26389,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>337</v>
       </c>
@@ -25587,7 +26397,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>338</v>
       </c>
@@ -25595,7 +26405,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>339</v>
       </c>
@@ -25603,22 +26413,48 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>340</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection sqref="A1:D1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -25632,15 +26468,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -25659,8 +26500,14 @@
       <c r="F1" t="s">
         <v>599</v>
       </c>
+      <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>628</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -25680,13 +26527,26 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>618</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>246</v>
+      </c>
+      <c r="H3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="I3" sqref="I3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25698,10 +26558,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26042,14 +26902,40 @@
         <v>448</v>
       </c>
     </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="H10" sqref="H10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="H2" sqref="H2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -26065,8 +26951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26180,12 +27066,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="F2" sqref="F2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -27064,11 +27950,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="AH13" sqref="AH13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="AH13" sqref="AH13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27081,7 +27968,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27451,12 +28338,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
       <selection activeCell="K1" sqref="K1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
-      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27804,11 +28691,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -27866,6 +28753,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G11" sqref="G11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G11" sqref="G11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27914,11 +28805,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -27931,8 +28822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28037,12 +28928,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
+      <selection activeCell="Q1" sqref="Q1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
-      <selection activeCell="Q1" sqref="Q1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -28052,10 +28943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28064,9 +28955,12 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.5703125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28088,8 +28982,20 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="K1" t="s">
+        <v>621</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -28112,12 +29018,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>242</v>
       </c>
@@ -28128,7 +29034,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>235</v>
       </c>
@@ -28139,7 +29045,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>226</v>
       </c>
@@ -28150,7 +29056,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -28161,7 +29067,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>219</v>
       </c>
@@ -28172,7 +29078,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>247</v>
       </c>
@@ -28183,7 +29089,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>298</v>
       </c>
@@ -28206,7 +29112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>303</v>
       </c>
@@ -28229,7 +29135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>341</v>
       </c>
@@ -28252,7 +29158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>335</v>
       </c>
@@ -28274,8 +29180,10 @@
       <c r="G13" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>337</v>
       </c>
@@ -28298,7 +29206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>338</v>
       </c>
@@ -28321,7 +29229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>339</v>
       </c>
@@ -28344,7 +29252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>340</v>
       </c>
@@ -28367,32 +29275,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>397</v>
       </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>596</v>
       </c>
@@ -28415,20 +29325,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="A7">
-      <selection activeCell="H22" sqref="H22"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="J25" sqref="J25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="A7">
+      <selection activeCell="H22" sqref="H22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -28448,7 +29393,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28529,12 +29474,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="N9" sqref="N9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="N9" sqref="N9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -28546,8 +29491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28868,12 +29813,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
+      <selection activeCell="AI2" sqref="AI2:AI3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -28890,6 +29835,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -28903,7 +29851,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28961,12 +29909,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -28982,8 +29930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29122,12 +30070,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="O1">
@@ -29143,8 +30091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29480,13 +30428,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -29506,7 +30454,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29978,12 +30926,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -30000,7 +30948,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30162,12 +31110,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
@@ -30183,8 +31131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30409,14 +31357,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
@@ -30425,6 +31373,7 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -30433,7 +31382,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30501,13 +31450,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\Latest\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="638">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1835,118 +1835,130 @@
     <t>Successfully</t>
   </si>
   <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>EquipmentOperator</t>
+  </si>
+  <si>
+    <t>EquipmentWeigth</t>
+  </si>
+  <si>
+    <t>NMGS</t>
+  </si>
+  <si>
+    <t>n4Accesory</t>
+  </si>
+  <si>
+    <t>EquipmentOwner</t>
+  </si>
+  <si>
+    <t>n4Vesselid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVANA </t>
+  </si>
+  <si>
+    <t>n4UnitID</t>
+  </si>
+  <si>
+    <t>n4EquipmntType</t>
+  </si>
+  <si>
+    <t>n4EquipmntLineOperator</t>
+  </si>
+  <si>
+    <t>n4VesselFreigthKind</t>
+  </si>
+  <si>
+    <t>n4VesselGrossWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselVGMWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselPortofLoad</t>
+  </si>
+  <si>
+    <t>n4VesselPortOfDischarge</t>
+  </si>
+  <si>
+    <t>n4VesselCategory</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>UnitIdEquip</t>
+  </si>
+  <si>
+    <t>DINU857531</t>
+  </si>
+  <si>
+    <t>YINV_YINS_101</t>
+  </si>
+  <si>
+    <t>Unit1inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705190~ASW~F10L.1</t>
+  </si>
+  <si>
+    <t>SnxName</t>
+  </si>
+  <si>
+    <t>ReceiveEmptyUnit2200.xml</t>
+  </si>
+  <si>
+    <t>Unit2inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705180~ASW~F10K.1</t>
+  </si>
+  <si>
+    <t>Unit3inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705170~ASW~F10K.2</t>
+  </si>
+  <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>n4YInspBUndleContainer2</t>
+  </si>
+  <si>
+    <t>ASWU2705170</t>
+  </si>
+  <si>
+    <t>UnitAttached</t>
+  </si>
+  <si>
+    <t>DeleteUnit1</t>
+  </si>
+  <si>
+    <t>DeleteUnit2</t>
+  </si>
+  <si>
+    <t>DeleteUnit3</t>
+  </si>
+  <si>
+    <t>ACCESSORY</t>
+  </si>
+  <si>
+    <t>n4yardSlot</t>
+  </si>
+  <si>
+    <t>F01k.1</t>
+  </si>
+  <si>
     <t>J20591_1</t>
   </si>
   <si>
-    <t>EquipmentType</t>
-  </si>
-  <si>
-    <t>EquipmentOperator</t>
-  </si>
-  <si>
-    <t>EquipmentWeigth</t>
-  </si>
-  <si>
-    <t>NMGS</t>
-  </si>
-  <si>
-    <t>n4Accesory</t>
-  </si>
-  <si>
-    <t>EquipmentOwner</t>
-  </si>
-  <si>
-    <t>n4Vesselid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VVANA </t>
-  </si>
-  <si>
-    <t>n4UnitID</t>
-  </si>
-  <si>
-    <t>n4EquipmntType</t>
-  </si>
-  <si>
-    <t>n4EquipmntLineOperator</t>
-  </si>
-  <si>
-    <t>n4VesselFreigthKind</t>
-  </si>
-  <si>
-    <t>n4VesselGrossWeigth</t>
-  </si>
-  <si>
-    <t>n4VesselVGMWeigth</t>
-  </si>
-  <si>
-    <t>n4VesselPortofLoad</t>
-  </si>
-  <si>
-    <t>n4VesselPortOfDischarge</t>
-  </si>
-  <si>
-    <t>n4VesselCategory</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>UnitIdEquip</t>
-  </si>
-  <si>
-    <t>DINU857531</t>
-  </si>
-  <si>
-    <t>DINU7540155</t>
-  </si>
-  <si>
-    <t>YINV_YINS_101</t>
-  </si>
-  <si>
-    <t>Unit1inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705190~ASW~F10L.1</t>
-  </si>
-  <si>
-    <t>SnxName</t>
-  </si>
-  <si>
-    <t>ReceiveEmptyUnit2200.xml</t>
-  </si>
-  <si>
-    <t>Unit2inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705180~ASW~F10K.1</t>
-  </si>
-  <si>
-    <t>Unit3inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705170~ASW~F10K.2</t>
-  </si>
-  <si>
-    <t>PAYLOAD</t>
-  </si>
-  <si>
-    <t>n4YInspBUndleContainer2</t>
-  </si>
-  <si>
-    <t>ASWU2705170</t>
-  </si>
-  <si>
-    <t>UnitAttached</t>
-  </si>
-  <si>
-    <t>DeleteUnit1</t>
-  </si>
-  <si>
-    <t>DeleteUnit2</t>
-  </si>
-  <si>
-    <t>DeleteUnit3</t>
+    <t>DINU1259753</t>
+  </si>
+  <si>
+    <t>CHSASW1~ASW~CH20</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2036,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" diskRevisions="1" revisionId="1707" version="376">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" diskRevisions="1" revisionId="1753" version="389">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -8702,6 +8714,344 @@
     </sheetIdMap>
   </header>
   <header guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" dateTime="2018-07-04T11:47:42" maxSheetId="23" userName="ITL-USER" r:id="rId376" minRId="1706" maxRId="1707">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A6346C5D-87AC-478D-8F81-4BCEC5BDC075}" dateTime="2018-07-05T15:27:53" maxSheetId="23" userName="ITL-USER" r:id="rId377" minRId="1708" maxRId="1712">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2F8535A4-33DD-4153-938A-193A1CCB1E2F}" dateTime="2018-07-05T15:28:07" maxSheetId="23" userName="ITL-USER" r:id="rId378" minRId="1713">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD7DA3CC-D397-449E-884C-797086688BCE}" dateTime="2018-07-05T15:28:40" maxSheetId="23" userName="ITL-USER" r:id="rId379" minRId="1714">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6E0F2C3E-3156-4D40-9AFA-9BE53369C21A}" dateTime="2018-07-05T15:41:15" maxSheetId="23" userName="ITL-USER" r:id="rId380" minRId="1715" maxRId="1719">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{069B21B8-2780-47E9-ACD6-6A4B4CE1E255}" dateTime="2018-07-05T15:42:24" maxSheetId="23" userName="ITL-USER" r:id="rId381" minRId="1720" maxRId="1721">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B6C09675-7481-4228-8BCC-5B46721DCF03}" dateTime="2018-07-05T15:42:51" maxSheetId="23" userName="ITL-USER" r:id="rId382" minRId="1722">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5F7F5544-F16E-487B-9C57-34BDA145EED4}" dateTime="2018-07-05T17:44:38" maxSheetId="23" userName="ITL-USER" r:id="rId383" minRId="1723" maxRId="1725">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{88EE706E-4970-4C7C-A9F9-5D175C166B46}" dateTime="2018-07-05T18:12:29" maxSheetId="23" userName="ITL-USER" r:id="rId384" minRId="1726" maxRId="1733">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{77DCCF27-2C19-4CB2-8C12-A4DB7D604AE4}" dateTime="2018-07-05T18:22:44" maxSheetId="23" userName="ITL-USER" r:id="rId385" minRId="1734">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CDEC1230-8FCB-4E59-B1C9-37FA19FF6C8C}" dateTime="2018-07-06T09:55:13" maxSheetId="23" userName="ITL-USER" r:id="rId386" minRId="1735" maxRId="1742">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFBE0092-BACF-4965-A80C-CDDE392173B4}" dateTime="2018-07-06T09:55:34" maxSheetId="23" userName="ITL-USER" r:id="rId387" minRId="1743" maxRId="1750">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DFDC7A2F-5628-49E2-88F6-2E09B0961305}" dateTime="2018-07-06T09:59:49" maxSheetId="23" userName="ITL-USER" r:id="rId388" minRId="1751">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" dateTime="2018-07-06T10:54:12" maxSheetId="23" userName="ITL-USER" r:id="rId389" minRId="1752" maxRId="1753">
     <sheetIdMap count="22">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -24111,6 +24461,310 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog371.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1708" sId="1">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </oc>
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1709" sId="8" odxf="1">
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1710" sId="8" xfDxf="1" dxf="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1711" sId="8" xfDxf="1" dxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>DINU857531</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1712" sId="8">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Acessory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog372.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1713" sId="8">
+    <oc r="D10" t="inlineStr">
+      <is>
+        <t>Acessory</t>
+      </is>
+    </oc>
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>ACCESSORY</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog373.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1714" sId="11" xfDxf="1" dxf="1">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU7540155</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog374.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1715" sId="11" xfDxf="1" dxf="1">
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>n4yardSlot</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1716" sId="11">
+    <nc r="Q2" t="inlineStr">
+      <is>
+        <t>F01k.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1717" sId="21" odxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1718" sId="13" odxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1719" sId="21" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog375.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1720" sId="13">
+    <nc r="S4" t="inlineStr">
+      <is>
+        <t>S1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1721" sId="13">
+    <nc r="AB4">
+      <v>45</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog376.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1722" sId="13">
+    <nc r="AC4" t="inlineStr">
+      <is>
+        <t>C</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog377.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1723" sId="8">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </oc>
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1724" sId="21">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1725" sId="11">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>DINU8889512</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog378.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1726" sId="1">
+    <oc r="A23" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </oc>
+    <nc r="A23" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1727" sId="8">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1728" sId="21">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1729" sId="13">
+    <oc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_2</t>
+      </is>
+    </oc>
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>J20591_1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1730" sId="1" xfDxf="1" dxf="1">
+    <nc r="A26" t="inlineStr">
+      <is>
+        <t>DINU1259753</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1731" sId="8" odxf="1">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>DINU1259753</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1732" sId="21" odxf="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>DINU1259753</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1733" sId="13" odxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>DINU1259753</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog379.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1734" sId="11" odxf="1">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>DINU1259753</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="60" sId="3" xfDxf="1" dxf="1">
@@ -24122,6 +24776,169 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog380.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1735" sId="1">
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1736" sId="1">
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1737" sId="1">
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1738" sId="1">
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1739" sId="1">
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1740" sId="1">
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1741" sId="1">
+    <nc r="H16" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1742" sId="1">
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog381.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1743" sId="1" odxf="1">
+    <nc r="K10" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1744" sId="1" odxf="1">
+    <nc r="K11" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1745" sId="1" odxf="1">
+    <nc r="K12" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1746" sId="1" odxf="1">
+    <nc r="K13" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1747" sId="1" odxf="1">
+    <nc r="K14" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1748" sId="1" odxf="1">
+    <nc r="K15" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1749" sId="1" odxf="1">
+    <nc r="K16" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1750" sId="1" odxf="1">
+    <nc r="K17" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog382.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1751" sId="1">
+    <nc r="I12" t="inlineStr">
+      <is>
+        <t>CHSASW1~ASW~CH20</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog383.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1752" sId="1">
+    <oc r="H10" t="inlineStr">
+      <is>
+        <t>ASWU2705190~ASW~F10L.1</t>
+      </is>
+    </oc>
+    <nc r="H10"/>
+  </rcc>
+  <rcc rId="1753" sId="1">
+    <oc r="K10" t="inlineStr">
+      <is>
+        <t>ReceiveEmptyUnit2200.xml</t>
+      </is>
+    </oc>
+    <nc r="K10"/>
+  </rcc>
 </revisions>
 </file>
 
@@ -25998,8 +26815,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="19">
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="20">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -26019,6 +26836,7 @@
   <userInfo guid="{A362D75E-4E39-49D0-8B9D-E19BB878EFC7}" name="itluser" id="-446792401" dateTime="2018-06-27T13:17:27"/>
   <userInfo guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" name="itluser" id="-446794865" dateTime="2018-06-29T14:13:37"/>
   <userInfo guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" name="ITL-USER" id="-1580083848" dateTime="2018-07-03T15:32:40"/>
+  <userInfo guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" name="ITL-USER" id="-1580110567" dateTime="2018-07-05T18:46:10"/>
 </users>
 </file>
 
@@ -26315,10 +27133,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26347,16 +27165,16 @@
         <v>343</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>631</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -26423,7 +27241,7 @@
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>344</v>
@@ -26432,10 +27250,10 @@
         <v>461</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>627</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>629</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>344</v>
@@ -26444,7 +27262,21 @@
         <v>461</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -26468,7 +27300,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -26486,39 +27318,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" t="s">
         <v>598</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="E1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1" t="s">
-        <v>599</v>
       </c>
       <c r="H1" t="s">
         <v>367</v>
       </c>
       <c r="I1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>5</v>
@@ -26529,7 +27361,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>246</v>
@@ -26538,7 +27370,15 @@
         <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>629</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -26904,7 +27744,7 @@
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>3</v>
@@ -26949,7 +27789,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -26964,7 +27804,7 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -26984,37 +27824,40 @@
         <v>594</v>
       </c>
       <c r="G1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I1" t="s">
         <v>605</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>606</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>607</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>608</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>609</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>610</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>611</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>612</v>
       </c>
-      <c r="P1" t="s">
-        <v>613</v>
+      <c r="Q1" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
@@ -27034,10 +27877,10 @@
         <v>595</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H2" t="s">
-        <v>617</v>
+        <v>603</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="I2">
         <v>2200</v>
@@ -27061,7 +27904,10 @@
         <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>614</v>
+        <v>613</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -28943,10 +29789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28983,16 +29829,16 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" t="s">
         <v>619</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="K1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -29111,6 +29957,7 @@
       <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -29134,6 +29981,12 @@
       <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H11" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -29157,6 +30010,15 @@
       <c r="G12" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H12" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -29180,8 +30042,14 @@
       <c r="G13" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H13" s="16" t="s">
+        <v>618</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -29205,6 +30073,12 @@
       <c r="G14" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H14" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -29228,6 +30102,12 @@
       <c r="G15" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H15" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -29251,6 +30131,12 @@
       <c r="G16" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="H16" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -29273,6 +30159,12 @@
       </c>
       <c r="G17" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -29304,7 +30196,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>3</v>
@@ -29327,12 +30219,12 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>3</v>
@@ -29353,16 +30245,21 @@
         <v>15</v>
       </c>
       <c r="H25" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>622</v>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -29489,7 +30386,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2:AI3"/>
@@ -29809,6 +30706,23 @@
       </c>
       <c r="AI3" s="16" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\Latest\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\06-07-2018\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -37,15 +37,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="8"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="8"/>
-    <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="21"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="638">
   <si>
     <t>Flow Name</t>
   </si>
@@ -1055,910 +1055,910 @@
     <t>YINV_103</t>
   </si>
   <si>
+    <t>YINV_104</t>
+  </si>
+  <si>
+    <t>YINV_105</t>
+  </si>
+  <si>
+    <t>YINV_106</t>
+  </si>
+  <si>
+    <t>YINV_107</t>
+  </si>
+  <si>
+    <t>YINV_102</t>
+  </si>
+  <si>
+    <t>EquipmentToBeAttached</t>
+  </si>
+  <si>
+    <t>EquipmentRole</t>
+  </si>
+  <si>
+    <t>ASWU2705190</t>
+  </si>
+  <si>
+    <t>CHSASW</t>
+  </si>
+  <si>
+    <t>CARRIAGE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>WebRequest</t>
+  </si>
+  <si>
+    <t>n4YinvQueryBundleContainer1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerHasPlacard</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerPlacard1</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerDoorDirection</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerEvent</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerLineOperator</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerEqType</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTankRails</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerChassis</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerNotes</t>
+  </si>
+  <si>
+    <t>SBSU1234590</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CLASS 1.4</t>
+  </si>
+  <si>
+    <t>Aft</t>
+  </si>
+  <si>
+    <t>TEST-CTR-LOAD-EDI</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>CHS1</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>n4YInspEnterContainer</t>
+  </si>
+  <si>
+    <t>n4YInspEnterSeal</t>
+  </si>
+  <si>
+    <t>n4YInspDamageComponent</t>
+  </si>
+  <si>
+    <t>n4YInspDamageType</t>
+  </si>
+  <si>
+    <t>n4YInspDamageSeverity</t>
+  </si>
+  <si>
+    <t>n4YInspDamageLocation</t>
+  </si>
+  <si>
+    <t>n4YInspDamageWidth</t>
+  </si>
+  <si>
+    <t>n4YInspDamageLength</t>
+  </si>
+  <si>
+    <t>n4YInspDamageDepth</t>
+  </si>
+  <si>
+    <t>n4YInspOOGH</t>
+  </si>
+  <si>
+    <t>n4YInspOOGL</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>n4YInspOOGR</t>
+  </si>
+  <si>
+    <t>n4YInspOOGF</t>
+  </si>
+  <si>
+    <t>n4YInspOOGA</t>
+  </si>
+  <si>
+    <t>\InitUnitInYard.txt</t>
+  </si>
+  <si>
+    <t>n4YInspIsHazard</t>
+  </si>
+  <si>
+    <t>n4YInspPlacard1</t>
+  </si>
+  <si>
+    <t>n4YInspPlacard2</t>
+  </si>
+  <si>
+    <t>CLASS 1.5</t>
+  </si>
+  <si>
+    <t>n4YInspSeal1</t>
+  </si>
+  <si>
+    <t>n4YInspSeal2</t>
+  </si>
+  <si>
+    <t>n4YInspSeal3</t>
+  </si>
+  <si>
+    <t>n4YInspSeal4</t>
+  </si>
+  <si>
+    <t>n4YInspSlave1</t>
+  </si>
+  <si>
+    <t>n4YInspSafeWeight</t>
+  </si>
+  <si>
+    <t>n4YInspTareWeight</t>
+  </si>
+  <si>
+    <t>n4YInspGrade</t>
+  </si>
+  <si>
+    <t>n4YInspMaterial</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Yard Inspection</t>
+  </si>
+  <si>
+    <t>dfbdx fd fd</t>
+  </si>
+  <si>
+    <t>n4Wheeled Unit</t>
+  </si>
+  <si>
+    <t>n4ReturnTemp</t>
+  </si>
+  <si>
+    <t>n4SupplyTemp</t>
+  </si>
+  <si>
+    <t>n4notes</t>
+  </si>
+  <si>
+    <t>n4FaultCode</t>
+  </si>
+  <si>
+    <t>n4Vent</t>
+  </si>
+  <si>
+    <t>n4VentUnit</t>
+  </si>
+  <si>
+    <t>n4Humidity</t>
+  </si>
+  <si>
+    <t>n4Co2</t>
+  </si>
+  <si>
+    <t>n4Oxygen</t>
+  </si>
+  <si>
+    <t>n4TemperatureSetPoint</t>
+  </si>
+  <si>
+    <t>n4GenSetid</t>
+  </si>
+  <si>
+    <t>n4Fuelevel</t>
+  </si>
+  <si>
+    <t>N4MobileReeferMonitor</t>
+  </si>
+  <si>
+    <t>SBSU12345690</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>n4YInspTemperature</t>
+  </si>
+  <si>
+    <t>n4YInspTemperatureUnit</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>n4YInspGensetID</t>
+  </si>
+  <si>
+    <t>n4YInspGenSetType</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>n4YInspLineOperator</t>
+  </si>
+  <si>
+    <t>n4YInspDoorDirection</t>
+  </si>
+  <si>
+    <t>n4YInspEqType</t>
+  </si>
+  <si>
+    <t>n4YInspTankRails</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTemperature</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerTemperatureUnit</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerGensetID</t>
+  </si>
+  <si>
+    <t>n4YinvQueryContainerGenSetType</t>
+  </si>
+  <si>
+    <t>n4YinvGroundPosition</t>
+  </si>
+  <si>
+    <t>n4YinvGroundReverseDirection</t>
+  </si>
+  <si>
+    <t>n4YinvGroundMenWorking</t>
+  </si>
+  <si>
+    <t>n4YinvGroundContainer</t>
+  </si>
+  <si>
+    <t>n4RailInventoryRailCarId</t>
+  </si>
+  <si>
+    <t>n4MobileCartype</t>
+  </si>
+  <si>
+    <t>n4SelectrailDamage</t>
+  </si>
+  <si>
+    <t>n4SelectrailInspect</t>
+  </si>
+  <si>
+    <t>n4SelectrailFlipped</t>
+  </si>
+  <si>
+    <t>N4MobileRailInventory</t>
+  </si>
+  <si>
+    <t>KEP1INRC</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>n4Track</t>
+  </si>
+  <si>
+    <t>n4Position</t>
+  </si>
+  <si>
+    <t>n4TransferPoint</t>
+  </si>
+  <si>
+    <t>n4Metermark</t>
+  </si>
+  <si>
+    <t>Rail Inventory</t>
+  </si>
+  <si>
+    <t>Reefer Monitor</t>
+  </si>
+  <si>
+    <t>n4ClickEditSegBreak</t>
+  </si>
+  <si>
+    <t>n4AddContainer1</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3Container</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1RemoveContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2RemoveContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3RemoveContainer</t>
+  </si>
+  <si>
+    <t>F10M</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1BundleMasterContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier1BundleSlaveContainer</t>
+  </si>
+  <si>
+    <t>ASWU2705180</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier2BundleMasterContainer</t>
+  </si>
+  <si>
+    <t>n4YinvGroundTier3BundleMasterContainer</t>
+  </si>
+  <si>
+    <t>Gate Inspection</t>
+  </si>
+  <si>
+    <t>n4GInspContainerOrChassis</t>
+  </si>
+  <si>
+    <t>n4GInspContainerNbr</t>
+  </si>
+  <si>
+    <t>n4GInspChassisNbr</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>n4GInspDamageComponent</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>n4GInspDamageLocation</t>
+  </si>
+  <si>
+    <t>n4GInspDamageType</t>
+  </si>
+  <si>
+    <t>n4GInspDamageSeverity</t>
+  </si>
+  <si>
+    <t>n4GInspDamageQuantity</t>
+  </si>
+  <si>
+    <t>n4GInspDamageWidth</t>
+  </si>
+  <si>
+    <t>n4GInspDamageLength</t>
+  </si>
+  <si>
+    <t>n4GInspDamageDepth</t>
+  </si>
+  <si>
+    <t>n4GInspTemperature</t>
+  </si>
+  <si>
+    <t>n4GInspTempUnit</t>
+  </si>
+  <si>
+    <t>n4GInspIsGenset</t>
+  </si>
+  <si>
+    <t>n4GInspGensetType</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageComponent</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageLocation</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageType</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageSeverity</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageQuantity</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageWidth</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageLength</t>
+  </si>
+  <si>
+    <t>n4GInspGensetDamageDepth</t>
+  </si>
+  <si>
+    <t>n4GInspOOGTop</t>
+  </si>
+  <si>
+    <t>n4GInspOOGLeft</t>
+  </si>
+  <si>
+    <t>n4GInspOOGRight</t>
+  </si>
+  <si>
+    <t>n4GInspHasPlacard</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard1</t>
+  </si>
+  <si>
+    <t>PLAC1</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard2</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard3</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard4</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard5</t>
+  </si>
+  <si>
+    <t>n4GInspPlacard6</t>
+  </si>
+  <si>
+    <t>n4GInspMasterContainer</t>
+  </si>
+  <si>
+    <t>n4GInspSlaveUnit</t>
+  </si>
+  <si>
+    <t>n4GInspPositionOnTruck</t>
+  </si>
+  <si>
+    <t>n4GInspDoorDirection</t>
+  </si>
+  <si>
+    <t>n4GInspCSC</t>
+  </si>
+  <si>
+    <t>n4GInspMnf</t>
+  </si>
+  <si>
+    <t>n4GInspSafeWeight</t>
+  </si>
+  <si>
+    <t>n4GInspTareWeight</t>
+  </si>
+  <si>
+    <t>n4GInspSeal1</t>
+  </si>
+  <si>
+    <t>n4GInspSeal2</t>
+  </si>
+  <si>
+    <t>n4GInspSeal3</t>
+  </si>
+  <si>
+    <t>n4GInspSeal4</t>
+  </si>
+  <si>
+    <t>n4GInspSeal5</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageComponent</t>
+  </si>
+  <si>
+    <t>CORNER</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageLocation</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageType</t>
+  </si>
+  <si>
+    <t>n4GInspChsDamageSeverity</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkVessel</t>
+  </si>
+  <si>
+    <t>n4DepotHatchClerkCrane</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>n4OrphanContainer</t>
+  </si>
+  <si>
+    <t>n4OrphanIsocode</t>
+  </si>
+  <si>
+    <t>n4OrphanSlot</t>
+  </si>
+  <si>
+    <t>n4OrphanUnit1</t>
+  </si>
+  <si>
+    <t>n4OrphanUnit2</t>
+  </si>
+  <si>
+    <t>n4Seal</t>
+  </si>
+  <si>
+    <t>n4YardLoc</t>
+  </si>
+  <si>
+    <t>n4Lineoperator</t>
+  </si>
+  <si>
+    <t>n4railFreightKind</t>
+  </si>
+  <si>
+    <t>n4TankRails</t>
+  </si>
+  <si>
+    <t>n4RailDirection</t>
+  </si>
+  <si>
+    <t>n4RailNotes</t>
+  </si>
+  <si>
+    <t>n4DamageComp</t>
+  </si>
+  <si>
+    <t>n4DamageType</t>
+  </si>
+  <si>
+    <t>n4DamageSeverity</t>
+  </si>
+  <si>
+    <t>n4DamageLength</t>
+  </si>
+  <si>
+    <t>n4DamageWidth</t>
+  </si>
+  <si>
+    <t>n4DamageQuatity</t>
+  </si>
+  <si>
+    <t>n4DamageDeep</t>
+  </si>
+  <si>
+    <t>n4DamageLocation</t>
+  </si>
+  <si>
+    <t>n4RailInventoryPowerON</t>
+  </si>
+  <si>
+    <t>n4RailInventoryTemp</t>
+  </si>
+  <si>
+    <t>n4Gensetid</t>
+  </si>
+  <si>
+    <t>n4railtype</t>
+  </si>
+  <si>
+    <t>n4OOGHeigth</t>
+  </si>
+  <si>
+    <t>n4OOGLeft</t>
+  </si>
+  <si>
+    <t>n4OOGRigth</t>
+  </si>
+  <si>
+    <t>n4OOGFlore</t>
+  </si>
+  <si>
+    <t>n4OOGUnits</t>
+  </si>
+  <si>
+    <t>n4RailInventoryPlacard</t>
+  </si>
+  <si>
+    <t>n4Placard1</t>
+  </si>
+  <si>
+    <t>n4Placard2</t>
+  </si>
+  <si>
+    <t>n4Placard3</t>
+  </si>
+  <si>
+    <t>n4Placard4</t>
+  </si>
+  <si>
+    <t>n4Placard5</t>
+  </si>
+  <si>
+    <t>n4Placard6</t>
+  </si>
+  <si>
+    <t>n4RailInventoryGrd</t>
+  </si>
+  <si>
+    <t>n4RailInventorymaterial</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS1</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS2</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS3</t>
+  </si>
+  <si>
+    <t>n4RailInventoryS4</t>
+  </si>
+  <si>
+    <t>n4RailInventoryBundle</t>
+  </si>
+  <si>
+    <t>n4RailInventoryWeight</t>
+  </si>
+  <si>
+    <t>n4RailInventoryunit</t>
+  </si>
+  <si>
+    <t>n4RailInventoryTareWeight</t>
+  </si>
+  <si>
+    <t>n4RailInventorycscDate</t>
+  </si>
+  <si>
+    <t>n4RailInventoryMnf</t>
+  </si>
+  <si>
+    <t>n4RailInventorymrstatus</t>
+  </si>
+  <si>
+    <t>n4RailInventoryGrdFood</t>
+  </si>
+  <si>
+    <t>n4RailInventorymaterialMade</t>
+  </si>
+  <si>
+    <t>DINU17296000</t>
+  </si>
+  <si>
+    <t>DINU1234567</t>
+  </si>
+  <si>
+    <t>DINU1231258</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>FCL</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>MnRStatus</t>
+  </si>
+  <si>
+    <t>n4HatchClerkVessel</t>
+  </si>
+  <si>
+    <t>n4HatchClerkCrane</t>
+  </si>
+  <si>
+    <t>n4hatchclerkjob</t>
+  </si>
+  <si>
+    <t>n4MobileHatchClerk</t>
+  </si>
+  <si>
+    <t>JobList</t>
+  </si>
+  <si>
+    <t>n4MobileSelectMode</t>
+  </si>
+  <si>
+    <t>n4ArgoServiceTester</t>
+  </si>
+  <si>
+    <t>QuadMode</t>
+  </si>
+  <si>
+    <t>n4ArgoServicevalue</t>
+  </si>
+  <si>
+    <t>Successfully</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>EquipmentOperator</t>
+  </si>
+  <si>
+    <t>EquipmentWeigth</t>
+  </si>
+  <si>
+    <t>NMGS</t>
+  </si>
+  <si>
+    <t>n4Accesory</t>
+  </si>
+  <si>
+    <t>EquipmentOwner</t>
+  </si>
+  <si>
+    <t>n4Vesselid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVANA </t>
+  </si>
+  <si>
+    <t>n4UnitID</t>
+  </si>
+  <si>
+    <t>n4EquipmntType</t>
+  </si>
+  <si>
+    <t>n4EquipmntLineOperator</t>
+  </si>
+  <si>
+    <t>n4VesselFreigthKind</t>
+  </si>
+  <si>
+    <t>n4VesselGrossWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselVGMWeigth</t>
+  </si>
+  <si>
+    <t>n4VesselPortofLoad</t>
+  </si>
+  <si>
+    <t>n4VesselPortOfDischarge</t>
+  </si>
+  <si>
+    <t>n4VesselCategory</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>UnitIdEquip</t>
+  </si>
+  <si>
+    <t>DINU857531</t>
+  </si>
+  <si>
+    <t>YINV_YINS_101</t>
+  </si>
+  <si>
+    <t>Unit1inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705190~ASW~F10L.1</t>
+  </si>
+  <si>
+    <t>SnxName</t>
+  </si>
+  <si>
+    <t>ReceiveEmptyUnit2200.xml</t>
+  </si>
+  <si>
+    <t>Unit2inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705180~ASW~F10K.1</t>
+  </si>
+  <si>
+    <t>Unit3inSNX</t>
+  </si>
+  <si>
+    <t>ASWU2705170~ASW~F10K.2</t>
+  </si>
+  <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>n4YInspBUndleContainer2</t>
+  </si>
+  <si>
+    <t>ASWU2705170</t>
+  </si>
+  <si>
+    <t>UnitAttached</t>
+  </si>
+  <si>
+    <t>DeleteUnit1</t>
+  </si>
+  <si>
+    <t>DeleteUnit2</t>
+  </si>
+  <si>
+    <t>DeleteUnit3</t>
+  </si>
+  <si>
+    <t>ACCESSORY</t>
+  </si>
+  <si>
+    <t>n4yardSlot</t>
+  </si>
+  <si>
+    <t>F01k.1</t>
+  </si>
+  <si>
+    <t>J20591_1</t>
+  </si>
+  <si>
+    <t>DINU1259753</t>
+  </si>
+  <si>
+    <t>CHSASW1~ASW~CH20</t>
+  </si>
+  <si>
     <t>UnitId</t>
-  </si>
-  <si>
-    <t>YINV_104</t>
-  </si>
-  <si>
-    <t>YINV_105</t>
-  </si>
-  <si>
-    <t>YINV_106</t>
-  </si>
-  <si>
-    <t>YINV_107</t>
-  </si>
-  <si>
-    <t>YINV_102</t>
-  </si>
-  <si>
-    <t>EquipmentToBeAttached</t>
-  </si>
-  <si>
-    <t>EquipmentRole</t>
-  </si>
-  <si>
-    <t>ASWU2705190</t>
-  </si>
-  <si>
-    <t>CHSASW</t>
-  </si>
-  <si>
-    <t>CARRIAGE</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>WebRequest</t>
-  </si>
-  <si>
-    <t>n4YinvQueryBundleContainer1</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerHasPlacard</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerPlacard1</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerDoorDirection</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerEvent</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerLineOperator</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerEqType</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerTankRails</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerChassis</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerNotes</t>
-  </si>
-  <si>
-    <t>SBSU1234590</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>CLASS 1.4</t>
-  </si>
-  <si>
-    <t>Aft</t>
-  </si>
-  <si>
-    <t>TEST-CTR-LOAD-EDI</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>CHS1</t>
-  </si>
-  <si>
-    <t>DAS</t>
-  </si>
-  <si>
-    <t>n4YInspEnterContainer</t>
-  </si>
-  <si>
-    <t>n4YInspEnterSeal</t>
-  </si>
-  <si>
-    <t>n4YInspDamageComponent</t>
-  </si>
-  <si>
-    <t>n4YInspDamageType</t>
-  </si>
-  <si>
-    <t>n4YInspDamageSeverity</t>
-  </si>
-  <si>
-    <t>n4YInspDamageLocation</t>
-  </si>
-  <si>
-    <t>n4YInspDamageWidth</t>
-  </si>
-  <si>
-    <t>n4YInspDamageLength</t>
-  </si>
-  <si>
-    <t>n4YInspDamageDepth</t>
-  </si>
-  <si>
-    <t>n4YInspOOGH</t>
-  </si>
-  <si>
-    <t>n4YInspOOGL</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>n4YInspOOGR</t>
-  </si>
-  <si>
-    <t>n4YInspOOGF</t>
-  </si>
-  <si>
-    <t>n4YInspOOGA</t>
-  </si>
-  <si>
-    <t>\InitUnitInYard.txt</t>
-  </si>
-  <si>
-    <t>n4YInspIsHazard</t>
-  </si>
-  <si>
-    <t>n4YInspPlacard1</t>
-  </si>
-  <si>
-    <t>n4YInspPlacard2</t>
-  </si>
-  <si>
-    <t>CLASS 1.5</t>
-  </si>
-  <si>
-    <t>n4YInspSeal1</t>
-  </si>
-  <si>
-    <t>n4YInspSeal2</t>
-  </si>
-  <si>
-    <t>n4YInspSeal3</t>
-  </si>
-  <si>
-    <t>n4YInspSeal4</t>
-  </si>
-  <si>
-    <t>n4YInspSlave1</t>
-  </si>
-  <si>
-    <t>n4YInspSafeWeight</t>
-  </si>
-  <si>
-    <t>n4YInspTareWeight</t>
-  </si>
-  <si>
-    <t>n4YInspGrade</t>
-  </si>
-  <si>
-    <t>n4YInspMaterial</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Play</t>
-  </si>
-  <si>
-    <t>Yard Inspection</t>
-  </si>
-  <si>
-    <t>dfbdx fd fd</t>
-  </si>
-  <si>
-    <t>n4Wheeled Unit</t>
-  </si>
-  <si>
-    <t>n4ReturnTemp</t>
-  </si>
-  <si>
-    <t>n4SupplyTemp</t>
-  </si>
-  <si>
-    <t>n4notes</t>
-  </si>
-  <si>
-    <t>n4FaultCode</t>
-  </si>
-  <si>
-    <t>n4Vent</t>
-  </si>
-  <si>
-    <t>n4VentUnit</t>
-  </si>
-  <si>
-    <t>n4Humidity</t>
-  </si>
-  <si>
-    <t>n4Co2</t>
-  </si>
-  <si>
-    <t>n4Oxygen</t>
-  </si>
-  <si>
-    <t>n4TemperatureSetPoint</t>
-  </si>
-  <si>
-    <t>n4GenSetid</t>
-  </si>
-  <si>
-    <t>n4Fuelevel</t>
-  </si>
-  <si>
-    <t>N4MobileReeferMonitor</t>
-  </si>
-  <si>
-    <t>SBSU12345690</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>n4YInspTemperature</t>
-  </si>
-  <si>
-    <t>n4YInspTemperatureUnit</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>n4YInspGensetID</t>
-  </si>
-  <si>
-    <t>n4YInspGenSetType</t>
-  </si>
-  <si>
-    <t>----</t>
-  </si>
-  <si>
-    <t>n4YInspLineOperator</t>
-  </si>
-  <si>
-    <t>n4YInspDoorDirection</t>
-  </si>
-  <si>
-    <t>n4YInspEqType</t>
-  </si>
-  <si>
-    <t>n4YInspTankRails</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerTemperature</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerTemperatureUnit</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerGensetID</t>
-  </si>
-  <si>
-    <t>n4YinvQueryContainerGenSetType</t>
-  </si>
-  <si>
-    <t>n4YinvGroundPosition</t>
-  </si>
-  <si>
-    <t>n4YinvGroundReverseDirection</t>
-  </si>
-  <si>
-    <t>n4YinvGroundMenWorking</t>
-  </si>
-  <si>
-    <t>n4YinvGroundContainer</t>
-  </si>
-  <si>
-    <t>n4RailInventoryRailCarId</t>
-  </si>
-  <si>
-    <t>n4MobileCartype</t>
-  </si>
-  <si>
-    <t>n4SelectrailDamage</t>
-  </si>
-  <si>
-    <t>n4SelectrailInspect</t>
-  </si>
-  <si>
-    <t>n4SelectrailFlipped</t>
-  </si>
-  <si>
-    <t>N4MobileRailInventory</t>
-  </si>
-  <si>
-    <t>KEP1INRC</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>n4Track</t>
-  </si>
-  <si>
-    <t>n4Position</t>
-  </si>
-  <si>
-    <t>n4TransferPoint</t>
-  </si>
-  <si>
-    <t>n4Metermark</t>
-  </si>
-  <si>
-    <t>Rail Inventory</t>
-  </si>
-  <si>
-    <t>Reefer Monitor</t>
-  </si>
-  <si>
-    <t>n4ClickEditSegBreak</t>
-  </si>
-  <si>
-    <t>n4AddContainer1</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier1Container</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier2Container</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier3Container</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier1RemoveContainer</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier2RemoveContainer</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier3RemoveContainer</t>
-  </si>
-  <si>
-    <t>F10M</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier1BundleMasterContainer</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier1BundleSlaveContainer</t>
-  </si>
-  <si>
-    <t>ASWU2705180</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier2BundleMasterContainer</t>
-  </si>
-  <si>
-    <t>n4YinvGroundTier3BundleMasterContainer</t>
-  </si>
-  <si>
-    <t>Gate Inspection</t>
-  </si>
-  <si>
-    <t>n4GInspContainerOrChassis</t>
-  </si>
-  <si>
-    <t>n4GInspContainerNbr</t>
-  </si>
-  <si>
-    <t>n4GInspChassisNbr</t>
-  </si>
-  <si>
-    <t>Chassis</t>
-  </si>
-  <si>
-    <t>n4GInspDamageComponent</t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <t>n4GInspDamageLocation</t>
-  </si>
-  <si>
-    <t>n4GInspDamageType</t>
-  </si>
-  <si>
-    <t>n4GInspDamageSeverity</t>
-  </si>
-  <si>
-    <t>n4GInspDamageQuantity</t>
-  </si>
-  <si>
-    <t>n4GInspDamageWidth</t>
-  </si>
-  <si>
-    <t>n4GInspDamageLength</t>
-  </si>
-  <si>
-    <t>n4GInspDamageDepth</t>
-  </si>
-  <si>
-    <t>n4GInspTemperature</t>
-  </si>
-  <si>
-    <t>n4GInspTempUnit</t>
-  </si>
-  <si>
-    <t>n4GInspIsGenset</t>
-  </si>
-  <si>
-    <t>n4GInspGensetType</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageComponent</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageLocation</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageType</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageSeverity</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageQuantity</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageWidth</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageLength</t>
-  </si>
-  <si>
-    <t>n4GInspGensetDamageDepth</t>
-  </si>
-  <si>
-    <t>n4GInspOOGTop</t>
-  </si>
-  <si>
-    <t>n4GInspOOGLeft</t>
-  </si>
-  <si>
-    <t>n4GInspOOGRight</t>
-  </si>
-  <si>
-    <t>n4GInspHasPlacard</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard1</t>
-  </si>
-  <si>
-    <t>PLAC1</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard2</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard3</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard4</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard5</t>
-  </si>
-  <si>
-    <t>n4GInspPlacard6</t>
-  </si>
-  <si>
-    <t>n4GInspMasterContainer</t>
-  </si>
-  <si>
-    <t>n4GInspSlaveUnit</t>
-  </si>
-  <si>
-    <t>n4GInspPositionOnTruck</t>
-  </si>
-  <si>
-    <t>n4GInspDoorDirection</t>
-  </si>
-  <si>
-    <t>n4GInspCSC</t>
-  </si>
-  <si>
-    <t>n4GInspMnf</t>
-  </si>
-  <si>
-    <t>n4GInspSafeWeight</t>
-  </si>
-  <si>
-    <t>n4GInspTareWeight</t>
-  </si>
-  <si>
-    <t>n4GInspSeal1</t>
-  </si>
-  <si>
-    <t>n4GInspSeal2</t>
-  </si>
-  <si>
-    <t>n4GInspSeal3</t>
-  </si>
-  <si>
-    <t>n4GInspSeal4</t>
-  </si>
-  <si>
-    <t>n4GInspSeal5</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>n4GInspChsDamageComponent</t>
-  </si>
-  <si>
-    <t>CORNER</t>
-  </si>
-  <si>
-    <t>n4GInspChsDamageLocation</t>
-  </si>
-  <si>
-    <t>n4GInspChsDamageType</t>
-  </si>
-  <si>
-    <t>n4GInspChsDamageSeverity</t>
-  </si>
-  <si>
-    <t>CHS</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkVessel</t>
-  </si>
-  <si>
-    <t>n4DepotHatchClerkCrane</t>
-  </si>
-  <si>
-    <t>CR1</t>
-  </si>
-  <si>
-    <t>n4OrphanContainer</t>
-  </si>
-  <si>
-    <t>n4OrphanIsocode</t>
-  </si>
-  <si>
-    <t>n4OrphanSlot</t>
-  </si>
-  <si>
-    <t>n4OrphanUnit1</t>
-  </si>
-  <si>
-    <t>n4OrphanUnit2</t>
-  </si>
-  <si>
-    <t>n4Seal</t>
-  </si>
-  <si>
-    <t>n4YardLoc</t>
-  </si>
-  <si>
-    <t>n4Lineoperator</t>
-  </si>
-  <si>
-    <t>n4railFreightKind</t>
-  </si>
-  <si>
-    <t>n4TankRails</t>
-  </si>
-  <si>
-    <t>n4RailDirection</t>
-  </si>
-  <si>
-    <t>n4RailNotes</t>
-  </si>
-  <si>
-    <t>n4DamageComp</t>
-  </si>
-  <si>
-    <t>n4DamageType</t>
-  </si>
-  <si>
-    <t>n4DamageSeverity</t>
-  </si>
-  <si>
-    <t>n4DamageLength</t>
-  </si>
-  <si>
-    <t>n4DamageWidth</t>
-  </si>
-  <si>
-    <t>n4DamageQuatity</t>
-  </si>
-  <si>
-    <t>n4DamageDeep</t>
-  </si>
-  <si>
-    <t>n4DamageLocation</t>
-  </si>
-  <si>
-    <t>n4RailInventoryPowerON</t>
-  </si>
-  <si>
-    <t>n4RailInventoryTemp</t>
-  </si>
-  <si>
-    <t>n4Gensetid</t>
-  </si>
-  <si>
-    <t>n4railtype</t>
-  </si>
-  <si>
-    <t>n4OOGHeigth</t>
-  </si>
-  <si>
-    <t>n4OOGLeft</t>
-  </si>
-  <si>
-    <t>n4OOGRigth</t>
-  </si>
-  <si>
-    <t>n4OOGFlore</t>
-  </si>
-  <si>
-    <t>n4OOGUnits</t>
-  </si>
-  <si>
-    <t>n4RailInventoryPlacard</t>
-  </si>
-  <si>
-    <t>n4Placard1</t>
-  </si>
-  <si>
-    <t>n4Placard2</t>
-  </si>
-  <si>
-    <t>n4Placard3</t>
-  </si>
-  <si>
-    <t>n4Placard4</t>
-  </si>
-  <si>
-    <t>n4Placard5</t>
-  </si>
-  <si>
-    <t>n4Placard6</t>
-  </si>
-  <si>
-    <t>n4RailInventoryGrd</t>
-  </si>
-  <si>
-    <t>n4RailInventorymaterial</t>
-  </si>
-  <si>
-    <t>n4RailInventoryS1</t>
-  </si>
-  <si>
-    <t>n4RailInventoryS2</t>
-  </si>
-  <si>
-    <t>n4RailInventoryS3</t>
-  </si>
-  <si>
-    <t>n4RailInventoryS4</t>
-  </si>
-  <si>
-    <t>n4RailInventoryBundle</t>
-  </si>
-  <si>
-    <t>n4RailInventoryWeight</t>
-  </si>
-  <si>
-    <t>n4RailInventoryunit</t>
-  </si>
-  <si>
-    <t>n4RailInventoryTareWeight</t>
-  </si>
-  <si>
-    <t>n4RailInventorycscDate</t>
-  </si>
-  <si>
-    <t>n4RailInventoryMnf</t>
-  </si>
-  <si>
-    <t>n4RailInventorymrstatus</t>
-  </si>
-  <si>
-    <t>n4RailInventoryGrdFood</t>
-  </si>
-  <si>
-    <t>n4RailInventorymaterialMade</t>
-  </si>
-  <si>
-    <t>DINU17296000</t>
-  </si>
-  <si>
-    <t>DINU1234567</t>
-  </si>
-  <si>
-    <t>DINU1231258</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>FCL</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>ID1</t>
-  </si>
-  <si>
-    <t>MnRStatus</t>
-  </si>
-  <si>
-    <t>n4HatchClerkVessel</t>
-  </si>
-  <si>
-    <t>n4HatchClerkCrane</t>
-  </si>
-  <si>
-    <t>n4hatchclerkjob</t>
-  </si>
-  <si>
-    <t>n4MobileHatchClerk</t>
-  </si>
-  <si>
-    <t>JobList</t>
-  </si>
-  <si>
-    <t>n4MobileSelectMode</t>
-  </si>
-  <si>
-    <t>n4ArgoServiceTester</t>
-  </si>
-  <si>
-    <t>QuadMode</t>
-  </si>
-  <si>
-    <t>n4ArgoServicevalue</t>
-  </si>
-  <si>
-    <t>Successfully</t>
-  </si>
-  <si>
-    <t>EquipmentType</t>
-  </si>
-  <si>
-    <t>EquipmentOperator</t>
-  </si>
-  <si>
-    <t>EquipmentWeigth</t>
-  </si>
-  <si>
-    <t>NMGS</t>
-  </si>
-  <si>
-    <t>n4Accesory</t>
-  </si>
-  <si>
-    <t>EquipmentOwner</t>
-  </si>
-  <si>
-    <t>n4Vesselid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VVANA </t>
-  </si>
-  <si>
-    <t>n4UnitID</t>
-  </si>
-  <si>
-    <t>n4EquipmntType</t>
-  </si>
-  <si>
-    <t>n4EquipmntLineOperator</t>
-  </si>
-  <si>
-    <t>n4VesselFreigthKind</t>
-  </si>
-  <si>
-    <t>n4VesselGrossWeigth</t>
-  </si>
-  <si>
-    <t>n4VesselVGMWeigth</t>
-  </si>
-  <si>
-    <t>n4VesselPortofLoad</t>
-  </si>
-  <si>
-    <t>n4VesselPortOfDischarge</t>
-  </si>
-  <si>
-    <t>n4VesselCategory</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>UnitIdEquip</t>
-  </si>
-  <si>
-    <t>DINU857531</t>
-  </si>
-  <si>
-    <t>YINV_YINS_101</t>
-  </si>
-  <si>
-    <t>Unit1inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705190~ASW~F10L.1</t>
-  </si>
-  <si>
-    <t>SnxName</t>
-  </si>
-  <si>
-    <t>ReceiveEmptyUnit2200.xml</t>
-  </si>
-  <si>
-    <t>Unit2inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705180~ASW~F10K.1</t>
-  </si>
-  <si>
-    <t>Unit3inSNX</t>
-  </si>
-  <si>
-    <t>ASWU2705170~ASW~F10K.2</t>
-  </si>
-  <si>
-    <t>PAYLOAD</t>
-  </si>
-  <si>
-    <t>n4YInspBUndleContainer2</t>
-  </si>
-  <si>
-    <t>ASWU2705170</t>
-  </si>
-  <si>
-    <t>UnitAttached</t>
-  </si>
-  <si>
-    <t>DeleteUnit1</t>
-  </si>
-  <si>
-    <t>DeleteUnit2</t>
-  </si>
-  <si>
-    <t>DeleteUnit3</t>
-  </si>
-  <si>
-    <t>ACCESSORY</t>
-  </si>
-  <si>
-    <t>n4yardSlot</t>
-  </si>
-  <si>
-    <t>F01k.1</t>
-  </si>
-  <si>
-    <t>J20591_1</t>
-  </si>
-  <si>
-    <t>DINU1259753</t>
-  </si>
-  <si>
-    <t>CHSASW1~ASW~CH20</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" diskRevisions="1" revisionId="1753" version="389">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED9F8F4C-BAAF-4682-BB12-C3BF0D3F3A10}" diskRevisions="1" revisionId="1790" version="398">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -9052,6 +9052,240 @@
     </sheetIdMap>
   </header>
   <header guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" dateTime="2018-07-06T10:54:12" maxSheetId="23" userName="ITL-USER" r:id="rId389" minRId="1752" maxRId="1753">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EC309448-C732-4994-BB1E-7AF0F7B530FD}" dateTime="2018-07-06T11:51:01" maxSheetId="23" userName="ITL-USER" r:id="rId390" minRId="1754">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C9EEC720-4E1C-469E-BEA8-59B97EA93107}" dateTime="2018-07-09T13:02:33" maxSheetId="23" userName="itluser" r:id="rId391" minRId="1755" maxRId="1762">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D9528CA-94B6-43D8-A479-C850F86599CF}" dateTime="2018-07-09T13:09:54" maxSheetId="23" userName="itluser" r:id="rId392" minRId="1763" maxRId="1770">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C409A13E-5026-4EA2-B5B4-9EAD2FABB1A4}" dateTime="2018-07-09T13:14:06" maxSheetId="23" userName="itluser" r:id="rId393">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BA8D01B7-307A-4D57-B799-E3EEA2A3A027}" dateTime="2018-07-09T13:24:39" maxSheetId="23" userName="itluser" r:id="rId394" minRId="1771">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ECF3EFF0-1854-489C-AB88-30612494AB4B}" dateTime="2018-07-09T13:30:44" maxSheetId="23" userName="itluser" r:id="rId395" minRId="1772" maxRId="1780">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C87E7C3D-AF3E-4A31-976D-41CCE44F663A}" dateTime="2018-07-09T13:36:43" maxSheetId="23" userName="itluser" r:id="rId396" minRId="1781">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B8295C57-6738-445C-BCCE-C0FBDA5C07E6}" dateTime="2018-07-09T13:36:59" maxSheetId="23" userName="itluser" r:id="rId397" minRId="1782" maxRId="1789">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ED9F8F4C-BAAF-4682-BB12-C3BF0D3F3A10}" dateTime="2018-07-09T13:42:00" maxSheetId="23" userName="itluser" r:id="rId398" minRId="1790">
     <sheetIdMap count="22">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -24942,6 +25176,243 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog384.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1754" sId="12">
+    <nc r="Z9" t="inlineStr">
+      <is>
+        <t>FOOD</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog385.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1755" sId="8">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B2"/>
+  </rcc>
+  <rcc rId="1756" sId="8">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B3"/>
+  </rcc>
+  <rcc rId="1757" sId="8">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B4"/>
+  </rcc>
+  <rcc rId="1758" sId="8">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B5"/>
+  </rcc>
+  <rcc rId="1759" sId="8">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+  <rcc rId="1760" sId="8">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B7"/>
+  </rcc>
+  <rcc rId="1761" sId="8">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B8"/>
+  </rcc>
+  <rcc rId="1762" sId="8">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog386.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1763" sId="8" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1764" sId="8" odxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1765" sId="8" odxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1766" sId="8" odxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1767" sId="8" odxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1768" sId="8" odxf="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1769" sId="8" odxf="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1770" sId="8">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog387.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog388.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="1771" sheetId="8" source="A10:D10" destination="A11:D11" sourceSheetId="8"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog389.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="1772" sheetId="8" source="A11:D11" destination="A10:D10" sourceSheetId="8"/>
+  <rcc rId="1773" sId="8">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B2"/>
+  </rcc>
+  <rcc rId="1774" sId="8">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B3"/>
+  </rcc>
+  <rcc rId="1775" sId="8">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B4"/>
+  </rcc>
+  <rcc rId="1776" sId="8">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B5"/>
+  </rcc>
+  <rcc rId="1777" sId="8">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B6"/>
+  </rcc>
+  <rcc rId="1778" sId="8">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B7"/>
+  </rcc>
+  <rcc rId="1779" sId="8">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B8"/>
+  </rcc>
+  <rcc rId="1780" sId="8">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </oc>
+    <nc r="B9"/>
+  </rcc>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="delete"/>
+  <rcv guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="61" sId="3" xfDxf="1" dxf="1">
@@ -24953,6 +25424,101 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog390.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1781" sId="8" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Unitequipment</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog391.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1782" sId="8" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1783" sId="8">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1784" sId="8">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1785" sId="8">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1786" sId="8">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1787" sId="8">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1788" sId="8">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1789" sId="8">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>ASWU2705190</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog392.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1790" sId="8" xfDxf="1" dxf="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>Unitequipment</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>UnitId</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -26836,7 +27402,7 @@
   <userInfo guid="{A362D75E-4E39-49D0-8B9D-E19BB878EFC7}" name="itluser" id="-446792401" dateTime="2018-06-27T13:17:27"/>
   <userInfo guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" name="itluser" id="-446794865" dateTime="2018-06-29T14:13:37"/>
   <userInfo guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" name="ITL-USER" id="-1580083848" dateTime="2018-07-03T15:32:40"/>
-  <userInfo guid="{C411681A-71DB-4E01-9B5F-57A3CC3A76E1}" name="ITL-USER" id="-1580110567" dateTime="2018-07-05T18:46:10"/>
+  <userInfo guid="{EC309448-C732-4994-BB1E-7AF0F7B530FD}" name="ITL-USER" id="-1580110567" dateTime="2018-07-05T18:46:10"/>
 </users>
 </file>
 
@@ -27113,16 +27679,16 @@
   <sheetData>
     <row r="7" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -27135,8 +27701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27156,25 +27722,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>336</v>
+        <v>637</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>343</v>
-      </c>
       <c r="E1" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27182,119 +27748,121 @@
         <v>303</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>344</v>
+      <c r="B4" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>344</v>
+        <v>336</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>636</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27303,7 +27871,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27318,39 +27886,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" t="s">
         <v>597</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="E1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F1" t="s">
-        <v>598</v>
-      </c>
       <c r="H1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>5</v>
@@ -27361,34 +27929,34 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>246</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>636</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="I3" sqref="I3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27401,7 +27969,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27491,7 +28059,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>300</v>
@@ -27528,7 +28096,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>3</v>
@@ -27586,7 +28154,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -27615,7 +28183,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>3</v>
@@ -27644,7 +28212,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
@@ -27673,7 +28241,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>3</v>
@@ -27702,7 +28270,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>3</v>
@@ -27723,28 +28291,28 @@
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>3</v>
@@ -27765,15 +28333,11 @@
         <v>15</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="H10" sqref="H10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27782,6 +28346,10 @@
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="H10" sqref="H10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27792,7 +28360,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G18" activeCellId="1" sqref="A3:D3 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27802,6 +28370,7 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -27818,43 +28387,43 @@
         <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I1" t="s">
         <v>604</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>605</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>606</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>607</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>608</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>609</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>610</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>611</v>
       </c>
-      <c r="P1" t="s">
-        <v>612</v>
-      </c>
       <c r="Q1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -27871,16 +28440,16 @@
         <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I2">
         <v>2200</v>
@@ -27889,7 +28458,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L2">
         <v>3500</v>
@@ -27904,24 +28473,24 @@
         <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="E2" sqref="E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G18" activeCellId="1" sqref="A3:D3 G18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
       <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -28058,46 +28627,46 @@
         <v>333</v>
       </c>
       <c r="AA1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="AJ1" s="14" t="s">
-        <v>358</v>
-      </c>
       <c r="AK1" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL1" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -28105,7 +28674,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>302</v>
@@ -28156,19 +28725,19 @@
         <v>334</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
@@ -28177,22 +28746,22 @@
         <v>2200</v>
       </c>
       <c r="AH2" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI2" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK2" s="14">
         <v>45</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -28200,7 +28769,7 @@
         <v>303</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>302</v>
@@ -28251,19 +28820,19 @@
         <v>334</v>
       </c>
       <c r="AA3" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB3" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF3" s="14" t="s">
         <v>5</v>
@@ -28272,30 +28841,30 @@
         <v>2200</v>
       </c>
       <c r="AH3" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI3" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AJ3" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK3" s="16">
         <v>45</v>
       </c>
       <c r="AL3" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>302</v>
@@ -28346,19 +28915,19 @@
         <v>334</v>
       </c>
       <c r="AA4" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF4" s="14" t="s">
         <v>5</v>
@@ -28367,22 +28936,22 @@
         <v>2200</v>
       </c>
       <c r="AH4" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI4" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK4" s="16">
         <v>45</v>
       </c>
       <c r="AL4" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -28390,7 +28959,7 @@
         <v>335</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>302</v>
@@ -28441,19 +29010,19 @@
         <v>334</v>
       </c>
       <c r="AA5" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB5" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB5" s="14" t="s">
+      <c r="AC5" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AD5" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD5" s="14" t="s">
+      <c r="AE5" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF5" s="14" t="s">
         <v>5</v>
@@ -28462,30 +29031,30 @@
         <v>2200</v>
       </c>
       <c r="AH5" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI5" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK5" s="16">
         <v>45</v>
       </c>
       <c r="AL5" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>302</v>
@@ -28536,19 +29105,19 @@
         <v>334</v>
       </c>
       <c r="AA6" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB6" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AE6" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF6" s="14" t="s">
         <v>5</v>
@@ -28557,30 +29126,30 @@
         <v>2200</v>
       </c>
       <c r="AH6" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI6" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI6" s="14" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ6" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK6" s="16">
         <v>45</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>302</v>
@@ -28631,19 +29200,19 @@
         <v>334</v>
       </c>
       <c r="AA7" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB7" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AC7" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AD7" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AE7" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF7" s="14" t="s">
         <v>5</v>
@@ -28652,30 +29221,30 @@
         <v>2200</v>
       </c>
       <c r="AH7" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI7" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI7" s="14" t="s">
+      <c r="AJ7" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK7" s="16">
         <v>45</v>
       </c>
       <c r="AL7" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>302</v>
@@ -28726,19 +29295,19 @@
         <v>334</v>
       </c>
       <c r="AA8" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="AB8" s="14" t="s">
+      <c r="AC8" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="AC8" s="14" t="s">
+      <c r="AD8" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AD8" s="14" t="s">
+      <c r="AE8" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>363</v>
       </c>
       <c r="AF8" s="14" t="s">
         <v>5</v>
@@ -28747,30 +29316,30 @@
         <v>2200</v>
       </c>
       <c r="AH8" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI8" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="AI8" s="14" t="s">
+      <c r="AJ8" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="AJ8" s="14" t="s">
-        <v>366</v>
       </c>
       <c r="AK8" s="16">
         <v>45</v>
       </c>
       <c r="AL8" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>302</v>
@@ -28792,15 +29361,18 @@
       </c>
       <c r="I9" s="14" t="s">
         <v>315</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="AH13" sqref="AH13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="AH13" sqref="AH13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -28814,7 +29386,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28838,190 +29410,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>439</v>
-      </c>
       <c r="G1" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>446</v>
-      </c>
       <c r="K1" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>450</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AW1" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AX1" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="AY1" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BB1" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BC1" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>573</v>
-      </c>
-      <c r="BK1" s="16" t="s">
-        <v>574</v>
       </c>
       <c r="BL1" s="16" t="s">
         <v>246</v>
@@ -29029,28 +29601,28 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>441</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>442</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>246</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N2" s="16">
         <v>2200</v>
@@ -29059,28 +29631,28 @@
         <v>2</v>
       </c>
       <c r="P2" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>577</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>578</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="U2" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" s="16" t="s">
         <v>579</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>580</v>
       </c>
       <c r="Y2" s="16" t="s">
         <v>313</v>
@@ -29104,10 +29676,10 @@
         <v>15</v>
       </c>
       <c r="AG2" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH2" s="16" t="s">
         <v>581</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>582</v>
       </c>
       <c r="AJ2" s="16">
         <v>9000</v>
@@ -29122,34 +29694,34 @@
         <v>10</v>
       </c>
       <c r="AP2" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="AQ2" s="16" t="s">
-        <v>361</v>
-      </c>
       <c r="AR2" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AS2" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AU2" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AV2" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AW2" s="16" t="s">
         <v>334</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AZ2" s="16" t="s">
         <v>305</v>
@@ -29161,7 +29733,7 @@
         <v>309</v>
       </c>
       <c r="BC2" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BD2" s="16">
         <v>100</v>
@@ -29173,23 +29745,23 @@
         <v>12566</v>
       </c>
       <c r="BI2" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BJ2" s="16" t="s">
         <v>334</v>
       </c>
       <c r="BK2" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
+      <selection activeCell="K1" sqref="K1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="B1">
       <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="B1">
-      <selection activeCell="K1" sqref="K1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -29257,166 +29829,166 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" t="s">
-        <v>467</v>
-      </c>
       <c r="E1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>473</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>474</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>475</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>476</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>477</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>478</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>479</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>480</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>482</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>483</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>484</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>485</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>486</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>487</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>488</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>489</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>490</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>491</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>492</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>493</v>
       </c>
-      <c r="AC1" t="s">
-        <v>494</v>
-      </c>
       <c r="AD1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE1" t="s">
         <v>496</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>497</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>498</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>499</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>500</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>501</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>502</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>503</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>504</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>505</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>506</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>507</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>508</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>509</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>510</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>511</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>512</v>
       </c>
-      <c r="AU1" t="s">
-        <v>513</v>
-      </c>
       <c r="AV1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AW1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AX1" t="s">
         <v>517</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>518</v>
       </c>
-      <c r="AY1" t="s">
-        <v>519</v>
-      </c>
       <c r="AZ1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BA1" t="s">
         <v>474</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>475</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>476</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -29424,19 +29996,19 @@
         <v>298</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>314</v>
@@ -29460,7 +30032,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y2" s="16">
         <v>5</v>
@@ -29472,37 +30044,37 @@
         <v>3</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK2" s="16">
         <v>1</v>
       </c>
       <c r="AL2" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO2" s="16">
         <v>1000</v>
@@ -29523,13 +30095,13 @@
         <v>309</v>
       </c>
       <c r="AU2" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AV2" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AY2" s="16" t="s">
         <v>315</v>
@@ -29537,11 +30109,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -29568,42 +30140,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" t="s">
         <v>586</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>587</v>
       </c>
-      <c r="D1" t="s">
-        <v>588</v>
-      </c>
       <c r="E1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B2" t="s">
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G11" sqref="G11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G11" sqref="G11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -29632,10 +30204,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
         <v>521</v>
-      </c>
-      <c r="C1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -29646,16 +30218,16 @@
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -29668,8 +30240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29692,49 +30264,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" t="s">
-        <v>434</v>
-      </c>
       <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" t="s">
         <v>451</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>452</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>453</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>454</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>455</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>456</v>
       </c>
-      <c r="L1" t="s">
-        <v>457</v>
-      </c>
       <c r="M1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N1" t="s">
         <v>459</v>
       </c>
-      <c r="N1" t="s">
-        <v>460</v>
-      </c>
       <c r="O1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" t="s">
         <v>462</v>
-      </c>
-      <c r="P1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -29742,44 +30314,44 @@
         <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="M1">
       <selection activeCell="Q1" sqref="Q1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -29791,8 +30363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29829,16 +30401,16 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -29982,15 +30554,15 @@
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>3</v>
@@ -30011,13 +30583,13 @@
         <v>15</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -30043,17 +30615,17 @@
         <v>15</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -30074,15 +30646,15 @@
         <v>15</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -30103,15 +30675,15 @@
         <v>15</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -30132,15 +30704,15 @@
         <v>15</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -30161,42 +30733,42 @@
         <v>15</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>3</v>
@@ -30219,12 +30791,12 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>3</v>
@@ -30245,37 +30817,37 @@
         <v>15</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="J25" sqref="J25"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="A7">
+      <selection activeCell="H22" sqref="H22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="A7">
-      <selection activeCell="H22" sqref="H22"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="J25" sqref="J25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -30290,7 +30862,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30304,51 +30876,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>413</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>414</v>
       </c>
       <c r="C2" s="16">
         <v>22</v>
@@ -30357,10 +30929,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>415</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>416</v>
       </c>
       <c r="I2" s="16">
         <v>0.255</v>
@@ -30371,12 +30943,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="N9" sqref="N9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -30388,8 +30960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30431,106 +31003,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>377</v>
-      </c>
       <c r="M1" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>381</v>
-      </c>
       <c r="P1" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>385</v>
-      </c>
       <c r="S1" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="AA1" s="14" t="s">
-        <v>395</v>
-      </c>
       <c r="AB1" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC1" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="AD1" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>421</v>
-      </c>
       <c r="AF1" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -30538,7 +31110,7 @@
         <v>298</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>302</v>
@@ -30550,7 +31122,7 @@
         <v>314</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2" s="14">
         <v>10</v>
@@ -30568,13 +31140,13 @@
         <v>10</v>
       </c>
       <c r="P2" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>361</v>
-      </c>
       <c r="R2" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S2" s="14">
         <v>1</v>
@@ -30598,36 +31170,36 @@
         <v>334</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB2" s="14">
         <v>45</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH2" s="14">
         <v>2200</v>
       </c>
       <c r="AI2" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>313</v>
@@ -30636,7 +31208,7 @@
         <v>314</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K3" s="14">
         <v>10</v>
@@ -30654,13 +31226,13 @@
         <v>10</v>
       </c>
       <c r="P3" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>361</v>
-      </c>
       <c r="R3" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S3" s="14">
         <v>1</v>
@@ -30684,36 +31256,36 @@
         <v>334</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB3" s="14">
         <v>45</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AG3" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH3" s="16">
         <v>2200</v>
       </c>
       <c r="AI3" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>636</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>302</v>
@@ -30722,17 +31294,17 @@
         <v>45</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="Z1">
       <selection activeCell="AI2" sqref="AI2:AI3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -30749,10 +31321,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -30765,7 +31337,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30798,7 +31370,7 @@
         <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -30823,10 +31395,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="K12" sqref="K12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30835,6 +31403,10 @@
       <selection activeCell="K12" sqref="K12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="K12" sqref="K12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30844,8 +31416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30984,10 +31556,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
-      <selection activeCell="Y1" sqref="Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30996,6 +31564,10 @@
       <selection activeCell="Y1" sqref="Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="O1">
+      <selection activeCell="Y1" sqref="Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31005,8 +31577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31342,17 +31914,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" topLeftCell="J1">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="V1">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="V1">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -31368,7 +31940,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31840,10 +32412,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31852,6 +32420,10 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31862,7 +32434,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32024,10 +32596,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="Q1" sqref="Q1:Y1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32036,6 +32604,10 @@
       <selection activeCell="Q1" sqref="Q1:Y1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="Q1" sqref="Q1:Y1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32045,8 +32617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32271,11 +32843,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
-      <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32283,11 +32850,15 @@
     <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" topLeftCell="W1">
       <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" topLeftCell="W1">
+      <selection activeCell="AI2" sqref="AI2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -32296,7 +32867,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32364,17 +32935,17 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G1" sqref="G1"/>
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Basic Test Suite/TestData/TestData.xlsx
+++ b/Basic Test Suite/TestData/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itluser\Desktop\06-07-2018\Basic Test Suite\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITL-USER\Desktop\TestComplete\Basic Test Suite\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cdsds" sheetId="14" state="hidden" r:id="rId1"/>
@@ -37,9 +37,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="2"/>
+    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
     <customWorkbookView name="itluser - Personal View" guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="8"/>
-    <customWorkbookView name="ITLAdmin - Personal View" guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="503" activeSheetId="11"/>
-    <customWorkbookView name="ITL-USER - Personal View" guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1380" windowHeight="744" activeSheetId="8"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -167,9 +167,6 @@
     <t>CSASW</t>
   </si>
   <si>
-    <t>EDIPartnerName</t>
-  </si>
-  <si>
     <t>EDIPartnerBusinessUnit</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>Vessel</t>
   </si>
   <si>
-    <t>MailBoxName</t>
-  </si>
-  <si>
     <t>MBEDI1</t>
   </si>
   <si>
@@ -605,45 +599,12 @@
     <t>Send</t>
   </si>
   <si>
-    <t>SenderQualifier</t>
-  </si>
-  <si>
-    <t>SenderID</t>
-  </si>
-  <si>
-    <t>ReceiveQualifier</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
     <t>C:\Projects\N4</t>
   </si>
   <si>
-    <t>CommunicationType</t>
-  </si>
-  <si>
-    <t>FTPAddress</t>
-  </si>
-  <si>
-    <t>FTPUserID</t>
-  </si>
-  <si>
-    <t>FTPPassword</t>
-  </si>
-  <si>
-    <t>ReenterFTPPassword</t>
-  </si>
-  <si>
-    <t>FTPFOlder</t>
-  </si>
-  <si>
     <t>Binary</t>
   </si>
   <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -1959,6 +1920,45 @@
   </si>
   <si>
     <t>UnitId</t>
+  </si>
+  <si>
+    <t>EDITradingPartnerName</t>
+  </si>
+  <si>
+    <t>EDIMailboxName</t>
+  </si>
+  <si>
+    <t>EDISenderQualifier</t>
+  </si>
+  <si>
+    <t>EDISenderID</t>
+  </si>
+  <si>
+    <t>EDIReceiverQualifier</t>
+  </si>
+  <si>
+    <t>EDIReceiverID</t>
+  </si>
+  <si>
+    <t>EDIDirectory</t>
+  </si>
+  <si>
+    <t>EDICommunicationType</t>
+  </si>
+  <si>
+    <t>EDIFTPUserID</t>
+  </si>
+  <si>
+    <t>EDIFTPPassword</t>
+  </si>
+  <si>
+    <t>EDIRenterFTPPassword</t>
+  </si>
+  <si>
+    <t>EDIFTPFolder</t>
+  </si>
+  <si>
+    <t>EDIEmailAddress</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2036,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ED9F8F4C-BAAF-4682-BB12-C3BF0D3F3A10}" diskRevisions="1" revisionId="1790" version="398">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FAC9DC0F-E60C-46F6-8B73-723449EBC3A7}" diskRevisions="1" revisionId="1807" version="411">
   <header guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" dateTime="2018-04-13T11:49:43" maxSheetId="10" userName="itluser" r:id="rId7" minRId="7">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -9286,6 +9286,344 @@
     </sheetIdMap>
   </header>
   <header guid="{ED9F8F4C-BAAF-4682-BB12-C3BF0D3F3A10}" dateTime="2018-07-09T13:42:00" maxSheetId="23" userName="itluser" r:id="rId398" minRId="1790">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C2D074B-9ADC-4960-B95A-11AE80C4657C}" dateTime="2018-07-11T10:22:49" maxSheetId="23" userName="ITL-USER" r:id="rId399" minRId="1791">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{72261B8C-09CD-415A-B650-35EB3BA8433C}" dateTime="2018-07-11T10:23:11" maxSheetId="23" userName="ITL-USER" r:id="rId400" minRId="1792">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{20E9D582-AA48-490B-8BD1-0749FB0EEB27}" dateTime="2018-07-11T10:54:38" maxSheetId="23" userName="ITL-USER" r:id="rId401" minRId="1793">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{04367A13-EDEA-4DFC-9F4C-D1F2409762C5}" dateTime="2018-07-11T11:24:48" maxSheetId="23" userName="ITL-USER" r:id="rId402" minRId="1794">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DCC07B76-D5B4-49DA-B2A8-4D769FE19810}" dateTime="2018-07-11T11:27:25" maxSheetId="23" userName="ITL-USER" r:id="rId403" minRId="1795" maxRId="1796">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1D765879-0DEE-4641-BAC4-84BCC9C133AF}" dateTime="2018-07-11T11:36:23" maxSheetId="23" userName="ITL-USER" r:id="rId404" minRId="1797" maxRId="1798">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD0BF686-023F-4528-96B2-4EB48739B68C}" dateTime="2018-07-11T11:40:52" maxSheetId="23" userName="ITL-USER" r:id="rId405" minRId="1799">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D6AD24ED-4EB1-4A61-81BC-9BDDBDB7D3E8}" dateTime="2018-07-11T12:08:08" maxSheetId="23" userName="ITL-USER" r:id="rId406" minRId="1800">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{92D7FD4F-08A8-47B5-AC33-7FE3C4171DE9}" dateTime="2018-07-11T12:10:45" maxSheetId="23" userName="ITL-USER" r:id="rId407" minRId="1801" maxRId="1803">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C5890B60-8C35-42AE-ACE9-15DB7EDAC299}" dateTime="2018-07-11T12:12:57" maxSheetId="23" userName="ITL-USER" r:id="rId408" minRId="1804">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0E69ACF8-2B16-4247-8C06-9D70CFA98F4C}" dateTime="2018-07-11T12:14:52" maxSheetId="23" userName="ITL-USER" r:id="rId409" minRId="1805">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFB66F86-F669-4993-A317-36C1ADE8A694}" dateTime="2018-07-11T12:17:06" maxSheetId="23" userName="ITL-USER" r:id="rId410" minRId="1806">
+    <sheetIdMap count="22">
+      <sheetId val="14"/>
+      <sheetId val="1"/>
+      <sheetId val="9"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="21"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="20"/>
+      <sheetId val="19"/>
+      <sheetId val="16"/>
+      <sheetId val="15"/>
+      <sheetId val="13"/>
+      <sheetId val="22"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FAC9DC0F-E60C-46F6-8B73-723449EBC3A7}" dateTime="2018-07-11T12:27:45" maxSheetId="23" userName="ITL-USER" r:id="rId411" minRId="1807">
     <sheetIdMap count="22">
       <sheetId val="14"/>
       <sheetId val="1"/>
@@ -25522,6 +25860,137 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog393.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1791" sId="2">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>EDIPartnerName</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>N4TradingPartnerName</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog394.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1792" sId="2">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>N4TradingPartnerName</t>
+      </is>
+    </oc>
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>EDITradingPartnerName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog395.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1793" sId="2">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>MailBoxName</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>EDIMailboxName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog396.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1794" sId="2">
+    <oc r="F1" t="inlineStr">
+      <is>
+        <t>SenderQualifier</t>
+      </is>
+    </oc>
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>EDISenderQualifier</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog397.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1795" sId="2">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>SenderID</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>EDISenderID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1796" sId="2">
+    <oc r="H1" t="inlineStr">
+      <is>
+        <t>ReceiveQualifier</t>
+      </is>
+    </oc>
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>EDIReceiverQualifier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog398.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1797" sId="2" ref="I1:I1048576" action="insertCol"/>
+  <rcc rId="1798" sId="2">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>EDIReceiverID</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog399.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1799" sId="2">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Directory</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>EDIDirectory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="860" sId="13">
@@ -25552,6 +26021,138 @@
   </rcc>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="delete"/>
   <rcv guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog400.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1800" sId="2">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>FTPAddress</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>EDICommunicationType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog401.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1801" sId="2">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>CommunicationType</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>EDICommunicationType</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1802" sId="2" ref="L1:L1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="L1:L1048576" start="0" length="0"/>
+    <rcc rId="0" sId="2">
+      <nc r="L1" t="inlineStr">
+        <is>
+          <t>EDICommunicationType</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="1803" sId="2">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>FTPUserID</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>EDIFTPUserID</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog402.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1804" sId="2">
+    <oc r="M1" t="inlineStr">
+      <is>
+        <t>FTPPassword</t>
+      </is>
+    </oc>
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>EDIFTPPassword</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog403.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1805" sId="2">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>ReenterFTPPassword</t>
+      </is>
+    </oc>
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>EDIRenterFTPPassword</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog404.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1806" sId="2">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>FTPFOlder</t>
+      </is>
+    </oc>
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>EDIFTPFolder</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog405.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1807" sId="2">
+    <oc r="Q1" t="inlineStr">
+      <is>
+        <t>EmailAddress</t>
+      </is>
+    </oc>
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>EDIEmailAddress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="delete"/>
+  <rcv guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" action="add"/>
 </revisions>
 </file>
 
@@ -27381,8 +27982,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="20">
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="21">
   <userInfo guid="{0FC3EEC7-1253-40C9-80FE-72015618EED8}" name="ITLAdmin" id="-2068730528" dateTime="2018-04-13T11:51:21"/>
   <userInfo guid="{A67DA2CD-5A32-48AB-8C17-215B95672A36}" name="itluser" id="-446795219" dateTime="2018-04-13T11:51:26"/>
   <userInfo guid="{44866337-4EB8-44FB-BDBC-D3FE257C9028}" name="ITLAdmin" id="-2068734883" dateTime="2018-04-26T11:22:09"/>
@@ -27403,6 +28004,7 @@
   <userInfo guid="{DCCF7D31-EB2E-4962-A2BC-0BA8BDB3EA47}" name="itluser" id="-446794865" dateTime="2018-06-29T14:13:37"/>
   <userInfo guid="{AE37B969-B9E8-407D-AD25-C9352A863F89}" name="ITL-USER" id="-1580083848" dateTime="2018-07-03T15:32:40"/>
   <userInfo guid="{EC309448-C732-4994-BB1E-7AF0F7B530FD}" name="ITL-USER" id="-1580110567" dateTime="2018-07-05T18:46:10"/>
+  <userInfo guid="{FAC9DC0F-E60C-46F6-8B73-723449EBC3A7}" name="ITL-USER" id="-1580075274" dateTime="2018-07-11T10:17:47"/>
 </users>
 </file>
 
@@ -27679,16 +28281,16 @@
   <sheetData>
     <row r="7" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}" state="hidden">
+    <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}" state="hidden">
       <selection activeCell="H18" sqref="H18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -27701,8 +28303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27722,147 +28324,146 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="G9" sqref="G9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6CC03DA8-51D3-44D9-9803-6B69FF56AB89}">
-      <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="G9" sqref="G9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27871,7 +28472,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27886,39 +28487,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E1" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F1" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="H1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>5</v>
@@ -27929,34 +28530,34 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
+      <selection activeCell="I3" sqref="I3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{084005ED-0756-4EF6-8351-F9B323091E9B}">
       <selection activeCell="B1" sqref="B1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{AE57F689-A611-481B-AACE-13E1C8730C10}">
-      <selection activeCell="I3" sqref="I3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -27969,7 +28570,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28012,33 +28613,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
@@ -28059,15 +28660,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>3</v>
@@ -28088,15 +28689,15 @@
         <v>15</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>3</v>
@@ -28117,15 +28718,15 @@
         <v>15</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>3</v>
@@ -28146,15 +28747,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -28175,15 +28776,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>3</v>
@@ -28204,15 +28805,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
@@ -28233,15 +28834,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>3</v>
@@ -28262,15 +28863,15 @@
         <v>15</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>3</v>
@@ -28291,28 +28892,28 @@
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
    